--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11DDCB49-53BF-0249-990B-1DD39F3D73FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8937309-326F-3D4D-A7C9-DA7D5FB57002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2540" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>21st Century Preparatory School</t>
   </si>
@@ -229,14 +229,21 @@
   </si>
   <si>
     <t>PPIN</t>
+  </si>
+  <si>
+    <t>NCES</t>
+  </si>
+  <si>
+    <t>District Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -307,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -321,6 +328,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,21 +648,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C62E933-5DF9-6143-AEAA-89AA45FFA9EF}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="30.5" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -669,14 +683,20 @@
         <v>60</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,12 +713,18 @@
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="5">
+      <c r="G2">
+        <v>8110</v>
+      </c>
+      <c r="H2" s="5">
         <v>100</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="9">
+        <v>550004502575</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,12 +739,18 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
+        <v>4620</v>
+      </c>
+      <c r="H3" s="6">
         <v>491</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="9">
+        <v>551236001621</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,12 +765,15 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
+        <v>4620</v>
+      </c>
+      <c r="H4" s="5">
         <v>1698</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,12 +790,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="5">
+      <c r="G5">
+        <v>4620</v>
+      </c>
+      <c r="H5" s="5">
         <v>441</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,15 +815,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="5">
+      <c r="G6">
+        <v>4620</v>
+      </c>
+      <c r="H6" s="5">
         <v>1681</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,12 +841,18 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="5">
+      <c r="G7">
+        <v>4620</v>
+      </c>
+      <c r="H7" s="5">
         <v>118</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="9">
+        <v>551236001611</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,12 +867,18 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5">
+      <c r="G8">
+        <v>4620</v>
+      </c>
+      <c r="H8" s="5">
         <v>121</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="9">
+        <v>551236001614</v>
+      </c>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,12 +895,18 @@
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="5">
+      <c r="G9">
+        <v>4620</v>
+      </c>
+      <c r="H9" s="5">
         <v>119</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="9">
+        <v>551236002311</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -864,12 +923,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="5">
+      <c r="G10">
+        <v>4620</v>
+      </c>
+      <c r="H10" s="5">
         <v>106</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="9">
+        <v>551236001608</v>
+      </c>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -884,12 +949,15 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="5">
+      <c r="G11">
+        <v>4620</v>
+      </c>
+      <c r="H11" s="5">
         <v>122</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -906,15 +974,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="5">
+      <c r="G12">
+        <v>4620</v>
+      </c>
+      <c r="H12" s="5">
         <v>1711</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -929,12 +1000,15 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
+        <v>4620</v>
+      </c>
+      <c r="H13" s="5">
         <v>492</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -949,12 +1023,18 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="5">
+      <c r="G14">
+        <v>4620</v>
+      </c>
+      <c r="H14" s="5">
         <v>130</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="9">
+        <v>551236001622</v>
+      </c>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -969,12 +1049,18 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="5">
+      <c r="G15">
+        <v>4620</v>
+      </c>
+      <c r="H15" s="5">
         <v>132</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="9">
+        <v>551236001623</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -991,12 +1077,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="5">
+      <c r="G16">
+        <v>4620</v>
+      </c>
+      <c r="H16" s="5">
         <v>314</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="9">
+        <v>551236001624</v>
+      </c>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1013,12 +1105,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="H17">
+      <c r="G17"/>
+      <c r="I17">
         <v>1507085</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1033,12 +1126,18 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="5">
+      <c r="G18">
+        <v>4620</v>
+      </c>
+      <c r="H18" s="5">
         <v>136</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="9">
+        <v>551236001626</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1053,12 +1152,18 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="5">
+      <c r="G19">
+        <v>4620</v>
+      </c>
+      <c r="H19" s="5">
         <v>111</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="9">
+        <v>551236001627</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1073,12 +1178,18 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="5">
+      <c r="G20">
+        <v>4620</v>
+      </c>
+      <c r="H20" s="5">
         <v>720</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="9">
+        <v>551236003337</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1093,12 +1204,18 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="5">
+      <c r="G21">
+        <v>4620</v>
+      </c>
+      <c r="H21" s="5">
         <v>138</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="9">
+        <v>551236001628</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1113,15 +1230,18 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22">
+        <v>4620</v>
+      </c>
+      <c r="H22" s="5">
         <v>2370</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1512696</v>
       </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1138,12 +1258,18 @@
         <v>1</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="5">
+      <c r="G23">
+        <v>4620</v>
+      </c>
+      <c r="H23" s="5">
         <v>148</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="9">
+        <v>551236001632</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1158,12 +1284,18 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="5">
+      <c r="G24">
+        <v>4620</v>
+      </c>
+      <c r="H24" s="5">
         <v>150</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="9">
+        <v>551236001634</v>
+      </c>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1178,12 +1310,18 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="5">
+      <c r="G25">
+        <v>4620</v>
+      </c>
+      <c r="H25" s="5">
         <v>112</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="9">
+        <v>551236001605</v>
+      </c>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1200,12 +1338,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="H26" t="s">
+      <c r="G26"/>
+      <c r="I26" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1220,12 +1359,18 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
+        <v>4620</v>
+      </c>
+      <c r="H27" s="5">
         <v>494</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="9">
+        <v>551236001635</v>
+      </c>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1240,9 +1385,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1257,9 +1403,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1274,9 +1421,10 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G30"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1295,9 +1443,13 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G31"/>
+      <c r="J31" s="9">
+        <v>551236003045</v>
+      </c>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1314,15 +1466,18 @@
         <v>1</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="5">
+      <c r="G32">
+        <v>4620</v>
+      </c>
+      <c r="H32" s="5">
         <v>2360</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1513215</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1337,9 +1492,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G33"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1356,12 +1512,13 @@
         <v>1</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="H34">
+      <c r="G34"/>
+      <c r="I34">
         <v>1511295</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1376,12 +1533,18 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="5">
+      <c r="G35">
+        <v>4620</v>
+      </c>
+      <c r="H35" s="5">
         <v>174</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="9">
+        <v>551236001636</v>
+      </c>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1398,11 +1561,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="5">
+      <c r="G36">
+        <v>4620</v>
+      </c>
+      <c r="H36" s="5">
         <v>1619</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1417,11 +1584,18 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="5">
+      <c r="G37">
+        <v>4620</v>
+      </c>
+      <c r="H37" s="5">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="9">
+        <v>551236001637</v>
+      </c>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1436,11 +1610,18 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="5">
+      <c r="G38">
+        <v>4620</v>
+      </c>
+      <c r="H38" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="9">
+        <v>551236003044</v>
+      </c>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1457,11 +1638,13 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="G39"/>
+      <c r="I39">
         <v>1507096</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1478,8 +1661,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -1496,11 +1681,13 @@
         <v>1</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="H41">
+      <c r="G41"/>
+      <c r="I41">
         <v>1507755</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1517,11 +1704,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="H42">
+      <c r="G42"/>
+      <c r="I42">
         <v>1506525</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1536,11 +1725,18 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="5">
+      <c r="G43">
+        <v>4620</v>
+      </c>
+      <c r="H43" s="5">
         <v>166</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="9">
+        <v>551236001638</v>
+      </c>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1555,11 +1751,15 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="5">
+      <c r="G44">
+        <v>4620</v>
+      </c>
+      <c r="H44" s="5">
         <v>1750</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1574,11 +1774,18 @@
         <v>1</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="5">
+      <c r="G45">
+        <v>4620</v>
+      </c>
+      <c r="H45" s="5">
         <v>288</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="9">
+        <v>551236001639</v>
+      </c>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1595,11 +1802,18 @@
       <c r="F46" s="2">
         <v>1</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46">
+        <v>4620</v>
+      </c>
+      <c r="H46" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="9">
+        <v>551236002471</v>
+      </c>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1616,14 +1830,18 @@
         <v>1</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="5">
+      <c r="G47">
+        <v>4620</v>
+      </c>
+      <c r="H47" s="5">
         <v>8540</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1511433</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1638,11 +1856,18 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="5">
+      <c r="G48">
+        <v>4620</v>
+      </c>
+      <c r="H48" s="5">
         <v>162</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48" s="9">
+        <v>551236001642</v>
+      </c>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1659,11 +1884,18 @@
       <c r="F49" s="2">
         <v>1</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49">
+        <v>4620</v>
+      </c>
+      <c r="H49" s="5">
         <v>499</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J49" s="9">
+        <v>551236001644</v>
+      </c>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1678,11 +1910,18 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="5">
+      <c r="G50">
+        <v>4620</v>
+      </c>
+      <c r="H50" s="5">
         <v>164</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J50" s="9">
+        <v>551236001646</v>
+      </c>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1699,16 +1938,51 @@
         <v>1</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="5">
+      <c r="G51">
+        <v>4620</v>
+      </c>
+      <c r="H51" s="5">
         <v>8722</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1513496</v>
       </c>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="G52"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G53"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G54"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G60"/>
     </row>
   </sheetData>
-  <sortState ref="L3:M16">
-    <sortCondition ref="M3:M16"/>
+  <sortState ref="L2:N54">
+    <sortCondition ref="L2:L54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8937309-326F-3D4D-A7C9-DA7D5FB57002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78721161-0774-3D41-9413-7A5F7E515DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2540" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
+    <workbookView xWindow="6360" yWindow="2780" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
   </bookViews>
   <sheets>
     <sheet name="racine-schools-directory" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -314,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -334,6 +335,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,14 +655,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C62E933-5DF9-6143-AEAA-89AA45FFA9EF}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="7" max="8" width="13.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="12"/>
     <col min="10" max="10" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
@@ -688,7 +694,7 @@
       <c r="H1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>65</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -821,7 +827,7 @@
       <c r="H6" s="5">
         <v>1681</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="12" t="s">
         <v>62</v>
       </c>
       <c r="N6" s="7"/>
@@ -980,7 +986,7 @@
       <c r="H12" s="5">
         <v>1711</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="12" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="7"/>
@@ -1106,7 +1112,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17"/>
-      <c r="I17">
+      <c r="I17" s="12">
         <v>1507085</v>
       </c>
       <c r="N17" s="7"/>
@@ -1236,7 +1242,7 @@
       <c r="H22" s="5">
         <v>2370</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="12">
         <v>1512696</v>
       </c>
       <c r="N22" s="7"/>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26"/>
-      <c r="I26" t="s">
+      <c r="I26" s="12" t="s">
         <v>64</v>
       </c>
       <c r="N26" s="7"/>
@@ -1472,7 +1478,7 @@
       <c r="H32" s="5">
         <v>2360</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="12">
         <v>1513215</v>
       </c>
       <c r="N32" s="7"/>
@@ -1513,7 +1519,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34"/>
-      <c r="I34">
+      <c r="I34" s="12">
         <v>1511295</v>
       </c>
       <c r="N34" s="7"/>
@@ -1639,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="G39"/>
-      <c r="I39">
+      <c r="I39" s="12">
         <v>1507096</v>
       </c>
       <c r="N39" s="7"/>
@@ -1682,7 +1688,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41"/>
-      <c r="I41">
+      <c r="I41" s="12">
         <v>1507755</v>
       </c>
       <c r="N41" s="7"/>
@@ -1705,7 +1711,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42"/>
-      <c r="I42">
+      <c r="I42" s="12">
         <v>1506525</v>
       </c>
       <c r="N42" s="7"/>
@@ -1836,7 +1842,7 @@
       <c r="H47" s="5">
         <v>8540</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="12">
         <v>1511433</v>
       </c>
       <c r="N47" s="7"/>
@@ -1944,7 +1950,7 @@
       <c r="H51" s="5">
         <v>8722</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="12">
         <v>1513496</v>
       </c>
       <c r="N51" s="7"/>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78721161-0774-3D41-9413-7A5F7E515DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D00F3-08A4-4C46-BC9E-32792CF1EA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2780" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>21st Century Preparatory School</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>District Code</t>
+  </si>
+  <si>
+    <t>Small World Montessori</t>
+  </si>
+  <si>
+    <t>K9306402</t>
+  </si>
+  <si>
+    <t>St John's Lutheran School</t>
   </si>
 </sst>
 </file>
@@ -315,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -339,6 +348,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C62E933-5DF9-6143-AEAA-89AA45FFA9EF}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1956,12 +1968,44 @@
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
       <c r="G52"/>
+      <c r="I52" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="13">
+        <v>8</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
       <c r="G53"/>
+      <c r="I53" s="12">
+        <v>1511444</v>
+      </c>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D00F3-08A4-4C46-BC9E-32792CF1EA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809F50E-B417-9A48-BF03-3592C8ADCD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2780" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
   </bookViews>
   <sheets>
     <sheet name="racine-schools-directory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>21st Century Preparatory School</t>
   </si>
@@ -120,15 +120,6 @@
     <t>Park High School</t>
   </si>
   <si>
-    <t>Prairie School Middle</t>
-  </si>
-  <si>
-    <t>Prairie School Primary</t>
-  </si>
-  <si>
-    <t>Prairie School Upper</t>
-  </si>
-  <si>
     <t>Racine Alternative Learning</t>
   </si>
   <si>
@@ -243,7 +234,16 @@
     <t>K9306402</t>
   </si>
   <si>
-    <t>St John's Lutheran School</t>
+    <t>Prairie School</t>
+  </si>
+  <si>
+    <t>Bull Early Education Center</t>
+  </si>
+  <si>
+    <t>Saint John's Lutheran School</t>
+  </si>
+  <si>
+    <t>Siena Catholic Schools of Racine</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -349,6 +349,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C62E933-5DF9-6143-AEAA-89AA45FFA9EF}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,34 +686,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N1" s="7"/>
     </row>
@@ -744,36 +747,33 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4620</v>
-      </c>
-      <c r="H3" s="6">
-        <v>491</v>
-      </c>
-      <c r="J3" s="9">
-        <v>551236001621</v>
-      </c>
-      <c r="N3" s="7"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>4620</v>
+      </c>
+      <c r="H3" s="5">
+        <v>114</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
@@ -786,39 +786,40 @@
       <c r="G4">
         <v>4620</v>
       </c>
-      <c r="H4" s="5">
-        <v>1698</v>
+      <c r="H4" s="6">
+        <v>491</v>
+      </c>
+      <c r="J4" s="9">
+        <v>551236001621</v>
       </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5">
         <v>4620</v>
       </c>
       <c r="H5" s="5">
-        <v>441</v>
+        <v>1698</v>
       </c>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -837,42 +838,41 @@
         <v>4620</v>
       </c>
       <c r="H6" s="5">
-        <v>1681</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7">
         <v>4620</v>
       </c>
       <c r="H7" s="5">
-        <v>118</v>
-      </c>
-      <c r="J7" s="9">
-        <v>551236001611</v>
+        <v>1681</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -889,47 +889,45 @@
         <v>4620</v>
       </c>
       <c r="H8" s="5">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J8" s="9">
-        <v>551236001614</v>
+        <v>551236001611</v>
       </c>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9">
         <v>4620</v>
       </c>
       <c r="H9" s="5">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J9" s="9">
-        <v>551236002311</v>
+        <v>551236001614</v>
       </c>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
@@ -945,119 +943,121 @@
         <v>4620</v>
       </c>
       <c r="H10" s="5">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J10" s="9">
-        <v>551236001608</v>
+        <v>551236002311</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11">
         <v>4620</v>
       </c>
       <c r="H11" s="5">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="J11" s="9">
+        <v>551236001608</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12">
         <v>4620</v>
       </c>
       <c r="H12" s="5">
-        <v>1711</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13">
         <v>4620</v>
       </c>
       <c r="H13" s="5">
-        <v>492</v>
+        <v>1711</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
       <c r="G14">
         <v>4620</v>
       </c>
       <c r="H14" s="5">
-        <v>130</v>
-      </c>
-      <c r="J14" s="9">
-        <v>551236001622</v>
+        <v>492</v>
       </c>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -1071,44 +1071,42 @@
         <v>4620</v>
       </c>
       <c r="H15" s="5">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J15" s="9">
-        <v>551236001623</v>
+        <v>551236001622</v>
       </c>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16">
         <v>4620</v>
       </c>
       <c r="H16" s="5">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="J16" s="9">
-        <v>551236001624</v>
+        <v>551236001623</v>
       </c>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -1123,41 +1121,43 @@
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17"/>
-      <c r="I17" s="12">
-        <v>1507085</v>
+      <c r="G17">
+        <v>4620</v>
+      </c>
+      <c r="H17" s="5">
+        <v>314</v>
+      </c>
+      <c r="J17" s="9">
+        <v>551236001624</v>
       </c>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18">
-        <v>4620</v>
-      </c>
-      <c r="H18" s="5">
-        <v>136</v>
-      </c>
-      <c r="J18" s="9">
-        <v>551236001626</v>
+      <c r="G18"/>
+      <c r="I18" s="12">
+        <v>1507085</v>
       </c>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -1174,16 +1174,16 @@
         <v>4620</v>
       </c>
       <c r="H19" s="5">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="J19" s="9">
-        <v>551236001627</v>
+        <v>551236001626</v>
       </c>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -1200,16 +1200,16 @@
         <v>4620</v>
       </c>
       <c r="H20" s="5">
-        <v>720</v>
+        <v>111</v>
       </c>
       <c r="J20" s="9">
-        <v>551236003337</v>
+        <v>551236001627</v>
       </c>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1226,96 +1226,96 @@
         <v>4620</v>
       </c>
       <c r="H21" s="5">
-        <v>138</v>
+        <v>720</v>
       </c>
       <c r="J21" s="9">
-        <v>551236001628</v>
+        <v>551236003337</v>
       </c>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22">
         <v>4620</v>
       </c>
       <c r="H22" s="5">
-        <v>2370</v>
-      </c>
-      <c r="I22" s="12">
-        <v>1512696</v>
+        <v>138</v>
+      </c>
+      <c r="J22" s="9">
+        <v>551236001628</v>
       </c>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
       <c r="G23">
         <v>4620</v>
       </c>
       <c r="H23" s="5">
-        <v>148</v>
-      </c>
-      <c r="J23" s="9">
-        <v>551236001632</v>
+        <v>2370</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1512696</v>
       </c>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24">
         <v>4620</v>
       </c>
       <c r="H24" s="5">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" s="9">
-        <v>551236001634</v>
+        <v>551236001632</v>
       </c>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -1332,125 +1332,154 @@
         <v>4620</v>
       </c>
       <c r="H25" s="5">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="J25" s="9">
-        <v>551236001605</v>
+        <v>551236001634</v>
       </c>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26"/>
-      <c r="I26" s="12" t="s">
-        <v>64</v>
+      <c r="G26">
+        <v>4620</v>
+      </c>
+      <c r="H26" s="5">
+        <v>112</v>
+      </c>
+      <c r="J26" s="9">
+        <v>551236001605</v>
       </c>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>4620</v>
-      </c>
-      <c r="H27" s="5">
-        <v>494</v>
-      </c>
-      <c r="J27" s="9">
-        <v>551236001635</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27"/>
+      <c r="I27" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4620</v>
+      </c>
+      <c r="H28" s="5">
+        <v>494</v>
+      </c>
+      <c r="J28" s="9">
+        <v>551236001635</v>
+      </c>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4620</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2317</v>
+      </c>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C30" s="2">
         <v>12</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30"/>
+      <c r="G30" s="13">
+        <v>4620</v>
+      </c>
+      <c r="H30" s="5">
+        <v>801</v>
+      </c>
+      <c r="J30" s="9">
+        <v>551236003045</v>
+      </c>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1458,138 +1487,139 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31"/>
-      <c r="J31" s="9">
-        <v>551236003045</v>
+      <c r="F31" s="2"/>
+      <c r="G31">
+        <v>4620</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2360</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1513215</v>
       </c>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32">
-        <v>4620</v>
-      </c>
-      <c r="H32" s="5">
-        <v>2360</v>
-      </c>
-      <c r="I32" s="12">
-        <v>1513215</v>
-      </c>
+      <c r="G32"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
+      <c r="C33" s="2">
+        <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33"/>
+      <c r="I33" s="12">
+        <v>1511295</v>
+      </c>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34"/>
-      <c r="I34" s="12">
-        <v>1511295</v>
+      <c r="G34">
+        <v>4620</v>
+      </c>
+      <c r="H34" s="5">
+        <v>174</v>
+      </c>
+      <c r="J34" s="9">
+        <v>551236001636</v>
       </c>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35">
         <v>4620</v>
       </c>
       <c r="H35" s="5">
-        <v>174</v>
-      </c>
-      <c r="J35" s="9">
-        <v>551236001636</v>
+        <v>1619</v>
       </c>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36">
         <v>4620</v>
       </c>
       <c r="H36" s="5">
-        <v>1619</v>
+        <v>154</v>
+      </c>
+      <c r="J36" s="9">
+        <v>551236001637</v>
       </c>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -1606,68 +1636,65 @@
         <v>4620</v>
       </c>
       <c r="H37" s="5">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="J37" s="9">
-        <v>551236001637</v>
+        <v>551236003044</v>
       </c>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38">
-        <v>4620</v>
-      </c>
-      <c r="H38" s="5">
-        <v>101</v>
-      </c>
-      <c r="J38" s="9">
-        <v>551236003044</v>
+        <v>12</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38"/>
+      <c r="I38" s="12">
+        <v>1507096</v>
       </c>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C39" s="2">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="12">
-        <v>1507096</v>
-      </c>
-      <c r="N39" s="7"/>
+        <v>1511444</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2">
         <v>8</v>
@@ -1684,10 +1711,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
@@ -1707,7 +1734,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>10</v>
@@ -1730,7 +1757,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -1756,94 +1783,88 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44">
-        <v>4620</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1750</v>
-      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4620</v>
+      </c>
+      <c r="H44">
+        <v>3430</v>
+      </c>
+      <c r="I44" s="2"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="2">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45">
-        <v>4620</v>
-      </c>
-      <c r="H45" s="5">
-        <v>288</v>
-      </c>
-      <c r="J45" s="9">
-        <v>551236001639</v>
+      <c r="A45" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="G45"/>
+      <c r="I45" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="2">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
       <c r="G46">
         <v>4620</v>
       </c>
       <c r="H46" s="5">
-        <v>800</v>
+        <v>1750</v>
       </c>
       <c r="J46" s="9">
-        <v>551236002471</v>
+        <v>551236001639</v>
       </c>
       <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6</v>
       </c>
       <c r="C47" s="2">
         <v>8</v>
       </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2">
         <v>1</v>
       </c>
@@ -1852,70 +1873,72 @@
         <v>4620</v>
       </c>
       <c r="H47" s="5">
-        <v>8540</v>
-      </c>
-      <c r="I47" s="12">
-        <v>1511433</v>
+        <v>288</v>
+      </c>
+      <c r="J47" s="9">
+        <v>551236002471</v>
       </c>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
       </c>
       <c r="C48" s="2">
-        <v>5</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
       <c r="G48">
         <v>4620</v>
       </c>
       <c r="H48" s="5">
-        <v>162</v>
-      </c>
-      <c r="J48" s="9">
-        <v>551236001642</v>
+        <v>800</v>
       </c>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
+      <c r="F49" s="2"/>
       <c r="G49">
         <v>4620</v>
       </c>
       <c r="H49" s="5">
-        <v>499</v>
+        <v>8540</v>
+      </c>
+      <c r="I49" s="12">
+        <v>1511433</v>
       </c>
       <c r="J49" s="9">
-        <v>551236001644</v>
+        <v>551236001642</v>
       </c>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -1932,85 +1955,94 @@
         <v>4620</v>
       </c>
       <c r="H50" s="5">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J50" s="9">
-        <v>551236001646</v>
+        <v>551236001644</v>
       </c>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>6</v>
       </c>
       <c r="C51" s="2">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>4620</v>
+      </c>
+      <c r="H51" s="5">
+        <v>499</v>
+      </c>
+      <c r="J51" s="9">
+        <v>551236001646</v>
+      </c>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52">
+        <v>4620</v>
+      </c>
+      <c r="H52" s="5">
+        <v>164</v>
+      </c>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
         <v>8</v>
       </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51">
-        <v>4620</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53">
+        <v>4620</v>
+      </c>
+      <c r="H53" s="5">
         <v>8722</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I53" s="12">
         <v>1513496</v>
-      </c>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52"/>
-      <c r="I52" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="13">
-        <v>8</v>
-      </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="G53"/>
-      <c r="I53" s="12">
-        <v>1511444</v>
       </c>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G54"/>
-      <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G55"/>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809F50E-B417-9A48-BF03-3592C8ADCD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C852435-411F-AC4A-BE42-02EBE19ADFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2780" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
+    <workbookView xWindow="5440" yWindow="2520" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
   </bookViews>
   <sheets>
     <sheet name="racine-schools-directory" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C62E933-5DF9-6143-AEAA-89AA45FFA9EF}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1807,6 +1807,9 @@
         <v>3430</v>
       </c>
       <c r="I44" s="2"/>
+      <c r="J44" s="9">
+        <v>551236001620</v>
+      </c>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C852435-411F-AC4A-BE42-02EBE19ADFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0050D6AC-DA74-D04F-BE35-0C31D0FB5424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5440" yWindow="2520" windowWidth="27240" windowHeight="16440" xr2:uid="{1F989F6B-AFCF-AF42-9D0E-3D35A3A081C6}"/>
   </bookViews>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C62E933-5DF9-6143-AEAA-89AA45FFA9EF}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,6 +1050,9 @@
       <c r="H14" s="5">
         <v>492</v>
       </c>
+      <c r="J14" s="9">
+        <v>551236001620</v>
+      </c>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1807,9 +1810,6 @@
         <v>3430</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="9">
-        <v>551236001620</v>
-      </c>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7091C9FF-A181-D848-A643-FBB1B09EE036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F610FE7F-AB89-8043-A510-381D40B628D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1338,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F610FE7F-AB89-8043-A510-381D40B628D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B9655E-619D-9043-8E4D-080A31F0343A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>https://racineschools.s3.amazonaws.com/logos-scaled/case.jpg</t>
-  </si>
-  <si>
     <t>J. I. Case High School</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Percent Choice Students</t>
+  </si>
+  <si>
+    <t>https://racineschools.s3.amazonaws.com/logos-scaled/Case.jpg</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1361,7 @@
     <col min="24" max="24" width="12.1640625" customWidth="1"/>
     <col min="25" max="25" width="25.83203125" customWidth="1"/>
     <col min="26" max="26" width="17.5" customWidth="1"/>
-    <col min="27" max="27" width="20.5" customWidth="1"/>
+    <col min="27" max="27" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>91</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X1" s="20" t="s">
         <v>93</v>
@@ -1442,7 +1442,7 @@
         <v>80</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3">
         <v>9</v>
@@ -1550,7 +1550,7 @@
         <v>551236001621</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>84</v>
@@ -1571,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="W4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X4">
         <v>1783</v>
@@ -3357,9 +3357,10 @@
   <hyperlinks>
     <hyperlink ref="S4" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{8A3D168E-4378-EF41-821E-9AF64F46FAA1}"/>
     <hyperlink ref="U4" r:id="rId2" xr:uid="{950D3542-F4D4-3449-B1ED-CDF7D7D5A445}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{1ED7DA9C-ABE2-3240-A58B-12F65CDF3D22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B9655E-619D-9043-8E4D-080A31F0343A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36D9E16-FA6F-884B-8865-8E98942EF153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31020" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All schools" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="470">
   <si>
     <t>name</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Report2</t>
   </si>
   <si>
-    <t>https://racineschools.s3.amazonaws.com/report-cards/Case_High_2018-19.PDF</t>
-  </si>
-  <si>
     <t>Num Students</t>
   </si>
   <si>
@@ -329,13 +326,1139 @@
     <t>Affiliation</t>
   </si>
   <si>
-    <t>Racine Unified</t>
-  </si>
-  <si>
     <t>Percent Choice Students</t>
   </si>
   <si>
-    <t>https://racineschools.s3.amazonaws.com/logos-scaled/Case.jpg</t>
+    <t>1220 Mound Ave.</t>
+  </si>
+  <si>
+    <t>Racine, WI 53404</t>
+  </si>
+  <si>
+    <t>(262) 598-0026</t>
+  </si>
+  <si>
+    <t>https://www.21stprepschool.org/</t>
+  </si>
+  <si>
+    <t>21st Century prepares diverse children for access to the full array of life choices, including college and careers that develop their leadership competency. We take individual differences seriously and craft practices that serve each child equally well. We mold our future leaders through selfless caring for their success.</t>
+  </si>
+  <si>
+    <t>815 DeKoven Avenue</t>
+  </si>
+  <si>
+    <t>Racine, WI 53403</t>
+  </si>
+  <si>
+    <t>(262) 664-8200</t>
+  </si>
+  <si>
+    <t>www.rusd.org/beec</t>
+  </si>
+  <si>
+    <t>Bull Early Education (BEE) specializes in developmentally appropriate practice for 3- and 4-year-old children. We differentiate student instruction so that the play-based inquiry time engages students throughout their day. Self-regulation is the number one skill children need to be prepared for 5-Year-Old Kindergarten. BEE Center staff focuses on this by utilizing the research-based best practices in the Pyramid Model.</t>
+  </si>
+  <si>
+    <t>1437 Marquette St.</t>
+  </si>
+  <si>
+    <t>(262)880-4811</t>
+  </si>
+  <si>
+    <t>http://www.greatlakesccc.org/</t>
+  </si>
+  <si>
+    <t>CERT School prepares students to lead in emergency situations with the skills and knowledge that will protect the lives of those whom they care about most. Throughout the process, young adults who previously left or had been pushed out of a traditional school system without a diploma learn a wide range of occupations and acquire middle-skill credentials to perform a variety of duties.</t>
+  </si>
+  <si>
+    <t>Public, Independent charter school</t>
+  </si>
+  <si>
+    <t>STEM, gifted and talented</t>
+  </si>
+  <si>
+    <t>Public, Racine Unified</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>Kindergarten readiness, special education, Dual-language, Parent-Child Oriented Classroom ((P-COC)</t>
+  </si>
+  <si>
+    <t>Private, Independent</t>
+  </si>
+  <si>
+    <t>Industry certifications, licenses and credentials for high-demand occupations</t>
+  </si>
+  <si>
+    <t>8500 Durand Avenue</t>
+  </si>
+  <si>
+    <t>Sturtevant, WI 53177</t>
+  </si>
+  <si>
+    <t>262-884-0991</t>
+  </si>
+  <si>
+    <t>http://www.concordialutheranschool.net/</t>
+  </si>
+  <si>
+    <t>Concordia Lutheran School exists for the purpose of “Bringing Christ and excellence in academics to our children for life and forever.”</t>
+  </si>
+  <si>
+    <t>Private, Lutheran – Missouri Synod</t>
+  </si>
+  <si>
+    <t>Academic, Religious</t>
+  </si>
+  <si>
+    <t>(262) 456-1079</t>
+  </si>
+  <si>
+    <t>www.evergreen.k12.wi.us</t>
+  </si>
+  <si>
+    <t>Each child will be known, valued, challenged, and each day will be in an environment of happiness, joy, and excitement that will generate within them a desire to come to school each day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private, Independent </t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>3501 Kinzie Ave</t>
+  </si>
+  <si>
+    <t>Racine, WI 53405</t>
+  </si>
+  <si>
+    <t>(262) 664-8150</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/fratt</t>
+  </si>
+  <si>
+    <t>Provide a variety of academic and educational experiences that promote student growth and learning throughout the year.</t>
+  </si>
+  <si>
+    <t>5120 Byrd Ave</t>
+  </si>
+  <si>
+    <t>(262) 664-8250</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/giese</t>
+  </si>
+  <si>
+    <t>Provide a nurturing climate of high expectations that foster student mastery of the learning goals and objectives defined in the District's curriculum.</t>
+  </si>
+  <si>
+    <t>8332 Northwestern Ave</t>
+  </si>
+  <si>
+    <t>(262) 619-4550</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/gifford</t>
+  </si>
+  <si>
+    <t>Provide a positive school climate/culture in order to achieve academic success.</t>
+  </si>
+  <si>
+    <t>2330 Northwestern Ave</t>
+  </si>
+  <si>
+    <t>(262) 664-6800</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/gilmore</t>
+  </si>
+  <si>
+    <t>Provide rich learning experiences to help students and their parents have a positive experience in the program</t>
+  </si>
+  <si>
+    <t>Academic, Fine Arts</t>
+  </si>
+  <si>
+    <t>3502 Douglas Avenue</t>
+  </si>
+  <si>
+    <t>Racine, WI 53402</t>
+  </si>
+  <si>
+    <t>(262) 800-9021</t>
+  </si>
+  <si>
+    <t>https://hopeschools.org/</t>
+  </si>
+  <si>
+    <t>HOPE’s mission has included the same three pillars since the beginning: 1) deliver excellent academics, 2) create the opportunity for strong character formation, and 3) share Christ with our scholars to support them in building an ongoing, deepening relationship with Him. This three-fold mission has been refined and is now simply stated by our team as “Christ. College. Character.® for all.”</t>
+  </si>
+  <si>
+    <t>Private, Religious</t>
+  </si>
+  <si>
+    <t>2119 Rapids Drive</t>
+  </si>
+  <si>
+    <t>(262) 619-4300</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/horlick</t>
+  </si>
+  <si>
+    <t>William Horlick High School will develop college and career ready students in a diverse learning community by fostering a culture of Respect, Rigor, Relevance, and Relationships.</t>
+  </si>
+  <si>
+    <t>Academic, RUSD Academies</t>
+  </si>
+  <si>
+    <t>1425 N. Wisconsin St.</t>
+  </si>
+  <si>
+    <t>(262) 664-6550</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/janes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To provide Janes students with the most meaningful learning experiences and to support them as they navigate a rigorous and authentic curriculum. </t>
+  </si>
+  <si>
+    <t>Academic, Dual Language</t>
+  </si>
+  <si>
+    <t>1722 West Sixth Street</t>
+  </si>
+  <si>
+    <t>(262) 664-6900</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/jefferson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our mission at Jefferson is to have “internationally-minded learners inquire, collaborate, and take action.” The IB Primary Years Programme is a rigorous program that strives for all students to be: inquirers, knowledgeable, thinkers, communicators, principled, open-minded, caring, risk-takers, balanced, and reflective. In addition, the IB focuses on a transdisciplinary approach, connecting all content areas together, and understanding how they work in local and global contexts. </t>
+  </si>
+  <si>
+    <t>International Baccalaureate (IB)</t>
+  </si>
+  <si>
+    <t>3535 LaSalle St.</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/jams</t>
+  </si>
+  <si>
+    <t>(262) 664-6050</t>
+  </si>
+  <si>
+    <t>Through the fantastic programs, amazing faculty and staff and community partners, Jerstad-Agerholm students are put in a position to be 21st century leaders in the Racine community and beyond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 Northwestern Ave </t>
+  </si>
+  <si>
+    <t>(262) 637-2012</t>
+  </si>
+  <si>
+    <t>http://jp2aracine.org/</t>
+  </si>
+  <si>
+    <t>Believe, Grow, Achieve</t>
+  </si>
+  <si>
+    <t>Private, Catholic, Siena Schools</t>
+  </si>
+  <si>
+    <t>2420 Kentucky St.</t>
+  </si>
+  <si>
+    <t>(262) 664-6950</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/johnson</t>
+  </si>
+  <si>
+    <t>SCJ values and embraces the uniqueness of every child. Therefore, SCJ uses a collaborative effort with all stakeholders to promote the growth of the whole child. All students are provided the opportunity to be active members in their global community.</t>
+  </si>
+  <si>
+    <t>3300 Chicory Rd.</t>
+  </si>
+  <si>
+    <t>(262) 664-8050</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/drjones</t>
+  </si>
+  <si>
+    <t>Be a collaborative professional learning community committed to maximizing every child’s full potential through continuous improvement.</t>
+  </si>
+  <si>
+    <t>930 Martin Luther King Dr.</t>
+  </si>
+  <si>
+    <t>(262) 664-8400</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/julianthomas</t>
+  </si>
+  <si>
+    <t>Help students take responsibility for their learning and education. The Julian Thomas staff works endlessly to meet the social, emotional and educational needs of all students.</t>
+  </si>
+  <si>
+    <t>Academic, Community School</t>
+  </si>
+  <si>
+    <t>2701 17th Street</t>
+  </si>
+  <si>
+    <t>(262) 664-8000</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/knapp</t>
+  </si>
+  <si>
+    <t>Through the combined efforts of the Racine Unified School District, United Way of Racine County, and the community members of Greater Racine, we will strategically combine high quality instructional practices with accessible services, and key partnerships to ensure every family and every child is afforded an equitable opportunity at goal attainment. We believe these concerted efforts will improve the culture and climate of our school and neighborhood and have a positive, lasting impact on our students' overall academic outcomes</t>
+  </si>
+  <si>
+    <t>2701 Drexel Avenue</t>
+  </si>
+  <si>
+    <t>(262) 664-6400</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/mitchell-ms</t>
+  </si>
+  <si>
+    <t>The middle school side focuses on preparing students for high school, stressing the core subjects of math, reading, social studies, and science while providing many opportunities to explore their interests through elective classes, clubs, and after school programming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic, STEAM (Science, Technology, Engineering, Allied Arts and Math) </t>
+  </si>
+  <si>
+    <t>4748 Elizabeth St.</t>
+  </si>
+  <si>
+    <t>(262) 664-6450</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/northpark</t>
+  </si>
+  <si>
+    <t>North Park's school community models the importance of literacy and respect for the environment in building a better world one student at a time. At North Park, we believe that an effective school develops the skills and talents of every student to his or her fullest potential.</t>
+  </si>
+  <si>
+    <t>2115 5 1/2 Mile Rd.</t>
+  </si>
+  <si>
+    <t>(262) 664-6650</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/olympiabrown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educating Every Student to Succeed-- all students will graduate career and/or college ready. </t>
+  </si>
+  <si>
+    <t>1435 Grove Avenue</t>
+  </si>
+  <si>
+    <t>(262) 833-7100</t>
+  </si>
+  <si>
+    <t>We live the Catholic values of trust, respect, dignity, and forgiveness. We educate and form children to see through the eyes of Christ, embracing faith, hope, and love.</t>
+  </si>
+  <si>
+    <t>191*</t>
+  </si>
+  <si>
+    <t>1901 12th Street</t>
+  </si>
+  <si>
+    <t>(262) 619-4400</t>
+  </si>
+  <si>
+    <t>www.rusd.org/park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park is known for its rich tradition of excellence in academics, sports and activities… Its ultimate goal is to have classrooms where students and staff can live and learn in a climate of mutual respect. Further, it will strive to promote an environment where all can take pride in their ethnic and racial heritage. Such goals of respect and understanding have value for development of the greater society in which we all live. </t>
+  </si>
+  <si>
+    <t>74.9*</t>
+  </si>
+  <si>
+    <t>174*</t>
+  </si>
+  <si>
+    <t>76.4*</t>
+  </si>
+  <si>
+    <t>4050 Lighthouse Drive</t>
+  </si>
+  <si>
+    <t>( 262) 752-2500</t>
+  </si>
+  <si>
+    <t>www.prairieschool.com</t>
+  </si>
+  <si>
+    <t>The Prairie School nurtures the creativity, interests and abilities of every student, inspiring each to explore, thrive, and add value individually and in collaboration with others. Our community of students, faculty, and families works together to create a collaborative and supportive culture grounded in human values – celebrating both our differences and commonalities.  Prairie graduates are prepared for college and life with the desire and skills to make the world a better place.</t>
+  </si>
+  <si>
+    <t>2333 Northwestern Avenue</t>
+  </si>
+  <si>
+    <t>(262) 664-6600</t>
+  </si>
+  <si>
+    <t>www.rusd.org/alternative-education</t>
+  </si>
+  <si>
+    <t>Our mission is to provide alternative pathways for students to meet their graduation requirements through personalized and blended learning. Our vision is that students will acquire the skills to be college and career ready and demonstrate the knowledge, skills and values required to be productive global citizens.</t>
+  </si>
+  <si>
+    <t>Academic, Credit Recovery, High School Alternatives, Special Education</t>
+  </si>
+  <si>
+    <t>912 Virginia Street</t>
+  </si>
+  <si>
+    <t>(262) 634-0961</t>
+  </si>
+  <si>
+    <t>www.racinechristianschool.com</t>
+  </si>
+  <si>
+    <t>The Racine Christian School exists to glorify God by providing a Christ-centered education for its students. This education is based upon the infallible Word of God interpreted in conjunction with the confessional statements of the Reformed Churches.</t>
+  </si>
+  <si>
+    <t>www.ologa.org</t>
+  </si>
+  <si>
+    <t>Private, Religious, Christian Schools International</t>
+  </si>
+  <si>
+    <t>251 Luedtke Avenue</t>
+  </si>
+  <si>
+    <t>(262) 637-6538</t>
+  </si>
+  <si>
+    <t>www.racinelutheran.org</t>
+  </si>
+  <si>
+    <t>Racine Lutheran High School’s mission is to guide our youth in faith, learning, character and leadership by nurturing their relationship with Jesus Christ, and educating them for a life of service to God and man.</t>
+  </si>
+  <si>
+    <t>Private, Religious, Lutheran Church - Missouri Synod</t>
+  </si>
+  <si>
+    <t>2317 Howe Street</t>
+  </si>
+  <si>
+    <t>(262) 637-7802</t>
+  </si>
+  <si>
+    <t>www.racinemontessori.com</t>
+  </si>
+  <si>
+    <t>Montessori is a hands-on approach to learning. It encourages children to develop their observation skills through activities that use the five senses, kinetic movement, spatial refinement, small and gross motor skill coordination, and concrete knowledge that leads to later abstraction.</t>
+  </si>
+  <si>
+    <t>Academic, Montessori</t>
+  </si>
+  <si>
+    <t>914 St. Patrick Street</t>
+  </si>
+  <si>
+    <t>(262) 619-4500</t>
+  </si>
+  <si>
+    <t>www.risd.org/redapple-es</t>
+  </si>
+  <si>
+    <t>Through STEAM, Red Apple Elementary engages, inspires and empowers a community of learners in critical thinking, collaboration and innovation; preparing students to be college and/or career ready in alignment with the [RUSD] North Star vision.</t>
+  </si>
+  <si>
+    <t>STEAM (Science, Technology, Engineering, Allied Arts, Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Racine, WI 53405
+Racine, WI 53403</t>
+  </si>
+  <si>
+    <t>4K-6
+6150 Taylor Avenue
+4K-8
+1510 Villa Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(262) 554-6768
+(262) 634-3010</t>
+  </si>
+  <si>
+    <t>www.luminschools.org/LUMIN-Schools/Our-Schools/Renaissance-School.htm</t>
+  </si>
+  <si>
+    <t>Our purpose is to provide safe, Christian schools focused on educational success, leadership development and spiritual growth. We help our students work hard to achieve greatness by nurturing and equipping them in a strong Christian and academic environment to become lifelong learners, capable of making responsible decisions, growing in faith and serving God and the community.</t>
+  </si>
+  <si>
+    <t>Private, Religious, Lutheran Urban Mission Initiative (LUMIN), Lutheran Church - Missouri Synod</t>
+  </si>
+  <si>
+    <t>915 Romayne Avenue</t>
+  </si>
+  <si>
+    <t>(262) 664-8300</t>
+  </si>
+  <si>
+    <t>www.rusd.org/roosevelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roosevelt Elementary School is a positive learning community where every student and staff member strives to become collaboratively focused on maximum student academic, social and emotional growth in order to meet the RUSD North Star goals. Roosevelt is a neighborhood school with a lot of heart. </t>
+  </si>
+  <si>
+    <t>4800 Graceland Boulevard</t>
+  </si>
+  <si>
+    <t>Racine, WI 53408</t>
+  </si>
+  <si>
+    <t>(262) 664-6850</t>
+  </si>
+  <si>
+    <t>www.rusd.org/montessori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montessori education is a method of education based on self-directed learning activities that emphasize learning through all five senses and multi-age classrooms. Children in Montessori classes learn at their own, individual pace and according to their own choice of activities from hundreds of possibilities. Learning is an exciting process of discovery, leading to concentration, coordination, motivation, self-discipline, and independence.  </t>
+  </si>
+  <si>
+    <t>1200 Park Avenue</t>
+  </si>
+  <si>
+    <t>(262) 632-2785</t>
+  </si>
+  <si>
+    <t>www.saintcats.org</t>
+  </si>
+  <si>
+    <t>St. Catherine’s educates students in the Catholic faith, fostering an environment of academic and behavioral excellence to create lifelong learners and globally responsible citizens. St. Catherine’s is built on the Dominican values of Study, Prayer, Service and Community.</t>
+  </si>
+  <si>
+    <t>687*</t>
+  </si>
+  <si>
+    <t>100*</t>
+  </si>
+  <si>
+    <t>510 Kewaunee Street</t>
+  </si>
+  <si>
+    <t>(262) 633-2758</t>
+  </si>
+  <si>
+    <t>www.stjohnsracine.org</t>
+  </si>
+  <si>
+    <t>At St. John's Lutheran School, we provide an educational environment that strives to enrich the "whole" child in a "holy" way. We challenge the academic development of all children in a setting that nurtures the gifts each child has been given by God. Our spiritual climate encourages an active faith in Jesus Christ, our Lord and Savior. Our students in 3-year old preschool to 8th grade are daily challenged by caring teachers to stretch both their minds and hearts in a grace filled environment.</t>
+  </si>
+  <si>
+    <t>Private, Religious, Lutheran-Missouri Synod</t>
+  </si>
+  <si>
+    <t>1525 Erie Street</t>
+  </si>
+  <si>
+    <t>(262) 633-2403</t>
+  </si>
+  <si>
+    <t>www.st-joes-school.org</t>
+  </si>
+  <si>
+    <t>Catholic schools in the Archdiocese of Milwaukee uniquely balance faith and education. We do more than prepare students for tests in the classroom. We prepare them for tests in life. Students participate in daily prayer and religion classes, have frequent opportunities for worship and Mass attendance, and receive sacramental preparation. Students are taught to be respectful and compassionate, and emphasis is placed not only on academic achievement, but on moral and spiritual growth.</t>
+  </si>
+  <si>
+    <t>169*</t>
+  </si>
+  <si>
+    <t>51.9*</t>
+  </si>
+  <si>
+    <t>1.8*</t>
+  </si>
+  <si>
+    <t>3035 Drexel Avenue</t>
+  </si>
+  <si>
+    <t>(262) 554-1801 X211</t>
+  </si>
+  <si>
+    <t>www.stlucysschool.com</t>
+  </si>
+  <si>
+    <t>St. Lucy Catholic Parish School is a community of parents, students, parishioners, and staff faithful to the teachings of the Catholic Church, providing a full range of educational programs inspired by the Gospel message.</t>
+  </si>
+  <si>
+    <t>4433 Douglas Avenue</t>
+  </si>
+  <si>
+    <t>(262) 639-3333</t>
+  </si>
+  <si>
+    <t>www.st-ritasschool.org</t>
+  </si>
+  <si>
+    <t>Our identity as a Catholic school is woven into every aspect of school life. Each child's personal relationship with Jesus is forefront. We foster this relationship with daily religion class, daily prayer, weekly mass, and seasonal religious activities. We encourage our families to carry on this mission at home by attending mass each weekend and setting and achieving faith goals.</t>
+  </si>
+  <si>
+    <t>8515 Westminster Drive</t>
+  </si>
+  <si>
+    <t>(262) 664-6300</t>
+  </si>
+  <si>
+    <t>www.rusd.org/schulte</t>
+  </si>
+  <si>
+    <t>"It's all about the kids."  At Schulte, it is our staff's responsibility to provide a child-centered school community that is both academically challenging and supportive. All students will reach their individual potential and make a positive impact on society.</t>
+  </si>
+  <si>
+    <t>245 Main Street, Suite L-2</t>
+  </si>
+  <si>
+    <t>www.sienacatholicschools.org</t>
+  </si>
+  <si>
+    <t>Siena Catholic Schools of Racine unites the area’s five Catholic elementary schools (John Paul II Academy, Our Lady of Grace Academy, St. Joseph, St. Lucy, St. Rita) and one middle/high school (St. Catherine’s) in a regional model of Catholic education intended to preserve the individual identity, history and uniqueness of each school while maximizing the impact of collective strength. We are committed to educating in a Catholic learning environment rooted in Christ’s teachings and characterized by academic excellence, servant leadership, student diversity, personal accountability and respect for every individual.</t>
+  </si>
+  <si>
+    <t>Private, Religious, Catholic</t>
+  </si>
+  <si>
+    <t>1908 High Street</t>
+  </si>
+  <si>
+    <t>(262) 632-6797</t>
+  </si>
+  <si>
+    <t>www.swmschool.org</t>
+  </si>
+  <si>
+    <t>Provide a safe, home-like atmosphere for your children to learn.</t>
+  </si>
+  <si>
+    <t>Montessori</t>
+  </si>
+  <si>
+    <t>9605 Spring Street</t>
+  </si>
+  <si>
+    <t>Mt. Pleasant, WI 53406</t>
+  </si>
+  <si>
+    <t>(262) 671-5015</t>
+  </si>
+  <si>
+    <t>www.sonnenbergschool.com</t>
+  </si>
+  <si>
+    <t>Our mission at Sonnenberg School is to provide an educational environment that is loving, safe, and supportive, focused on preparing students academically, socially, and emotionally for their future lives of success. Designed specifically to meet the needs of students on the Autism Spectrum, Sonnenberg School ensures that all students receive an outstanding education from highly qualified and caring teachers. We work to help every child develop his or her unique gifts and talents to the fullest potential.</t>
+  </si>
+  <si>
+    <t>1516 Ohio Street</t>
+  </si>
+  <si>
+    <t>(262) 664-6500</t>
+  </si>
+  <si>
+    <t>www.rusd.org/starbuck</t>
+  </si>
+  <si>
+    <t>www.rusd.org/wadewitz</t>
+  </si>
+  <si>
+    <t>www.rusd.org/walden</t>
+  </si>
+  <si>
+    <t>Starbuck Middle School is an International Baccalaureate (IB) World School for the Middle Years Programme (MYP). The IB MYP is a framework for teaching that benefits all students. It addresses a wide variety of learning styles, involves all students in their own unique learning processes and gives students a standard, internationally accepted foundation of knowledge.… Students who participate in the IB MYP become independent learners who can recognize relationships between school subjects and the world outside. Through the IB Programme, Starbuck offers an inquiry-based curriculum that empowers students to become responsible world citizens and lifelong learners.</t>
+  </si>
+  <si>
+    <t>Academic, International Baccalaureate (IB)</t>
+  </si>
+  <si>
+    <t>(262) 664-6100</t>
+  </si>
+  <si>
+    <t>www.rusd.org/real</t>
+  </si>
+  <si>
+    <t>The mission of the Racine Engineering Arts and Leadership (REAL) School is to motivate every student to assume accountability for his/her own educational process while becoming a joyful lifelong learner and successful in careers and family. Every student will have a purpose and identity that drives their self-confidence and skill development necessary to succeed in life.</t>
+  </si>
+  <si>
+    <t>Academic, Engineering, RUSD Choice School</t>
+  </si>
+  <si>
+    <t>11106 Stellar Avenue</t>
+  </si>
+  <si>
+    <t>2065 Geneva Street</t>
+  </si>
+  <si>
+    <t>(262) 632-2900</t>
+  </si>
+  <si>
+    <t>www.trinityracine.com/primary-school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mission of Trinity Lutheran School is to partner with parents to guide and educate children and families to know that they are redeemed children of God. As such, through education, they will identify, develop, and utilize their God-given talents, thereby preparing them to spread the good news of Jesus Christ to all nations and serve their neighbor. </t>
+  </si>
+  <si>
+    <t>Private, Religious, Lutheran Church - Missori Synod</t>
+  </si>
+  <si>
+    <t>2700 Yout Street</t>
+  </si>
+  <si>
+    <t>(262) 664-6000</t>
+  </si>
+  <si>
+    <t>Wadewitz is a Title I school which provides Title I teachers and "Literacy Educational Assistants" to help all children improve their reading, writing and grammar skills. The staff at Wadewitz has made a personal commitment to provide a safe and nurturing learning environment for all of our students. Wadewitz is a great place for children to have exciting learning opportunities in a safe and caring environment!</t>
+  </si>
+  <si>
+    <t>Academic, Literacy</t>
+  </si>
+  <si>
+    <t>2340 Mohr Avenue</t>
+  </si>
+  <si>
+    <t>(262) 664-6250</t>
+  </si>
+  <si>
+    <t>We hold deep beliefs about our uncommon school. Our primary purpose is to help young people become excited, effective lifelong learners. We must provide alternative forms of education, making success more accessible to all students. We must create an environment where scholarship is continually validated, where striving for excellence is acclaimed by all and mutual respect is the order of every day. Structure is something carried within and for which each individual is responsible. School should be based more on research than traditional practices. Through the "process of discovery" ALL Walden students will graduate and be prepared to attend a postsecondary institution of higher learning.</t>
+  </si>
+  <si>
+    <t>1347 S. Emmertsen Road</t>
+  </si>
+  <si>
+    <t>(262) 664-6200</t>
+  </si>
+  <si>
+    <t>www.rusd.org/westridge</t>
+  </si>
+  <si>
+    <t>The mission of West Ridge is to provide a rigorous, relevant and inquiry-based educational environment that challenges students to excel. We embrace a partnership with students, parents, educators and members of our community to attain these goals. West Ridge is an elementary IB (International Baccalaureate) school. International Baccalaureate (IB) is a nonprofit, educational foundation that offers three different educational programs that help students develop the intellectual, academic, personal, emotional and social skills to live, learn and work in a rapidly globalizing world.</t>
+  </si>
+  <si>
+    <t>734 Villa Street</t>
+  </si>
+  <si>
+    <t>(262) 456-2770</t>
+  </si>
+  <si>
+    <t>www.wisconsinlutheranschool.org</t>
+  </si>
+  <si>
+    <t>We seek to prepare children for eternity by learning about Jesus and his forgiveness. We also seek to develop good citizens for our community and country. Jesus stated that these are the greatest of all the commandments: "Love the Lord your God with all your heart and with all your soul and with all your strength and with all your mind" and "Love your neighbor as yourself." We seek to instill this in our children by example and instruction. The Lord is gracious to promise that he will see that all other things are added to us according to our needs. (Matthew 6:33)</t>
+  </si>
+  <si>
+    <t>Private, Religious, Wisconsin Evangelical Lutheran Synod WELS)</t>
+  </si>
+  <si>
+    <t>Grades 4K-5
+3351 Chicory Road
+Grades 6–8
+3554 Taylor Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mt. Pleasant, WI 53403
+Elmwood Park, WI 53405</t>
+  </si>
+  <si>
+    <t>S. C. Johnson Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Prairie School </t>
+  </si>
+  <si>
+    <t>0494
+2317</t>
+  </si>
+  <si>
+    <t>The R.E.A.L. School</t>
+  </si>
+  <si>
+    <t>Small World Montessori School</t>
+  </si>
+  <si>
+    <t>Saint Rita School</t>
+  </si>
+  <si>
+    <t>Starbuck IB World School</t>
+  </si>
+  <si>
+    <t>Walden III Middle and High School</t>
+  </si>
+  <si>
+    <t>W. C. Giese Elementary School</t>
+  </si>
+  <si>
+    <t>Gifford Elementary School</t>
+  </si>
+  <si>
+    <t>Gilmore Fine Arts K-8 School</t>
+  </si>
+  <si>
+    <t>Jefferson Lighthouse Elementary School</t>
+  </si>
+  <si>
+    <t>Dr. Jones Elementary School</t>
+  </si>
+  <si>
+    <t>Julian Thomas Elementary School</t>
+  </si>
+  <si>
+    <t>Knapp Elementary School</t>
+  </si>
+  <si>
+    <t>Red Apple Elementary School</t>
+  </si>
+  <si>
+    <t>Schulte Elementary School</t>
+  </si>
+  <si>
+    <t>Trinity Lutheran School</t>
+  </si>
+  <si>
+    <t>Wadewitz Elementary School</t>
+  </si>
+  <si>
+    <t>Jerstad-Agerholm K-8 School</t>
+  </si>
+  <si>
+    <t>Roosevelt Elementary School</t>
+  </si>
+  <si>
+    <t>RUSD Montessori School at Goodland</t>
+  </si>
+  <si>
+    <t>West Ridge Elementary School</t>
+  </si>
+  <si>
+    <t>21stcentury.jpg</t>
+  </si>
+  <si>
+    <t>Bull.jpg</t>
+  </si>
+  <si>
+    <t>CERT.jpg</t>
+  </si>
+  <si>
+    <t>Concordialutheran.jpg</t>
+  </si>
+  <si>
+    <t>Case.jpg</t>
+  </si>
+  <si>
+    <t>Fratt.jpg</t>
+  </si>
+  <si>
+    <t>Giese.jpg</t>
+  </si>
+  <si>
+    <t>Gifford.jpg</t>
+  </si>
+  <si>
+    <t>Gilmore.jpg</t>
+  </si>
+  <si>
+    <t>Horlick.jpg</t>
+  </si>
+  <si>
+    <t>Janes.jpg</t>
+  </si>
+  <si>
+    <t>Jefferson.jpg</t>
+  </si>
+  <si>
+    <t>Jerstad.jpg</t>
+  </si>
+  <si>
+    <t>Knapp.jpg</t>
+  </si>
+  <si>
+    <t>Mitchell.jpg</t>
+  </si>
+  <si>
+    <t>Park.jpg</t>
+  </si>
+  <si>
+    <t>Renaissance.jpg</t>
+  </si>
+  <si>
+    <t>Roosevelt.jpg</t>
+  </si>
+  <si>
+    <t>Schulte.jpg</t>
+  </si>
+  <si>
+    <t>Siena.jpg</t>
+  </si>
+  <si>
+    <t>Sonnenberg.jpg</t>
+  </si>
+  <si>
+    <t>Wadewitz.jpg</t>
+  </si>
+  <si>
+    <t>John Paul II.jpg</t>
+  </si>
+  <si>
+    <t>Johnson.jpg</t>
+  </si>
+  <si>
+    <t>Julianthomas.jpg</t>
+  </si>
+  <si>
+    <t>Jones.jpg</t>
+  </si>
+  <si>
+    <t>Hope Christian.jpg</t>
+  </si>
+  <si>
+    <t>Our Lady of Grace.jpg</t>
+  </si>
+  <si>
+    <t>Racine Montessori.jpg</t>
+  </si>
+  <si>
+    <t>North Park.jpg</t>
+  </si>
+  <si>
+    <t>Olympia Brown.jpg</t>
+  </si>
+  <si>
+    <t>Prairie.jpg</t>
+  </si>
+  <si>
+    <t>RAL.jpg</t>
+  </si>
+  <si>
+    <t>Racine Christian.jpg</t>
+  </si>
+  <si>
+    <t>Racine Lutheran.jpg</t>
+  </si>
+  <si>
+    <t>Red Apple.jpg</t>
+  </si>
+  <si>
+    <t>RUSD Montessori.jpg</t>
+  </si>
+  <si>
+    <t>Saint Lucy School</t>
+  </si>
+  <si>
+    <t>St. Catherines.jpg</t>
+  </si>
+  <si>
+    <t>St.Joseph.jpg</t>
+  </si>
+  <si>
+    <t>St.Lucy.jpg</t>
+  </si>
+  <si>
+    <t>St.Rita.jpg</t>
+  </si>
+  <si>
+    <t>Starbuck (1).jpg</t>
+  </si>
+  <si>
+    <t>REAL School.jpg</t>
+  </si>
+  <si>
+    <t>Trinitylutheranjpg.jpg</t>
+  </si>
+  <si>
+    <t>Walden III.jpg</t>
+  </si>
+  <si>
+    <t>West Ridge.jpg</t>
+  </si>
+  <si>
+    <t>Wisconsin Lutheran.jpg</t>
+  </si>
+  <si>
+    <t>Evergreenacademylogo (1).jpg</t>
+  </si>
+  <si>
+    <t>21st_Century_Preparatory_School_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>CERT_School_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Case_High_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>EverGreen_Academy_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Fratt_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Giese_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Gifford_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Gilmore_Fine_Arts_School_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Goodland_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Hope_Christian_School-_Via_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Hope_Christian_School-_Via_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Horlick_High_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Janes_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Jefferson_Lighthouse_Elementar_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Jerstad-Agerholm_School_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>John_Paul_II_Academy_2017-18CHOICE.pdf</t>
+  </si>
+  <si>
+    <t>Johnson_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Jones_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Julian_Thomas_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Knapp_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Lutheran_High_2018-19ALL.pdf</t>
+  </si>
+  <si>
+    <t>Lutheran_High_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Mitchell_School_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>North_Park_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>O_Brown_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Our_Lady_of_Grace_Academy_2017-18CHOICE.pdf</t>
+  </si>
+  <si>
+    <t>Park_High_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>REAL_School-Racine_Educati_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Racine_Alternative_Learning_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Racine_Christian_School_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Red_Apple_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Renaissance_School_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Renaissance_School_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Roosevelt_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Saint_Joseph_Grade_School_2017-18ALL.pdf</t>
+  </si>
+  <si>
+    <t>Saint_Joseph_Grade_School_2017-18CHOICE.pdf</t>
+  </si>
+  <si>
+    <t>Saint_Rita_School_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Saint_Rita_School_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Schulte_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Siena_Catholic_Schools_of_Raci_2018-19ALLPDF.pdf</t>
+  </si>
+  <si>
+    <t>Siena_Catholic_Schools_of_Raci_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Starbuck_-_An_IB_World_School_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Trinity_Lutheran_School_LC-MS_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Trinity_Lutheran_School_LC-MS_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Wadewitz_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Walden_III_High_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>West_Ridge_Elementary_2018-19.PDF</t>
+  </si>
+  <si>
+    <t>Saint_Catherines_High_2017-18ALL.pdf</t>
+  </si>
+  <si>
+    <t>Saint_Catherines_High_2017-18CHOICE.pdf</t>
+  </si>
+  <si>
+    <t>Saint_Lucy_Grade_School_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Saint_Lucy_Grade_School_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Wisconsin_Lutheran_School_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Wisconsin_Lutheran_School_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>st-johns-logo.jpg</t>
   </si>
 </sst>
 </file>
@@ -346,7 +1469,7 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="00000000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,12 +1611,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -697,7 +1814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -853,17 +1970,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -908,9 +2014,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,50 +2038,121 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1023,7 +2200,22 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1332,95 +2524,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B24C90-E184-4384-83A4-DDBB41C13892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:BV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="12" width="12.33203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="16.5" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" customWidth="1"/>
-    <col min="20" max="22" width="19.83203125" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" customWidth="1"/>
-    <col min="25" max="25" width="25.83203125" customWidth="1"/>
-    <col min="26" max="26" width="17.5" customWidth="1"/>
-    <col min="27" max="27" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="11" customWidth="1"/>
+    <col min="6" max="7" width="6.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="11" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="9" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="9" customWidth="1"/>
+    <col min="19" max="19" width="32.5" style="41" customWidth="1"/>
+    <col min="20" max="20" width="37.1640625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="40.6640625" customWidth="1"/>
+    <col min="22" max="22" width="44" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="15.1640625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" style="9" customWidth="1"/>
+    <col min="27" max="27" width="15" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="20" t="s">
+      <c r="O1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>79</v>
       </c>
       <c r="U1" s="20" t="s">
@@ -1429,1943 +2630,4954 @@
       <c r="V1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:27" ht="128" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23">
+        <v>8110</v>
+      </c>
+      <c r="L2" s="24">
+        <v>100</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26">
+        <v>550004502575</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="15">
-        <v>8110</v>
-      </c>
-      <c r="L2" s="19">
+      <c r="R2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10">
-        <v>550004502575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="T2" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="V2" s="21"/>
+      <c r="W2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" s="27">
+        <v>543</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="27"/>
+    </row>
+    <row r="3" spans="1:27" ht="160" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="16">
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23">
         <v>4620</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="24">
         <v>114</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="10"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <f t="shared" ref="A4:A53" si="0">A3+1</f>
+      <c r="M3" s="22"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="27"/>
+    </row>
+    <row r="4" spans="1:27" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="22">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="22">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="15">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23">
         <v>4620</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="24">
         <v>491</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10">
+      <c r="M4" s="25"/>
+      <c r="N4" s="26">
         <v>551236001621</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="21" t="s">
+      <c r="O4" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4">
+      <c r="U4" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X4" s="27">
         <v>1783</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="21">
         <v>53.5</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="AA4" s="27"/>
+    </row>
+    <row r="5" spans="1:27" ht="144" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="22">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="22">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="15">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23">
         <v>4620</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="24">
         <v>1698</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="X5" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5" s="27"/>
+    </row>
+    <row r="6" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
         <v>8</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="15">
+      <c r="J6" s="22"/>
+      <c r="K6" s="23">
         <v>4620</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="24">
         <v>441</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="27">
+        <v>180</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>41.7</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
         <v>2</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="15">
+      <c r="J7" s="22"/>
+      <c r="K7" s="23">
         <v>4620</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="24">
         <v>1681</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="N7" s="26"/>
+      <c r="O7" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="X7" s="27">
+        <v>351</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="15">
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23">
         <v>4620</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="24">
         <v>118</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10">
+      <c r="M8" s="25"/>
+      <c r="N8" s="26">
         <v>551236001611</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="O8" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="V8" s="21"/>
+      <c r="W8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" s="27">
+        <v>432</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>81.7</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA8" s="27"/>
+    </row>
+    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22">
+        <v>5</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L9" s="24">
+        <v>121</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26">
+        <v>551236001614</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="V9" s="21"/>
+      <c r="W9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" s="27">
+        <v>268</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>83.6</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" s="27"/>
+    </row>
+    <row r="10" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <v>8</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L10" s="24">
+        <v>119</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26">
+        <v>551236002311</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" s="27">
+        <v>1615</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>28.9</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA10" s="27"/>
+    </row>
+    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="46">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="22">
+        <v>8</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L11" s="24">
+        <v>106</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26">
+        <v>551236001608</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" s="27">
+        <v>741</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA11" s="27"/>
+    </row>
+    <row r="12" spans="1:27" ht="144" x14ac:dyDescent="0.2">
+      <c r="A12" s="46">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="22">
+        <v>7</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22">
+        <v>2</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L12" s="24">
+        <v>122</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="X12" s="27">
+        <v>319</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>84.6</v>
+      </c>
+      <c r="Z12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="46">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="22">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22">
+        <v>12</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L13" s="24">
+        <v>1711</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="26">
+        <v>551236001620</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" s="27">
+        <v>1577</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>63.5</v>
+      </c>
+      <c r="Z13" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA13" s="27"/>
+    </row>
+    <row r="14" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="46">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
+        <v>5</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
+        <v>1</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L14" s="24">
+        <v>492</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X14" s="27">
+        <v>277</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>93.9</v>
+      </c>
+      <c r="Z14" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA14" s="27"/>
+    </row>
+    <row r="15" spans="1:27" ht="192" x14ac:dyDescent="0.2">
+      <c r="A15" s="46">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="22">
+        <v>5</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L15" s="24">
+        <v>130</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26">
+        <v>551236001622</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" s="27">
+        <v>502</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>41.2</v>
+      </c>
+      <c r="Z15" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA15" s="27"/>
+    </row>
+    <row r="16" spans="1:27" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="46">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22">
+        <v>8</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L16" s="24">
+        <v>132</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26">
+        <v>551236001623</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="V16" s="21"/>
+      <c r="W16" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X16" s="27">
+        <v>1045</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>77.3</v>
+      </c>
+      <c r="Z16" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA16" s="27"/>
+    </row>
+    <row r="17" spans="1:74" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="46">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <v>8</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <v>2</v>
+      </c>
+      <c r="K17" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L17" s="24">
+        <v>314</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26">
+        <v>551236001624</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y17" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z17" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA17" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" ht="96" x14ac:dyDescent="0.2">
+      <c r="A18" s="46">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22">
+        <v>5</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
+        <v>1</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25">
+        <v>1507085</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="T18" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X18" s="27">
+        <v>499</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>85.2</v>
+      </c>
+      <c r="Z18" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA18" s="27"/>
+    </row>
+    <row r="19" spans="1:74" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="46">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22">
+        <v>5</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L19" s="24">
+        <v>136</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26">
+        <v>551236001626</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="V19" s="21"/>
+      <c r="W19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X19" s="27">
+        <v>338</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="Z19" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA19" s="27"/>
+    </row>
+    <row r="20" spans="1:74" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22">
+        <v>5</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L20" s="24">
+        <v>111</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26">
+        <v>551236001627</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="V20" s="21"/>
+      <c r="W20" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X20" s="27">
+        <v>422</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>94.3</v>
+      </c>
+      <c r="Z20" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA20" s="27"/>
+    </row>
+    <row r="21" spans="1:74" ht="208" x14ac:dyDescent="0.2">
+      <c r="A21" s="46">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22">
+        <v>5</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L21" s="24">
+        <v>720</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26">
+        <v>551236003337</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X21" s="27">
+        <v>361</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>87.8</v>
+      </c>
+      <c r="Z21" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA21" s="27"/>
+    </row>
+    <row r="22" spans="1:74" ht="96" x14ac:dyDescent="0.2">
+      <c r="A22" s="46">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L22" s="24">
+        <v>138</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26">
+        <v>551236001628</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X22" s="27">
+        <v>1260</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>80.8</v>
+      </c>
+      <c r="Z22" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="27"/>
+    </row>
+    <row r="23" spans="1:74" ht="112" x14ac:dyDescent="0.2">
+      <c r="A23" s="46">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22">
+        <v>5</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22">
+        <v>1</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L23" s="24">
+        <v>2370</v>
+      </c>
+      <c r="M23" s="25">
+        <v>1512696</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X23" s="27">
+        <v>296</v>
+      </c>
+      <c r="Y23" s="21">
+        <v>77.7</v>
+      </c>
+      <c r="Z23" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA23" s="27"/>
+    </row>
+    <row r="24" spans="1:74" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="46">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22">
+        <v>5</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22">
+        <v>1</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L24" s="24">
+        <v>148</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26">
+        <v>551236001632</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="V24" s="21"/>
+      <c r="W24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X24" s="27">
+        <v>469</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>42.2</v>
+      </c>
+      <c r="Z24" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA24" s="27"/>
+    </row>
+    <row r="25" spans="1:74" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="46">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22">
+        <v>8</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22">
+        <v>1</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <v>2</v>
+      </c>
+      <c r="K25" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L25" s="24">
+        <v>150</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26">
+        <v>551236001634</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="S25" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y25" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z25" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA25" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" ht="160" x14ac:dyDescent="0.2">
+      <c r="A26" s="46">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="31">
+        <v>9</v>
+      </c>
+      <c r="D26" s="31">
+        <v>12</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31">
+        <v>1</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32">
+        <v>4620</v>
+      </c>
+      <c r="L26" s="33">
+        <v>112</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="35">
+        <v>551236001605</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="T26" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="U26" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="V26" s="30"/>
+      <c r="W26" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="X26" s="36">
+        <v>1324</v>
+      </c>
+      <c r="Y26" s="30">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="Z26" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA26" s="36"/>
+    </row>
+    <row r="27" spans="1:74" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A27" s="46">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="22">
+        <v>5</v>
+      </c>
+      <c r="D27" s="22">
+        <v>8</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="26">
+        <v>551236001635</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V27" s="21"/>
+      <c r="W27" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="X27" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y27" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA27" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+    </row>
+    <row r="28" spans="1:74" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A28" s="46">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="22">
+        <v>12</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22">
+        <v>1</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L28" s="24">
+        <v>801</v>
+      </c>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26">
+        <v>551236003045</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="S28" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="V28" s="21"/>
+      <c r="W28" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X28" s="27">
+        <v>213</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>81.7</v>
+      </c>
+      <c r="Z28" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA28" s="27"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+    </row>
+    <row r="29" spans="1:74" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A29" s="46">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="22">
+        <v>8</v>
+      </c>
+      <c r="E29" s="22">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22">
+        <v>1</v>
+      </c>
+      <c r="I29" s="22">
+        <v>1</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L29" s="24">
+        <v>2360</v>
+      </c>
+      <c r="M29" s="25">
+        <v>1513215</v>
+      </c>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="X29" s="27">
+        <v>61</v>
+      </c>
+      <c r="Y29" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA29" s="27">
+        <v>45.2</v>
+      </c>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+    </row>
+    <row r="30" spans="1:74" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A30" s="46">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="22">
+        <v>9</v>
+      </c>
+      <c r="D30" s="22">
+        <v>12</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22">
+        <v>1</v>
+      </c>
+      <c r="H30" s="22">
+        <v>1</v>
+      </c>
+      <c r="I30" s="22">
+        <v>2</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="V30" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" s="27">
+        <v>264</v>
+      </c>
+      <c r="Y30" s="21">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Z30" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA30" s="27">
+        <v>61.7</v>
+      </c>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30"/>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30"/>
+      <c r="BQ30"/>
+      <c r="BR30"/>
+      <c r="BS30"/>
+      <c r="BT30"/>
+      <c r="BU30"/>
+      <c r="BV30"/>
+    </row>
+    <row r="31" spans="1:74" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A31" s="46">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22">
+        <v>8</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22">
+        <v>1</v>
+      </c>
+      <c r="I31" s="22">
+        <v>0</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25">
+        <v>1511295</v>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="V31" s="21"/>
+      <c r="W31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="X31" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z31" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA31" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
+    </row>
+    <row r="32" spans="1:74" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="46">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22">
+        <v>5</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22">
+        <v>1</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L32" s="24">
+        <v>174</v>
+      </c>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26">
+        <v>551236001636</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X32" s="27">
+        <v>386</v>
+      </c>
+      <c r="Y32" s="21">
+        <v>52.1</v>
+      </c>
+      <c r="Z32" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA32" s="27"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+      <c r="BK32"/>
+      <c r="BL32"/>
+      <c r="BM32"/>
+      <c r="BN32"/>
+      <c r="BO32"/>
+      <c r="BP32"/>
+      <c r="BQ32"/>
+      <c r="BR32"/>
+      <c r="BS32"/>
+      <c r="BT32"/>
+      <c r="BU32"/>
+      <c r="BV32"/>
+    </row>
+    <row r="33" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A33" s="46">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22">
+        <v>8</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22">
+        <v>1</v>
+      </c>
+      <c r="I33" s="22">
+        <v>2</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L33" s="24">
+        <v>1619</v>
+      </c>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="S33" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="W33" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="X33" s="27">
+        <v>346</v>
+      </c>
+      <c r="Y33" s="21">
+        <v>82.3</v>
+      </c>
+      <c r="Z33" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA33" s="27">
+        <v>96.9</v>
+      </c>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+      <c r="BK33"/>
+      <c r="BL33"/>
+      <c r="BM33"/>
+      <c r="BN33"/>
+      <c r="BO33"/>
+      <c r="BP33"/>
+      <c r="BQ33"/>
+      <c r="BR33"/>
+      <c r="BS33"/>
+      <c r="BT33"/>
+      <c r="BU33"/>
+      <c r="BV33"/>
+    </row>
+    <row r="34" spans="1:74" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A34" s="46">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="22">
+        <v>5</v>
+      </c>
+      <c r="E34" s="22">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22">
+        <v>1</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L34" s="24">
+        <v>154</v>
+      </c>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26">
+        <v>551236001637</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="V34" s="21"/>
+      <c r="W34" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X34" s="27">
+        <v>340</v>
+      </c>
+      <c r="Y34" s="21">
+        <v>87.4</v>
+      </c>
+      <c r="Z34" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA34" s="27"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+      <c r="BK34"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+      <c r="BN34"/>
+      <c r="BO34"/>
+      <c r="BP34"/>
+      <c r="BQ34"/>
+      <c r="BR34"/>
+      <c r="BS34"/>
+      <c r="BT34"/>
+      <c r="BU34"/>
+      <c r="BV34"/>
+    </row>
+    <row r="35" spans="1:74" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A35" s="46">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22">
+        <v>5</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22">
+        <v>1</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L35" s="24">
+        <v>101</v>
+      </c>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26">
+        <v>551236003044</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="T35" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="V35" s="21"/>
+      <c r="W35" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X35" s="27">
+        <v>130</v>
+      </c>
+      <c r="Y35" s="21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Z35" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA35" s="27"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+      <c r="BN35"/>
+      <c r="BO35"/>
+      <c r="BP35"/>
+      <c r="BQ35"/>
+      <c r="BR35"/>
+      <c r="BS35"/>
+      <c r="BT35"/>
+      <c r="BU35"/>
+      <c r="BV35"/>
+    </row>
+    <row r="36" spans="1:74" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A36" s="46">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B36" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="22">
+        <v>6</v>
+      </c>
+      <c r="D36" s="22">
+        <v>12</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22">
+        <v>1</v>
+      </c>
+      <c r="G36" s="22">
+        <v>1</v>
+      </c>
+      <c r="H36" s="22">
+        <v>1</v>
+      </c>
+      <c r="I36" s="22">
+        <v>2</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25">
+        <v>1507096</v>
+      </c>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="W36" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="X36" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>51.9</v>
+      </c>
+      <c r="Z36" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA36" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+      <c r="BK36"/>
+      <c r="BL36"/>
+      <c r="BM36"/>
+      <c r="BN36"/>
+      <c r="BO36"/>
+      <c r="BP36"/>
+      <c r="BQ36"/>
+      <c r="BR36"/>
+      <c r="BS36"/>
+      <c r="BT36"/>
+      <c r="BU36"/>
+      <c r="BV36"/>
+    </row>
+    <row r="37" spans="1:74" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A37" s="46">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="22">
+        <v>8</v>
+      </c>
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="25">
+        <v>1511444</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="X37" s="27">
+        <v>222</v>
+      </c>
+      <c r="Y37" s="21">
+        <v>24.3</v>
+      </c>
+      <c r="Z37" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA37" s="27">
+        <v>72.7</v>
+      </c>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+      <c r="BK37"/>
+      <c r="BL37"/>
+      <c r="BM37"/>
+      <c r="BN37"/>
+      <c r="BO37"/>
+      <c r="BP37"/>
+      <c r="BQ37"/>
+      <c r="BR37"/>
+      <c r="BS37"/>
+      <c r="BT37"/>
+      <c r="BU37"/>
+      <c r="BV37"/>
+    </row>
+    <row r="38" spans="1:74" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A38" s="46">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="22">
+        <v>8</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22">
+        <v>1</v>
+      </c>
+      <c r="I38" s="22">
+        <v>0</v>
+      </c>
+      <c r="J38" s="22">
+        <v>2</v>
+      </c>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="V38" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="W38" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="X38" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y38" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z38" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA38" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
+      <c r="BK38"/>
+      <c r="BL38"/>
+      <c r="BM38"/>
+      <c r="BN38"/>
+      <c r="BO38"/>
+      <c r="BP38"/>
+      <c r="BQ38"/>
+      <c r="BR38"/>
+      <c r="BS38"/>
+      <c r="BT38"/>
+      <c r="BU38"/>
+      <c r="BV38"/>
+    </row>
+    <row r="39" spans="1:74" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" s="46">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="22">
+        <v>8</v>
+      </c>
+      <c r="E39" s="22">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22">
+        <v>1</v>
+      </c>
+      <c r="I39" s="22">
+        <v>2</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25">
+        <v>1507755</v>
+      </c>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="T39" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="V39" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="W39" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="X39" s="27">
+        <v>190</v>
+      </c>
+      <c r="Y39" s="21">
+        <v>21.1</v>
+      </c>
+      <c r="Z39" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA39" s="27">
+        <v>21.1</v>
+      </c>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BK39"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+      <c r="BN39"/>
+      <c r="BO39"/>
+      <c r="BP39"/>
+      <c r="BQ39"/>
+      <c r="BR39"/>
+      <c r="BS39"/>
+      <c r="BT39"/>
+      <c r="BU39"/>
+      <c r="BV39"/>
+    </row>
+    <row r="40" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A40" s="46">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="22">
+        <v>8</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22">
+        <v>1</v>
+      </c>
+      <c r="I40" s="22">
+        <v>2</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25">
+        <v>1506525</v>
+      </c>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R40" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="T40" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="W40" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="X40" s="27">
+        <v>148</v>
+      </c>
+      <c r="Y40" s="21">
+        <v>51.9</v>
+      </c>
+      <c r="Z40" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA40" s="27">
+        <v>9.5</v>
+      </c>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AR40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+      <c r="BA40"/>
+      <c r="BB40"/>
+      <c r="BC40"/>
+      <c r="BD40"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+      <c r="BG40"/>
+      <c r="BH40"/>
+      <c r="BI40"/>
+      <c r="BJ40"/>
+      <c r="BK40"/>
+      <c r="BL40"/>
+      <c r="BM40"/>
+      <c r="BN40"/>
+      <c r="BO40"/>
+      <c r="BP40"/>
+      <c r="BQ40"/>
+      <c r="BR40"/>
+      <c r="BS40"/>
+      <c r="BT40"/>
+      <c r="BU40"/>
+      <c r="BV40"/>
+    </row>
+    <row r="41" spans="1:74" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A41" s="46">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="15">
+      <c r="E41" s="22">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22">
+        <v>1</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23">
         <v>4620</v>
       </c>
-      <c r="L9" s="19">
-        <v>121</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10">
-        <v>551236001614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="L41" s="24">
+        <v>166</v>
+      </c>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26">
+        <v>551236001638</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="V41" s="21"/>
+      <c r="W41" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X41" s="27">
+        <v>422</v>
+      </c>
+      <c r="Y41" s="21">
+        <v>52.4</v>
+      </c>
+      <c r="Z41" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA41" s="27"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+      <c r="BK41"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+      <c r="BR41"/>
+      <c r="BS41"/>
+      <c r="BT41"/>
+      <c r="BU41"/>
+      <c r="BV41"/>
+    </row>
+    <row r="42" spans="1:74" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A42" s="46">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="22">
+        <v>12</v>
+      </c>
+      <c r="E42" s="22">
+        <v>1</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="22">
+        <v>1</v>
+      </c>
+      <c r="H42" s="22">
+        <v>1</v>
+      </c>
+      <c r="I42" s="22">
+        <v>2</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L42" s="23">
+        <v>3430</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="T42" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="U42" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="V42" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="W42" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="X42" s="27">
+        <v>1255</v>
+      </c>
+      <c r="Y42" s="21">
+        <v>54.4</v>
+      </c>
+      <c r="Z42" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA42" s="27">
+        <v>83.4</v>
+      </c>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+      <c r="AW42"/>
+      <c r="AX42"/>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="BA42"/>
+      <c r="BB42"/>
+      <c r="BC42"/>
+      <c r="BD42"/>
+      <c r="BE42"/>
+      <c r="BF42"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
+      <c r="BK42"/>
+      <c r="BL42"/>
+      <c r="BM42"/>
+      <c r="BN42"/>
+      <c r="BO42"/>
+      <c r="BP42"/>
+      <c r="BQ42"/>
+      <c r="BR42"/>
+      <c r="BS42"/>
+      <c r="BT42"/>
+      <c r="BU42"/>
+      <c r="BV42"/>
+    </row>
+    <row r="43" spans="1:74" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="46">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="22">
+        <v>1</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22">
+        <v>1</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="26"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R43" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="T43" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="X43" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y43" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z43" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA43" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43"/>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+      <c r="BB43"/>
+      <c r="BC43"/>
+      <c r="BD43"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+      <c r="BK43"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+      <c r="BN43"/>
+      <c r="BO43"/>
+      <c r="BP43"/>
+      <c r="BQ43"/>
+      <c r="BR43"/>
+      <c r="BS43"/>
+      <c r="BT43"/>
+      <c r="BU43"/>
+      <c r="BV43"/>
+    </row>
+    <row r="44" spans="1:74" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A44" s="46">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="22">
+        <v>5</v>
+      </c>
+      <c r="E44" s="22">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22">
+        <v>1</v>
+      </c>
+      <c r="I44" s="22">
+        <v>0</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L44" s="24">
+        <v>1750</v>
+      </c>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26">
+        <v>551236001639</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="R44" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="T44" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="U44" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="V44" s="21"/>
+      <c r="W44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="X44" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y44" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z44" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA44" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
+      <c r="AR44"/>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44"/>
+      <c r="AV44"/>
+      <c r="AW44"/>
+      <c r="AX44"/>
+      <c r="AY44"/>
+      <c r="AZ44"/>
+      <c r="BA44"/>
+      <c r="BB44"/>
+      <c r="BC44"/>
+      <c r="BD44"/>
+      <c r="BE44"/>
+      <c r="BF44"/>
+      <c r="BG44"/>
+      <c r="BH44"/>
+      <c r="BI44"/>
+      <c r="BJ44"/>
+      <c r="BK44"/>
+      <c r="BL44"/>
+      <c r="BM44"/>
+      <c r="BN44"/>
+      <c r="BO44"/>
+      <c r="BP44"/>
+      <c r="BQ44"/>
+      <c r="BR44"/>
+      <c r="BS44"/>
+      <c r="BT44"/>
+      <c r="BU44"/>
+      <c r="BV44"/>
+    </row>
+    <row r="45" spans="1:74" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="A45" s="46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C45" s="22">
+        <v>6</v>
+      </c>
+      <c r="D45" s="22">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="15">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22">
+        <v>1</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="K45" s="23">
         <v>4620</v>
       </c>
-      <c r="L10" s="19">
-        <v>119</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10">
-        <v>551236002311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
+      <c r="L45" s="24">
+        <v>288</v>
+      </c>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26">
+        <v>551236002471</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="T45" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="U45" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="V45" s="21"/>
+      <c r="W45" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X45" s="27">
+        <v>662</v>
+      </c>
+      <c r="Y45" s="21">
+        <v>71</v>
+      </c>
+      <c r="Z45" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA45" s="27"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45"/>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+      <c r="BR45"/>
+      <c r="BS45"/>
+      <c r="BT45"/>
+      <c r="BU45"/>
+      <c r="BV45"/>
+    </row>
+    <row r="46" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A46" s="46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="22">
+        <v>6</v>
+      </c>
+      <c r="D46" s="22">
+        <v>12</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22">
+        <v>1</v>
+      </c>
+      <c r="G46" s="22">
+        <v>1</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22">
+        <v>1</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L46" s="24">
+        <v>800</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="R46" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="T46" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="U46" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="V46" s="21"/>
+      <c r="W46" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X46" s="27">
+        <v>504</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>42.1</v>
+      </c>
+      <c r="Z46" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA46" s="27"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+      <c r="AW46"/>
+      <c r="AX46"/>
+      <c r="AY46"/>
+      <c r="AZ46"/>
+      <c r="BA46"/>
+      <c r="BB46"/>
+      <c r="BC46"/>
+      <c r="BD46"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+      <c r="BK46"/>
+      <c r="BL46"/>
+      <c r="BM46"/>
+      <c r="BN46"/>
+      <c r="BO46"/>
+      <c r="BP46"/>
+      <c r="BQ46"/>
+      <c r="BR46"/>
+      <c r="BS46"/>
+      <c r="BT46"/>
+      <c r="BU46"/>
+      <c r="BV46"/>
+    </row>
+    <row r="47" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A47" s="46">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="22">
+        <v>8</v>
+      </c>
+      <c r="E47" s="22">
+        <v>1</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22">
+        <v>1</v>
+      </c>
+      <c r="I47" s="22">
+        <v>2</v>
+      </c>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L47" s="24">
+        <v>8540</v>
+      </c>
+      <c r="M47" s="25">
+        <v>1511433</v>
+      </c>
+      <c r="N47" s="26">
+        <v>551236001642</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R47" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="T47" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="V47" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="W47" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="X47" s="27">
+        <v>187</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>41.7</v>
+      </c>
+      <c r="Z47" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA47" s="27">
+        <v>76</v>
+      </c>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+    </row>
+    <row r="48" spans="1:74" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A48" s="46">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="22">
+        <v>5</v>
+      </c>
+      <c r="E48" s="22">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22">
+        <v>1</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L48" s="24">
+        <v>162</v>
+      </c>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26">
+        <v>551236001644</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="T48" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="U48" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="V48" s="21"/>
+      <c r="W48" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X48" s="27">
+        <v>551</v>
+      </c>
+      <c r="Y48" s="21">
+        <v>84.8</v>
+      </c>
+      <c r="Z48" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA48" s="27"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
+      <c r="AR48"/>
+      <c r="AS48"/>
+      <c r="AT48"/>
+      <c r="AU48"/>
+      <c r="AV48"/>
+      <c r="AW48"/>
+      <c r="AX48"/>
+      <c r="AY48"/>
+      <c r="AZ48"/>
+      <c r="BA48"/>
+      <c r="BB48"/>
+      <c r="BC48"/>
+      <c r="BD48"/>
+      <c r="BE48"/>
+      <c r="BF48"/>
+      <c r="BG48"/>
+      <c r="BH48"/>
+      <c r="BI48"/>
+      <c r="BJ48"/>
+      <c r="BK48"/>
+      <c r="BL48"/>
+      <c r="BM48"/>
+      <c r="BN48"/>
+      <c r="BO48"/>
+      <c r="BP48"/>
+      <c r="BQ48"/>
+      <c r="BR48"/>
+      <c r="BS48"/>
+      <c r="BT48"/>
+      <c r="BU48"/>
+      <c r="BV48"/>
+    </row>
+    <row r="49" spans="1:74" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="A49" s="46">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" s="22">
+        <v>6</v>
+      </c>
+      <c r="D49" s="22">
+        <v>12</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22">
+        <v>1</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22">
+        <v>1</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L49" s="24">
+        <v>499</v>
+      </c>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26">
+        <v>551236001646</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="T49" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="V49" s="21"/>
+      <c r="W49" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X49" s="27">
+        <v>628</v>
+      </c>
+      <c r="Y49" s="21">
+        <v>35.4</v>
+      </c>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49"/>
+      <c r="AV49"/>
+      <c r="AW49"/>
+      <c r="AX49"/>
+      <c r="AY49"/>
+      <c r="AZ49"/>
+      <c r="BA49"/>
+      <c r="BB49"/>
+      <c r="BC49"/>
+      <c r="BD49"/>
+      <c r="BE49"/>
+      <c r="BF49"/>
+      <c r="BG49"/>
+      <c r="BH49"/>
+      <c r="BI49"/>
+      <c r="BJ49"/>
+      <c r="BK49"/>
+      <c r="BL49"/>
+      <c r="BM49"/>
+      <c r="BN49"/>
+      <c r="BO49"/>
+      <c r="BP49"/>
+      <c r="BQ49"/>
+      <c r="BR49"/>
+      <c r="BS49"/>
+      <c r="BT49"/>
+      <c r="BU49"/>
+      <c r="BV49"/>
+    </row>
+    <row r="50" spans="1:74" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A50" s="46">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="22">
+        <v>5</v>
+      </c>
+      <c r="E50" s="22">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22">
+        <v>1</v>
+      </c>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L50" s="24">
+        <v>164</v>
+      </c>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R50" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="T50" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="U50" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="V50" s="21"/>
+      <c r="W50" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X50" s="27">
+        <v>369</v>
+      </c>
+      <c r="Y50" s="21">
+        <v>77.8</v>
+      </c>
+      <c r="Z50" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA50" s="27"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50"/>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50"/>
+      <c r="BF50"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+      <c r="BR50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50"/>
+      <c r="BV50"/>
+    </row>
+    <row r="51" spans="1:74" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A51" s="46">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="22">
+        <v>8</v>
+      </c>
+      <c r="E51" s="22">
+        <v>1</v>
+      </c>
+      <c r="F51" s="22">
+        <v>1</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22">
+        <v>1</v>
+      </c>
+      <c r="I51" s="22">
+        <v>2</v>
+      </c>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L51" s="24">
+        <v>8722</v>
+      </c>
+      <c r="M51" s="25">
+        <v>1513496</v>
+      </c>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R51" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="U51" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="V51" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="W51" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="X51" s="27">
+        <v>169</v>
+      </c>
+      <c r="Y51" s="21">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="Z51" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA51" s="27">
+        <v>81.7</v>
+      </c>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51"/>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+      <c r="BR51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51"/>
+      <c r="BV51"/>
+    </row>
+    <row r="52" spans="1:74" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="22">
+        <f>COUNT(E2:E51)</f>
+        <v>40</v>
+      </c>
+      <c r="F52" s="22">
+        <f t="shared" ref="F52:J52" si="1">COUNT(F2:F51)</f>
+        <v>26</v>
+      </c>
+      <c r="G52" s="22">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L11" s="19">
-        <v>106</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10">
-        <v>551236001608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L12" s="19">
-        <v>122</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L13" s="19">
-        <v>1711</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="10">
-        <v>551236001620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L14" s="19">
-        <v>492</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L15" s="19">
-        <v>130</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10">
-        <v>551236001622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L16" s="19">
-        <v>132</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10">
-        <v>551236001623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L17" s="19">
-        <v>314</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10">
-        <v>551236001624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="9">
-        <v>1507085</v>
-      </c>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L19" s="19">
-        <v>136</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10">
-        <v>551236001626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <f t="shared" si="0"/>
+      <c r="H52" s="22">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L20" s="19">
-        <v>111</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10">
-        <v>551236001627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L21" s="19">
-        <v>720</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10">
-        <v>551236003337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L22" s="19">
-        <v>138</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10">
-        <v>551236001628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="I52" s="22">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L23" s="19">
-        <v>2370</v>
-      </c>
-      <c r="M23" s="9">
-        <v>1512696</v>
-      </c>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L24" s="19">
-        <v>148</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10">
-        <v>551236001632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>2</v>
-      </c>
-      <c r="K25" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L25" s="19">
-        <v>150</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10">
-        <v>551236001634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="3">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3">
-        <v>12</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L26" s="19">
-        <v>112</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10">
-        <v>551236001605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L28" s="19">
-        <v>494</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10">
-        <v>551236001635</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="3">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3">
-        <v>12</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L29" s="19">
-        <v>2317</v>
-      </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <f>A27+1</f>
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="17">
-        <v>4620</v>
-      </c>
-      <c r="L30" s="19">
-        <v>801</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10">
-        <v>551236003045</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L31" s="19">
-        <v>2360</v>
-      </c>
-      <c r="M31" s="9">
-        <v>1513215</v>
-      </c>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
-        <v>12</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="9">
-        <v>1511295</v>
-      </c>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L34" s="19">
-        <v>174</v>
-      </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10">
-        <v>551236001636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L35" s="19">
-        <v>1619</v>
-      </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L36" s="19">
-        <v>154</v>
-      </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10">
-        <v>551236001637</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L37" s="19">
-        <v>101</v>
-      </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10">
-        <v>551236003044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6</v>
-      </c>
-      <c r="D38" s="3">
-        <v>12</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="9">
-        <v>1507096</v>
-      </c>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="3">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="9">
-        <v>1511444</v>
-      </c>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="3">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>2</v>
-      </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="3">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="9">
-        <v>1507755</v>
-      </c>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="9">
-        <v>1506525</v>
-      </c>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L43" s="19">
-        <v>166</v>
-      </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="10">
-        <v>551236001638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>12</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="16">
-        <v>4620</v>
-      </c>
-      <c r="L44" s="15">
-        <v>3430</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L46" s="19">
-        <v>1750</v>
-      </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="10">
-        <v>551236001639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="3">
-        <v>6</v>
-      </c>
-      <c r="D47" s="3">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L47" s="19">
-        <v>288</v>
-      </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="10">
-        <v>551236002471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6</v>
-      </c>
-      <c r="D48" s="3">
-        <v>12</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L48" s="19">
-        <v>800</v>
-      </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L49" s="19">
-        <v>8540</v>
-      </c>
-      <c r="M49" s="9">
-        <v>1511433</v>
-      </c>
-      <c r="N49" s="10">
-        <v>551236001642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L50" s="19">
-        <v>162</v>
-      </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="10">
-        <v>551236001644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="3">
-        <v>6</v>
-      </c>
-      <c r="D51" s="3">
-        <v>12</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L51" s="19">
-        <v>499</v>
-      </c>
-      <c r="M51" s="9"/>
-      <c r="N51" s="10">
-        <v>551236001646</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L52" s="19">
-        <v>164</v>
-      </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
-        <v>2</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="15">
-        <v>4620</v>
-      </c>
-      <c r="L53" s="19">
-        <v>8722</v>
-      </c>
-      <c r="M53" s="9">
-        <v>1513496</v>
-      </c>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="3">
-        <f>COUNT(E2:E53)</f>
-        <v>41</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" ref="F54:J54" si="1">COUNT(F2:F53)</f>
-        <v>26</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J52" s="22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+      <c r="AW52"/>
+      <c r="AX52"/>
+      <c r="AY52"/>
+      <c r="AZ52"/>
+      <c r="BA52"/>
+      <c r="BB52"/>
+      <c r="BC52"/>
+      <c r="BD52"/>
+      <c r="BE52"/>
+      <c r="BF52"/>
+      <c r="BG52"/>
+      <c r="BH52"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
+      <c r="BK52"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+      <c r="BR52"/>
+      <c r="BS52"/>
+      <c r="BT52"/>
+      <c r="BU52"/>
+      <c r="BV52"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A27:A29"/>
-  </mergeCells>
+  <conditionalFormatting sqref="A52:AA52 B28:R29 T28:AA29 A1:AA7 B8:AA27 B30:AA51 A8:A51">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{8A3D168E-4378-EF41-821E-9AF64F46FAA1}"/>
-    <hyperlink ref="U4" r:id="rId2" xr:uid="{950D3542-F4D4-3449-B1ED-CDF7D7D5A445}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{1ED7DA9C-ABE2-3240-A58B-12F65CDF3D22}"/>
+    <hyperlink ref="S4" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S3" r:id="rId3" display="http://www.rusd.org/beec" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="S10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="S12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="S13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="S14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="S15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="S16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="S17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="S23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="S24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="S26" r:id="rId23" display="http://www.rusd.org/park" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="S27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="S28" r:id="rId25" display="http://www.rusd.org/alternative-education" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="S25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="S29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="S30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="S31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="S32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="S33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="S34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="S35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="S36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="S37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="S38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="S39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="S40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="S41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="S42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="S43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="S44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="S45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="S46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="S47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="S48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="S49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="S50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="S51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="S7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -4554,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD94F22E-BA97-460C-BA18-8823F1AD198B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5671,7 +9883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4BFBAD-BCD1-4C57-8CFC-E1DA55FDA287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6059,7 +10271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF53B53-3DAA-4163-90B3-122391AE954A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -6962,7 +11174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82274BF3-5DE6-4F6D-8475-F75764E86425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36D9E16-FA6F-884B-8865-8E98942EF153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19949DF-9808-8B49-A460-20B6522A0D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31020" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1269,15 +1269,6 @@
     <t>St. Catherines.jpg</t>
   </si>
   <si>
-    <t>St.Joseph.jpg</t>
-  </si>
-  <si>
-    <t>St.Lucy.jpg</t>
-  </si>
-  <si>
-    <t>St.Rita.jpg</t>
-  </si>
-  <si>
     <t>Starbuck (1).jpg</t>
   </si>
   <si>
@@ -1459,6 +1450,15 @@
   </si>
   <si>
     <t>st-johns-logo.jpg</t>
+  </si>
+  <si>
+    <t>St. Rita.jpg</t>
+  </si>
+  <si>
+    <t>St. Lucy.jpg</t>
+  </si>
+  <si>
+    <t>St. Joseph.jpg</t>
   </si>
 </sst>
 </file>
@@ -2530,10 +2530,10 @@
   </sheetPr>
   <dimension ref="A1:BV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2700,7 +2700,7 @@
         <v>101</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="V2" s="21"/>
       <c r="W2" s="27" t="s">
@@ -2836,7 +2836,7 @@
         <v>88</v>
       </c>
       <c r="U4" s="47" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="V4" s="21"/>
       <c r="W4" s="27" t="s">
@@ -2906,7 +2906,7 @@
         <v>110</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="V5" s="21"/>
       <c r="W5" s="27" t="s">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>342</v>
@@ -3050,7 +3050,7 @@
         <v>128</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="V7" s="21"/>
       <c r="W7" s="27" t="s">
@@ -3122,7 +3122,7 @@
         <v>135</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="V8" s="21"/>
       <c r="W8" s="27" t="s">
@@ -3192,7 +3192,7 @@
         <v>139</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="V9" s="21"/>
       <c r="W9" s="27" t="s">
@@ -3264,7 +3264,7 @@
         <v>143</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="V10" s="21"/>
       <c r="W10" s="27" t="s">
@@ -3336,7 +3336,7 @@
         <v>147</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="V11" s="21"/>
       <c r="W11" s="27" t="s">
@@ -3408,10 +3408,10 @@
         <v>153</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="W12" s="27" t="s">
         <v>154</v>
@@ -3484,7 +3484,7 @@
         <v>158</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="27" t="s">
@@ -3552,7 +3552,7 @@
         <v>163</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="V14" s="21"/>
       <c r="W14" s="27" t="s">
@@ -3622,7 +3622,7 @@
         <v>168</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="27" t="s">
@@ -3694,7 +3694,7 @@
         <v>173</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="V16" s="21"/>
       <c r="W16" s="27" t="s">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="W17" s="27" t="s">
         <v>178</v>
@@ -3838,7 +3838,7 @@
         <v>182</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="V18" s="21"/>
       <c r="W18" s="27" t="s">
@@ -3908,7 +3908,7 @@
         <v>186</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="27" t="s">
@@ -3978,7 +3978,7 @@
         <v>190</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="V20" s="21"/>
       <c r="W20" s="27" t="s">
@@ -4048,7 +4048,7 @@
         <v>195</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V21" s="21"/>
       <c r="W21" s="27" t="s">
@@ -4120,7 +4120,7 @@
         <v>199</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="V22" s="21"/>
       <c r="W22" s="27" t="s">
@@ -4190,7 +4190,7 @@
         <v>204</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="V23" s="21"/>
       <c r="W23" s="27" t="s">
@@ -4260,7 +4260,7 @@
         <v>208</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="V24" s="21"/>
       <c r="W24" s="27" t="s">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W25" s="27" t="s">
         <v>178</v>
@@ -4408,7 +4408,7 @@
         <v>216</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="V26" s="30"/>
       <c r="W26" s="36" t="s">
@@ -4603,7 +4603,7 @@
         <v>227</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="V28" s="21"/>
       <c r="W28" s="27" t="s">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="W29" s="27" t="s">
         <v>234</v>
@@ -4839,10 +4839,10 @@
         <v>238</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="V30" s="21" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="W30" s="27" t="s">
         <v>239</v>
@@ -5079,7 +5079,7 @@
         <v>248</v>
       </c>
       <c r="U32" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="V32" s="21"/>
       <c r="W32" s="27" t="s">
@@ -5198,10 +5198,10 @@
         <v>254</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="W33" s="27" t="s">
         <v>255</v>
@@ -5319,7 +5319,7 @@
         <v>259</v>
       </c>
       <c r="U34" s="21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="V34" s="21"/>
       <c r="W34" s="27" t="s">
@@ -5436,7 +5436,7 @@
         <v>264</v>
       </c>
       <c r="U35" s="21" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="V35" s="21"/>
       <c r="W35" s="27" t="s">
@@ -5553,10 +5553,10 @@
         <v>268</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="V36" s="21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="W36" s="27" t="s">
         <v>178</v>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>271</v>
@@ -5769,7 +5769,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>276</v>
@@ -5787,10 +5787,10 @@
         <v>279</v>
       </c>
       <c r="U38" s="21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="V38" s="21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="W38" s="27" t="s">
         <v>178</v>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="P39" s="27" t="s">
         <v>283</v>
@@ -5908,10 +5908,10 @@
         <v>286</v>
       </c>
       <c r="U39" s="21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="V39" s="21" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="W39" s="27" t="s">
         <v>178</v>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="N40" s="26"/>
       <c r="O40" s="27" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="P40" s="27" t="s">
         <v>287</v>
@@ -6029,10 +6029,10 @@
         <v>290</v>
       </c>
       <c r="U40" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V40" s="21" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="W40" s="27" t="s">
         <v>178</v>
@@ -6150,7 +6150,7 @@
         <v>294</v>
       </c>
       <c r="U41" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="V41" s="21"/>
       <c r="W41" s="27" t="s">
@@ -6271,10 +6271,10 @@
         <v>297</v>
       </c>
       <c r="U42" s="21" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="V42" s="21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W42" s="27" t="s">
         <v>298</v>
@@ -6606,7 +6606,7 @@
         <v>551236002471</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P45" s="27" t="s">
         <v>309</v>
@@ -6624,7 +6624,7 @@
         <v>314</v>
       </c>
       <c r="U45" s="21" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="V45" s="21"/>
       <c r="W45" s="27" t="s">
@@ -6723,7 +6723,7 @@
       <c r="M46" s="25"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>320</v>
@@ -6741,7 +6741,7 @@
         <v>318</v>
       </c>
       <c r="U46" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="V46" s="21"/>
       <c r="W46" s="27" t="s">
@@ -6846,7 +6846,7 @@
         <v>551236001642</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>321</v>
@@ -6864,10 +6864,10 @@
         <v>324</v>
       </c>
       <c r="U47" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="V47" s="21" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="W47" s="27" t="s">
         <v>325</v>
@@ -6985,7 +6985,7 @@
         <v>328</v>
       </c>
       <c r="U48" s="21" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="V48" s="21"/>
       <c r="W48" s="27" t="s">
@@ -7086,7 +7086,7 @@
         <v>551236001646</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P49" s="27" t="s">
         <v>330</v>
@@ -7104,7 +7104,7 @@
         <v>332</v>
       </c>
       <c r="U49" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="V49" s="21"/>
       <c r="W49" s="27" t="s">
@@ -7199,7 +7199,7 @@
       <c r="M50" s="25"/>
       <c r="N50" s="26"/>
       <c r="O50" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P50" s="27" t="s">
         <v>333</v>
@@ -7217,7 +7217,7 @@
         <v>336</v>
       </c>
       <c r="U50" s="21" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="V50" s="21"/>
       <c r="W50" s="27" t="s">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="N51" s="26"/>
       <c r="O51" s="27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P51" s="27" t="s">
         <v>337</v>
@@ -7338,10 +7338,10 @@
         <v>340</v>
       </c>
       <c r="U51" s="21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="V51" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W51" s="27" t="s">
         <v>341</v>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19949DF-9808-8B49-A460-20B6522A0D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CD4AE4-EFDB-6C47-B32A-8719CC13FBFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31020" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,9 +419,6 @@
     <t>(262) 456-1079</t>
   </si>
   <si>
-    <t>www.evergreen.k12.wi.us</t>
-  </si>
-  <si>
     <t>Each child will be known, valued, challenged, and each day will be in an environment of happiness, joy, and excitement that will generate within them a desire to come to school each day.</t>
   </si>
   <si>
@@ -683,9 +680,6 @@
     <t>(262) 619-4400</t>
   </si>
   <si>
-    <t>www.rusd.org/park</t>
-  </si>
-  <si>
     <t xml:space="preserve">Park is known for its rich tradition of excellence in academics, sports and activities… Its ultimate goal is to have classrooms where students and staff can live and learn in a climate of mutual respect. Further, it will strive to promote an environment where all can take pride in their ethnic and racial heritage. Such goals of respect and understanding have value for development of the greater society in which we all live. </t>
   </si>
   <si>
@@ -704,9 +698,6 @@
     <t>( 262) 752-2500</t>
   </si>
   <si>
-    <t>www.prairieschool.com</t>
-  </si>
-  <si>
     <t>The Prairie School nurtures the creativity, interests and abilities of every student, inspiring each to explore, thrive, and add value individually and in collaboration with others. Our community of students, faculty, and families works together to create a collaborative and supportive culture grounded in human values – celebrating both our differences and commonalities.  Prairie graduates are prepared for college and life with the desire and skills to make the world a better place.</t>
   </si>
   <si>
@@ -716,9 +707,6 @@
     <t>(262) 664-6600</t>
   </si>
   <si>
-    <t>www.rusd.org/alternative-education</t>
-  </si>
-  <si>
     <t>Our mission is to provide alternative pathways for students to meet their graduation requirements through personalized and blended learning. Our vision is that students will acquire the skills to be college and career ready and demonstrate the knowledge, skills and values required to be productive global citizens.</t>
   </si>
   <si>
@@ -731,15 +719,9 @@
     <t>(262) 634-0961</t>
   </si>
   <si>
-    <t>www.racinechristianschool.com</t>
-  </si>
-  <si>
     <t>The Racine Christian School exists to glorify God by providing a Christ-centered education for its students. This education is based upon the infallible Word of God interpreted in conjunction with the confessional statements of the Reformed Churches.</t>
   </si>
   <si>
-    <t>www.ologa.org</t>
-  </si>
-  <si>
     <t>Private, Religious, Christian Schools International</t>
   </si>
   <si>
@@ -749,9 +731,6 @@
     <t>(262) 637-6538</t>
   </si>
   <si>
-    <t>www.racinelutheran.org</t>
-  </si>
-  <si>
     <t>Racine Lutheran High School’s mission is to guide our youth in faith, learning, character and leadership by nurturing their relationship with Jesus Christ, and educating them for a life of service to God and man.</t>
   </si>
   <si>
@@ -764,9 +743,6 @@
     <t>(262) 637-7802</t>
   </si>
   <si>
-    <t>www.racinemontessori.com</t>
-  </si>
-  <si>
     <t>Montessori is a hands-on approach to learning. It encourages children to develop their observation skills through activities that use the five senses, kinetic movement, spatial refinement, small and gross motor skill coordination, and concrete knowledge that leads to later abstraction.</t>
   </si>
   <si>
@@ -777,9 +753,6 @@
   </si>
   <si>
     <t>(262) 619-4500</t>
-  </si>
-  <si>
-    <t>www.risd.org/redapple-es</t>
   </si>
   <si>
     <t>Through STEAM, Red Apple Elementary engages, inspires and empowers a community of learners in critical thinking, collaboration and innovation; preparing students to be college and/or career ready in alignment with the [RUSD] North Star vision.</t>
@@ -804,9 +777,6 @@
 (262) 634-3010</t>
   </si>
   <si>
-    <t>www.luminschools.org/LUMIN-Schools/Our-Schools/Renaissance-School.htm</t>
-  </si>
-  <si>
     <t>Our purpose is to provide safe, Christian schools focused on educational success, leadership development and spiritual growth. We help our students work hard to achieve greatness by nurturing and equipping them in a strong Christian and academic environment to become lifelong learners, capable of making responsible decisions, growing in faith and serving God and the community.</t>
   </si>
   <si>
@@ -819,9 +789,6 @@
     <t>(262) 664-8300</t>
   </si>
   <si>
-    <t>www.rusd.org/roosevelt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roosevelt Elementary School is a positive learning community where every student and staff member strives to become collaboratively focused on maximum student academic, social and emotional growth in order to meet the RUSD North Star goals. Roosevelt is a neighborhood school with a lot of heart. </t>
   </si>
   <si>
@@ -834,9 +801,6 @@
     <t>(262) 664-6850</t>
   </si>
   <si>
-    <t>www.rusd.org/montessori</t>
-  </si>
-  <si>
     <t xml:space="preserve">Montessori education is a method of education based on self-directed learning activities that emphasize learning through all five senses and multi-age classrooms. Children in Montessori classes learn at their own, individual pace and according to their own choice of activities from hundreds of possibilities. Learning is an exciting process of discovery, leading to concentration, coordination, motivation, self-discipline, and independence.  </t>
   </si>
   <si>
@@ -846,9 +810,6 @@
     <t>(262) 632-2785</t>
   </si>
   <si>
-    <t>www.saintcats.org</t>
-  </si>
-  <si>
     <t>St. Catherine’s educates students in the Catholic faith, fostering an environment of academic and behavioral excellence to create lifelong learners and globally responsible citizens. St. Catherine’s is built on the Dominican values of Study, Prayer, Service and Community.</t>
   </si>
   <si>
@@ -864,9 +825,6 @@
     <t>(262) 633-2758</t>
   </si>
   <si>
-    <t>www.stjohnsracine.org</t>
-  </si>
-  <si>
     <t>At St. John's Lutheran School, we provide an educational environment that strives to enrich the "whole" child in a "holy" way. We challenge the academic development of all children in a setting that nurtures the gifts each child has been given by God. Our spiritual climate encourages an active faith in Jesus Christ, our Lord and Savior. Our students in 3-year old preschool to 8th grade are daily challenged by caring teachers to stretch both their minds and hearts in a grace filled environment.</t>
   </si>
   <si>
@@ -879,9 +837,6 @@
     <t>(262) 633-2403</t>
   </si>
   <si>
-    <t>www.st-joes-school.org</t>
-  </si>
-  <si>
     <t>Catholic schools in the Archdiocese of Milwaukee uniquely balance faith and education. We do more than prepare students for tests in the classroom. We prepare them for tests in life. Students participate in daily prayer and religion classes, have frequent opportunities for worship and Mass attendance, and receive sacramental preparation. Students are taught to be respectful and compassionate, and emphasis is placed not only on academic achievement, but on moral and spiritual growth.</t>
   </si>
   <si>
@@ -900,9 +855,6 @@
     <t>(262) 554-1801 X211</t>
   </si>
   <si>
-    <t>www.stlucysschool.com</t>
-  </si>
-  <si>
     <t>St. Lucy Catholic Parish School is a community of parents, students, parishioners, and staff faithful to the teachings of the Catholic Church, providing a full range of educational programs inspired by the Gospel message.</t>
   </si>
   <si>
@@ -912,9 +864,6 @@
     <t>(262) 639-3333</t>
   </si>
   <si>
-    <t>www.st-ritasschool.org</t>
-  </si>
-  <si>
     <t>Our identity as a Catholic school is woven into every aspect of school life. Each child's personal relationship with Jesus is forefront. We foster this relationship with daily religion class, daily prayer, weekly mass, and seasonal religious activities. We encourage our families to carry on this mission at home by attending mass each weekend and setting and achieving faith goals.</t>
   </si>
   <si>
@@ -924,18 +873,12 @@
     <t>(262) 664-6300</t>
   </si>
   <si>
-    <t>www.rusd.org/schulte</t>
-  </si>
-  <si>
     <t>"It's all about the kids."  At Schulte, it is our staff's responsibility to provide a child-centered school community that is both academically challenging and supportive. All students will reach their individual potential and make a positive impact on society.</t>
   </si>
   <si>
     <t>245 Main Street, Suite L-2</t>
   </si>
   <si>
-    <t>www.sienacatholicschools.org</t>
-  </si>
-  <si>
     <t>Siena Catholic Schools of Racine unites the area’s five Catholic elementary schools (John Paul II Academy, Our Lady of Grace Academy, St. Joseph, St. Lucy, St. Rita) and one middle/high school (St. Catherine’s) in a regional model of Catholic education intended to preserve the individual identity, history and uniqueness of each school while maximizing the impact of collective strength. We are committed to educating in a Catholic learning environment rooted in Christ’s teachings and characterized by academic excellence, servant leadership, student diversity, personal accountability and respect for every individual.</t>
   </si>
   <si>
@@ -948,9 +891,6 @@
     <t>(262) 632-6797</t>
   </si>
   <si>
-    <t>www.swmschool.org</t>
-  </si>
-  <si>
     <t>Provide a safe, home-like atmosphere for your children to learn.</t>
   </si>
   <si>
@@ -966,9 +906,6 @@
     <t>(262) 671-5015</t>
   </si>
   <si>
-    <t>www.sonnenbergschool.com</t>
-  </si>
-  <si>
     <t>Our mission at Sonnenberg School is to provide an educational environment that is loving, safe, and supportive, focused on preparing students academically, socially, and emotionally for their future lives of success. Designed specifically to meet the needs of students on the Autism Spectrum, Sonnenberg School ensures that all students receive an outstanding education from highly qualified and caring teachers. We work to help every child develop his or her unique gifts and talents to the fullest potential.</t>
   </si>
   <si>
@@ -981,12 +918,6 @@
     <t>www.rusd.org/starbuck</t>
   </si>
   <si>
-    <t>www.rusd.org/wadewitz</t>
-  </si>
-  <si>
-    <t>www.rusd.org/walden</t>
-  </si>
-  <si>
     <t>Starbuck Middle School is an International Baccalaureate (IB) World School for the Middle Years Programme (MYP). The IB MYP is a framework for teaching that benefits all students. It addresses a wide variety of learning styles, involves all students in their own unique learning processes and gives students a standard, internationally accepted foundation of knowledge.… Students who participate in the IB MYP become independent learners who can recognize relationships between school subjects and the world outside. Through the IB Programme, Starbuck offers an inquiry-based curriculum that empowers students to become responsible world citizens and lifelong learners.</t>
   </si>
   <si>
@@ -996,9 +927,6 @@
     <t>(262) 664-6100</t>
   </si>
   <si>
-    <t>www.rusd.org/real</t>
-  </si>
-  <si>
     <t>The mission of the Racine Engineering Arts and Leadership (REAL) School is to motivate every student to assume accountability for his/her own educational process while becoming a joyful lifelong learner and successful in careers and family. Every student will have a purpose and identity that drives their self-confidence and skill development necessary to succeed in life.</t>
   </si>
   <si>
@@ -1014,9 +942,6 @@
     <t>(262) 632-2900</t>
   </si>
   <si>
-    <t>www.trinityracine.com/primary-school</t>
-  </si>
-  <si>
     <t xml:space="preserve">The mission of Trinity Lutheran School is to partner with parents to guide and educate children and families to know that they are redeemed children of God. As such, through education, they will identify, develop, and utilize their God-given talents, thereby preparing them to spread the good news of Jesus Christ to all nations and serve their neighbor. </t>
   </si>
   <si>
@@ -1050,9 +975,6 @@
     <t>(262) 664-6200</t>
   </si>
   <si>
-    <t>www.rusd.org/westridge</t>
-  </si>
-  <si>
     <t>The mission of West Ridge is to provide a rigorous, relevant and inquiry-based educational environment that challenges students to excel. We embrace a partnership with students, parents, educators and members of our community to attain these goals. West Ridge is an elementary IB (International Baccalaureate) school. International Baccalaureate (IB) is a nonprofit, educational foundation that offers three different educational programs that help students develop the intellectual, academic, personal, emotional and social skills to live, learn and work in a rapidly globalizing world.</t>
   </si>
   <si>
@@ -1060,9 +982,6 @@
   </si>
   <si>
     <t>(262) 456-2770</t>
-  </si>
-  <si>
-    <t>www.wisconsinlutheranschool.org</t>
   </si>
   <si>
     <t>We seek to prepare children for eternity by learning about Jesus and his forgiveness. We also seek to develop good citizens for our community and country. Jesus stated that these are the greatest of all the commandments: "Love the Lord your God with all your heart and with all your soul and with all your strength and with all your mind" and "Love your neighbor as yourself." We seek to instill this in our children by example and instruction. The Lord is gracious to promise that he will see that all other things are added to us according to our needs. (Matthew 6:33)</t>
@@ -1459,6 +1378,87 @@
   </si>
   <si>
     <t>St. Joseph.jpg</t>
+  </si>
+  <si>
+    <t>http://www.evergreen.k12.wi.us</t>
+  </si>
+  <si>
+    <t>http://www.ologa.org</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/park</t>
+  </si>
+  <si>
+    <t>https://www.prairieschool.com</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/alternative-education</t>
+  </si>
+  <si>
+    <t>https://www.racinechristianschool.com</t>
+  </si>
+  <si>
+    <t>http://www.racinelutheran.org</t>
+  </si>
+  <si>
+    <t>https://www.racinemontessori.com</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/redapple-es</t>
+  </si>
+  <si>
+    <t>https://www.luminschools.org/LUMIN-Schools/Our-Schools/Renaissance-School.htm</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/roosevelt</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/montessori</t>
+  </si>
+  <si>
+    <t>https://www.saintcats.org</t>
+  </si>
+  <si>
+    <t>https://www.stjohnsracine.org</t>
+  </si>
+  <si>
+    <t>http://www.st-joes-school.org</t>
+  </si>
+  <si>
+    <t>https://www.stlucysschool.com</t>
+  </si>
+  <si>
+    <t>https://www.st-ritasschool.org</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/schulte</t>
+  </si>
+  <si>
+    <t>https://www.sienacatholicschools.org</t>
+  </si>
+  <si>
+    <t>https://www.swmschool.org</t>
+  </si>
+  <si>
+    <t>https://www.sonnenbergschool.com</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/real</t>
+  </si>
+  <si>
+    <t>http://www.trinityracine.com/primary-school</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/wadewitz</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/walden</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/westridge</t>
+  </si>
+  <si>
+    <t>https://www.wisconsinlutheranschool.org</t>
   </si>
 </sst>
 </file>
@@ -2530,10 +2530,10 @@
   </sheetPr>
   <dimension ref="A1:BV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2682,7 +2682,7 @@
         <v>550004502575</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>97</v>
@@ -2700,7 +2700,7 @@
         <v>101</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="V2" s="21"/>
       <c r="W2" s="27" t="s">
@@ -2750,7 +2750,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="26"/>
       <c r="O3" s="27" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>102</v>
@@ -2818,7 +2818,7 @@
         <v>551236001621</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>84</v>
@@ -2836,7 +2836,7 @@
         <v>88</v>
       </c>
       <c r="U4" s="47" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="V4" s="21"/>
       <c r="W4" s="27" t="s">
@@ -2888,7 +2888,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
       <c r="O5" s="27" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>107</v>
@@ -2906,7 +2906,7 @@
         <v>110</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="V5" s="21"/>
       <c r="W5" s="27" t="s">
@@ -2960,7 +2960,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="26"/>
       <c r="O6" s="27" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>119</v>
@@ -3032,29 +3032,29 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>126</v>
       </c>
       <c r="S7" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="T7" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="T7" s="27" t="s">
-        <v>128</v>
-      </c>
       <c r="U7" s="21" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="V7" s="21"/>
       <c r="W7" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X7" s="27">
         <v>351</v>
@@ -3063,7 +3063,7 @@
         <v>76.599999999999994</v>
       </c>
       <c r="Z7" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA7" s="27">
         <v>98</v>
@@ -3104,25 +3104,25 @@
         <v>551236001611</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="P8" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="R8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="S8" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="T8" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="T8" s="27" t="s">
-        <v>135</v>
-      </c>
       <c r="U8" s="21" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="V8" s="21"/>
       <c r="W8" s="27" t="s">
@@ -3135,7 +3135,7 @@
         <v>81.7</v>
       </c>
       <c r="Z8" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA8" s="27"/>
     </row>
@@ -3145,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
@@ -3174,25 +3174,25 @@
         <v>551236001614</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="27" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="S9" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="T9" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="T9" s="27" t="s">
-        <v>139</v>
-      </c>
       <c r="U9" s="21" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="V9" s="21"/>
       <c r="W9" s="27" t="s">
@@ -3205,7 +3205,7 @@
         <v>83.6</v>
       </c>
       <c r="Z9" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA9" s="27"/>
     </row>
@@ -3215,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>1</v>
@@ -3246,25 +3246,25 @@
         <v>551236002311</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>85</v>
       </c>
       <c r="R10" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="T10" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="U10" s="21" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="V10" s="21"/>
       <c r="W10" s="27" t="s">
@@ -3277,7 +3277,7 @@
         <v>28.9</v>
       </c>
       <c r="Z10" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA10" s="27"/>
     </row>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>25</v>
@@ -3318,25 +3318,25 @@
         <v>551236001608</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="27" t="s">
         <v>98</v>
       </c>
       <c r="R11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="T11" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="T11" s="27" t="s">
-        <v>147</v>
-      </c>
       <c r="U11" s="21" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="V11" s="21"/>
       <c r="W11" s="27" t="s">
@@ -3349,7 +3349,7 @@
         <v>57</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA11" s="27"/>
     </row>
@@ -3390,31 +3390,31 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="P12" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="R12" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="S12" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="T12" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="U12" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="W12" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="U12" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="V12" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>154</v>
       </c>
       <c r="X12" s="27">
         <v>319</v>
@@ -3423,7 +3423,7 @@
         <v>84.6</v>
       </c>
       <c r="Z12" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA12" s="27">
         <v>99.7</v>
@@ -3466,25 +3466,25 @@
         <v>551236001620</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="27" t="s">
         <v>98</v>
       </c>
       <c r="R13" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="S13" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="T13" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="T13" s="27" t="s">
-        <v>158</v>
-      </c>
       <c r="U13" s="21" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="27" t="s">
@@ -3497,7 +3497,7 @@
         <v>63.5</v>
       </c>
       <c r="Z13" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA13" s="27"/>
     </row>
@@ -3534,25 +3534,25 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
       <c r="O14" s="27" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="P14" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="R14" s="27" t="s">
+      <c r="S14" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="T14" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="T14" s="27" t="s">
-        <v>163</v>
-      </c>
       <c r="U14" s="21" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="V14" s="21"/>
       <c r="W14" s="27" t="s">
@@ -3565,7 +3565,7 @@
         <v>93.9</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA14" s="27"/>
     </row>
@@ -3575,7 +3575,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>25</v>
@@ -3604,25 +3604,25 @@
         <v>551236001622</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q15" s="27" t="s">
         <v>98</v>
       </c>
       <c r="R15" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="S15" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="T15" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="T15" s="27" t="s">
-        <v>168</v>
-      </c>
       <c r="U15" s="21" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="27" t="s">
@@ -3635,7 +3635,7 @@
         <v>41.2</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA15" s="27"/>
     </row>
@@ -3645,7 +3645,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>1</v>
@@ -3676,25 +3676,25 @@
         <v>551236001623</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="P16" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="S16" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="Q16" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="R16" s="27" t="s">
+      <c r="T16" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="S16" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="T16" s="27" t="s">
-        <v>173</v>
-      </c>
       <c r="U16" s="21" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="V16" s="21"/>
       <c r="W16" s="27" t="s">
@@ -3707,7 +3707,7 @@
         <v>77.3</v>
       </c>
       <c r="Z16" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA16" s="27"/>
     </row>
@@ -3752,35 +3752,35 @@
         <v>551236001624</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="27" t="s">
         <v>98</v>
       </c>
       <c r="R17" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="S17" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="T17" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>177</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Y17" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z17" s="27" t="s">
         <v>125</v>
@@ -3795,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>1</v>
@@ -3820,25 +3820,25 @@
       </c>
       <c r="N18" s="26"/>
       <c r="O18" s="27" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="P18" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="Q18" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" s="27" t="s">
+      <c r="S18" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="S18" s="39" t="s">
+      <c r="T18" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="T18" s="27" t="s">
-        <v>182</v>
-      </c>
       <c r="U18" s="21" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="V18" s="21"/>
       <c r="W18" s="27" t="s">
@@ -3851,7 +3851,7 @@
         <v>85.2</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA18" s="27"/>
     </row>
@@ -3861,7 +3861,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>1</v>
@@ -3890,25 +3890,25 @@
         <v>551236001626</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="27" t="s">
         <v>103</v>
       </c>
       <c r="R19" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="S19" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="S19" s="39" t="s">
+      <c r="T19" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="T19" s="27" t="s">
-        <v>186</v>
-      </c>
       <c r="U19" s="21" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="27" t="s">
@@ -3921,7 +3921,7 @@
         <v>81.099999999999994</v>
       </c>
       <c r="Z19" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA19" s="27"/>
     </row>
@@ -3931,7 +3931,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>1</v>
@@ -3960,25 +3960,25 @@
         <v>551236001627</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="27" t="s">
         <v>98</v>
       </c>
       <c r="R20" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S20" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="39" t="s">
+      <c r="T20" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="27" t="s">
-        <v>190</v>
-      </c>
       <c r="U20" s="21" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="V20" s="21"/>
       <c r="W20" s="27" t="s">
@@ -3991,7 +3991,7 @@
         <v>94.3</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA20" s="27"/>
     </row>
@@ -4001,7 +4001,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>1</v>
@@ -4030,25 +4030,25 @@
         <v>551236003337</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="P21" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="R21" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="Q21" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="R21" s="27" t="s">
+      <c r="S21" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="S21" s="39" t="s">
+      <c r="T21" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="T21" s="27" t="s">
-        <v>195</v>
-      </c>
       <c r="U21" s="21" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="V21" s="21"/>
       <c r="W21" s="27" t="s">
@@ -4061,7 +4061,7 @@
         <v>87.8</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA21" s="27"/>
     </row>
@@ -4102,25 +4102,25 @@
         <v>551236001628</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="27" t="s">
         <v>103</v>
       </c>
       <c r="R22" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="S22" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="T22" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="T22" s="27" t="s">
-        <v>199</v>
-      </c>
       <c r="U22" s="21" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="V22" s="21"/>
       <c r="W22" s="27" t="s">
@@ -4133,7 +4133,7 @@
         <v>80.8</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA22" s="27"/>
     </row>
@@ -4172,25 +4172,25 @@
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="27" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="P23" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="R23" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="Q23" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="R23" s="27" t="s">
+      <c r="S23" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="S23" s="39" t="s">
+      <c r="T23" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="T23" s="27" t="s">
-        <v>204</v>
-      </c>
       <c r="U23" s="21" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="V23" s="21"/>
       <c r="W23" s="27" t="s">
@@ -4203,7 +4203,7 @@
         <v>77.7</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA23" s="27"/>
     </row>
@@ -4242,25 +4242,25 @@
         <v>551236001632</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="P24" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="R24" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="Q24" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="R24" s="27" t="s">
+      <c r="S24" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="S24" s="39" t="s">
+      <c r="T24" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="T24" s="27" t="s">
-        <v>208</v>
-      </c>
       <c r="U24" s="21" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="V24" s="21"/>
       <c r="W24" s="27" t="s">
@@ -4273,7 +4273,7 @@
         <v>42.2</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA24" s="27"/>
     </row>
@@ -4318,35 +4318,35 @@
         <v>551236001634</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="P25" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="R25" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="Q25" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="R25" s="27" t="s">
+      <c r="S25" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="T25" s="27" t="s">
         <v>210</v>
-      </c>
-      <c r="S25" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>211</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X25" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y25" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z25" s="27" t="s">
         <v>125</v>
@@ -4390,25 +4390,25 @@
         <v>551236001605</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="36" t="s">
         <v>103</v>
       </c>
       <c r="R26" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="T26" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="S26" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="T26" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="U26" s="30" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="V26" s="30"/>
       <c r="W26" s="36" t="s">
@@ -4421,7 +4421,7 @@
         <v>71.900000000000006</v>
       </c>
       <c r="Z26" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA26" s="36"/>
     </row>
@@ -4431,7 +4431,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="C27" s="22">
         <v>5</v>
@@ -4453,7 +4453,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>75</v>
@@ -4462,22 +4462,22 @@
         <v>551236001635</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="P27" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="T27" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="R27" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="S27" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>223</v>
       </c>
       <c r="U27" s="21" t="s">
         <v>115</v>
@@ -4493,7 +4493,7 @@
         <v>114</v>
       </c>
       <c r="Z27" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA27" s="27" t="s">
         <v>114</v>
@@ -4585,25 +4585,25 @@
         <v>551236003045</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q28" s="27" t="s">
         <v>98</v>
       </c>
       <c r="R28" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S28" s="44" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="T28" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="V28" s="21"/>
       <c r="W28" s="27" t="s">
@@ -4616,7 +4616,7 @@
         <v>81.7</v>
       </c>
       <c r="Z28" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA28" s="27"/>
       <c r="AB28"/>
@@ -4706,29 +4706,29 @@
       </c>
       <c r="N29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R29" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S29" s="45" t="s">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="W29" s="27" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="X29" s="27">
         <v>61</v>
@@ -4821,31 +4821,31 @@
       <c r="M30" s="25"/>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R30" s="27" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S30" s="39" t="s">
-        <v>237</v>
+        <v>449</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="V30" s="21" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="W30" s="27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="X30" s="27">
         <v>264</v>
@@ -4942,22 +4942,22 @@
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="S31" s="39" t="s">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="U31" s="21" t="s">
         <v>114</v>
@@ -4973,7 +4973,7 @@
         <v>114</v>
       </c>
       <c r="Z31" s="27" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AA31" s="27" t="s">
         <v>114</v>
@@ -5032,7 +5032,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>1</v>
@@ -5061,25 +5061,25 @@
         <v>551236001636</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="S32" s="39" t="s">
-        <v>247</v>
+        <v>451</v>
       </c>
       <c r="T32" s="27" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="U32" s="21" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="V32" s="21"/>
       <c r="W32" s="27" t="s">
@@ -5092,7 +5092,7 @@
         <v>52.1</v>
       </c>
       <c r="Z32" s="27" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AA32" s="27"/>
       <c r="AB32"/>
@@ -5180,31 +5180,31 @@
       <c r="M33" s="25"/>
       <c r="N33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="S33" s="48" t="s">
-        <v>253</v>
+        <v>452</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X33" s="27">
         <v>346</v>
@@ -5272,7 +5272,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>1</v>
@@ -5301,25 +5301,25 @@
         <v>551236001637</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="S34" s="39" t="s">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="T34" s="27" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="U34" s="21" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="V34" s="21"/>
       <c r="W34" s="27" t="s">
@@ -5332,7 +5332,7 @@
         <v>87.4</v>
       </c>
       <c r="Z34" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA34" s="27"/>
       <c r="AB34"/>
@@ -5389,7 +5389,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>1</v>
@@ -5418,25 +5418,25 @@
         <v>551236003044</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="S35" s="39" t="s">
-        <v>263</v>
+        <v>454</v>
       </c>
       <c r="T35" s="27" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="U35" s="21" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="V35" s="21"/>
       <c r="W35" s="27" t="s">
@@ -5449,7 +5449,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="Z35" s="27" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35"/>
@@ -5535,34 +5535,34 @@
       </c>
       <c r="N36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="P36" s="27" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R36" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="S36" s="39" t="s">
-        <v>267</v>
+        <v>455</v>
       </c>
       <c r="T36" s="27" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="V36" s="21" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="W36" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X36" s="27" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="Y36" s="21">
         <v>51.9</v>
@@ -5571,7 +5571,7 @@
         <v>125</v>
       </c>
       <c r="AA36" s="27" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AB36"/>
       <c r="AC36"/>
@@ -5652,27 +5652,27 @@
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="S37" s="39" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="T37" s="27" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="27" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="X37" s="27">
         <v>222</v>
@@ -5769,43 +5769,43 @@
       <c r="M38" s="25"/>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R38" s="27" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="S38" s="39" t="s">
-        <v>278</v>
+        <v>457</v>
       </c>
       <c r="T38" s="27" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="U38" s="21" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="V38" s="21" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="W38" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X38" s="27" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="Y38" s="21" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Z38" s="27" t="s">
         <v>125</v>
       </c>
       <c r="AA38" s="27" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="AB38"/>
       <c r="AC38"/>
@@ -5861,7 +5861,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>28</v>
@@ -5890,31 +5890,31 @@
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="27" t="s">
         <v>103</v>
       </c>
       <c r="R39" s="27" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="S39" s="39" t="s">
-        <v>285</v>
+        <v>458</v>
       </c>
       <c r="T39" s="27" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="U39" s="21" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="V39" s="21" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="W39" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X39" s="27">
         <v>190</v>
@@ -5982,7 +5982,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>25</v>
@@ -6011,31 +6011,31 @@
       </c>
       <c r="N40" s="26"/>
       <c r="O40" s="27" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="P40" s="27" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Q40" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R40" s="27" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="S40" s="39" t="s">
-        <v>289</v>
+        <v>459</v>
       </c>
       <c r="T40" s="27" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="U40" s="21" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="V40" s="21" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X40" s="27">
         <v>148</v>
@@ -6103,7 +6103,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>1</v>
@@ -6132,25 +6132,25 @@
         <v>551236001638</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="P41" s="27" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="27" t="s">
         <v>120</v>
       </c>
       <c r="R41" s="27" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="S41" s="39" t="s">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="T41" s="27" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="U41" s="21" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="V41" s="21"/>
       <c r="W41" s="27" t="s">
@@ -6163,7 +6163,7 @@
         <v>52.4</v>
       </c>
       <c r="Z41" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA41" s="27"/>
       <c r="AB41"/>
@@ -6253,31 +6253,31 @@
       <c r="M42" s="22"/>
       <c r="N42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="P42" s="27" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="27" t="s">
         <v>103</v>
       </c>
       <c r="R42" s="27" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="S42" s="39" t="s">
-        <v>296</v>
+        <v>461</v>
       </c>
       <c r="T42" s="27" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="U42" s="21" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="V42" s="21" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="W42" s="27" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="X42" s="27">
         <v>1255</v>
@@ -6345,7 +6345,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>28</v>
@@ -6371,19 +6371,19 @@
       <c r="N43" s="26"/>
       <c r="O43" s="27"/>
       <c r="P43" s="27" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R43" s="27" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="S43" s="39" t="s">
-        <v>301</v>
+        <v>462</v>
       </c>
       <c r="T43" s="27" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="U43" s="21"/>
       <c r="V43" s="21"/>
@@ -6397,7 +6397,7 @@
         <v>114</v>
       </c>
       <c r="Z43" s="27" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="AA43" s="27" t="s">
         <v>114</v>
@@ -6487,22 +6487,22 @@
         <v>551236001639</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="R44" s="27" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="S44" s="39" t="s">
-        <v>307</v>
+        <v>463</v>
       </c>
       <c r="T44" s="27" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="U44" s="21" t="s">
         <v>114</v>
@@ -6518,7 +6518,7 @@
         <v>114</v>
       </c>
       <c r="Z44" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA44" s="27" t="s">
         <v>114</v>
@@ -6577,7 +6577,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="C45" s="22">
         <v>6</v>
@@ -6606,25 +6606,25 @@
         <v>551236002471</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R45" s="27" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="S45" s="39" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="T45" s="27" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="U45" s="21" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="V45" s="21"/>
       <c r="W45" s="27" t="s">
@@ -6637,7 +6637,7 @@
         <v>71</v>
       </c>
       <c r="Z45" s="27" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="AA45" s="27"/>
       <c r="AB45"/>
@@ -6694,7 +6694,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C46" s="22">
         <v>6</v>
@@ -6723,25 +6723,25 @@
       <c r="M46" s="25"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="Q46" s="27" t="s">
         <v>120</v>
       </c>
       <c r="R46" s="27" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="S46" s="39" t="s">
-        <v>317</v>
+        <v>464</v>
       </c>
       <c r="T46" s="27" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U46" s="21" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="V46" s="21"/>
       <c r="W46" s="27" t="s">
@@ -6754,7 +6754,7 @@
         <v>42.1</v>
       </c>
       <c r="Z46" s="27" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="AA46" s="27"/>
       <c r="AB46"/>
@@ -6811,7 +6811,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>1</v>
@@ -6846,31 +6846,31 @@
         <v>551236001642</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="P47" s="27" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R47" s="27" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="S47" s="39" t="s">
-        <v>323</v>
+        <v>465</v>
       </c>
       <c r="T47" s="27" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="U47" s="21" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="V47" s="21" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="W47" s="27" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="X47" s="27">
         <v>187</v>
@@ -6938,7 +6938,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>1</v>
@@ -6967,25 +6967,25 @@
         <v>551236001644</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="P48" s="27" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>98</v>
       </c>
       <c r="R48" s="27" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="S48" s="39" t="s">
-        <v>312</v>
+        <v>466</v>
       </c>
       <c r="T48" s="27" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="U48" s="21" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="V48" s="21"/>
       <c r="W48" s="27" t="s">
@@ -6998,7 +6998,7 @@
         <v>84.8</v>
       </c>
       <c r="Z48" s="27" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="AA48" s="27"/>
       <c r="AB48"/>
@@ -7055,7 +7055,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C49" s="22">
         <v>6</v>
@@ -7086,25 +7086,25 @@
         <v>551236001646</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="P49" s="27" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="Q49" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R49" s="27" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="S49" s="39" t="s">
-        <v>313</v>
+        <v>467</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="U49" s="21" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="V49" s="21"/>
       <c r="W49" s="27" t="s">
@@ -7172,7 +7172,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>1</v>
@@ -7199,25 +7199,25 @@
       <c r="M50" s="25"/>
       <c r="N50" s="26"/>
       <c r="O50" s="27" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="P50" s="27" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Q50" s="27" t="s">
         <v>85</v>
       </c>
       <c r="R50" s="27" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="S50" s="39" t="s">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="T50" s="27" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="U50" s="21" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="V50" s="21"/>
       <c r="W50" s="27" t="s">
@@ -7230,7 +7230,7 @@
         <v>77.8</v>
       </c>
       <c r="Z50" s="27" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="AA50" s="27"/>
       <c r="AB50"/>
@@ -7320,31 +7320,31 @@
       </c>
       <c r="N51" s="26"/>
       <c r="O51" s="27" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="P51" s="27" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="Q51" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R51" s="27" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="S51" s="39" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
       <c r="T51" s="27" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="U51" s="21" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="V51" s="21" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="W51" s="27" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="X51" s="27">
         <v>169</v>
@@ -7542,9 +7542,9 @@
     <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="S23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="S24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="S26" r:id="rId23" display="http://www.rusd.org/park" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="S26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="S27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="S28" r:id="rId25" display="http://www.rusd.org/alternative-education" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="S28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="S25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="S29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="S30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CD4AE4-EFDB-6C47-B32A-8719CC13FBFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF07ED4-4867-7540-933B-B65F0DAFBCBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31020" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="Private" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All schools'!$A$1:$AA$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'All schools'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2530,10 +2531,10 @@
   </sheetPr>
   <dimension ref="A1:BV52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="S51" sqref="S51"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2957,7 +2958,9 @@
       <c r="L6" s="24">
         <v>441</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="25">
+        <v>1512889</v>
+      </c>
       <c r="N6" s="26"/>
       <c r="O6" s="27" t="s">
         <v>343</v>
@@ -3016,7 +3019,9 @@
         <v>1</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
       <c r="I7" s="22">
         <v>2</v>
       </c>
@@ -3387,7 +3392,9 @@
       <c r="L12" s="24">
         <v>122</v>
       </c>
-      <c r="M12" s="25"/>
+      <c r="M12" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
         <v>366</v>
@@ -3459,9 +3466,7 @@
       <c r="L13" s="24">
         <v>1711</v>
       </c>
-      <c r="M13" s="25" t="s">
-        <v>74</v>
-      </c>
+      <c r="M13" s="25"/>
       <c r="N13" s="26">
         <v>551236001620</v>
       </c>
@@ -3747,7 +3752,9 @@
       <c r="L17" s="24">
         <v>314</v>
       </c>
-      <c r="M17" s="25"/>
+      <c r="M17" s="25">
+        <v>1507085</v>
+      </c>
       <c r="N17" s="26">
         <v>551236001624</v>
       </c>
@@ -3815,9 +3822,6 @@
       <c r="J18" s="22"/>
       <c r="K18" s="23"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="25">
-        <v>1507085</v>
-      </c>
       <c r="N18" s="26"/>
       <c r="O18" s="27" t="s">
         <v>363</v>
@@ -4167,9 +4171,7 @@
       <c r="L23" s="24">
         <v>2370</v>
       </c>
-      <c r="M23" s="25">
-        <v>1512696</v>
-      </c>
+      <c r="M23" s="25"/>
       <c r="N23" s="26"/>
       <c r="O23" s="27" t="s">
         <v>369</v>
@@ -4313,7 +4315,9 @@
       <c r="L25" s="24">
         <v>150</v>
       </c>
-      <c r="M25" s="25"/>
+      <c r="M25" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="N25" s="26">
         <v>551236001634</v>
       </c>
@@ -4455,9 +4459,7 @@
       <c r="L27" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="M27" s="25" t="s">
-        <v>75</v>
-      </c>
+      <c r="M27" s="25"/>
       <c r="N27" s="26">
         <v>551236001635</v>
       </c>
@@ -4818,7 +4820,9 @@
       <c r="J30" s="22"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
+      <c r="M30" s="25">
+        <v>1512696</v>
+      </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
         <v>374</v>
@@ -5642,7 +5646,9 @@
         <v>1</v>
       </c>
       <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="H37" s="22">
+        <v>1</v>
+      </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="23"/>
@@ -7427,7 +7433,7 @@
       </c>
       <c r="H52" s="22">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="1"/>
@@ -7503,7 +7509,7 @@
       <c r="BV52"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A52:AA52 B28:R29 T28:AA29 A1:AA7 B8:AA27 B30:AA51 A8:A51">
+  <conditionalFormatting sqref="A52:AA52 B28:R29 T28:AA29 A1:AA7 B30:AA51 A8:A51 B19:AA27 B18:L18 N18:AA18 B8:AA17">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF07ED4-4867-7540-933B-B65F0DAFBCBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C88AE3-3DDA-074A-B9B8-DED31B60CAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31020" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All schools" sheetId="13" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Private" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All schools'!$A$1:$AA$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All schools'!$A$1:$AF$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'All schools'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="491">
   <si>
     <t>name</t>
   </si>
@@ -354,9 +354,6 @@
     <t>(262) 664-8200</t>
   </si>
   <si>
-    <t>www.rusd.org/beec</t>
-  </si>
-  <si>
     <t>Bull Early Education (BEE) specializes in developmentally appropriate practice for 3- and 4-year-old children. We differentiate student instruction so that the play-based inquiry time engages students throughout their day. Self-regulation is the number one skill children need to be prepared for 5-Year-Old Kindergarten. BEE Center staff focuses on this by utilizing the research-based best practices in the Pyramid Model.</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Sturtevant, WI 53177</t>
   </si>
   <si>
-    <t>262-884-0991</t>
-  </si>
-  <si>
     <t>http://www.concordialutheranschool.net/</t>
   </si>
   <si>
@@ -762,22 +756,6 @@
     <t>STEAM (Science, Technology, Engineering, Allied Arts, Math</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Racine, WI 53405
-Racine, WI 53403</t>
-  </si>
-  <si>
-    <t>4K-6
-6150 Taylor Avenue
-4K-8
-1510 Villa Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(262) 554-6768
-(262) 634-3010</t>
-  </si>
-  <si>
     <t>Our purpose is to provide safe, Christian schools focused on educational success, leadership development and spiritual growth. We help our students work hard to achieve greatness by nurturing and equipping them in a strong Christian and academic environment to become lifelong learners, capable of making responsible decisions, growing in faith and serving God and the community.</t>
   </si>
   <si>
@@ -916,9 +894,6 @@
     <t>(262) 664-6500</t>
   </si>
   <si>
-    <t>www.rusd.org/starbuck</t>
-  </si>
-  <si>
     <t>Starbuck Middle School is an International Baccalaureate (IB) World School for the Middle Years Programme (MYP). The IB MYP is a framework for teaching that benefits all students. It addresses a wide variety of learning styles, involves all students in their own unique learning processes and gives students a standard, internationally accepted foundation of knowledge.… Students who participate in the IB MYP become independent learners who can recognize relationships between school subjects and the world outside. Through the IB Programme, Starbuck offers an inquiry-based curriculum that empowers students to become responsible world citizens and lifelong learners.</t>
   </si>
   <si>
@@ -986,20 +961,6 @@
   </si>
   <si>
     <t>We seek to prepare children for eternity by learning about Jesus and his forgiveness. We also seek to develop good citizens for our community and country. Jesus stated that these are the greatest of all the commandments: "Love the Lord your God with all your heart and with all your soul and with all your strength and with all your mind" and "Love your neighbor as yourself." We seek to instill this in our children by example and instruction. The Lord is gracious to promise that he will see that all other things are added to us according to our needs. (Matthew 6:33)</t>
-  </si>
-  <si>
-    <t>Private, Religious, Wisconsin Evangelical Lutheran Synod WELS)</t>
-  </si>
-  <si>
-    <t>Grades 4K-5
-3351 Chicory Road
-Grades 6–8
-3554 Taylor Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Mt. Pleasant, WI 53403
-Elmwood Park, WI 53405</t>
   </si>
   <si>
     <t>S. C. Johnson Elementary</t>
@@ -1460,6 +1421,101 @@
   </si>
   <si>
     <t>https://www.wisconsinlutheranschool.org</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/beec</t>
+  </si>
+  <si>
+    <t>https://www.rusd.org/starbuck</t>
+  </si>
+  <si>
+    <t>SecondAddress1</t>
+  </si>
+  <si>
+    <t>SecondAddress2</t>
+  </si>
+  <si>
+    <t>SecondPhone</t>
+  </si>
+  <si>
+    <t>AddressGrades</t>
+  </si>
+  <si>
+    <t>SecondAddressGrades</t>
+  </si>
+  <si>
+    <t>Grades 4K-5</t>
+  </si>
+  <si>
+    <t>Grades 6–8</t>
+  </si>
+  <si>
+    <t>3554 Taylor Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3351 Chicory Road
+</t>
+  </si>
+  <si>
+    <t>Elmwood Park, WI 53405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt. Pleasant, WI 53403
+</t>
+  </si>
+  <si>
+    <t>(262) 884-0991</t>
+  </si>
+  <si>
+    <t>4K-6</t>
+  </si>
+  <si>
+    <t>4K-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6150 Taylor Avenue
+</t>
+  </si>
+  <si>
+    <t>1510 Villa Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racine, WI 53405
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(262) 554-6768
+</t>
+  </si>
+  <si>
+    <t>(262) 634-3010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinity Evengelical Lutheran </t>
+  </si>
+  <si>
+    <t>7900 Nicholson Road</t>
+  </si>
+  <si>
+    <t>Caledonia, WI 53108</t>
+  </si>
+  <si>
+    <t>(262) 835-4326</t>
+  </si>
+  <si>
+    <t>To operate a school that partners with parents in the daily Christian training of their children with the timeless truths found in the Bible</t>
+  </si>
+  <si>
+    <t>https://www.trinitycaledonia.org/</t>
+  </si>
+  <si>
+    <t>Private, Religious, Wisconsin Evangelical Lutheran Synod (WELS)</t>
+  </si>
+  <si>
+    <t>Private,Religious,Wisconsin Evangelical Lutheran (WELS)</t>
+  </si>
+  <si>
+    <t>Academic, Religious, STEM</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2073,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2154,6 +2210,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2529,12 +2588,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BV52"/>
+  <dimension ref="A1:CA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2553,20 +2612,20 @@
     <col min="14" max="14" width="14.5" style="9" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" style="9" customWidth="1"/>
     <col min="16" max="16" width="20.5" style="9" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="9" customWidth="1"/>
-    <col min="19" max="19" width="32.5" style="41" customWidth="1"/>
-    <col min="20" max="20" width="37.1640625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="40.6640625" customWidth="1"/>
-    <col min="22" max="22" width="44" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" style="9" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" customWidth="1"/>
-    <col min="26" max="26" width="17.5" style="9" customWidth="1"/>
-    <col min="27" max="27" width="15" style="9" customWidth="1"/>
+    <col min="17" max="21" width="18.1640625" style="9" customWidth="1"/>
+    <col min="22" max="23" width="13.5" style="9" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="41" customWidth="1"/>
+    <col min="25" max="25" width="37.1640625" style="9" customWidth="1"/>
+    <col min="26" max="26" width="40.6640625" customWidth="1"/>
+    <col min="27" max="27" width="44" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" style="9" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" customWidth="1"/>
+    <col min="31" max="31" width="17.5" style="9" customWidth="1"/>
+    <col min="32" max="32" width="15" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -2617,37 +2676,52 @@
         <v>83</v>
       </c>
       <c r="R1" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="V1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="W1" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="X1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2683,7 +2757,7 @@
         <v>550004502575</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>97</v>
@@ -2691,34 +2765,39 @@
       <c r="Q2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="W2" s="27"/>
+      <c r="X2" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="Y2" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="27" t="s">
+      <c r="Z2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>543</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AE2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="X2" s="27">
-        <v>543</v>
-      </c>
-      <c r="Y2" s="21">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" s="27"/>
-    </row>
-    <row r="3" spans="1:27" ht="160" x14ac:dyDescent="0.2">
+      <c r="AF2" s="27"/>
+    </row>
+    <row r="3" spans="1:32" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <f>A2+1</f>
         <v>2</v>
@@ -2751,7 +2830,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="26"/>
       <c r="O3" s="27" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>102</v>
@@ -2759,32 +2838,37 @@
       <c r="Q3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y3" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="27" t="s">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC3" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="AD3" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="AE3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA3" s="27"/>
-    </row>
-    <row r="4" spans="1:27" ht="96" x14ac:dyDescent="0.2">
+      <c r="AF3" s="27"/>
+    </row>
+    <row r="4" spans="1:32" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f t="shared" ref="A4:A51" si="0">A3+1</f>
         <v>3</v>
@@ -2819,7 +2903,7 @@
         <v>551236001621</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>84</v>
@@ -2827,34 +2911,39 @@
       <c r="Q4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="W4" s="27"/>
+      <c r="X4" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="Y4" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X4" s="27">
+      <c r="Z4" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC4" s="27">
         <v>1783</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="AD4" s="21">
         <v>53.5</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="AE4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AA4" s="27"/>
-    </row>
-    <row r="5" spans="1:27" ht="144" x14ac:dyDescent="0.2">
+      <c r="AF4" s="27"/>
+    </row>
+    <row r="5" spans="1:32" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2889,42 +2978,47 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
       <c r="O5" s="27" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="27"/>
+      <c r="X5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="Y5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="V5" s="21"/>
-      <c r="W5" s="27" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>100</v>
+      </c>
+      <c r="AE5" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="X5" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="21">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA5" s="27"/>
-    </row>
-    <row r="6" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="AF5" s="27"/>
+    </row>
+    <row r="6" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2963,42 +3057,47 @@
       </c>
       <c r="N6" s="26"/>
       <c r="O6" s="27" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P6" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="W6" s="27"/>
+      <c r="X6" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="Y6" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="AC6" s="27">
+        <v>180</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>41.7</v>
+      </c>
+      <c r="AE6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="27">
-        <v>180</v>
-      </c>
-      <c r="Y6" s="21">
-        <v>41.7</v>
-      </c>
-      <c r="Z6" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA6" s="27">
+      <c r="AF6" s="27">
         <v>58.8</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3037,44 +3136,59 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>316</v>
+        <v>473</v>
       </c>
       <c r="R7" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="S7" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="T7" s="27" t="s">
+      <c r="AC7" s="27">
+        <v>351</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AE7" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="U7" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="X7" s="27">
-        <v>351</v>
-      </c>
-      <c r="Y7" s="21">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="Z7" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA7" s="27">
+      <c r="AF7" s="27">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3109,48 +3223,53 @@
         <v>551236001611</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="P8" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="W8" s="27"/>
+      <c r="X8" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="Y8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="S8" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="V8" s="21"/>
-      <c r="W8" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X8" s="27">
+      <c r="Z8" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC8" s="27">
         <v>432</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="AD8" s="21">
         <v>81.7</v>
       </c>
-      <c r="Z8" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" s="27"/>
-    </row>
-    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="AE8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF8" s="27"/>
+    </row>
+    <row r="9" spans="1:32" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
@@ -3179,48 +3298,53 @@
         <v>551236001614</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="W9" s="27"/>
+      <c r="X9" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y9" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="S9" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" s="27">
+      <c r="Z9" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" s="27">
         <v>268</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="AD9" s="21">
         <v>83.6</v>
       </c>
-      <c r="Z9" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA9" s="27"/>
-    </row>
-    <row r="10" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="AE9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF9" s="27"/>
+    </row>
+    <row r="10" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>1</v>
@@ -3251,48 +3375,53 @@
         <v>551236002311</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="W10" s="27"/>
+      <c r="X10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y10" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="S10" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X10" s="27">
+      <c r="Z10" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC10" s="27">
         <v>1615</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="AD10" s="21">
         <v>28.9</v>
       </c>
-      <c r="Z10" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA10" s="27"/>
-    </row>
-    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="AE10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF10" s="27"/>
+    </row>
+    <row r="11" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>25</v>
@@ -3323,42 +3452,47 @@
         <v>551236001608</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="W11" s="27"/>
+      <c r="X11" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y11" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="Z11" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>741</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>57</v>
+      </c>
+      <c r="AE11" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="T11" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11" s="27">
-        <v>741</v>
-      </c>
-      <c r="Y11" s="21">
-        <v>57</v>
-      </c>
-      <c r="Z11" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA11" s="27"/>
-    </row>
-    <row r="12" spans="1:27" ht="144" x14ac:dyDescent="0.2">
+      <c r="AF11" s="27"/>
+    </row>
+    <row r="12" spans="1:32" ht="144" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3397,46 +3531,51 @@
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="P12" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="W12" s="27"/>
+      <c r="X12" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="Y12" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="Z12" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="U12" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="V12" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="X12" s="27">
+      <c r="AC12" s="27">
         <v>319</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="AD12" s="21">
         <v>84.6</v>
       </c>
-      <c r="Z12" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA12" s="27">
+      <c r="AE12" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF12" s="27">
         <v>99.7</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3471,42 +3610,47 @@
         <v>551236001620</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="W13" s="27"/>
+      <c r="X13" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="Z13" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>1577</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>63.5</v>
+      </c>
+      <c r="AE13" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="T13" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="U13" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X13" s="27">
-        <v>1577</v>
-      </c>
-      <c r="Y13" s="21">
-        <v>63.5</v>
-      </c>
-      <c r="Z13" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA13" s="27"/>
-    </row>
-    <row r="14" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="AF13" s="27"/>
+    </row>
+    <row r="14" spans="1:32" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3539,48 +3683,53 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
       <c r="O14" s="27" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P14" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14" s="27"/>
+      <c r="X14" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="Q14" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R14" s="27" t="s">
+      <c r="Y14" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="Z14" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>277</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>93.9</v>
+      </c>
+      <c r="AE14" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="T14" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="U14" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X14" s="27">
-        <v>277</v>
-      </c>
-      <c r="Y14" s="21">
-        <v>93.9</v>
-      </c>
-      <c r="Z14" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA14" s="27"/>
-    </row>
-    <row r="15" spans="1:27" ht="192" x14ac:dyDescent="0.2">
+      <c r="AF14" s="27"/>
+    </row>
+    <row r="15" spans="1:32" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>25</v>
@@ -3609,48 +3758,53 @@
         <v>551236001622</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q15" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="W15" s="27"/>
+      <c r="X15" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="Z15" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>502</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>41.2</v>
+      </c>
+      <c r="AE15" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="T15" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="U15" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X15" s="27">
-        <v>502</v>
-      </c>
-      <c r="Y15" s="21">
-        <v>41.2</v>
-      </c>
-      <c r="Z15" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA15" s="27"/>
-    </row>
-    <row r="16" spans="1:27" ht="80" x14ac:dyDescent="0.2">
+      <c r="AF15" s="27"/>
+    </row>
+    <row r="16" spans="1:32" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>1</v>
@@ -3681,42 +3835,47 @@
         <v>551236001623</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="P16" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="Q16" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="S16" s="39" t="s">
+      <c r="W16" s="27"/>
+      <c r="X16" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="T16" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="U16" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="V16" s="21"/>
-      <c r="W16" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X16" s="27">
+      <c r="Z16" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC16" s="27">
         <v>1045</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="AD16" s="21">
         <v>77.3</v>
       </c>
-      <c r="Z16" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA16" s="27"/>
-    </row>
-    <row r="17" spans="1:74" ht="32" x14ac:dyDescent="0.2">
+      <c r="AE16" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF16" s="27"/>
+    </row>
+    <row r="17" spans="1:79" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3759,50 +3918,55 @@
         <v>551236001624</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="27" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="W17" s="27"/>
+      <c r="X17" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB17" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="T17" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="W17" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="X17" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y17" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z17" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA17" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:74" ht="96" x14ac:dyDescent="0.2">
+      <c r="AC17" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD17" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE17" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF17" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:79" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="46">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>1</v>
@@ -3824,48 +3988,53 @@
       <c r="L18" s="24"/>
       <c r="N18" s="26"/>
       <c r="O18" s="27" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P18" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="W18" s="27"/>
+      <c r="X18" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="Q18" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R18" s="27" t="s">
+      <c r="Y18" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="S18" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="T18" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="U18" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X18" s="27">
+      <c r="Z18" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC18" s="27">
         <v>499</v>
       </c>
-      <c r="Y18" s="21">
+      <c r="AD18" s="21">
         <v>85.2</v>
       </c>
-      <c r="Z18" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA18" s="27"/>
-    </row>
-    <row r="19" spans="1:74" ht="64" x14ac:dyDescent="0.2">
+      <c r="AE18" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF18" s="27"/>
+    </row>
+    <row r="19" spans="1:79" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="46">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>1</v>
@@ -3894,48 +4063,53 @@
         <v>551236001626</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="W19" s="27"/>
+      <c r="X19" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="S19" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="V19" s="21"/>
-      <c r="W19" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X19" s="27">
+      <c r="Z19" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC19" s="27">
         <v>338</v>
       </c>
-      <c r="Y19" s="21">
+      <c r="AD19" s="21">
         <v>81.099999999999994</v>
       </c>
-      <c r="Z19" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA19" s="27"/>
-    </row>
-    <row r="20" spans="1:74" ht="80" x14ac:dyDescent="0.2">
+      <c r="AE19" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF19" s="27"/>
+    </row>
+    <row r="20" spans="1:79" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="46">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>1</v>
@@ -3964,48 +4138,53 @@
         <v>551236001627</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="W20" s="27"/>
+      <c r="X20" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="S20" s="39" t="s">
+      <c r="Z20" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC20" s="27">
+        <v>422</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>94.3</v>
+      </c>
+      <c r="AE20" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="T20" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="U20" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="V20" s="21"/>
-      <c r="W20" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X20" s="27">
-        <v>422</v>
-      </c>
-      <c r="Y20" s="21">
-        <v>94.3</v>
-      </c>
-      <c r="Z20" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA20" s="27"/>
-    </row>
-    <row r="21" spans="1:74" ht="208" x14ac:dyDescent="0.2">
+      <c r="AF20" s="27"/>
+    </row>
+    <row r="21" spans="1:79" ht="208" x14ac:dyDescent="0.2">
       <c r="A21" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>1</v>
@@ -4034,42 +4213,47 @@
         <v>551236003337</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P21" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="W21" s="27"/>
+      <c r="X21" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="Q21" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R21" s="27" t="s">
+      <c r="Y21" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="U21" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="V21" s="21"/>
-      <c r="W21" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X21" s="27">
+      <c r="Z21" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC21" s="27">
         <v>361</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="AD21" s="21">
         <v>87.8</v>
       </c>
-      <c r="Z21" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA21" s="27"/>
-    </row>
-    <row r="22" spans="1:74" ht="96" x14ac:dyDescent="0.2">
+      <c r="AE21" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF21" s="27"/>
+    </row>
+    <row r="22" spans="1:79" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="46">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4106,42 +4290,47 @@
         <v>551236001628</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="W22" s="27"/>
+      <c r="X22" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y22" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="Z22" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC22" s="27">
+        <v>1260</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>80.8</v>
+      </c>
+      <c r="AE22" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="T22" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="V22" s="21"/>
-      <c r="W22" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X22" s="27">
-        <v>1260</v>
-      </c>
-      <c r="Y22" s="21">
-        <v>80.8</v>
-      </c>
-      <c r="Z22" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA22" s="27"/>
-    </row>
-    <row r="23" spans="1:74" ht="112" x14ac:dyDescent="0.2">
+      <c r="AF22" s="27"/>
+    </row>
+    <row r="23" spans="1:79" ht="112" x14ac:dyDescent="0.2">
       <c r="A23" s="46">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4174,42 +4363,47 @@
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
       <c r="O23" s="27" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P23" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="W23" s="27"/>
+      <c r="X23" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="Q23" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R23" s="27" t="s">
+      <c r="Y23" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="S23" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="U23" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X23" s="27">
+      <c r="Z23" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC23" s="27">
         <v>296</v>
       </c>
-      <c r="Y23" s="21">
+      <c r="AD23" s="21">
         <v>77.7</v>
       </c>
-      <c r="Z23" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA23" s="27"/>
-    </row>
-    <row r="24" spans="1:74" ht="48" x14ac:dyDescent="0.2">
+      <c r="AE23" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF23" s="27"/>
+    </row>
+    <row r="24" spans="1:79" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="46">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4244,42 +4438,47 @@
         <v>551236001632</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="P24" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="W24" s="27"/>
+      <c r="X24" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="Q24" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R24" s="27" t="s">
+      <c r="Y24" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="S24" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="U24" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="V24" s="21"/>
-      <c r="W24" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X24" s="27">
+      <c r="Z24" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC24" s="27">
         <v>469</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="AD24" s="21">
         <v>42.2</v>
       </c>
-      <c r="Z24" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA24" s="27"/>
-    </row>
-    <row r="25" spans="1:74" ht="64" x14ac:dyDescent="0.2">
+      <c r="AE24" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF24" s="27"/>
+    </row>
+    <row r="25" spans="1:79" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="46">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4322,44 +4521,49 @@
         <v>551236001634</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="P25" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="W25" s="49"/>
+      <c r="X25" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y25" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="Q25" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R25" s="27" t="s">
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB25" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC25" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="S25" s="43" t="s">
-        <v>444</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="W25" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="X25" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y25" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z25" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA25" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:74" ht="160" x14ac:dyDescent="0.2">
+      <c r="AD25" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF25" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:79" ht="160" x14ac:dyDescent="0.2">
       <c r="A26" s="46">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4394,48 +4598,53 @@
         <v>551236001605</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="R26" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="T26" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="U26" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="V26" s="30"/>
-      <c r="W26" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="X26" s="36">
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="W26" s="36"/>
+      <c r="X26" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y26" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z26" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC26" s="36">
         <v>1324</v>
       </c>
-      <c r="Y26" s="30">
+      <c r="AD26" s="30">
         <v>71.900000000000006</v>
       </c>
-      <c r="Z26" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA26" s="36"/>
-    </row>
-    <row r="27" spans="1:74" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="AE26" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF26" s="36"/>
+    </row>
+    <row r="27" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A27" s="46">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C27" s="22">
         <v>5</v>
@@ -4457,54 +4666,54 @@
       <c r="J27" s="22"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M27" s="25"/>
       <c r="N27" s="26">
         <v>551236001635</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="P27" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="W27" s="27"/>
+      <c r="X27" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y27" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R27" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="S27" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="U27" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="V27" s="21"/>
-      <c r="W27" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="X27" s="27" t="s">
+      <c r="Z27" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="Y27" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z27" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA27" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC27" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE27" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF27" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
@@ -4547,8 +4756,13 @@
       <c r="BT27"/>
       <c r="BU27"/>
       <c r="BV27"/>
-    </row>
-    <row r="28" spans="1:74" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
+    </row>
+    <row r="28" spans="1:79" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A28" s="46">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4587,45 +4801,45 @@
         <v>551236003045</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q28" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R28" s="27" t="s">
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="W28" s="49"/>
+      <c r="X28" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y28" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z28" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC28" s="27">
+        <v>213</v>
+      </c>
+      <c r="AD28" s="21">
+        <v>81.7</v>
+      </c>
+      <c r="AE28" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="S28" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="T28" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="V28" s="21"/>
-      <c r="W28" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X28" s="27">
-        <v>213</v>
-      </c>
-      <c r="Y28" s="21">
-        <v>81.7</v>
-      </c>
-      <c r="Z28" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA28" s="27"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
+      <c r="AF28" s="27"/>
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
@@ -4668,8 +4882,13 @@
       <c r="BT28"/>
       <c r="BU28"/>
       <c r="BV28"/>
-    </row>
-    <row r="29" spans="1:74" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+    </row>
+    <row r="29" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="46">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4708,47 +4927,47 @@
       </c>
       <c r="N29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P29" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="W29" s="49"/>
+      <c r="X29" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y29" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="Q29" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R29" s="27" t="s">
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB29" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="S29" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="T29" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="W29" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="X29" s="27">
+      <c r="AC29" s="27">
         <v>61</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="AD29" s="21">
         <v>0</v>
       </c>
-      <c r="Z29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA29" s="27">
+      <c r="AE29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF29" s="27">
         <v>45.2</v>
       </c>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
@@ -4791,8 +5010,13 @@
       <c r="BT29"/>
       <c r="BU29"/>
       <c r="BV29"/>
-    </row>
-    <row r="30" spans="1:74" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+    </row>
+    <row r="30" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="46">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4825,49 +5049,49 @@
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="P30" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="W30" s="27"/>
+      <c r="X30" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y30" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="Q30" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R30" s="27" t="s">
+      <c r="Z30" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA30" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB30" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="S30" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="T30" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="U30" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="V30" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="W30" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="X30" s="27">
+      <c r="AC30" s="27">
         <v>264</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="AD30" s="21">
         <v>17.399999999999999</v>
       </c>
-      <c r="Z30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA30" s="27">
+      <c r="AE30" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF30" s="27">
         <v>61.7</v>
       </c>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
@@ -4910,8 +5134,13 @@
       <c r="BT30"/>
       <c r="BU30"/>
       <c r="BV30"/>
-    </row>
-    <row r="31" spans="1:74" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="BW30"/>
+      <c r="BX30"/>
+      <c r="BY30"/>
+      <c r="BZ30"/>
+      <c r="CA30"/>
+    </row>
+    <row r="31" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="46">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4946,47 +5175,47 @@
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P31" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="W31" s="27"/>
+      <c r="X31" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y31" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="Q31" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R31" s="27" t="s">
+      <c r="Z31" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC31" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD31" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE31" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="S31" s="39" t="s">
-        <v>450</v>
-      </c>
-      <c r="T31" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="U31" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="V31" s="21"/>
-      <c r="W31" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="X31" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y31" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z31" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA31" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
+      <c r="AF31" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
@@ -5029,14 +5258,19 @@
       <c r="BT31"/>
       <c r="BU31"/>
       <c r="BV31"/>
-    </row>
-    <row r="32" spans="1:74" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="BW31"/>
+      <c r="BX31"/>
+      <c r="BY31"/>
+      <c r="BZ31"/>
+      <c r="CA31"/>
+    </row>
+    <row r="32" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="46">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>1</v>
@@ -5065,45 +5299,45 @@
         <v>551236001636</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="P32" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="W32" s="27"/>
+      <c r="X32" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y32" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="Q32" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R32" s="27" t="s">
+      <c r="Z32" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC32" s="27">
+        <v>386</v>
+      </c>
+      <c r="AD32" s="21">
+        <v>52.1</v>
+      </c>
+      <c r="AE32" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="S32" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="T32" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="U32" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="V32" s="21"/>
-      <c r="W32" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X32" s="27">
-        <v>386</v>
-      </c>
-      <c r="Y32" s="21">
-        <v>52.1</v>
-      </c>
-      <c r="Z32" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA32" s="27"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
+      <c r="AF32" s="27"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
@@ -5146,8 +5380,13 @@
       <c r="BT32"/>
       <c r="BU32"/>
       <c r="BV32"/>
-    </row>
-    <row r="33" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="BW32"/>
+      <c r="BX32"/>
+      <c r="BY32"/>
+      <c r="BZ32"/>
+      <c r="CA32"/>
+    </row>
+    <row r="33" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A33" s="46">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5184,49 +5423,59 @@
       <c r="M33" s="25"/>
       <c r="N33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>242</v>
+        <v>477</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>241</v>
+        <v>479</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="S33" s="48" t="s">
-        <v>452</v>
+        <v>475</v>
+      </c>
+      <c r="S33" s="27" t="s">
+        <v>478</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="U33" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>418</v>
+        <v>103</v>
+      </c>
+      <c r="U33" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>480</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="X33" s="27">
+        <v>481</v>
+      </c>
+      <c r="X33" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y33" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z33" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA33" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB33" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC33" s="27">
         <v>346</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="AD33" s="21">
         <v>82.3</v>
       </c>
-      <c r="Z33" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA33" s="27">
+      <c r="AE33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF33" s="27">
         <v>96.9</v>
       </c>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
@@ -5269,14 +5518,19 @@
       <c r="BT33"/>
       <c r="BU33"/>
       <c r="BV33"/>
-    </row>
-    <row r="34" spans="1:74" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="BW33"/>
+      <c r="BX33"/>
+      <c r="BY33"/>
+      <c r="BZ33"/>
+      <c r="CA33"/>
+    </row>
+    <row r="34" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="46">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>1</v>
@@ -5305,45 +5559,45 @@
         <v>551236001637</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="S34" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="U34" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="V34" s="21"/>
-      <c r="W34" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X34" s="27">
+        <v>147</v>
+      </c>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="W34" s="27"/>
+      <c r="X34" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y34" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z34" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC34" s="27">
         <v>340</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="AD34" s="21">
         <v>87.4</v>
       </c>
-      <c r="Z34" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA34" s="27"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
+      <c r="AE34" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF34" s="27"/>
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
@@ -5386,14 +5640,19 @@
       <c r="BT34"/>
       <c r="BU34"/>
       <c r="BV34"/>
-    </row>
-    <row r="35" spans="1:74" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="BW34"/>
+      <c r="BX34"/>
+      <c r="BY34"/>
+      <c r="BZ34"/>
+      <c r="CA34"/>
+    </row>
+    <row r="35" spans="1:79" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A35" s="46">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>1</v>
@@ -5422,45 +5681,45 @@
         <v>551236003044</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="R35" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="S35" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="T35" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="U35" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="V35" s="21"/>
-      <c r="W35" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X35" s="27">
+        <v>245</v>
+      </c>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="W35" s="27"/>
+      <c r="X35" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y35" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z35" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC35" s="27">
         <v>130</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="AD35" s="21">
         <v>32.299999999999997</v>
       </c>
-      <c r="Z35" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA35" s="27"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
+      <c r="AE35" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF35" s="27"/>
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
@@ -5503,8 +5762,13 @@
       <c r="BT35"/>
       <c r="BU35"/>
       <c r="BV35"/>
-    </row>
-    <row r="36" spans="1:74" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="BW35"/>
+      <c r="BX35"/>
+      <c r="BY35"/>
+      <c r="BZ35"/>
+      <c r="CA35"/>
+    </row>
+    <row r="36" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="46">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5539,49 +5803,49 @@
       </c>
       <c r="N36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="P36" s="27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R36" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="S36" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="U36" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="W36" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="X36" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y36" s="21">
+        <v>129</v>
+      </c>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="W36" s="27"/>
+      <c r="X36" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y36" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z36" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA36" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB36" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC36" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD36" s="21">
         <v>51.9</v>
       </c>
-      <c r="Z36" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA36" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
+      <c r="AE36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF36" s="27" t="s">
+        <v>252</v>
+      </c>
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
@@ -5624,8 +5888,13 @@
       <c r="BT36"/>
       <c r="BU36"/>
       <c r="BV36"/>
-    </row>
-    <row r="37" spans="1:74" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="BW36"/>
+      <c r="BX36"/>
+      <c r="BY36"/>
+      <c r="BZ36"/>
+      <c r="CA36"/>
+    </row>
+    <row r="37" spans="1:79" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A37" s="46">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5658,45 +5927,45 @@
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R37" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="S37" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="T37" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="X37" s="27">
+        <v>147</v>
+      </c>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="W37" s="27"/>
+      <c r="X37" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y37" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC37" s="27">
         <v>222</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="AD37" s="21">
         <v>24.3</v>
       </c>
-      <c r="Z37" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA37" s="27">
+      <c r="AE37" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF37" s="27">
         <v>72.7</v>
       </c>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
       <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
@@ -5739,8 +6008,13 @@
       <c r="BT37"/>
       <c r="BU37"/>
       <c r="BV37"/>
-    </row>
-    <row r="38" spans="1:74" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="BW37"/>
+      <c r="BX37"/>
+      <c r="BY37"/>
+      <c r="BZ37"/>
+      <c r="CA37"/>
+    </row>
+    <row r="38" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A38" s="46">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5775,49 +6049,49 @@
       <c r="M38" s="25"/>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P38" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="W38" s="27"/>
+      <c r="X38" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y38" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z38" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA38" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB38" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC38" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD38" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE38" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF38" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="Q38" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R38" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="S38" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="T38" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="U38" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="V38" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="W38" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="X38" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y38" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z38" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA38" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
       <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
@@ -5860,14 +6134,19 @@
       <c r="BT38"/>
       <c r="BU38"/>
       <c r="BV38"/>
-    </row>
-    <row r="39" spans="1:74" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="BW38"/>
+      <c r="BX38"/>
+      <c r="BY38"/>
+      <c r="BZ38"/>
+      <c r="CA38"/>
+    </row>
+    <row r="39" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="46">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>28</v>
@@ -5896,49 +6175,49 @@
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q39" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R39" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="S39" s="39" t="s">
-        <v>458</v>
-      </c>
-      <c r="T39" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="U39" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="V39" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="W39" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="X39" s="27">
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="W39" s="27"/>
+      <c r="X39" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y39" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z39" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA39" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB39" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC39" s="27">
         <v>190</v>
       </c>
-      <c r="Y39" s="21">
+      <c r="AD39" s="21">
         <v>21.1</v>
       </c>
-      <c r="Z39" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA39" s="27">
+      <c r="AE39" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF39" s="27">
         <v>21.1</v>
       </c>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
       <c r="AG39"/>
       <c r="AH39"/>
       <c r="AI39"/>
@@ -5981,14 +6260,19 @@
       <c r="BT39"/>
       <c r="BU39"/>
       <c r="BV39"/>
-    </row>
-    <row r="40" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="BW39"/>
+      <c r="BX39"/>
+      <c r="BY39"/>
+      <c r="BZ39"/>
+      <c r="CA39"/>
+    </row>
+    <row r="40" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A40" s="46">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>25</v>
@@ -6017,49 +6301,49 @@
       </c>
       <c r="N40" s="26"/>
       <c r="O40" s="27" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="P40" s="27" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q40" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R40" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="S40" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="T40" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="U40" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="V40" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="W40" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="X40" s="27">
+        <v>147</v>
+      </c>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="W40" s="27"/>
+      <c r="X40" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y40" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA40" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB40" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC40" s="27">
         <v>148</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="AD40" s="21">
         <v>51.9</v>
       </c>
-      <c r="Z40" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA40" s="27">
+      <c r="AE40" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF40" s="27">
         <v>9.5</v>
       </c>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-      <c r="AE40"/>
-      <c r="AF40"/>
       <c r="AG40"/>
       <c r="AH40"/>
       <c r="AI40"/>
@@ -6102,14 +6386,19 @@
       <c r="BT40"/>
       <c r="BU40"/>
       <c r="BV40"/>
-    </row>
-    <row r="41" spans="1:74" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="BW40"/>
+      <c r="BX40"/>
+      <c r="BY40"/>
+      <c r="BZ40"/>
+      <c r="CA40"/>
+    </row>
+    <row r="41" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A41" s="46">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>1</v>
@@ -6138,45 +6427,45 @@
         <v>551236001638</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="P41" s="27" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q41" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="R41" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="S41" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="T41" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="U41" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="V41" s="21"/>
-      <c r="W41" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X41" s="27">
+        <v>119</v>
+      </c>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="W41" s="27"/>
+      <c r="X41" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y41" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z41" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC41" s="27">
         <v>422</v>
       </c>
-      <c r="Y41" s="21">
+      <c r="AD41" s="21">
         <v>52.4</v>
       </c>
-      <c r="Z41" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA41" s="27"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
+      <c r="AE41" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF41" s="27"/>
       <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
@@ -6219,8 +6508,13 @@
       <c r="BT41"/>
       <c r="BU41"/>
       <c r="BV41"/>
-    </row>
-    <row r="42" spans="1:74" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="BW41"/>
+      <c r="BX41"/>
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+    </row>
+    <row r="42" spans="1:79" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A42" s="46">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6259,49 +6553,49 @@
       <c r="M42" s="22"/>
       <c r="N42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="P42" s="27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R42" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="S42" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="T42" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="V42" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="W42" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="X42" s="27">
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="W42" s="27"/>
+      <c r="X42" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y42" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z42" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA42" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB42" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC42" s="27">
         <v>1255</v>
       </c>
-      <c r="Y42" s="21">
+      <c r="AD42" s="21">
         <v>54.4</v>
       </c>
-      <c r="Z42" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA42" s="27">
+      <c r="AE42" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF42" s="27">
         <v>83.4</v>
       </c>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-      <c r="AE42"/>
-      <c r="AF42"/>
       <c r="AG42"/>
       <c r="AH42"/>
       <c r="AI42"/>
@@ -6344,14 +6638,19 @@
       <c r="BT42"/>
       <c r="BU42"/>
       <c r="BV42"/>
-    </row>
-    <row r="43" spans="1:74" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="BW42"/>
+      <c r="BX42"/>
+      <c r="BY42"/>
+      <c r="BZ42"/>
+      <c r="CA42"/>
+    </row>
+    <row r="43" spans="1:79" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="46">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>28</v>
@@ -6377,42 +6676,42 @@
       <c r="N43" s="26"/>
       <c r="O43" s="27"/>
       <c r="P43" s="27" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R43" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="S43" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="T43" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="X43" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y43" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z43" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA43" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-      <c r="AE43"/>
-      <c r="AF43"/>
+        <v>147</v>
+      </c>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="W43" s="27"/>
+      <c r="X43" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y43" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC43" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD43" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE43" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF43" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
@@ -6455,8 +6754,13 @@
       <c r="BT43"/>
       <c r="BU43"/>
       <c r="BV43"/>
-    </row>
-    <row r="44" spans="1:74" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="BW43"/>
+      <c r="BX43"/>
+      <c r="BY43"/>
+      <c r="BZ43"/>
+      <c r="CA43"/>
+    </row>
+    <row r="44" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A44" s="46">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6493,47 +6797,47 @@
         <v>551236001639</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="R44" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="S44" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="T44" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="U44" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="V44" s="21"/>
-      <c r="W44" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="X44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y44" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z44" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
+        <v>280</v>
+      </c>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="W44" s="27"/>
+      <c r="X44" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y44" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z44" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC44" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD44" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF44" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
@@ -6576,14 +6880,19 @@
       <c r="BT44"/>
       <c r="BU44"/>
       <c r="BV44"/>
-    </row>
-    <row r="45" spans="1:74" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="BW44"/>
+      <c r="BX44"/>
+      <c r="BY44"/>
+      <c r="BZ44"/>
+      <c r="CA44"/>
+    </row>
+    <row r="45" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A45" s="46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C45" s="22">
         <v>6</v>
@@ -6612,45 +6921,45 @@
         <v>551236002471</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R45" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="S45" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="T45" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="U45" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="V45" s="21"/>
-      <c r="W45" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X45" s="27">
+        <v>129</v>
+      </c>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="W45" s="27"/>
+      <c r="X45" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y45" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z45" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC45" s="27">
         <v>662</v>
       </c>
-      <c r="Y45" s="21">
+      <c r="AD45" s="21">
         <v>71</v>
       </c>
-      <c r="Z45" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA45" s="27"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-      <c r="AF45"/>
+      <c r="AE45" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF45" s="27"/>
       <c r="AG45"/>
       <c r="AH45"/>
       <c r="AI45"/>
@@ -6693,14 +7002,19 @@
       <c r="BT45"/>
       <c r="BU45"/>
       <c r="BV45"/>
-    </row>
-    <row r="46" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="BW45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+    </row>
+    <row r="46" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A46" s="46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C46" s="22">
         <v>6</v>
@@ -6729,45 +7043,45 @@
       <c r="M46" s="25"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q46" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="R46" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="S46" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="T46" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="U46" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="V46" s="21"/>
-      <c r="W46" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X46" s="27">
+        <v>119</v>
+      </c>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="W46" s="27"/>
+      <c r="X46" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y46" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z46" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC46" s="27">
         <v>504</v>
       </c>
-      <c r="Y46" s="21">
+      <c r="AD46" s="21">
         <v>42.1</v>
       </c>
-      <c r="Z46" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA46" s="27"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46"/>
-      <c r="AF46"/>
+      <c r="AE46" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF46" s="27"/>
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
@@ -6810,14 +7124,19 @@
       <c r="BT46"/>
       <c r="BU46"/>
       <c r="BV46"/>
-    </row>
-    <row r="47" spans="1:74" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="BW46"/>
+      <c r="BX46"/>
+      <c r="BY46"/>
+      <c r="BZ46"/>
+      <c r="CA46"/>
+    </row>
+    <row r="47" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="46">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>1</v>
@@ -6852,49 +7171,49 @@
         <v>551236001642</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="P47" s="27" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R47" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="S47" s="39" t="s">
-        <v>465</v>
-      </c>
-      <c r="T47" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="V47" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="W47" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="X47" s="27">
+        <v>147</v>
+      </c>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="W47" s="27"/>
+      <c r="X47" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y47" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z47" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA47" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB47" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC47" s="27">
         <v>187</v>
       </c>
-      <c r="Y47" s="21">
+      <c r="AD47" s="21">
         <v>41.7</v>
       </c>
-      <c r="Z47" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA47" s="27">
+      <c r="AE47" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF47" s="27">
         <v>76</v>
       </c>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
       <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
@@ -6937,14 +7256,19 @@
       <c r="BT47"/>
       <c r="BU47"/>
       <c r="BV47"/>
-    </row>
-    <row r="48" spans="1:74" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="BW47"/>
+      <c r="BX47"/>
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+    </row>
+    <row r="48" spans="1:79" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A48" s="46">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>1</v>
@@ -6973,45 +7297,45 @@
         <v>551236001644</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="P48" s="27" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R48" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="S48" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="T48" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="U48" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="V48" s="21"/>
-      <c r="W48" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X48" s="27">
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="W48" s="27"/>
+      <c r="X48" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y48" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z48" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC48" s="27">
         <v>551</v>
       </c>
-      <c r="Y48" s="21">
+      <c r="AD48" s="21">
         <v>84.8</v>
       </c>
-      <c r="Z48" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA48" s="27"/>
-      <c r="AB48"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
-      <c r="AE48"/>
-      <c r="AF48"/>
+      <c r="AE48" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF48" s="27"/>
       <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
@@ -7054,14 +7378,19 @@
       <c r="BT48"/>
       <c r="BU48"/>
       <c r="BV48"/>
-    </row>
-    <row r="49" spans="1:74" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="BW48"/>
+      <c r="BX48"/>
+      <c r="BY48"/>
+      <c r="BZ48"/>
+      <c r="CA48"/>
+    </row>
+    <row r="49" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A49" s="46">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C49" s="22">
         <v>6</v>
@@ -7092,43 +7421,43 @@
         <v>551236001646</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P49" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q49" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R49" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="S49" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="T49" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="U49" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="V49" s="21"/>
-      <c r="W49" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X49" s="27">
+        <v>129</v>
+      </c>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="W49" s="27"/>
+      <c r="X49" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y49" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z49" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC49" s="27">
         <v>628</v>
       </c>
-      <c r="Y49" s="21">
+      <c r="AD49" s="21">
         <v>35.4</v>
       </c>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-      <c r="AE49"/>
-      <c r="AF49"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
       <c r="AG49"/>
       <c r="AH49"/>
       <c r="AI49"/>
@@ -7171,14 +7500,19 @@
       <c r="BT49"/>
       <c r="BU49"/>
       <c r="BV49"/>
-    </row>
-    <row r="50" spans="1:74" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="BW49"/>
+      <c r="BX49"/>
+      <c r="BY49"/>
+      <c r="BZ49"/>
+      <c r="CA49"/>
+    </row>
+    <row r="50" spans="1:79" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A50" s="46">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>1</v>
@@ -7205,45 +7539,45 @@
       <c r="M50" s="25"/>
       <c r="N50" s="26"/>
       <c r="O50" s="27" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="P50" s="27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q50" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R50" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="S50" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="T50" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="U50" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="V50" s="21"/>
-      <c r="W50" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="X50" s="27">
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="W50" s="27"/>
+      <c r="X50" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y50" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z50" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC50" s="27">
         <v>369</v>
       </c>
-      <c r="Y50" s="21">
+      <c r="AD50" s="21">
         <v>77.8</v>
       </c>
-      <c r="Z50" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA50" s="27"/>
-      <c r="AB50"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
-      <c r="AE50"/>
-      <c r="AF50"/>
+      <c r="AE50" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF50" s="27"/>
       <c r="AG50"/>
       <c r="AH50"/>
       <c r="AI50"/>
@@ -7286,8 +7620,13 @@
       <c r="BT50"/>
       <c r="BU50"/>
       <c r="BV50"/>
-    </row>
-    <row r="51" spans="1:74" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="BW50"/>
+      <c r="BX50"/>
+      <c r="BY50"/>
+      <c r="BZ50"/>
+      <c r="CA50"/>
+    </row>
+    <row r="51" spans="1:79" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A51" s="46">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7326,49 +7665,49 @@
       </c>
       <c r="N51" s="26"/>
       <c r="O51" s="27" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P51" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q51" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R51" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="S51" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="T51" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="U51" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="V51" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="W51" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="X51" s="27">
+        <v>147</v>
+      </c>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="W51" s="27"/>
+      <c r="X51" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y51" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z51" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA51" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB51" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC51" s="27">
         <v>169</v>
       </c>
-      <c r="Y51" s="21">
+      <c r="AD51" s="21">
         <v>37.299999999999997</v>
       </c>
-      <c r="Z51" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA51" s="27">
+      <c r="AE51" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF51" s="27">
         <v>81.7</v>
       </c>
-      <c r="AB51"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
-      <c r="AE51"/>
-      <c r="AF51"/>
       <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
@@ -7411,60 +7750,79 @@
       <c r="BT51"/>
       <c r="BU51"/>
       <c r="BV51"/>
-    </row>
-    <row r="52" spans="1:74" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="37" t="s">
-        <v>68</v>
+      <c r="BW51"/>
+      <c r="BX51"/>
+      <c r="BY51"/>
+      <c r="BZ51"/>
+      <c r="CA51"/>
+    </row>
+    <row r="52" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="22">
+        <v>8</v>
       </c>
       <c r="E52" s="22">
-        <f>COUNT(E2:E51)</f>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" ref="F52:J52" si="1">COUNT(F2:F51)</f>
-        <v>26</v>
-      </c>
-      <c r="G52" s="22">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G52" s="22"/>
       <c r="H52" s="22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="I52" s="22">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="J52" s="22">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
+      <c r="P52" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>484</v>
+      </c>
       <c r="R52" s="27"/>
-      <c r="S52" s="40"/>
+      <c r="S52" s="27"/>
       <c r="T52" s="27"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27" t="s">
+        <v>485</v>
+      </c>
       <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
+      <c r="X52" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y52" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC52" s="27">
+        <v>93</v>
+      </c>
+      <c r="AD52" s="21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AE52" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF52" s="27">
+        <v>48.9</v>
+      </c>
       <c r="AG52"/>
       <c r="AH52"/>
       <c r="AI52"/>
@@ -7507,9 +7865,115 @@
       <c r="BT52"/>
       <c r="BU52"/>
       <c r="BV52"/>
+      <c r="BW52"/>
+      <c r="BX52"/>
+      <c r="BY52"/>
+      <c r="BZ52"/>
+      <c r="CA52"/>
+    </row>
+    <row r="53" spans="1:79" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="22">
+        <f>COUNT(E2:E52)</f>
+        <v>41</v>
+      </c>
+      <c r="F53" s="22">
+        <f>COUNT(F2:F52)</f>
+        <v>27</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="shared" ref="G53:J53" si="1">COUNT(G2:G51)</f>
+        <v>10</v>
+      </c>
+      <c r="H53" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I53" s="22">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J53" s="22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+      <c r="AQ53"/>
+      <c r="AR53"/>
+      <c r="AS53"/>
+      <c r="AT53"/>
+      <c r="AU53"/>
+      <c r="AV53"/>
+      <c r="AW53"/>
+      <c r="AX53"/>
+      <c r="AY53"/>
+      <c r="AZ53"/>
+      <c r="BA53"/>
+      <c r="BB53"/>
+      <c r="BC53"/>
+      <c r="BD53"/>
+      <c r="BE53"/>
+      <c r="BF53"/>
+      <c r="BG53"/>
+      <c r="BH53"/>
+      <c r="BI53"/>
+      <c r="BJ53"/>
+      <c r="BK53"/>
+      <c r="BL53"/>
+      <c r="BM53"/>
+      <c r="BN53"/>
+      <c r="BO53"/>
+      <c r="BP53"/>
+      <c r="BQ53"/>
+      <c r="BR53"/>
+      <c r="BS53"/>
+      <c r="BT53"/>
+      <c r="BU53"/>
+      <c r="BV53"/>
+      <c r="BW53"/>
+      <c r="BX53"/>
+      <c r="BY53"/>
+      <c r="BZ53"/>
+      <c r="CA53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A52:AA52 B28:R29 T28:AA29 A1:AA7 B30:AA51 A8:A51 B19:AA27 B18:L18 N18:AA18 B8:AA17">
+  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A1:AF7 B30:AF52 A8:A52 B19:AF27 B18:L18 N18:AF18 B8:AF17">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -7526,56 +7990,56 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="S3" r:id="rId3" display="http://www.rusd.org/beec" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="S6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="S10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="S11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="S12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="S13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="S14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="S15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="S16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="S17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="S18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="S19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="S20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="S21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="S22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="S23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="S24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="S26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="S27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="S28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="S25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="S29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="S30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="S31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="S32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="S33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="S34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="S35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="S36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="S37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="S38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="S39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="S40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="S41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="S42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="S43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="S44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="S45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="S46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="S47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="S48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="S49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="S50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="S51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="S7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X4" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="X3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="X5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="X6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="X8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="X9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="X10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="X11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="X12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="X13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="X14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="X15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="X16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="X17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="X18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="X19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="X20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="X21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="X22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="X23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="X24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="X26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="X27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="X28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="X25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="X29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="X30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="X31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="X32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="X33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="X34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="X35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="X36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="X37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="X38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="X39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="X40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="X41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="X42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="X43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="X44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="X45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="X46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="X47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="X48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="X49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="X50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="X51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="X7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId51"/>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C88AE3-3DDA-074A-B9B8-DED31B60CAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCF217-D409-DF4C-BB6E-231F02BC9CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,9 +1105,6 @@
     <t>Johnson.jpg</t>
   </si>
   <si>
-    <t>Julianthomas.jpg</t>
-  </si>
-  <si>
     <t>Jones.jpg</t>
   </si>
   <si>
@@ -1156,9 +1153,6 @@
     <t>REAL School.jpg</t>
   </si>
   <si>
-    <t>Trinitylutheranjpg.jpg</t>
-  </si>
-  <si>
     <t>Walden III.jpg</t>
   </si>
   <si>
@@ -1166,9 +1160,6 @@
   </si>
   <si>
     <t>Wisconsin Lutheran.jpg</t>
-  </si>
-  <si>
-    <t>Evergreenacademylogo (1).jpg</t>
   </si>
   <si>
     <t>21st_Century_Preparatory_School_2018-19.PDF</t>
@@ -1516,6 +1507,15 @@
   </si>
   <si>
     <t>Academic, Religious, STEM</t>
+  </si>
+  <si>
+    <t>evergreenacademylogo (1).jpg</t>
+  </si>
+  <si>
+    <t>Julian Thomas.jpg</t>
+  </si>
+  <si>
+    <t>Trinity Lutheranjpg.jpg</t>
   </si>
 </sst>
 </file>
@@ -2591,9 +2591,9 @@
   <dimension ref="A1:CA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2676,22 +2676,22 @@
         <v>83</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="T1" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>467</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="X1" s="38" t="s">
         <v>78</v>
@@ -2780,7 +2780,7 @@
         <v>101</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="27" t="s">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="W3" s="27"/>
       <c r="X3" s="39" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Y3" s="27" t="s">
         <v>105</v>
@@ -2926,7 +2926,7 @@
         <v>88</v>
       </c>
       <c r="Z4" s="47" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AA4" s="21"/>
       <c r="AB4" s="27" t="s">
@@ -3001,7 +3001,7 @@
         <v>109</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AA5" s="21"/>
       <c r="AB5" s="27" t="s">
@@ -3070,7 +3070,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="W6" s="27"/>
       <c r="X6" s="39" t="s">
@@ -3136,25 +3136,25 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>124</v>
@@ -3163,13 +3163,13 @@
         <v>124</v>
       </c>
       <c r="X7" s="39" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Y7" s="27" t="s">
         <v>125</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AA7" s="21"/>
       <c r="AB7" s="27" t="s">
@@ -3246,7 +3246,7 @@
         <v>132</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="27" t="s">
@@ -3321,7 +3321,7 @@
         <v>136</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="27" t="s">
@@ -3398,7 +3398,7 @@
         <v>140</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AA10" s="21"/>
       <c r="AB10" s="27" t="s">
@@ -3475,7 +3475,7 @@
         <v>144</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="27" t="s">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>146</v>
@@ -3554,10 +3554,10 @@
         <v>150</v>
       </c>
       <c r="Z12" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AB12" s="27" t="s">
         <v>151</v>
@@ -3633,7 +3633,7 @@
         <v>155</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="27" t="s">
@@ -3706,7 +3706,7 @@
         <v>160</v>
       </c>
       <c r="Z14" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="27" t="s">
@@ -3781,7 +3781,7 @@
         <v>165</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="27" t="s">
@@ -3858,7 +3858,7 @@
         <v>170</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="27" t="s">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AB17" s="27" t="s">
         <v>175</v>
@@ -4011,7 +4011,7 @@
         <v>179</v>
       </c>
       <c r="Z18" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="27" t="s">
@@ -4063,7 +4063,7 @@
         <v>551236001626</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>180</v>
@@ -4086,7 +4086,7 @@
         <v>183</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="27" t="s">
@@ -4138,7 +4138,7 @@
         <v>551236001627</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>184</v>
@@ -4161,7 +4161,7 @@
         <v>187</v>
       </c>
       <c r="Z20" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="27" t="s">
@@ -4236,7 +4236,7 @@
         <v>192</v>
       </c>
       <c r="Z21" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="27" t="s">
@@ -4313,7 +4313,7 @@
         <v>196</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="27" t="s">
@@ -4363,7 +4363,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
       <c r="O23" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>198</v>
@@ -4386,7 +4386,7 @@
         <v>201</v>
       </c>
       <c r="Z23" s="21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="27" t="s">
@@ -4438,7 +4438,7 @@
         <v>551236001632</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>202</v>
@@ -4461,7 +4461,7 @@
         <v>205</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="27" t="s">
@@ -4521,7 +4521,7 @@
         <v>551236001634</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>206</v>
@@ -4538,14 +4538,14 @@
       </c>
       <c r="W25" s="49"/>
       <c r="X25" s="43" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Y25" s="27" t="s">
         <v>208</v>
       </c>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AB25" s="27" t="s">
         <v>175</v>
@@ -4615,13 +4615,13 @@
       </c>
       <c r="W26" s="36"/>
       <c r="X26" s="39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Y26" s="36" t="s">
         <v>212</v>
       </c>
       <c r="Z26" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AA26" s="30"/>
       <c r="AB26" s="36" t="s">
@@ -4673,7 +4673,7 @@
         <v>551236001635</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>216</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="W27" s="27"/>
       <c r="X27" s="39" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Y27" s="27" t="s">
         <v>218</v>
@@ -4801,7 +4801,7 @@
         <v>551236003045</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>219</v>
@@ -4818,13 +4818,13 @@
       </c>
       <c r="W28" s="49"/>
       <c r="X28" s="44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Y28" s="27" t="s">
         <v>221</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AA28" s="21"/>
       <c r="AB28" s="27" t="s">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="N29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>223</v>
@@ -4944,14 +4944,14 @@
       </c>
       <c r="W29" s="49"/>
       <c r="X29" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Y29" s="27" t="s">
         <v>225</v>
       </c>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AB29" s="27" t="s">
         <v>226</v>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>227</v>
@@ -5066,16 +5066,16 @@
       </c>
       <c r="W30" s="27"/>
       <c r="X30" s="39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Y30" s="27" t="s">
         <v>229</v>
       </c>
       <c r="Z30" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AA30" s="21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AB30" s="27" t="s">
         <v>230</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P31" s="27" t="s">
         <v>231</v>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="W31" s="27"/>
       <c r="X31" s="39" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Y31" s="27" t="s">
         <v>233</v>
@@ -5299,7 +5299,7 @@
         <v>551236001636</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>235</v>
@@ -5316,13 +5316,13 @@
       </c>
       <c r="W32" s="27"/>
       <c r="X32" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Y32" s="27" t="s">
         <v>237</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="27" t="s">
@@ -5426,40 +5426,40 @@
         <v>347</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="R33" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="S33" s="27" t="s">
         <v>475</v>
-      </c>
-      <c r="S33" s="27" t="s">
-        <v>478</v>
       </c>
       <c r="T33" s="27" t="s">
         <v>103</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="V33" s="27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="X33" s="48" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y33" s="27" t="s">
         <v>239</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AA33" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AB33" s="27" t="s">
         <v>240</v>
@@ -5576,13 +5576,13 @@
       </c>
       <c r="W34" s="27"/>
       <c r="X34" s="39" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Y34" s="27" t="s">
         <v>243</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AA34" s="21"/>
       <c r="AB34" s="27" t="s">
@@ -5681,7 +5681,7 @@
         <v>551236003044</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>244</v>
@@ -5698,13 +5698,13 @@
       </c>
       <c r="W35" s="27"/>
       <c r="X35" s="39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Y35" s="27" t="s">
         <v>247</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="27" t="s">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="N36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>248</v>
@@ -5820,16 +5820,16 @@
       </c>
       <c r="W36" s="27"/>
       <c r="X36" s="39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y36" s="27" t="s">
         <v>250</v>
       </c>
       <c r="Z36" s="21" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AA36" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AB36" s="27" t="s">
         <v>175</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>253</v>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="W37" s="27"/>
       <c r="X37" s="39" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Y37" s="27" t="s">
         <v>255</v>
@@ -6049,7 +6049,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>257</v>
@@ -6066,16 +6066,16 @@
       </c>
       <c r="W38" s="27"/>
       <c r="X38" s="39" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Y38" s="27" t="s">
         <v>259</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AB38" s="27" t="s">
         <v>175</v>
@@ -6146,7 +6146,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>28</v>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P39" s="27" t="s">
         <v>263</v>
@@ -6192,16 +6192,16 @@
       </c>
       <c r="W39" s="27"/>
       <c r="X39" s="39" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Y39" s="27" t="s">
         <v>265</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AB39" s="27" t="s">
         <v>175</v>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="N40" s="26"/>
       <c r="O40" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P40" s="27" t="s">
         <v>266</v>
@@ -6318,16 +6318,16 @@
       </c>
       <c r="W40" s="27"/>
       <c r="X40" s="39" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Y40" s="27" t="s">
         <v>268</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AB40" s="27" t="s">
         <v>175</v>
@@ -6444,13 +6444,13 @@
       </c>
       <c r="W41" s="27"/>
       <c r="X41" s="39" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Y41" s="27" t="s">
         <v>271</v>
       </c>
       <c r="Z41" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AA41" s="21"/>
       <c r="AB41" s="27" t="s">
@@ -6570,16 +6570,16 @@
       </c>
       <c r="W42" s="27"/>
       <c r="X42" s="39" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Y42" s="27" t="s">
         <v>273</v>
       </c>
       <c r="Z42" s="21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AA42" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AB42" s="27" t="s">
         <v>274</v>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="W43" s="27"/>
       <c r="X43" s="39" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Y43" s="27" t="s">
         <v>277</v>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="W44" s="27"/>
       <c r="X44" s="39" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Y44" s="27" t="s">
         <v>282</v>
@@ -6921,7 +6921,7 @@
         <v>551236002471</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P45" s="27" t="s">
         <v>283</v>
@@ -6938,13 +6938,13 @@
       </c>
       <c r="W45" s="27"/>
       <c r="X45" s="39" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Y45" s="27" t="s">
         <v>285</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AA45" s="21"/>
       <c r="AB45" s="27" t="s">
@@ -7043,7 +7043,7 @@
       <c r="M46" s="25"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>290</v>
@@ -7060,13 +7060,13 @@
       </c>
       <c r="W46" s="27"/>
       <c r="X46" s="39" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Y46" s="27" t="s">
         <v>288</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="27" t="s">
@@ -7171,7 +7171,7 @@
         <v>551236001642</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>291</v>
@@ -7188,16 +7188,16 @@
       </c>
       <c r="W47" s="27"/>
       <c r="X47" s="39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y47" s="27" t="s">
         <v>293</v>
       </c>
       <c r="Z47" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA47" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AB47" s="27" t="s">
         <v>294</v>
@@ -7314,13 +7314,13 @@
       </c>
       <c r="W48" s="27"/>
       <c r="X48" s="39" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Y48" s="27" t="s">
         <v>297</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AA48" s="21"/>
       <c r="AB48" s="27" t="s">
@@ -7421,7 +7421,7 @@
         <v>551236001646</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P49" s="27" t="s">
         <v>299</v>
@@ -7438,13 +7438,13 @@
       </c>
       <c r="W49" s="27"/>
       <c r="X49" s="39" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y49" s="27" t="s">
         <v>301</v>
       </c>
       <c r="Z49" s="21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AA49" s="21"/>
       <c r="AB49" s="27" t="s">
@@ -7539,7 +7539,7 @@
       <c r="M50" s="25"/>
       <c r="N50" s="26"/>
       <c r="O50" s="27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P50" s="27" t="s">
         <v>302</v>
@@ -7556,13 +7556,13 @@
       </c>
       <c r="W50" s="27"/>
       <c r="X50" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Y50" s="27" t="s">
         <v>304</v>
       </c>
       <c r="Z50" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AA50" s="21"/>
       <c r="AB50" s="27" t="s">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="N51" s="26"/>
       <c r="O51" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P51" s="27" t="s">
         <v>305</v>
@@ -7682,19 +7682,19 @@
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="39" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Y51" s="27" t="s">
         <v>307</v>
       </c>
       <c r="Z51" s="21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AA51" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AB51" s="27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AC51" s="27">
         <v>169</v>
@@ -7759,7 +7759,7 @@
     <row r="52" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
       <c r="B52" s="27" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>1</v>
@@ -7787,29 +7787,29 @@
       <c r="N52" s="26"/>
       <c r="O52" s="27"/>
       <c r="P52" s="27" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q52" s="27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="W52" s="27"/>
       <c r="X52" s="39" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Y52" s="27" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="27" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AC52" s="27">
         <v>93</v>
@@ -7818,7 +7818,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AE52" s="27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AF52" s="27">
         <v>48.9</v>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCF217-D409-DF4C-BB6E-231F02BC9CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027A7A0-AD86-994A-BDF7-81FF23F2105C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2591,9 +2591,9 @@
   <dimension ref="A1:CA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3524,7 +3524,7 @@
         <v>4620</v>
       </c>
       <c r="L12" s="24">
-        <v>122</v>
+        <v>1711</v>
       </c>
       <c r="M12" s="25" t="s">
         <v>74</v>
@@ -7167,9 +7167,7 @@
       <c r="M47" s="25">
         <v>1511433</v>
       </c>
-      <c r="N47" s="26">
-        <v>551236001642</v>
-      </c>
+      <c r="N47" s="26"/>
       <c r="O47" s="27" t="s">
         <v>490</v>
       </c>
@@ -7294,7 +7292,7 @@
       </c>
       <c r="M48" s="25"/>
       <c r="N48" s="26">
-        <v>551236001644</v>
+        <v>551236001642</v>
       </c>
       <c r="O48" s="27" t="s">
         <v>352</v>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027A7A0-AD86-994A-BDF7-81FF23F2105C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2009F2-E981-0B41-8686-71BA00D1C054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2591,9 +2591,9 @@
   <dimension ref="A1:CA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3501,10 +3501,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D12" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="22">
         <v>1</v>
@@ -3602,9 +3602,7 @@
       <c r="K13" s="23">
         <v>4620</v>
       </c>
-      <c r="L13" s="24">
-        <v>1711</v>
-      </c>
+      <c r="L13" s="24"/>
       <c r="M13" s="25"/>
       <c r="N13" s="26">
         <v>551236001620</v>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2009F2-E981-0B41-8686-71BA00D1C054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1840607D-7A66-A74B-BD26-971D1154E7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17620" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All schools" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="490">
   <si>
     <t>name</t>
   </si>
@@ -967,10 +967,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Prairie School </t>
-  </si>
-  <si>
-    <t>0494
-2317</t>
   </si>
   <si>
     <t>The R.E.A.L. School</t>
@@ -2073,7 +2069,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2214,6 +2210,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2260,7 +2263,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2591,9 +2601,9 @@
   <dimension ref="A1:CA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2608,7 +2618,7 @@
     <col min="9" max="10" width="8.83203125" style="11" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="12" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="52" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="9" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" style="9" customWidth="1"/>
     <col min="16" max="16" width="20.5" style="9" customWidth="1"/>
@@ -2676,22 +2686,22 @@
         <v>83</v>
       </c>
       <c r="R1" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>463</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>464</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X1" s="38" t="s">
         <v>78</v>
@@ -2757,7 +2767,7 @@
         <v>550004502575</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>97</v>
@@ -2780,7 +2790,7 @@
         <v>101</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="27" t="s">
@@ -2809,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="22">
         <v>1</v>
@@ -2827,10 +2837,12 @@
       <c r="L3" s="24">
         <v>114</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="26"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="26">
+        <v>551236002708</v>
+      </c>
       <c r="O3" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>102</v>
@@ -2847,7 +2859,7 @@
       </c>
       <c r="W3" s="27"/>
       <c r="X3" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Y3" s="27" t="s">
         <v>105</v>
@@ -2903,7 +2915,7 @@
         <v>551236001621</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>84</v>
@@ -2926,7 +2938,7 @@
         <v>88</v>
       </c>
       <c r="Z4" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA4" s="21"/>
       <c r="AB4" s="27" t="s">
@@ -2978,7 +2990,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
       <c r="O5" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>106</v>
@@ -3001,7 +3013,7 @@
         <v>109</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA5" s="21"/>
       <c r="AB5" s="27" t="s">
@@ -3057,7 +3069,7 @@
       </c>
       <c r="N6" s="26"/>
       <c r="O6" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>118</v>
@@ -3070,7 +3082,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W6" s="27"/>
       <c r="X6" s="39" t="s">
@@ -3136,25 +3148,25 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P7" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="T7" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="Q7" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="R7" s="27" t="s">
+      <c r="U7" s="27" t="s">
         <v>465</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>466</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>124</v>
@@ -3163,13 +3175,13 @@
         <v>124</v>
       </c>
       <c r="X7" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y7" s="27" t="s">
         <v>125</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA7" s="21"/>
       <c r="AB7" s="27" t="s">
@@ -3223,7 +3235,7 @@
         <v>551236001611</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>128</v>
@@ -3246,7 +3258,7 @@
         <v>132</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="27" t="s">
@@ -3269,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
@@ -3298,7 +3310,7 @@
         <v>551236001614</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>133</v>
@@ -3321,7 +3333,7 @@
         <v>136</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="27" t="s">
@@ -3344,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>1</v>
@@ -3375,7 +3387,7 @@
         <v>551236002311</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>137</v>
@@ -3398,7 +3410,7 @@
         <v>140</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA10" s="21"/>
       <c r="AB10" s="27" t="s">
@@ -3421,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>25</v>
@@ -3452,7 +3464,7 @@
         <v>551236001608</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>141</v>
@@ -3475,7 +3487,7 @@
         <v>144</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="27" t="s">
@@ -3531,7 +3543,7 @@
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>146</v>
@@ -3554,10 +3566,10 @@
         <v>150</v>
       </c>
       <c r="Z12" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA12" s="21" t="s">
         <v>383</v>
-      </c>
-      <c r="AA12" s="21" t="s">
-        <v>384</v>
       </c>
       <c r="AB12" s="27" t="s">
         <v>151</v>
@@ -3602,13 +3614,15 @@
       <c r="K13" s="23">
         <v>4620</v>
       </c>
-      <c r="L13" s="24"/>
+      <c r="L13" s="50">
+        <v>492</v>
+      </c>
       <c r="M13" s="25"/>
       <c r="N13" s="26">
         <v>551236001620</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>152</v>
@@ -3631,7 +3645,7 @@
         <v>155</v>
       </c>
       <c r="Z13" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="27" t="s">
@@ -3676,12 +3690,14 @@
         <v>4620</v>
       </c>
       <c r="L14" s="24">
-        <v>492</v>
+        <v>130</v>
       </c>
       <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+      <c r="N14" s="26">
+        <v>551236001622</v>
+      </c>
       <c r="O14" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>157</v>
@@ -3704,7 +3720,7 @@
         <v>160</v>
       </c>
       <c r="Z14" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="27" t="s">
@@ -3727,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>25</v>
@@ -3749,14 +3765,14 @@
         <v>4620</v>
       </c>
       <c r="L15" s="24">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="26">
-        <v>551236001622</v>
+        <v>551236001623</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>162</v>
@@ -3779,7 +3795,7 @@
         <v>165</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="27" t="s">
@@ -3802,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>1</v>
@@ -3826,14 +3842,13 @@
         <v>4620</v>
       </c>
       <c r="L16" s="24">
-        <v>132</v>
-      </c>
-      <c r="M16" s="25"/>
+        <v>134</v>
+      </c>
       <c r="N16" s="26">
-        <v>551236001623</v>
+        <v>551236001624</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>167</v>
@@ -3856,7 +3871,7 @@
         <v>170</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="27" t="s">
@@ -3906,17 +3921,11 @@
       <c r="K17" s="23">
         <v>4620</v>
       </c>
-      <c r="L17" s="24">
-        <v>314</v>
-      </c>
       <c r="M17" s="25">
         <v>1507085</v>
       </c>
-      <c r="N17" s="26">
-        <v>551236001624</v>
-      </c>
       <c r="O17" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>171</v>
@@ -3940,7 +3949,7 @@
       </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AB17" s="27" t="s">
         <v>175</v>
@@ -3982,11 +3991,18 @@
         <v>1</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="N18" s="26"/>
+      <c r="K18" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L18" s="24">
+        <v>136</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26">
+        <v>551236001626</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>176</v>
@@ -4009,7 +4025,7 @@
         <v>179</v>
       </c>
       <c r="Z18" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="27" t="s">
@@ -4032,7 +4048,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>1</v>
@@ -4054,14 +4070,14 @@
         <v>4620</v>
       </c>
       <c r="L19" s="24">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="26">
-        <v>551236001626</v>
+        <v>551236001627</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>180</v>
@@ -4084,7 +4100,7 @@
         <v>183</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="27" t="s">
@@ -4107,7 +4123,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>1</v>
@@ -4129,14 +4145,14 @@
         <v>4620</v>
       </c>
       <c r="L20" s="24">
-        <v>111</v>
+        <v>720</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="26">
-        <v>551236001627</v>
+        <v>551236003337</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>184</v>
@@ -4159,7 +4175,7 @@
         <v>187</v>
       </c>
       <c r="Z20" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="27" t="s">
@@ -4182,7 +4198,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>1</v>
@@ -4204,14 +4220,14 @@
         <v>4620</v>
       </c>
       <c r="L21" s="24">
-        <v>720</v>
+        <v>138</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="26">
-        <v>551236003337</v>
+        <v>551236001628</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>189</v>
@@ -4234,7 +4250,7 @@
         <v>192</v>
       </c>
       <c r="Z21" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="27" t="s">
@@ -4281,14 +4297,14 @@
         <v>4620</v>
       </c>
       <c r="L22" s="24">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="26">
-        <v>551236001628</v>
+        <v>551236001632</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>193</v>
@@ -4311,7 +4327,7 @@
         <v>196</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="27" t="s">
@@ -4356,12 +4372,14 @@
         <v>4620</v>
       </c>
       <c r="L23" s="24">
-        <v>2370</v>
+        <v>150</v>
       </c>
       <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="N23" s="26">
+        <v>551236001634</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>198</v>
@@ -4384,7 +4402,7 @@
         <v>201</v>
       </c>
       <c r="Z23" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="27" t="s">
@@ -4425,18 +4443,18 @@
         <v>1</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="K24" s="23">
+      <c r="K24" s="32">
         <v>4620</v>
       </c>
-      <c r="L24" s="24">
-        <v>148</v>
-      </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26">
-        <v>551236001632</v>
+      <c r="L24" s="33">
+        <v>112</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35">
+        <v>551236001605</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>202</v>
@@ -4459,7 +4477,7 @@
         <v>205</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="27" t="s">
@@ -4506,20 +4524,14 @@
       <c r="J25" s="22">
         <v>2</v>
       </c>
-      <c r="K25" s="23">
-        <v>4620</v>
-      </c>
-      <c r="L25" s="24">
-        <v>150</v>
-      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="26">
-        <v>551236001634</v>
-      </c>
+      <c r="N25" s="26"/>
       <c r="O25" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>206</v>
@@ -4536,14 +4548,14 @@
       </c>
       <c r="W25" s="49"/>
       <c r="X25" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y25" s="27" t="s">
         <v>208</v>
       </c>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB25" s="27" t="s">
         <v>175</v>
@@ -4589,14 +4601,14 @@
         <v>4620</v>
       </c>
       <c r="L26" s="33">
-        <v>112</v>
+        <v>494</v>
       </c>
       <c r="M26" s="34"/>
       <c r="N26" s="35">
-        <v>551236001605</v>
+        <v>551236001635</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P26" s="36" t="s">
         <v>210</v>
@@ -4613,13 +4625,13 @@
       </c>
       <c r="W26" s="36"/>
       <c r="X26" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y26" s="36" t="s">
         <v>212</v>
       </c>
       <c r="Z26" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA26" s="30"/>
       <c r="AB26" s="36" t="s">
@@ -4663,15 +4675,11 @@
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="24" t="s">
-        <v>310</v>
-      </c>
+      <c r="L27" s="24"/>
       <c r="M27" s="25"/>
-      <c r="N27" s="26">
-        <v>551236001635</v>
-      </c>
+      <c r="N27" s="26"/>
       <c r="O27" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>216</v>
@@ -4688,7 +4696,7 @@
       </c>
       <c r="W27" s="27"/>
       <c r="X27" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y27" s="27" t="s">
         <v>218</v>
@@ -4799,7 +4807,7 @@
         <v>551236003045</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>219</v>
@@ -4816,13 +4824,13 @@
       </c>
       <c r="W28" s="49"/>
       <c r="X28" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y28" s="27" t="s">
         <v>221</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AA28" s="21"/>
       <c r="AB28" s="27" t="s">
@@ -4925,7 +4933,7 @@
       </c>
       <c r="N29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>223</v>
@@ -4942,14 +4950,14 @@
       </c>
       <c r="W29" s="49"/>
       <c r="X29" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y29" s="27" t="s">
         <v>225</v>
       </c>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AB29" s="27" t="s">
         <v>226</v>
@@ -5040,14 +5048,18 @@
         <v>2</v>
       </c>
       <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="K30" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L30" s="24">
+        <v>2370</v>
+      </c>
       <c r="M30" s="25">
         <v>1512696</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>227</v>
@@ -5064,16 +5076,16 @@
       </c>
       <c r="W30" s="27"/>
       <c r="X30" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y30" s="27" t="s">
         <v>229</v>
       </c>
       <c r="Z30" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA30" s="21" t="s">
         <v>394</v>
-      </c>
-      <c r="AA30" s="21" t="s">
-        <v>395</v>
       </c>
       <c r="AB30" s="27" t="s">
         <v>230</v>
@@ -5166,14 +5178,18 @@
         <v>0</v>
       </c>
       <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L31" s="24">
+        <v>2372</v>
+      </c>
       <c r="M31" s="25">
         <v>1511295</v>
       </c>
       <c r="N31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P31" s="27" t="s">
         <v>231</v>
@@ -5190,7 +5206,7 @@
       </c>
       <c r="W31" s="27"/>
       <c r="X31" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y31" s="27" t="s">
         <v>233</v>
@@ -5268,7 +5284,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>1</v>
@@ -5297,7 +5313,7 @@
         <v>551236001636</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>235</v>
@@ -5314,13 +5330,13 @@
       </c>
       <c r="W32" s="27"/>
       <c r="X32" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y32" s="27" t="s">
         <v>237</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="27" t="s">
@@ -5421,43 +5437,43 @@
       <c r="M33" s="25"/>
       <c r="N33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P33" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="S33" s="27" t="s">
         <v>474</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="R33" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="S33" s="27" t="s">
-        <v>475</v>
       </c>
       <c r="T33" s="27" t="s">
         <v>103</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V33" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="W33" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="W33" s="27" t="s">
-        <v>478</v>
-      </c>
       <c r="X33" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y33" s="27" t="s">
         <v>239</v>
       </c>
       <c r="Z33" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA33" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="AA33" s="21" t="s">
-        <v>406</v>
       </c>
       <c r="AB33" s="27" t="s">
         <v>240</v>
@@ -5528,7 +5544,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>1</v>
@@ -5557,7 +5573,7 @@
         <v>551236001637</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P34" s="27" t="s">
         <v>241</v>
@@ -5574,13 +5590,13 @@
       </c>
       <c r="W34" s="27"/>
       <c r="X34" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y34" s="27" t="s">
         <v>243</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA34" s="21"/>
       <c r="AB34" s="27" t="s">
@@ -5650,7 +5666,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>1</v>
@@ -5679,7 +5695,7 @@
         <v>551236003044</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>244</v>
@@ -5696,13 +5712,13 @@
       </c>
       <c r="W35" s="27"/>
       <c r="X35" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y35" s="27" t="s">
         <v>247</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="27" t="s">
@@ -5801,7 +5817,7 @@
       </c>
       <c r="N36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>248</v>
@@ -5818,16 +5834,16 @@
       </c>
       <c r="W36" s="27"/>
       <c r="X36" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y36" s="27" t="s">
         <v>250</v>
       </c>
       <c r="Z36" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA36" s="21" t="s">
         <v>421</v>
-      </c>
-      <c r="AA36" s="21" t="s">
-        <v>422</v>
       </c>
       <c r="AB36" s="27" t="s">
         <v>175</v>
@@ -5918,14 +5934,18 @@
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="K37" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L37" s="23">
+        <v>4910</v>
+      </c>
       <c r="M37" s="25">
         <v>1511444</v>
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>253</v>
@@ -5942,7 +5962,7 @@
       </c>
       <c r="W37" s="27"/>
       <c r="X37" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y37" s="27" t="s">
         <v>255</v>
@@ -6047,7 +6067,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>257</v>
@@ -6064,16 +6084,16 @@
       </c>
       <c r="W38" s="27"/>
       <c r="X38" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y38" s="27" t="s">
         <v>259</v>
       </c>
       <c r="Z38" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA38" s="21" t="s">
         <v>408</v>
-      </c>
-      <c r="AA38" s="21" t="s">
-        <v>409</v>
       </c>
       <c r="AB38" s="27" t="s">
         <v>175</v>
@@ -6144,7 +6164,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>28</v>
@@ -6173,7 +6193,7 @@
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P39" s="27" t="s">
         <v>263</v>
@@ -6190,16 +6210,16 @@
       </c>
       <c r="W39" s="27"/>
       <c r="X39" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y39" s="27" t="s">
         <v>265</v>
       </c>
       <c r="Z39" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA39" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="AA39" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="AB39" s="27" t="s">
         <v>175</v>
@@ -6270,7 +6290,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>25</v>
@@ -6299,7 +6319,7 @@
       </c>
       <c r="N40" s="26"/>
       <c r="O40" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P40" s="27" t="s">
         <v>266</v>
@@ -6316,16 +6336,16 @@
       </c>
       <c r="W40" s="27"/>
       <c r="X40" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y40" s="27" t="s">
         <v>268</v>
       </c>
       <c r="Z40" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA40" s="21" t="s">
         <v>410</v>
-      </c>
-      <c r="AA40" s="21" t="s">
-        <v>411</v>
       </c>
       <c r="AB40" s="27" t="s">
         <v>175</v>
@@ -6396,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>1</v>
@@ -6425,7 +6445,7 @@
         <v>551236001638</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P41" s="27" t="s">
         <v>269</v>
@@ -6442,13 +6462,13 @@
       </c>
       <c r="W41" s="27"/>
       <c r="X41" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y41" s="27" t="s">
         <v>271</v>
       </c>
       <c r="Z41" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA41" s="21"/>
       <c r="AB41" s="27" t="s">
@@ -6548,10 +6568,10 @@
       <c r="L42" s="23">
         <v>3430</v>
       </c>
-      <c r="M42" s="22"/>
+      <c r="M42" s="51"/>
       <c r="N42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P42" s="27" t="s">
         <v>272</v>
@@ -6568,16 +6588,16 @@
       </c>
       <c r="W42" s="27"/>
       <c r="X42" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y42" s="27" t="s">
         <v>273</v>
       </c>
       <c r="Z42" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA42" s="21" t="s">
         <v>413</v>
-      </c>
-      <c r="AA42" s="21" t="s">
-        <v>414</v>
       </c>
       <c r="AB42" s="27" t="s">
         <v>274</v>
@@ -6648,7 +6668,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>28</v>
@@ -6688,7 +6708,7 @@
       </c>
       <c r="W43" s="27"/>
       <c r="X43" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y43" s="27" t="s">
         <v>277</v>
@@ -6791,11 +6811,9 @@
         <v>1750</v>
       </c>
       <c r="M44" s="25"/>
-      <c r="N44" s="26">
-        <v>551236001639</v>
-      </c>
+      <c r="N44" s="26"/>
       <c r="O44" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P44" s="27" t="s">
         <v>279</v>
@@ -6812,7 +6830,7 @@
       </c>
       <c r="W44" s="27"/>
       <c r="X44" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y44" s="27" t="s">
         <v>282</v>
@@ -6890,7 +6908,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="22">
         <v>6</v>
@@ -6916,10 +6934,10 @@
       </c>
       <c r="M45" s="25"/>
       <c r="N45" s="26">
-        <v>551236002471</v>
+        <v>551236001639</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P45" s="27" t="s">
         <v>283</v>
@@ -6936,13 +6954,13 @@
       </c>
       <c r="W45" s="27"/>
       <c r="X45" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y45" s="27" t="s">
         <v>285</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA45" s="21"/>
       <c r="AB45" s="27" t="s">
@@ -7012,7 +7030,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C46" s="22">
         <v>6</v>
@@ -7039,9 +7057,11 @@
         <v>800</v>
       </c>
       <c r="M46" s="25"/>
-      <c r="N46" s="26"/>
+      <c r="N46" s="26">
+        <v>551236002471</v>
+      </c>
       <c r="O46" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>290</v>
@@ -7058,13 +7078,13 @@
       </c>
       <c r="W46" s="27"/>
       <c r="X46" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y46" s="27" t="s">
         <v>288</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="27" t="s">
@@ -7134,7 +7154,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>1</v>
@@ -7167,7 +7187,7 @@
       </c>
       <c r="N47" s="26"/>
       <c r="O47" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>291</v>
@@ -7184,16 +7204,16 @@
       </c>
       <c r="W47" s="27"/>
       <c r="X47" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y47" s="27" t="s">
         <v>293</v>
       </c>
       <c r="Z47" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA47" s="21" t="s">
         <v>416</v>
-      </c>
-      <c r="AA47" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="AB47" s="27" t="s">
         <v>294</v>
@@ -7264,7 +7284,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>1</v>
@@ -7293,7 +7313,7 @@
         <v>551236001642</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P48" s="27" t="s">
         <v>295</v>
@@ -7310,13 +7330,13 @@
       </c>
       <c r="W48" s="27"/>
       <c r="X48" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y48" s="27" t="s">
         <v>297</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA48" s="21"/>
       <c r="AB48" s="27" t="s">
@@ -7386,7 +7406,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C49" s="22">
         <v>6</v>
@@ -7414,10 +7434,10 @@
       </c>
       <c r="M49" s="25"/>
       <c r="N49" s="26">
-        <v>551236001646</v>
+        <v>551236001644</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P49" s="27" t="s">
         <v>299</v>
@@ -7434,13 +7454,13 @@
       </c>
       <c r="W49" s="27"/>
       <c r="X49" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Y49" s="27" t="s">
         <v>301</v>
       </c>
       <c r="Z49" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA49" s="21"/>
       <c r="AB49" s="27" t="s">
@@ -7508,7 +7528,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>1</v>
@@ -7533,9 +7553,11 @@
         <v>164</v>
       </c>
       <c r="M50" s="25"/>
-      <c r="N50" s="26"/>
+      <c r="N50" s="26">
+        <v>551236001646</v>
+      </c>
       <c r="O50" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P50" s="27" t="s">
         <v>302</v>
@@ -7552,13 +7574,13 @@
       </c>
       <c r="W50" s="27"/>
       <c r="X50" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y50" s="27" t="s">
         <v>304</v>
       </c>
       <c r="Z50" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AA50" s="21"/>
       <c r="AB50" s="27" t="s">
@@ -7661,7 +7683,7 @@
       </c>
       <c r="N51" s="26"/>
       <c r="O51" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P51" s="27" t="s">
         <v>305</v>
@@ -7678,19 +7700,19 @@
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Y51" s="27" t="s">
         <v>307</v>
       </c>
       <c r="Z51" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA51" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="AA51" s="21" t="s">
-        <v>426</v>
-      </c>
       <c r="AB51" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AC51" s="27">
         <v>169</v>
@@ -7755,7 +7777,7 @@
     <row r="52" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
       <c r="B52" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>1</v>
@@ -7778,34 +7800,38 @@
       <c r="K52" s="23">
         <v>4620</v>
       </c>
-      <c r="L52" s="24"/>
-      <c r="M52" s="25"/>
+      <c r="L52" s="24">
+        <v>8505</v>
+      </c>
+      <c r="M52" s="25">
+        <v>1512619</v>
+      </c>
       <c r="N52" s="26"/>
       <c r="O52" s="27"/>
       <c r="P52" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q52" s="27" t="s">
         <v>480</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>481</v>
       </c>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W52" s="27"/>
       <c r="X52" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y52" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AC52" s="27">
         <v>93</v>
@@ -7814,7 +7840,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AE52" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF52" s="27">
         <v>48.9</v>
@@ -7900,7 +7926,7 @@
       </c>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="27"/>
+      <c r="M53" s="25"/>
       <c r="N53" s="27"/>
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
@@ -7969,20 +7995,31 @@
       <c r="CA53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A1:AF7 B30:AF52 A8:A52 B19:AF27 B18:L18 N18:AF18 B8:AF17">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A1:AF7 A8:A52 B8:AF15 B17:K17 B16:L16 M17 O17:AF17 N16:AF16 B25:AF27 B24:J24 O24:AF24 B18:AF23 B30:AF52">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="3">
+    <cfRule type="expression" priority="9">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="10">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:N24">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -9223,7 +9260,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:J42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J42">
     <sortCondition ref="E2:E42"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10728,7 +10765,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
     <sortCondition ref="G2:G12"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12319,7 +12356,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
     <sortCondition ref="H2:H22"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1840607D-7A66-A74B-BD26-971D1154E7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F66CA3-93B2-3C42-ACEA-A6DD33F07C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17620" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All schools" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="492">
   <si>
     <t>name</t>
   </si>
@@ -753,9 +753,6 @@
     <t>Through STEAM, Red Apple Elementary engages, inspires and empowers a community of learners in critical thinking, collaboration and innovation; preparing students to be college and/or career ready in alignment with the [RUSD] North Star vision.</t>
   </si>
   <si>
-    <t>STEAM (Science, Technology, Engineering, Allied Arts, Math</t>
-  </si>
-  <si>
     <t>Our purpose is to provide safe, Christian schools focused on educational success, leadership development and spiritual growth. We help our students work hard to achieve greatness by nurturing and equipping them in a strong Christian and academic environment to become lifelong learners, capable of making responsible decisions, growing in faith and serving God and the community.</t>
   </si>
   <si>
@@ -822,9 +819,6 @@
     <t>169*</t>
   </si>
   <si>
-    <t>51.9*</t>
-  </si>
-  <si>
     <t>1.8*</t>
   </si>
   <si>
@@ -1405,9 +1399,6 @@
   </si>
   <si>
     <t>https://www.rusd.org/westridge</t>
-  </si>
-  <si>
-    <t>https://www.wisconsinlutheranschool.org</t>
   </si>
   <si>
     <t>https://www.rusd.org/beec</t>
@@ -1478,9 +1469,6 @@
     <t>(262) 634-3010</t>
   </si>
   <si>
-    <t xml:space="preserve">Trinity Evengelical Lutheran </t>
-  </si>
-  <si>
     <t>7900 Nicholson Road</t>
   </si>
   <si>
@@ -1512,6 +1500,24 @@
   </si>
   <si>
     <t>Trinity Lutheranjpg.jpg</t>
+  </si>
+  <si>
+    <t>A1303746</t>
+  </si>
+  <si>
+    <t>80.5*</t>
+  </si>
+  <si>
+    <t>STEAM (Science, Technology, Engineering, Allied Arts, Math)</t>
+  </si>
+  <si>
+    <t>75.7*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinity Evangelical Lutheran </t>
+  </si>
+  <si>
+    <t>http://www.wisconsinlutheranschool.org</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1863,6 +1869,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,7 +2081,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2193,28 +2205,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2595,15 +2619,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:CA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2618,7 +2639,7 @@
     <col min="9" max="10" width="8.83203125" style="11" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="12" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="52" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="48" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="9" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" style="9" customWidth="1"/>
     <col min="16" max="16" width="20.5" style="9" customWidth="1"/>
@@ -2686,22 +2707,22 @@
         <v>83</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="T1" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>460</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>463</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="X1" s="38" t="s">
         <v>78</v>
@@ -2767,7 +2788,7 @@
         <v>550004502575</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>97</v>
@@ -2790,7 +2811,7 @@
         <v>101</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="27" t="s">
@@ -2809,7 +2830,7 @@
     </row>
     <row r="3" spans="1:32" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A45" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -2837,12 +2858,12 @@
       <c r="L3" s="24">
         <v>114</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="26">
         <v>551236002708</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>102</v>
@@ -2859,7 +2880,7 @@
       </c>
       <c r="W3" s="27"/>
       <c r="X3" s="39" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Y3" s="27" t="s">
         <v>105</v>
@@ -2880,16 +2901,16 @@
       </c>
       <c r="AF3" s="27"/>
     </row>
-    <row r="4" spans="1:32" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
-        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C4" s="22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="22">
         <v>12</v>
@@ -2899,7 +2920,9 @@
       <c r="G4" s="22">
         <v>1</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
       <c r="I4" s="22">
         <v>1</v>
       </c>
@@ -2908,209 +2931,207 @@
         <v>4620</v>
       </c>
       <c r="L4" s="24">
-        <v>491</v>
+        <v>1698</v>
       </c>
       <c r="M4" s="25"/>
-      <c r="N4" s="26">
-        <v>551236001621</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>84</v>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="W4" s="27"/>
       <c r="X4" s="39" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" s="47" t="s">
-        <v>375</v>
+        <v>109</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>372</v>
       </c>
       <c r="AA4" s="21"/>
       <c r="AB4" s="27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC4" s="27">
-        <v>1783</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="21">
-        <v>53.5</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="AF4" s="27"/>
     </row>
-    <row r="5" spans="1:32" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="22">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="22">
-        <v>12</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22"/>
       <c r="H5" s="22">
         <v>1</v>
       </c>
       <c r="I5" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="23">
         <v>4620</v>
       </c>
       <c r="L5" s="24">
-        <v>1698</v>
-      </c>
-      <c r="M5" s="25"/>
+        <v>441</v>
+      </c>
+      <c r="M5" s="25">
+        <v>1512889</v>
+      </c>
       <c r="N5" s="26"/>
       <c r="O5" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="27" t="s">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="W5" s="27"/>
       <c r="X5" s="39" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>374</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
       <c r="AB5" s="27" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AC5" s="27">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="AD5" s="21">
-        <v>100</v>
+        <v>41.7</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF5" s="27"/>
-    </row>
-    <row r="6" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
       </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
+      <c r="H6" s="22"/>
       <c r="I6" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="23">
         <v>4620</v>
       </c>
       <c r="L6" s="24">
-        <v>441</v>
-      </c>
-      <c r="M6" s="25">
-        <v>1512889</v>
-      </c>
-      <c r="N6" s="26"/>
+        <v>111</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26">
+        <v>551236001627</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27" t="s">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="W6" s="27"/>
       <c r="X6" s="39" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z6" s="21"/>
+        <v>183</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>388</v>
+      </c>
       <c r="AA6" s="21"/>
       <c r="AB6" s="27" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AC6" s="27">
-        <v>180</v>
+        <v>338</v>
       </c>
       <c r="AD6" s="21">
-        <v>41.7</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="AE6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF6" s="27">
-        <v>58.8</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AF6" s="27"/>
     </row>
     <row r="7" spans="1:32" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3148,25 +3169,25 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>124</v>
@@ -3175,13 +3196,13 @@
         <v>124</v>
       </c>
       <c r="X7" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Y7" s="27" t="s">
         <v>125</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AA7" s="21"/>
       <c r="AB7" s="27" t="s">
@@ -3201,7 +3222,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="46">
+      <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -3235,7 +3256,7 @@
         <v>551236001611</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>128</v>
@@ -3258,7 +3279,7 @@
         <v>132</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="27" t="s">
@@ -3275,24 +3296,26 @@
       </c>
       <c r="AF8" s="27"/>
     </row>
-    <row r="9" spans="1:32" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+    <row r="9" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="22">
         <v>1</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22">
@@ -3303,17 +3326,17 @@
         <v>4620</v>
       </c>
       <c r="L9" s="24">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="26">
-        <v>551236001614</v>
+        <v>551236002311</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="27" t="s">
         <v>85</v>
@@ -3323,43 +3346,43 @@
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="W9" s="27"/>
       <c r="X9" s="39" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC9" s="27">
-        <v>268</v>
+        <v>1615</v>
       </c>
       <c r="AD9" s="21">
-        <v>83.6</v>
+        <v>28.9</v>
       </c>
       <c r="AE9" s="27" t="s">
         <v>127</v>
       </c>
       <c r="AF9" s="27"/>
     </row>
-    <row r="10" spans="1:32" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+    <row r="10" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D10" s="22">
         <v>8</v>
@@ -3380,66 +3403,66 @@
         <v>4620</v>
       </c>
       <c r="L10" s="24">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="26">
-        <v>551236002311</v>
+        <v>551236001608</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
       <c r="V10" s="27" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="W10" s="27"/>
       <c r="X10" s="39" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Y10" s="27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA10" s="21"/>
       <c r="AB10" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC10" s="27">
-        <v>1615</v>
+        <v>741</v>
       </c>
       <c r="AD10" s="21">
-        <v>28.9</v>
+        <v>57</v>
       </c>
       <c r="AE10" s="27" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AF10" s="27"/>
     </row>
-    <row r="11" spans="1:32" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+    <row r="11" spans="1:32" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="22">
         <v>1</v>
@@ -3448,152 +3471,150 @@
         <v>1</v>
       </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
       <c r="I11" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="23">
         <v>4620</v>
       </c>
       <c r="L11" s="24">
-        <v>106</v>
-      </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26">
-        <v>551236001608</v>
-      </c>
+        <v>1711</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="26"/>
       <c r="O11" s="27" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="W11" s="27"/>
       <c r="X11" s="39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Y11" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Z11" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="AA11" s="21"/>
+      <c r="AA11" s="21" t="s">
+        <v>381</v>
+      </c>
       <c r="AB11" s="27" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="AC11" s="27">
-        <v>741</v>
+        <v>319</v>
       </c>
       <c r="AD11" s="21">
-        <v>57</v>
+        <v>84.6</v>
       </c>
       <c r="AE11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF11" s="27"/>
-    </row>
-    <row r="12" spans="1:32" ht="144" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+        <v>127</v>
+      </c>
+      <c r="AF11" s="27">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="22">
+        <v>9</v>
       </c>
       <c r="D12" s="22">
-        <v>6</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22"/>
       <c r="I12" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="23">
         <v>4620</v>
       </c>
-      <c r="L12" s="24">
-        <v>1711</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="26"/>
+      <c r="L12" s="49">
+        <v>492</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26">
+        <v>551236001620</v>
+      </c>
       <c r="O12" s="27" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="W12" s="27"/>
       <c r="X12" s="39" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Y12" s="27" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Z12" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="AA12" s="21" t="s">
-        <v>383</v>
-      </c>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="27" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="AC12" s="27">
-        <v>319</v>
+        <v>1577</v>
       </c>
       <c r="AD12" s="21">
-        <v>84.6</v>
+        <v>63.5</v>
       </c>
       <c r="AE12" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF12" s="27">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+        <v>156</v>
+      </c>
+      <c r="AF12" s="27"/>
+    </row>
+    <row r="13" spans="1:32" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C13" s="22">
         <v>9</v>
@@ -3615,55 +3636,55 @@
         <v>4620</v>
       </c>
       <c r="L13" s="50">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="26">
-        <v>551236001620</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>152</v>
+        <v>551236001621</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="W13" s="27"/>
       <c r="X13" s="39" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>384</v>
+        <v>88</v>
+      </c>
+      <c r="Z13" s="55" t="s">
+        <v>373</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC13" s="27">
-        <v>1577</v>
+        <v>1783</v>
       </c>
       <c r="AD13" s="21">
-        <v>63.5</v>
+        <v>53.5</v>
       </c>
       <c r="AE13" s="27" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="AF13" s="27"/>
     </row>
     <row r="14" spans="1:32" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="44">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3697,7 +3718,7 @@
         <v>551236001622</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>157</v>
@@ -3720,7 +3741,7 @@
         <v>160</v>
       </c>
       <c r="Z14" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="27" t="s">
@@ -3738,15 +3759,15 @@
       <c r="AF14" s="27"/>
     </row>
     <row r="15" spans="1:32" ht="192" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D15" s="22">
         <v>5</v>
@@ -3772,7 +3793,7 @@
         <v>551236001623</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>162</v>
@@ -3795,7 +3816,7 @@
         <v>165</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="27" t="s">
@@ -3813,12 +3834,12 @@
       <c r="AF15" s="27"/>
     </row>
     <row r="16" spans="1:32" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="A16" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>1</v>
@@ -3844,11 +3865,12 @@
       <c r="L16" s="24">
         <v>134</v>
       </c>
+      <c r="M16" s="56"/>
       <c r="N16" s="26">
         <v>551236001624</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>167</v>
@@ -3871,7 +3893,7 @@
         <v>170</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="27" t="s">
@@ -3889,7 +3911,7 @@
       <c r="AF16" s="27"/>
     </row>
     <row r="17" spans="1:79" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
+      <c r="A17" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3918,14 +3940,12 @@
       <c r="J17" s="22">
         <v>2</v>
       </c>
-      <c r="K17" s="23">
-        <v>4620</v>
-      </c>
+      <c r="K17" s="23"/>
       <c r="M17" s="25">
         <v>1507085</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>171</v>
@@ -3949,7 +3969,7 @@
       </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AB17" s="27" t="s">
         <v>175</v>
@@ -3964,16 +3984,16 @@
         <v>123</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:79" ht="96" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:79" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>1</v>
@@ -3995,34 +4015,34 @@
         <v>4620</v>
       </c>
       <c r="L18" s="24">
-        <v>136</v>
+        <v>720</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="26">
-        <v>551236001626</v>
+        <v>551236003337</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="W18" s="27"/>
       <c r="X18" s="39" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Y18" s="27" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Z18" s="21" t="s">
         <v>389</v>
@@ -4032,18 +4052,18 @@
         <v>112</v>
       </c>
       <c r="AC18" s="27">
-        <v>499</v>
+        <v>422</v>
       </c>
       <c r="AD18" s="21">
-        <v>85.2</v>
+        <v>94.3</v>
       </c>
       <c r="AE18" s="27" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="AF18" s="27"/>
     </row>
-    <row r="19" spans="1:79" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+    <row r="19" spans="1:79" ht="208" x14ac:dyDescent="0.2">
+      <c r="A19" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -4070,34 +4090,34 @@
         <v>4620</v>
       </c>
       <c r="L19" s="24">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="26">
-        <v>551236001627</v>
+        <v>551236001628</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="W19" s="27"/>
       <c r="X19" s="39" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Y19" s="27" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Z19" s="21" t="s">
         <v>390</v>
@@ -4107,34 +4127,36 @@
         <v>112</v>
       </c>
       <c r="AC19" s="27">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="AD19" s="21">
-        <v>81.099999999999994</v>
+        <v>87.8</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="AF19" s="27"/>
     </row>
-    <row r="20" spans="1:79" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
+    <row r="20" spans="1:79" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="44">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>320</v>
+        <v>47</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22">
@@ -4145,60 +4167,60 @@
         <v>4620</v>
       </c>
       <c r="L20" s="24">
-        <v>720</v>
+        <v>148</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="26">
-        <v>551236003337</v>
+        <v>551236001632</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>488</v>
+        <v>342</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="W20" s="27"/>
       <c r="X20" s="39" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Y20" s="27" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Z20" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC20" s="27">
-        <v>422</v>
+        <v>1260</v>
       </c>
       <c r="AD20" s="21">
-        <v>94.3</v>
+        <v>80.8</v>
       </c>
       <c r="AE20" s="27" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AF20" s="27"/>
     </row>
-    <row r="21" spans="1:79" ht="208" x14ac:dyDescent="0.2">
-      <c r="A21" s="46">
+    <row r="21" spans="1:79" ht="112" x14ac:dyDescent="0.2">
+      <c r="A21" s="44">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>321</v>
+        <v>48</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>1</v>
@@ -4220,73 +4242,71 @@
         <v>4620</v>
       </c>
       <c r="L21" s="24">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="26">
-        <v>551236001628</v>
+        <v>551236001634</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
       <c r="V21" s="27" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="W21" s="27"/>
       <c r="X21" s="39" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Y21" s="27" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Z21" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC21" s="27">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="AD21" s="21">
-        <v>87.8</v>
+        <v>77.7</v>
       </c>
       <c r="AE21" s="27" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="AF21" s="27"/>
     </row>
-    <row r="22" spans="1:79" ht="96" x14ac:dyDescent="0.2">
-      <c r="A22" s="46">
+    <row r="22" spans="1:79" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22" s="22">
         <v>1</v>
       </c>
-      <c r="F22" s="22">
-        <v>1</v>
-      </c>
+      <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22">
@@ -4297,34 +4317,34 @@
         <v>4620</v>
       </c>
       <c r="L22" s="24">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="26">
-        <v>551236001632</v>
+        <v>551236001605</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="W22" s="27"/>
       <c r="X22" s="39" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Z22" s="21" t="s">
         <v>395</v>
@@ -4334,110 +4354,114 @@
         <v>112</v>
       </c>
       <c r="AC22" s="27">
-        <v>1260</v>
+        <v>454</v>
       </c>
       <c r="AD22" s="21">
-        <v>80.8</v>
+        <v>42.1</v>
       </c>
       <c r="AE22" s="27" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="AF22" s="27"/>
     </row>
-    <row r="23" spans="1:79" ht="112" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+    <row r="23" spans="1:79" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="44">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
       <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="22">
+        <v>1</v>
+      </c>
       <c r="I23" s="22">
-        <v>1</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23">
-        <v>4620</v>
-      </c>
-      <c r="L23" s="24">
-        <v>150</v>
-      </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26">
-        <v>551236001634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>2</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="26"/>
       <c r="O23" s="27" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="W23" s="27"/>
-      <c r="X23" s="39" t="s">
-        <v>200</v>
+      <c r="X23" s="51" t="s">
+        <v>429</v>
       </c>
       <c r="Y23" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z23" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="AA23" s="21"/>
       <c r="AB23" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC23" s="27">
-        <v>296</v>
-      </c>
-      <c r="AD23" s="21">
-        <v>77.7</v>
+        <v>175</v>
+      </c>
+      <c r="AC23" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD23" s="42" t="s">
+        <v>213</v>
       </c>
       <c r="AE23" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF23" s="27"/>
-    </row>
-    <row r="24" spans="1:79" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
+        <v>123</v>
+      </c>
+      <c r="AF23" s="27">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:79" ht="160" x14ac:dyDescent="0.2">
+      <c r="A24" s="44">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="22">
+        <v>9</v>
       </c>
       <c r="D24" s="22">
-        <v>5</v>
-      </c>
-      <c r="E24" s="22">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22">
         <v>1</v>
@@ -4447,34 +4471,34 @@
         <v>4620</v>
       </c>
       <c r="L24" s="33">
-        <v>112</v>
+        <v>494</v>
       </c>
       <c r="M24" s="34"/>
       <c r="N24" s="35">
-        <v>551236001605</v>
+        <v>551236001635</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
       <c r="V24" s="27" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="W24" s="27"/>
       <c r="X24" s="39" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="Y24" s="27" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Z24" s="21" t="s">
         <v>397</v>
@@ -4484,29 +4508,29 @@
         <v>112</v>
       </c>
       <c r="AC24" s="27">
-        <v>469</v>
+        <v>1324</v>
       </c>
       <c r="AD24" s="21">
-        <v>42.2</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="AE24" s="27" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="AF24" s="27"/>
     </row>
-    <row r="25" spans="1:79" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+    <row r="25" spans="1:79" ht="128" x14ac:dyDescent="0.2">
+      <c r="A25" s="44">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D25" s="22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E25" s="22">
         <v>1</v>
@@ -4514,85 +4538,89 @@
       <c r="F25" s="22">
         <v>1</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22">
-        <v>1</v>
-      </c>
+      <c r="G25" s="22">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22"/>
       <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="22">
-        <v>2</v>
-      </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L25" s="24">
+        <v>801</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26">
+        <v>551236003045</v>
+      </c>
       <c r="O25" s="27" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
       <c r="V25" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="W25" s="49"/>
+        <v>220</v>
+      </c>
+      <c r="W25" s="46"/>
       <c r="X25" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y25" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21" t="s">
-        <v>398</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="Z25" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC25" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD25" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC25" s="27">
         <v>213</v>
       </c>
+      <c r="AD25" s="21">
+        <v>81.7</v>
+      </c>
       <c r="AE25" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF25" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:79" ht="160" x14ac:dyDescent="0.2">
-      <c r="A26" s="46">
+        <v>222</v>
+      </c>
+      <c r="AF25" s="27"/>
+    </row>
+    <row r="26" spans="1:79" ht="96" x14ac:dyDescent="0.2">
+      <c r="A26" s="44">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="31">
         <v>9</v>
       </c>
+      <c r="C26" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="31">
-        <v>12</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31">
-        <v>1</v>
-      </c>
-      <c r="H26" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31">
+        <v>1</v>
+      </c>
       <c r="I26" s="31">
         <v>1</v>
       </c>
@@ -4601,88 +4629,96 @@
         <v>4620</v>
       </c>
       <c r="L26" s="33">
-        <v>494</v>
-      </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35">
-        <v>551236001635</v>
-      </c>
+        <v>2360</v>
+      </c>
+      <c r="M26" s="34">
+        <v>1513215</v>
+      </c>
+      <c r="N26" s="35"/>
       <c r="O26" s="36" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="W26" s="36"/>
-      <c r="X26" s="39" t="s">
-        <v>432</v>
+      <c r="X26" s="53" t="s">
+        <v>433</v>
       </c>
       <c r="Y26" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z26" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA26" s="30"/>
+        <v>225</v>
+      </c>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30" t="s">
+        <v>400</v>
+      </c>
       <c r="AB26" s="36" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="AC26" s="36">
-        <v>1324</v>
+        <v>135</v>
       </c>
       <c r="AD26" s="30">
-        <v>71.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF26" s="36"/>
-    </row>
-    <row r="27" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+        <v>123</v>
+      </c>
+      <c r="AF26" s="36">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" s="44">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>309</v>
+        <v>63</v>
       </c>
       <c r="C27" s="22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27" s="22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27" s="22"/>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22">
+        <v>1</v>
+      </c>
       <c r="H27" s="22">
         <v>1</v>
       </c>
       <c r="I27" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
+      <c r="K27" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L27" s="24">
+        <v>2370</v>
+      </c>
+      <c r="M27" s="25">
+        <v>1512696</v>
+      </c>
       <c r="N27" s="26"/>
       <c r="O27" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q27" s="27" t="s">
         <v>147</v>
@@ -4692,33 +4728,35 @@
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="W27" s="27"/>
       <c r="X27" s="39" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Y27" s="27" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Z27" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA27" s="21"/>
+        <v>391</v>
+      </c>
+      <c r="AA27" s="21" t="s">
+        <v>392</v>
+      </c>
       <c r="AB27" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC27" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD27" s="21" t="s">
-        <v>113</v>
+        <v>230</v>
+      </c>
+      <c r="AC27" s="27">
+        <v>264</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>17.399999999999999</v>
       </c>
       <c r="AE27" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF27" s="27" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="AF27" s="27">
+        <v>61.7</v>
       </c>
       <c r="AG27"/>
       <c r="AH27"/>
@@ -4768,19 +4806,19 @@
       <c r="BZ27"/>
       <c r="CA27"/>
     </row>
-    <row r="28" spans="1:79" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
+    <row r="28" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A28" s="44">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D28" s="22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E28" s="22">
         <v>1</v>
@@ -4788,64 +4826,66 @@
       <c r="F28" s="22">
         <v>1</v>
       </c>
-      <c r="G28" s="22">
-        <v>1</v>
-      </c>
-      <c r="H28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22">
+        <v>1</v>
+      </c>
       <c r="I28" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="23">
         <v>4620</v>
       </c>
       <c r="L28" s="24">
-        <v>801</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26">
-        <v>551236003045</v>
-      </c>
+        <v>2372</v>
+      </c>
+      <c r="M28" s="25">
+        <v>1511295</v>
+      </c>
+      <c r="N28" s="26"/>
       <c r="O28" s="27" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="W28" s="49"/>
-      <c r="X28" s="44" t="s">
-        <v>434</v>
+        <v>232</v>
+      </c>
+      <c r="W28" s="46"/>
+      <c r="X28" s="52" t="s">
+        <v>435</v>
       </c>
       <c r="Y28" s="27" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>401</v>
+        <v>113</v>
       </c>
       <c r="AA28" s="21"/>
       <c r="AB28" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC28" s="27">
-        <v>213</v>
-      </c>
-      <c r="AD28" s="21">
-        <v>81.7</v>
+        <v>116</v>
+      </c>
+      <c r="AC28" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="AE28" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF28" s="27"/>
+        <v>234</v>
+      </c>
+      <c r="AF28" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
@@ -4895,29 +4935,25 @@
       <c r="CA28"/>
     </row>
     <row r="29" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
+      <c r="A29" s="44">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>9</v>
+        <v>320</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D29" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29" s="22">
         <v>1</v>
       </c>
-      <c r="F29" s="22">
-        <v>1</v>
-      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="22">
-        <v>1</v>
-      </c>
+      <c r="H29" s="22"/>
       <c r="I29" s="22">
         <v>1</v>
       </c>
@@ -4926,54 +4962,52 @@
         <v>4620</v>
       </c>
       <c r="L29" s="24">
-        <v>2360</v>
-      </c>
-      <c r="M29" s="25">
-        <v>1513215</v>
-      </c>
-      <c r="N29" s="26"/>
+        <v>174</v>
+      </c>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26">
+        <v>551236001636</v>
+      </c>
       <c r="O29" s="27" t="s">
         <v>362</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="W29" s="49"/>
-      <c r="X29" s="45" t="s">
-        <v>435</v>
+        <v>236</v>
+      </c>
+      <c r="W29" s="46"/>
+      <c r="X29" s="52" t="s">
+        <v>436</v>
       </c>
       <c r="Y29" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21" t="s">
-        <v>402</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="Z29" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="27" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="AC29" s="27">
-        <v>61</v>
+        <v>386</v>
       </c>
       <c r="AD29" s="21">
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="AE29" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF29" s="27">
-        <v>45.2</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="AF29" s="27"/>
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
@@ -5022,25 +5056,27 @@
       <c r="BZ29"/>
       <c r="CA29"/>
     </row>
-    <row r="30" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
+    <row r="30" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A30" s="44">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="22">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D30" s="22">
-        <v>12</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E30" s="22">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22"/>
       <c r="H30" s="22">
         <v>1</v>
       </c>
@@ -5052,55 +5088,65 @@
         <v>4620</v>
       </c>
       <c r="L30" s="24">
-        <v>2370</v>
-      </c>
-      <c r="M30" s="25">
-        <v>1512696</v>
+        <v>1619</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>486</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
+        <v>472</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="S30" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="U30" s="27" t="s">
+        <v>469</v>
+      </c>
       <c r="V30" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="W30" s="27"/>
-      <c r="X30" s="39" t="s">
-        <v>436</v>
+        <v>473</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="X30" s="45" t="s">
+        <v>437</v>
       </c>
       <c r="Y30" s="27" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Z30" s="21" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AA30" s="21" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AB30" s="27" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AC30" s="27">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="AD30" s="21">
-        <v>17.399999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="AE30" s="27" t="s">
         <v>123</v>
       </c>
       <c r="AF30" s="27">
-        <v>61.7</v>
+        <v>96.9</v>
       </c>
       <c r="AG30"/>
       <c r="AH30"/>
@@ -5151,48 +5197,44 @@
       <c r="CA30"/>
     </row>
     <row r="31" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="44">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E31" s="22">
         <v>1</v>
       </c>
-      <c r="F31" s="22">
-        <v>1</v>
-      </c>
+      <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="22">
-        <v>1</v>
-      </c>
+      <c r="H31" s="22"/>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="23">
         <v>4620</v>
       </c>
       <c r="L31" s="24">
-        <v>2372</v>
-      </c>
-      <c r="M31" s="25">
-        <v>1511295</v>
-      </c>
-      <c r="N31" s="26"/>
+        <v>154</v>
+      </c>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26">
+        <v>551236001637</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q31" s="27" t="s">
         <v>147</v>
@@ -5202,34 +5244,32 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="W31" s="27"/>
       <c r="X31" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y31" s="27" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>113</v>
+        <v>404</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC31" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD31" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AC31" s="27">
+        <v>340</v>
+      </c>
+      <c r="AD31" s="21">
+        <v>87.4</v>
       </c>
       <c r="AE31" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF31" s="27" t="s">
-        <v>113</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AF31" s="27"/>
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
@@ -5278,13 +5318,13 @@
       <c r="BZ31"/>
       <c r="CA31"/>
     </row>
-    <row r="32" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A32" s="46">
+    <row r="32" spans="1:79" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A32" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>1</v>
@@ -5306,50 +5346,50 @@
         <v>4620</v>
       </c>
       <c r="L32" s="24">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="26">
-        <v>551236001636</v>
+        <v>551236003044</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="W32" s="27"/>
       <c r="X32" s="39" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y32" s="27" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC32" s="27">
-        <v>386</v>
+        <v>153</v>
       </c>
       <c r="AD32" s="21">
-        <v>52.1</v>
+        <v>86.9</v>
       </c>
       <c r="AE32" s="27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AF32" s="27"/>
       <c r="AG32"/>
@@ -5400,96 +5440,80 @@
       <c r="BZ32"/>
       <c r="CA32"/>
     </row>
-    <row r="33" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
+    <row r="33" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A33" s="44">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="22">
-        <v>1</v>
-      </c>
+      <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="22">
-        <v>1</v>
-      </c>
+      <c r="H33" s="22"/>
       <c r="I33" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="23">
         <v>4620</v>
       </c>
       <c r="L33" s="24">
-        <v>1619</v>
+        <v>136</v>
       </c>
       <c r="M33" s="25"/>
-      <c r="N33" s="26"/>
+      <c r="N33" s="26">
+        <v>551236001626</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>473</v>
+        <v>176</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="R33" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="S33" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="T33" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="U33" s="27" t="s">
-        <v>472</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
       <c r="V33" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="W33" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="X33" s="48" t="s">
-        <v>439</v>
+        <v>177</v>
+      </c>
+      <c r="W33" s="27"/>
+      <c r="X33" s="39" t="s">
+        <v>178</v>
       </c>
       <c r="Y33" s="27" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA33" s="21" t="s">
-        <v>405</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="AA33" s="21"/>
       <c r="AB33" s="27" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="AC33" s="27">
-        <v>346</v>
+        <v>499</v>
       </c>
       <c r="AD33" s="21">
-        <v>82.3</v>
+        <v>85.2</v>
       </c>
       <c r="AE33" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF33" s="27">
-        <v>96.9</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AF33" s="27"/>
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
@@ -5539,79 +5563,83 @@
       <c r="CA33"/>
     </row>
     <row r="34" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
+      <c r="A34" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C34" s="22">
+        <v>6</v>
       </c>
       <c r="D34" s="22">
-        <v>5</v>
-      </c>
-      <c r="E34" s="22">
-        <v>1</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1</v>
+      </c>
+      <c r="H34" s="22">
+        <v>1</v>
+      </c>
       <c r="I34" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="22"/>
-      <c r="K34" s="23">
-        <v>4620</v>
-      </c>
-      <c r="L34" s="24">
-        <v>154</v>
-      </c>
-      <c r="M34" s="25"/>
-      <c r="N34" s="26">
-        <v>551236001637</v>
-      </c>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25">
+        <v>1507096</v>
+      </c>
+      <c r="N34" s="26"/>
       <c r="O34" s="27" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
       <c r="V34" s="27" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="W34" s="27"/>
       <c r="X34" s="39" t="s">
         <v>440</v>
       </c>
       <c r="Y34" s="27" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA34" s="21"/>
+        <v>418</v>
+      </c>
+      <c r="AA34" s="21" t="s">
+        <v>419</v>
+      </c>
       <c r="AB34" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC34" s="27">
-        <v>340</v>
+        <v>175</v>
+      </c>
+      <c r="AC34" s="27" t="s">
+        <v>250</v>
       </c>
       <c r="AD34" s="21">
-        <v>87.4</v>
+        <v>51.9</v>
       </c>
       <c r="AE34" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF34" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="AF34" s="27" t="s">
+        <v>251</v>
+      </c>
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
@@ -5661,79 +5689,83 @@
       <c r="CA34"/>
     </row>
     <row r="35" spans="1:79" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="44">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>328</v>
+        <v>66</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D35" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E35" s="22">
         <v>1</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
       <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="22">
+        <v>1</v>
+      </c>
       <c r="I35" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="23">
         <v>4620</v>
       </c>
-      <c r="L35" s="24">
-        <v>101</v>
-      </c>
-      <c r="M35" s="25"/>
-      <c r="N35" s="26">
-        <v>551236003044</v>
-      </c>
+      <c r="L35" s="23">
+        <v>4910</v>
+      </c>
+      <c r="M35" s="25">
+        <v>1511444</v>
+      </c>
+      <c r="N35" s="26"/>
       <c r="O35" s="27" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
       <c r="V35" s="27" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="W35" s="27"/>
       <c r="X35" s="39" t="s">
         <v>441</v>
       </c>
       <c r="Y35" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z35" s="21" t="s">
-        <v>381</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="27" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="AC35" s="27">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="AD35" s="21">
-        <v>32.299999999999997</v>
+        <v>24.3</v>
       </c>
       <c r="AE35" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF35" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="AF35" s="27">
+        <v>72.7</v>
+      </c>
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
@@ -5782,83 +5814,83 @@
       <c r="BZ35"/>
       <c r="CA35"/>
     </row>
-    <row r="36" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
+    <row r="36" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A36" s="44">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="22">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D36" s="22">
-        <v>12</v>
-      </c>
-      <c r="E36" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
       <c r="F36" s="22">
         <v>1</v>
       </c>
-      <c r="G36" s="22">
-        <v>1</v>
-      </c>
+      <c r="G36" s="22"/>
       <c r="H36" s="22">
         <v>1</v>
       </c>
       <c r="I36" s="22">
+        <v>0</v>
+      </c>
+      <c r="J36" s="22">
         <v>2</v>
       </c>
-      <c r="J36" s="22"/>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
-      <c r="M36" s="25">
-        <v>1507096</v>
-      </c>
+      <c r="M36" s="25"/>
       <c r="N36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="P36" s="27" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="W36" s="27"/>
       <c r="X36" s="39" t="s">
         <v>442</v>
       </c>
       <c r="Y36" s="27" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Z36" s="21" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="AA36" s="21" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="AB36" s="27" t="s">
         <v>175</v>
       </c>
       <c r="AC36" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD36" s="21">
-        <v>51.9</v>
+        <v>259</v>
+      </c>
+      <c r="AD36" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="AE36" s="27" t="s">
         <v>123</v>
       </c>
       <c r="AF36" s="27" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="AG36"/>
       <c r="AH36"/>
@@ -5908,13 +5940,13 @@
       <c r="BZ36"/>
       <c r="CA36"/>
     </row>
-    <row r="37" spans="1:79" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
+    <row r="37" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="44">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>28</v>
@@ -5932,57 +5964,59 @@
       <c r="H37" s="22">
         <v>1</v>
       </c>
-      <c r="I37" s="22"/>
+      <c r="I37" s="22">
+        <v>2</v>
+      </c>
       <c r="J37" s="22"/>
-      <c r="K37" s="23">
-        <v>4620</v>
-      </c>
-      <c r="L37" s="23">
-        <v>4910</v>
-      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="25">
-        <v>1511444</v>
+        <v>1507755</v>
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
         <v>426</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
       <c r="U37" s="27"/>
       <c r="V37" s="27" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="W37" s="27"/>
       <c r="X37" s="39" t="s">
         <v>443</v>
       </c>
       <c r="Y37" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
+        <v>263</v>
+      </c>
+      <c r="Z37" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA37" s="21" t="s">
+        <v>421</v>
+      </c>
       <c r="AB37" s="27" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="AC37" s="27">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="AD37" s="21">
-        <v>24.3</v>
+        <v>21.1</v>
       </c>
       <c r="AE37" s="27" t="s">
         <v>123</v>
       </c>
       <c r="AF37" s="27">
-        <v>72.7</v>
+        <v>21.1</v>
       </c>
       <c r="AG37"/>
       <c r="AH37"/>
@@ -6032,16 +6066,16 @@
       <c r="BZ37"/>
       <c r="CA37"/>
     </row>
-    <row r="38" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A38" s="46">
+    <row r="38" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A38" s="44">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D38" s="22">
         <v>8</v>
@@ -6057,20 +6091,20 @@
         <v>1</v>
       </c>
       <c r="I38" s="22">
-        <v>0</v>
-      </c>
-      <c r="J38" s="22">
         <v>2</v>
       </c>
+      <c r="J38" s="22"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
+      <c r="M38" s="25">
+        <v>1506525</v>
+      </c>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q38" s="27" t="s">
         <v>147</v>
@@ -6080,14 +6114,14 @@
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
       <c r="V38" s="27" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="W38" s="27"/>
       <c r="X38" s="39" t="s">
         <v>444</v>
       </c>
       <c r="Y38" s="27" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Z38" s="21" t="s">
         <v>407</v>
@@ -6098,17 +6132,17 @@
       <c r="AB38" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="AC38" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD38" s="21" t="s">
-        <v>261</v>
+      <c r="AC38" s="27">
+        <v>148</v>
+      </c>
+      <c r="AD38" s="21">
+        <v>9.5</v>
       </c>
       <c r="AE38" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="AF38" s="27" t="s">
-        <v>262</v>
+      <c r="AF38" s="27">
+        <v>22.3</v>
       </c>
       <c r="AG38"/>
       <c r="AH38"/>
@@ -6158,84 +6192,80 @@
       <c r="BZ38"/>
       <c r="CA38"/>
     </row>
-    <row r="39" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+    <row r="39" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A39" s="44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D39" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39" s="22">
         <v>1</v>
       </c>
-      <c r="F39" s="22">
-        <v>1</v>
-      </c>
+      <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="22">
-        <v>1</v>
-      </c>
+      <c r="H39" s="22"/>
       <c r="I39" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25">
-        <v>1507755</v>
-      </c>
-      <c r="N39" s="26"/>
+      <c r="K39" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L39" s="24">
+        <v>166</v>
+      </c>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26">
+        <v>551236001638</v>
+      </c>
       <c r="O39" s="27" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
       <c r="U39" s="27"/>
       <c r="V39" s="27" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="W39" s="27"/>
       <c r="X39" s="39" t="s">
         <v>445</v>
       </c>
       <c r="Y39" s="27" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Z39" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC39" s="27">
         <v>422</v>
       </c>
-      <c r="AA39" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB39" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC39" s="27">
-        <v>190</v>
-      </c>
       <c r="AD39" s="21">
-        <v>21.1</v>
+        <v>52.4</v>
       </c>
       <c r="AE39" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF39" s="27">
-        <v>21.1</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AF39" s="27"/>
       <c r="AG39"/>
       <c r="AH39"/>
       <c r="AI39"/>
@@ -6284,19 +6314,19 @@
       <c r="BZ39"/>
       <c r="CA39"/>
     </row>
-    <row r="40" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A40" s="46">
+    <row r="40" spans="1:79" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A40" s="44">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D40" s="22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
@@ -6304,7 +6334,9 @@
       <c r="F40" s="22">
         <v>1</v>
       </c>
-      <c r="G40" s="22"/>
+      <c r="G40" s="22">
+        <v>1</v>
+      </c>
       <c r="H40" s="22">
         <v>1</v>
       </c>
@@ -6312,55 +6344,57 @@
         <v>2</v>
       </c>
       <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25">
-        <v>1506525</v>
-      </c>
+      <c r="K40" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L40" s="23">
+        <v>3430</v>
+      </c>
+      <c r="M40" s="47"/>
       <c r="N40" s="26"/>
       <c r="O40" s="27" t="s">
-        <v>427</v>
+        <v>347</v>
       </c>
       <c r="P40" s="27" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q40" s="27" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
       <c r="U40" s="27"/>
       <c r="V40" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W40" s="27"/>
       <c r="X40" s="39" t="s">
         <v>446</v>
       </c>
       <c r="Y40" s="27" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB40" s="27" t="s">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="AC40" s="27">
-        <v>148</v>
+        <v>1255</v>
       </c>
       <c r="AD40" s="21">
-        <v>51.9</v>
+        <v>54.4</v>
       </c>
       <c r="AE40" s="27" t="s">
         <v>123</v>
       </c>
       <c r="AF40" s="27">
-        <v>9.5</v>
+        <v>83.4</v>
       </c>
       <c r="AG40"/>
       <c r="AH40"/>
@@ -6410,80 +6444,78 @@
       <c r="BZ40"/>
       <c r="CA40"/>
     </row>
-    <row r="41" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A41" s="46">
+    <row r="41" spans="1:79" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="44">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="22">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="E41" s="22">
         <v>1</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22">
-        <v>1</v>
-      </c>
+      <c r="H41" s="22">
+        <v>1</v>
+      </c>
+      <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="23">
         <v>4620</v>
       </c>
       <c r="L41" s="24">
-        <v>166</v>
-      </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="26">
-        <v>551236001638</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>348</v>
-      </c>
+        <v>1531</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
       <c r="P41" s="27" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q41" s="27" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
       <c r="U41" s="27"/>
       <c r="V41" s="27" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="W41" s="27"/>
       <c r="X41" s="39" t="s">
         <v>447</v>
       </c>
       <c r="Y41" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z41" s="21" t="s">
-        <v>411</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC41" s="27">
-        <v>422</v>
-      </c>
-      <c r="AD41" s="21">
-        <v>52.4</v>
+        <v>116</v>
+      </c>
+      <c r="AC41" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD41" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="AE41" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF41" s="27"/>
+        <v>276</v>
+      </c>
+      <c r="AF41" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
@@ -6532,87 +6564,81 @@
       <c r="BZ41"/>
       <c r="CA41"/>
     </row>
-    <row r="42" spans="1:79" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.2">
-      <c r="A42" s="46">
+    <row r="42" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A42" s="44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E42" s="22">
         <v>1</v>
       </c>
-      <c r="F42" s="22">
-        <v>1</v>
-      </c>
-      <c r="G42" s="22">
-        <v>1</v>
-      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="22">
         <v>1</v>
       </c>
       <c r="I42" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="23">
         <v>4620</v>
       </c>
-      <c r="L42" s="23">
-        <v>3430</v>
-      </c>
-      <c r="M42" s="51"/>
+      <c r="L42" s="24">
+        <v>1750</v>
+      </c>
+      <c r="M42" s="25"/>
       <c r="N42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P42" s="27" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="27" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="R42" s="27"/>
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
       <c r="V42" s="27" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="W42" s="27"/>
       <c r="X42" s="39" t="s">
         <v>448</v>
       </c>
       <c r="Y42" s="27" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Z42" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA42" s="21" t="s">
-        <v>413</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AA42" s="21"/>
       <c r="AB42" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC42" s="27">
-        <v>1255</v>
-      </c>
-      <c r="AD42" s="21">
-        <v>54.4</v>
+        <v>116</v>
+      </c>
+      <c r="AC42" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD42" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="AE42" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF42" s="27">
-        <v>83.4</v>
+        <v>127</v>
+      </c>
+      <c r="AF42" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="AG42"/>
       <c r="AH42"/>
@@ -6662,74 +6688,80 @@
       <c r="BZ42"/>
       <c r="CA42"/>
     </row>
-    <row r="43" spans="1:79" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+    <row r="43" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="A43" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="22">
-        <v>1</v>
-      </c>
-      <c r="F43" s="22"/>
+      <c r="C43" s="22">
+        <v>6</v>
+      </c>
+      <c r="D43" s="22">
+        <v>8</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22">
+        <v>1</v>
+      </c>
       <c r="G43" s="22"/>
-      <c r="H43" s="22">
-        <v>1</v>
-      </c>
-      <c r="I43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22">
+        <v>1</v>
+      </c>
       <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" s="26"/>
-      <c r="O43" s="27"/>
+      <c r="K43" s="23">
+        <v>4620</v>
+      </c>
+      <c r="L43" s="24">
+        <v>288</v>
+      </c>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26">
+        <v>551236001639</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>366</v>
+      </c>
       <c r="P43" s="27" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
       <c r="U43" s="27"/>
       <c r="V43" s="27" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="W43" s="27"/>
       <c r="X43" s="39" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Y43" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z43" s="21"/>
+        <v>283</v>
+      </c>
+      <c r="Z43" s="21" t="s">
+        <v>412</v>
+      </c>
       <c r="AA43" s="21"/>
       <c r="AB43" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC43" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD43" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AC43" s="27">
+        <v>662</v>
+      </c>
+      <c r="AD43" s="21">
+        <v>71</v>
       </c>
       <c r="AE43" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF43" s="27" t="s">
-        <v>113</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AF43" s="27"/>
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
@@ -6779,23 +6811,23 @@
       <c r="CA43"/>
     </row>
     <row r="44" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A44" s="46">
+      <c r="A44" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="22">
-        <v>5</v>
-      </c>
-      <c r="E44" s="22">
-        <v>1</v>
-      </c>
-      <c r="F44" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22">
         <v>1</v>
@@ -6804,46 +6836,42 @@
         <v>0</v>
       </c>
       <c r="J44" s="22"/>
-      <c r="K44" s="23">
-        <v>4620</v>
-      </c>
-      <c r="L44" s="24">
-        <v>1750</v>
-      </c>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="25"/>
       <c r="N44" s="26"/>
       <c r="O44" s="27" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
       <c r="T44" s="27"/>
       <c r="U44" s="27"/>
       <c r="V44" s="27" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="W44" s="27"/>
       <c r="X44" s="39" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="Y44" s="27" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="Z44" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA44" s="21"/>
       <c r="AB44" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="AC44" s="27" t="s">
-        <v>113</v>
+      <c r="AC44" s="27">
+        <v>624</v>
       </c>
       <c r="AD44" s="21" t="s">
         <v>113</v>
@@ -6902,25 +6930,27 @@
       <c r="BZ44"/>
       <c r="CA44"/>
     </row>
-    <row r="45" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
-      <c r="A45" s="46">
+    <row r="45" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A45" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C45" s="22">
         <v>6</v>
       </c>
       <c r="D45" s="22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22">
         <v>1</v>
       </c>
-      <c r="G45" s="22"/>
+      <c r="G45" s="22">
+        <v>1</v>
+      </c>
       <c r="H45" s="22"/>
       <c r="I45" s="22">
         <v>1</v>
@@ -6930,50 +6960,50 @@
         <v>4620</v>
       </c>
       <c r="L45" s="24">
-        <v>288</v>
+        <v>800</v>
       </c>
       <c r="M45" s="25"/>
       <c r="N45" s="26">
-        <v>551236001639</v>
+        <v>551236002471</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
       <c r="U45" s="27"/>
       <c r="V45" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W45" s="27"/>
       <c r="X45" s="39" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="Y45" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="AA45" s="21"/>
       <c r="AB45" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC45" s="27">
-        <v>662</v>
+        <v>504</v>
       </c>
       <c r="AD45" s="21">
-        <v>71</v>
+        <v>42.1</v>
       </c>
       <c r="AE45" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF45" s="27"/>
       <c r="AG45"/>
@@ -7024,28 +7054,27 @@
       <c r="BZ45"/>
       <c r="CA45"/>
     </row>
-    <row r="46" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A46" s="46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
+    <row r="46" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A46" s="44"/>
       <c r="B46" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C46" s="22">
-        <v>6</v>
+        <v>490</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D46" s="22">
-        <v>12</v>
-      </c>
-      <c r="E46" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1</v>
+      </c>
       <c r="F46" s="22">
         <v>1</v>
       </c>
-      <c r="G46" s="22">
-        <v>1</v>
-      </c>
-      <c r="H46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22">
+        <v>1</v>
+      </c>
       <c r="I46" s="22">
         <v>1</v>
       </c>
@@ -7054,52 +7083,50 @@
         <v>4620</v>
       </c>
       <c r="L46" s="24">
-        <v>800</v>
-      </c>
-      <c r="M46" s="25"/>
-      <c r="N46" s="26">
-        <v>551236002471</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>369</v>
-      </c>
+        <v>8505</v>
+      </c>
+      <c r="M46" s="25">
+        <v>1512619</v>
+      </c>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
       <c r="P46" s="27" t="s">
-        <v>290</v>
+        <v>475</v>
       </c>
       <c r="Q46" s="27" t="s">
-        <v>119</v>
+        <v>476</v>
       </c>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
       <c r="V46" s="27" t="s">
-        <v>287</v>
+        <v>477</v>
       </c>
       <c r="W46" s="27"/>
       <c r="X46" s="39" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="Y46" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z46" s="21" t="s">
-        <v>400</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="27" t="s">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="AC46" s="27">
-        <v>504</v>
+        <v>93</v>
       </c>
       <c r="AD46" s="21">
-        <v>42.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AE46" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF46" s="27"/>
+        <v>482</v>
+      </c>
+      <c r="AF46" s="27">
+        <v>48.9</v>
+      </c>
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
@@ -7149,12 +7176,12 @@
       <c r="CA46"/>
     </row>
     <row r="47" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="A47" s="44">
+        <f t="shared" ref="A47:A52" si="1">A46+1</f>
+        <v>1</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>1</v>
@@ -7187,10 +7214,10 @@
       </c>
       <c r="N47" s="26"/>
       <c r="O47" s="27" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P47" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q47" s="27" t="s">
         <v>147</v>
@@ -7200,23 +7227,23 @@
       <c r="T47" s="27"/>
       <c r="U47" s="27"/>
       <c r="V47" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="W47" s="27"/>
       <c r="X47" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Y47" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Z47" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AA47" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AB47" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AC47" s="27">
         <v>187</v>
@@ -7278,13 +7305,13 @@
       <c r="BZ47"/>
       <c r="CA47"/>
     </row>
-    <row r="48" spans="1:79" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
-      <c r="A48" s="46">
-        <f t="shared" si="0"/>
-        <v>47</v>
+    <row r="48" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="44">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>1</v>
@@ -7306,50 +7333,50 @@
         <v>4620</v>
       </c>
       <c r="L48" s="24">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="M48" s="25"/>
       <c r="N48" s="26">
-        <v>551236001642</v>
+        <v>551236001614</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="P48" s="27" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="Q48" s="27" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
       <c r="T48" s="27"/>
       <c r="U48" s="27"/>
       <c r="V48" s="27" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="W48" s="27"/>
       <c r="X48" s="39" t="s">
-        <v>453</v>
+        <v>135</v>
       </c>
       <c r="Y48" s="27" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="AA48" s="21"/>
       <c r="AB48" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC48" s="27">
-        <v>551</v>
+        <v>268</v>
       </c>
       <c r="AD48" s="21">
-        <v>84.8</v>
+        <v>83.6</v>
       </c>
       <c r="AE48" s="27" t="s">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="AF48" s="27"/>
       <c r="AG48"/>
@@ -7400,27 +7427,25 @@
       <c r="BZ48"/>
       <c r="CA48"/>
     </row>
-    <row r="49" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
-        <f t="shared" si="0"/>
-        <v>48</v>
+    <row r="49" spans="1:79" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A49" s="44">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="C49" s="22">
-        <v>6</v>
+        <v>323</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D49" s="22">
-        <v>12</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22">
-        <v>1</v>
-      </c>
-      <c r="G49" s="22">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E49" s="22">
+        <v>1</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22">
         <v>1</v>
@@ -7430,49 +7455,51 @@
         <v>4620</v>
       </c>
       <c r="L49" s="24">
-        <v>499</v>
+        <v>162</v>
       </c>
       <c r="M49" s="25"/>
       <c r="N49" s="26">
-        <v>551236001644</v>
+        <v>551236001642</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="P49" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q49" s="27" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
       <c r="U49" s="27"/>
       <c r="V49" s="27" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="W49" s="27"/>
       <c r="X49" s="39" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Y49" s="27" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Z49" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AA49" s="21"/>
       <c r="AB49" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC49" s="27">
-        <v>628</v>
+        <v>551</v>
       </c>
       <c r="AD49" s="21">
-        <v>35.4</v>
-      </c>
-      <c r="AE49" s="27"/>
+        <v>84.8</v>
+      </c>
+      <c r="AE49" s="27" t="s">
+        <v>296</v>
+      </c>
       <c r="AF49" s="27"/>
       <c r="AG49"/>
       <c r="AH49"/>
@@ -7522,25 +7549,27 @@
       <c r="BZ49"/>
       <c r="CA49"/>
     </row>
-    <row r="50" spans="1:79" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A50" s="46">
-        <f t="shared" si="0"/>
-        <v>49</v>
+    <row r="50" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="A50" s="44">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="C50" s="22">
+        <v>6</v>
       </c>
       <c r="D50" s="22">
-        <v>5</v>
-      </c>
-      <c r="E50" s="22">
-        <v>1</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22">
+        <v>1</v>
+      </c>
+      <c r="G50" s="22">
+        <v>1</v>
+      </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22">
         <v>1</v>
@@ -7550,51 +7579,49 @@
         <v>4620</v>
       </c>
       <c r="L50" s="24">
-        <v>164</v>
+        <v>499</v>
       </c>
       <c r="M50" s="25"/>
       <c r="N50" s="26">
-        <v>551236001646</v>
+        <v>551236001644</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P50" s="27" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q50" s="27" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
       <c r="U50" s="27"/>
       <c r="V50" s="27" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="W50" s="27"/>
       <c r="X50" s="39" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Y50" s="27" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Z50" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA50" s="21"/>
       <c r="AB50" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AC50" s="27">
-        <v>369</v>
+        <v>628</v>
       </c>
       <c r="AD50" s="21">
-        <v>77.8</v>
-      </c>
-      <c r="AE50" s="27" t="s">
-        <v>286</v>
-      </c>
+        <v>35.4</v>
+      </c>
+      <c r="AE50" s="27"/>
       <c r="AF50" s="27"/>
       <c r="AG50"/>
       <c r="AH50"/>
@@ -7644,88 +7671,80 @@
       <c r="BZ50"/>
       <c r="CA50"/>
     </row>
-    <row r="51" spans="1:79" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
-        <f t="shared" si="0"/>
-        <v>50</v>
+    <row r="51" spans="1:79" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A51" s="44">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E51" s="22">
         <v>1</v>
       </c>
-      <c r="F51" s="22">
-        <v>1</v>
-      </c>
+      <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="22">
-        <v>1</v>
-      </c>
+      <c r="H51" s="22"/>
       <c r="I51" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="23">
         <v>4620</v>
       </c>
       <c r="L51" s="24">
-        <v>8722</v>
-      </c>
-      <c r="M51" s="25">
-        <v>1513496</v>
-      </c>
-      <c r="N51" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26">
+        <v>551236001646</v>
+      </c>
       <c r="O51" s="27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P51" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q51" s="27" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y51" s="27" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Z51" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA51" s="21" t="s">
-        <v>425</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="27" t="s">
-        <v>484</v>
+        <v>112</v>
       </c>
       <c r="AC51" s="27">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="AD51" s="21">
-        <v>37.299999999999997</v>
+        <v>77.8</v>
       </c>
       <c r="AE51" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF51" s="27">
-        <v>81.7</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AF51" s="27"/>
       <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
@@ -7774,10 +7793,13 @@
       <c r="BZ51"/>
       <c r="CA51"/>
     </row>
-    <row r="52" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
+    <row r="52" spans="1:79" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A52" s="44">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="B52" s="27" t="s">
-        <v>478</v>
+        <v>12</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>1</v>
@@ -7795,55 +7817,63 @@
       <c r="H52" s="22">
         <v>1</v>
       </c>
-      <c r="I52" s="22"/>
+      <c r="I52" s="22">
+        <v>2</v>
+      </c>
       <c r="J52" s="22"/>
       <c r="K52" s="23">
         <v>4620</v>
       </c>
       <c r="L52" s="24">
-        <v>8505</v>
+        <v>8722</v>
       </c>
       <c r="M52" s="25">
-        <v>1512619</v>
+        <v>1513496</v>
       </c>
       <c r="N52" s="26"/>
-      <c r="O52" s="27"/>
+      <c r="O52" s="27" t="s">
+        <v>370</v>
+      </c>
       <c r="P52" s="27" t="s">
-        <v>479</v>
+        <v>303</v>
       </c>
       <c r="Q52" s="27" t="s">
-        <v>480</v>
+        <v>147</v>
       </c>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27" t="s">
-        <v>481</v>
+        <v>304</v>
       </c>
       <c r="W52" s="27"/>
       <c r="X52" s="39" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Y52" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
+        <v>305</v>
+      </c>
+      <c r="Z52" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA52" s="21" t="s">
+        <v>423</v>
+      </c>
       <c r="AB52" s="27" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AC52" s="27">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="AD52" s="21">
-        <v>32.299999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="AE52" s="27" t="s">
-        <v>486</v>
+        <v>123</v>
       </c>
       <c r="AF52" s="27">
-        <v>48.9</v>
+        <v>81.7</v>
       </c>
       <c r="AG52"/>
       <c r="AH52"/>
@@ -7909,19 +7939,19 @@
         <v>27</v>
       </c>
       <c r="G53" s="22">
-        <f t="shared" ref="G53:J53" si="1">COUNT(G2:G51)</f>
+        <f t="shared" ref="G53:J53" si="2">COUNT(G2:G51)</f>
         <v>10</v>
       </c>
       <c r="H53" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="J53" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K53" s="23"/>
@@ -7995,6 +8025,9 @@
       <c r="CA53"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF52">
+    <sortCondition ref="B2:B52"/>
+  </sortState>
   <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A1:AF7 A8:A52 B8:AF15 B17:K17 B16:L16 M17 O17:AF17 N16:AF16 B25:AF27 B24:J24 O24:AF24 B18:AF23 B30:AF52">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
@@ -8023,59 +8056,59 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="X4" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X13" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="X2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="X3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="X5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="X6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="X4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="X5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="X8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="X10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="X11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="X12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="X13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="X48" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="X9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="X10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="X11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="X12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="X14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="X15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="X16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="X17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="X18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="X19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="X20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="X21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="X22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="X23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="X24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="X26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="X27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="X28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="X25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="X29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="X30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="X31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="X32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="X33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="X34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="X35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="X36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="X37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="X38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="X39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="X40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="X41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="X42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="X43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="X44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="X45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="X46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="X33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="X6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="X18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="X19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="X20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="X21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="X22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="X24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="X44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="X25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="X23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="X26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="X27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="X28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="X29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="X30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="X31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="X32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="X34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="X35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="X36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="X37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="X38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="X39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="X40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="X41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="X42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="X43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="X45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="X47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="X48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="X49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="X50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="X51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="X49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="X50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="X51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="X52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="X7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId51"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="landscape" r:id="rId51"/>
 </worksheet>
 </file>
 

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F66CA3-93B2-3C42-ACEA-A6DD33F07C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF7E03-E926-B948-A74E-35E5F64184C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,9 +384,6 @@
     <t>Not available</t>
   </si>
   <si>
-    <t>Kindergarten readiness, special education, Dual-language, Parent-Child Oriented Classroom ((P-COC)</t>
-  </si>
-  <si>
     <t>Private, Independent</t>
   </si>
   <si>
@@ -1518,6 +1515,9 @@
   </si>
   <si>
     <t>http://www.wisconsinlutheranschool.org</t>
+  </si>
+  <si>
+    <t>Kindergarten readiness, special education, Dual-language, Parent-Child Oriented Classroom (P-COC)</t>
   </si>
 </sst>
 </file>
@@ -2621,10 +2621,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2707,22 +2707,22 @@
         <v>83</v>
       </c>
       <c r="R1" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>459</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>460</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="X1" s="38" t="s">
         <v>78</v>
@@ -2788,7 +2788,7 @@
         <v>550004502575</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>97</v>
@@ -2811,7 +2811,7 @@
         <v>101</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="27" t="s">
@@ -2863,7 +2863,7 @@
         <v>551236002708</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>102</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W3" s="27"/>
       <c r="X3" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y3" s="27" t="s">
         <v>105</v>
@@ -2897,7 +2897,7 @@
         <v>114</v>
       </c>
       <c r="AE3" s="27" t="s">
-        <v>115</v>
+        <v>491</v>
       </c>
       <c r="AF3" s="27"/>
     </row>
@@ -2936,7 +2936,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="26"/>
       <c r="O4" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>106</v>
@@ -2959,11 +2959,11 @@
         <v>109</v>
       </c>
       <c r="Z4" s="54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA4" s="21"/>
       <c r="AB4" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC4" s="27">
         <v>3</v>
@@ -2972,7 +2972,7 @@
         <v>100</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF4" s="27"/>
     </row>
@@ -3015,32 +3015,32 @@
       </c>
       <c r="N5" s="26"/>
       <c r="O5" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P5" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>119</v>
       </c>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W5" s="27"/>
       <c r="X5" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
       <c r="AB5" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC5" s="27">
         <v>180</v>
@@ -3049,7 +3049,7 @@
         <v>41.7</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF5" s="27">
         <v>58.8</v>
@@ -3061,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>1</v>
@@ -3090,10 +3090,10 @@
         <v>551236001627</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="27" t="s">
         <v>103</v>
@@ -3103,17 +3103,17 @@
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W6" s="27"/>
       <c r="X6" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="Y6" s="27" t="s">
-        <v>183</v>
-      </c>
       <c r="Z6" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA6" s="21"/>
       <c r="AB6" s="27" t="s">
@@ -3126,7 +3126,7 @@
         <v>81.099999999999994</v>
       </c>
       <c r="AE6" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF6" s="27"/>
     </row>
@@ -3169,44 +3169,44 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P7" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="T7" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="Q7" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="R7" s="27" t="s">
+      <c r="U7" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="S7" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>462</v>
-      </c>
       <c r="V7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y7" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="W7" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="X7" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y7" s="27" t="s">
-        <v>125</v>
-      </c>
       <c r="Z7" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA7" s="21"/>
       <c r="AB7" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC7" s="27">
         <v>351</v>
@@ -3215,7 +3215,7 @@
         <v>76.599999999999994</v>
       </c>
       <c r="AE7" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF7" s="27">
         <v>98</v>
@@ -3256,30 +3256,30 @@
         <v>551236001611</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>129</v>
       </c>
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W8" s="27"/>
       <c r="X8" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="Y8" s="27" t="s">
-        <v>132</v>
-      </c>
       <c r="Z8" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="27" t="s">
@@ -3292,7 +3292,7 @@
         <v>81.7</v>
       </c>
       <c r="AE8" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" s="27"/>
     </row>
@@ -3302,7 +3302,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
@@ -3333,10 +3333,10 @@
         <v>551236002311</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="27" t="s">
         <v>85</v>
@@ -3346,17 +3346,17 @@
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W9" s="27"/>
       <c r="X9" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y9" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y9" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="Z9" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="27" t="s">
@@ -3369,7 +3369,7 @@
         <v>28.9</v>
       </c>
       <c r="AE9" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF9" s="27"/>
     </row>
@@ -3379,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>25</v>
@@ -3410,10 +3410,10 @@
         <v>551236001608</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>98</v>
@@ -3423,17 +3423,17 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
       <c r="V10" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W10" s="27"/>
       <c r="X10" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y10" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="Y10" s="27" t="s">
-        <v>144</v>
-      </c>
       <c r="Z10" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA10" s="21"/>
       <c r="AB10" s="27" t="s">
@@ -3446,7 +3446,7 @@
         <v>57</v>
       </c>
       <c r="AE10" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" s="27"/>
     </row>
@@ -3489,36 +3489,36 @@
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P11" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q11" s="27" t="s">
         <v>146</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>147</v>
       </c>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W11" s="27"/>
       <c r="X11" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y11" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="Y11" s="27" t="s">
+      <c r="Z11" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB11" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="Z11" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA11" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB11" s="27" t="s">
-        <v>151</v>
       </c>
       <c r="AC11" s="27">
         <v>319</v>
@@ -3527,7 +3527,7 @@
         <v>84.6</v>
       </c>
       <c r="AE11" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF11" s="27">
         <v>99.7</v>
@@ -3568,10 +3568,10 @@
         <v>551236001620</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="27" t="s">
         <v>98</v>
@@ -3581,17 +3581,17 @@
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W12" s="27"/>
       <c r="X12" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y12" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="Y12" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="Z12" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="27" t="s">
@@ -3604,7 +3604,7 @@
         <v>63.5</v>
       </c>
       <c r="AE12" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF12" s="27"/>
     </row>
@@ -3643,7 +3643,7 @@
         <v>551236001621</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>84</v>
@@ -3666,7 +3666,7 @@
         <v>88</v>
       </c>
       <c r="Z13" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="27" t="s">
@@ -3718,30 +3718,30 @@
         <v>551236001622</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W14" s="27"/>
       <c r="X14" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="Y14" s="27" t="s">
-        <v>160</v>
-      </c>
       <c r="Z14" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="27" t="s">
@@ -3754,7 +3754,7 @@
         <v>93.9</v>
       </c>
       <c r="AE14" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF14" s="27"/>
     </row>
@@ -3764,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>1</v>
@@ -3793,10 +3793,10 @@
         <v>551236001623</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q15" s="27" t="s">
         <v>98</v>
@@ -3806,17 +3806,17 @@
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W15" s="27"/>
       <c r="X15" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="Y15" s="27" t="s">
-        <v>165</v>
-      </c>
       <c r="Z15" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="27" t="s">
@@ -3829,7 +3829,7 @@
         <v>41.2</v>
       </c>
       <c r="AE15" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF15" s="27"/>
     </row>
@@ -3839,7 +3839,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>1</v>
@@ -3870,30 +3870,30 @@
         <v>551236001624</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W16" s="27"/>
       <c r="X16" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y16" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="27" t="s">
@@ -3906,7 +3906,7 @@
         <v>77.3</v>
       </c>
       <c r="AE16" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF16" s="27"/>
     </row>
@@ -3945,10 +3945,10 @@
         <v>1507085</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="27" t="s">
         <v>98</v>
@@ -3958,33 +3958,33 @@
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W17" s="27"/>
       <c r="X17" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" s="27" t="s">
         <v>173</v>
-      </c>
-      <c r="Y17" s="27" t="s">
-        <v>174</v>
       </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC17" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD17" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="AD17" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="AE17" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:79" ht="80" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>1</v>
@@ -4022,10 +4022,10 @@
         <v>551236003337</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="27" t="s">
         <v>98</v>
@@ -4035,17 +4035,17 @@
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W18" s="27"/>
       <c r="X18" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="Y18" s="27" t="s">
-        <v>187</v>
-      </c>
       <c r="Z18" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="27" t="s">
@@ -4058,7 +4058,7 @@
         <v>94.3</v>
       </c>
       <c r="AE18" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" s="27"/>
     </row>
@@ -4068,7 +4068,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>1</v>
@@ -4097,30 +4097,30 @@
         <v>551236001628</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W19" s="27"/>
       <c r="X19" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="Y19" s="27" t="s">
-        <v>192</v>
-      </c>
       <c r="Z19" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="27" t="s">
@@ -4133,7 +4133,7 @@
         <v>87.8</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF19" s="27"/>
     </row>
@@ -4174,10 +4174,10 @@
         <v>551236001632</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="27" t="s">
         <v>103</v>
@@ -4187,17 +4187,17 @@
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W20" s="27"/>
       <c r="X20" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="Y20" s="27" t="s">
-        <v>196</v>
-      </c>
       <c r="Z20" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="27" t="s">
@@ -4210,7 +4210,7 @@
         <v>80.8</v>
       </c>
       <c r="AE20" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF20" s="27"/>
     </row>
@@ -4249,30 +4249,30 @@
         <v>551236001634</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
       <c r="V21" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W21" s="27"/>
       <c r="X21" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="Y21" s="27" t="s">
-        <v>201</v>
-      </c>
       <c r="Z21" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="27" t="s">
@@ -4285,7 +4285,7 @@
         <v>77.7</v>
       </c>
       <c r="AE21" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF21" s="27"/>
     </row>
@@ -4324,30 +4324,30 @@
         <v>551236001605</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W22" s="27"/>
       <c r="X22" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="Y22" s="27" t="s">
-        <v>205</v>
-      </c>
       <c r="Z22" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="27" t="s">
@@ -4360,7 +4360,7 @@
         <v>42.1</v>
       </c>
       <c r="AE22" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF22" s="27"/>
     </row>
@@ -4401,43 +4401,43 @@
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W23" s="27"/>
       <c r="X23" s="51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Y23" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB23" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC23" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD23" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE23" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF23" s="27">
         <v>90.5</v>
@@ -4478,10 +4478,10 @@
         <v>551236001635</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="27" t="s">
         <v>103</v>
@@ -4491,17 +4491,17 @@
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
       <c r="V24" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W24" s="27"/>
       <c r="X24" s="39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y24" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="27" t="s">
@@ -4514,7 +4514,7 @@
         <v>71.900000000000006</v>
       </c>
       <c r="AE24" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF24" s="27"/>
     </row>
@@ -4557,10 +4557,10 @@
         <v>551236003045</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="27" t="s">
         <v>98</v>
@@ -4570,17 +4570,17 @@
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
       <c r="V25" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W25" s="46"/>
       <c r="X25" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y25" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="27" t="s">
@@ -4593,7 +4593,7 @@
         <v>81.7</v>
       </c>
       <c r="AE25" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF25" s="27"/>
     </row>
@@ -4636,34 +4636,34 @@
       </c>
       <c r="N26" s="35"/>
       <c r="O26" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W26" s="36"/>
       <c r="X26" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y26" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z26" s="30"/>
       <c r="AA26" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AB26" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC26" s="36">
         <v>135</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF26" s="36">
         <v>45.2</v>
@@ -4715,36 +4715,36 @@
       </c>
       <c r="N27" s="26"/>
       <c r="O27" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W27" s="27"/>
       <c r="X27" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y27" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z27" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA27" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB27" s="27" t="s">
         <v>229</v>
-      </c>
-      <c r="Z27" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA27" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB27" s="27" t="s">
-        <v>230</v>
       </c>
       <c r="AC27" s="27">
         <v>264</v>
@@ -4753,7 +4753,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AE27" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF27" s="27">
         <v>61.7</v>
@@ -4845,34 +4845,34 @@
       </c>
       <c r="N28" s="26"/>
       <c r="O28" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W28" s="46"/>
       <c r="X28" s="52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y28" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z28" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AA28" s="21"/>
       <c r="AB28" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC28" s="27" t="s">
         <v>113</v>
@@ -4881,7 +4881,7 @@
         <v>113</v>
       </c>
       <c r="AE28" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF28" s="27" t="s">
         <v>113</v>
@@ -4940,7 +4940,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>1</v>
@@ -4969,30 +4969,30 @@
         <v>551236001636</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W29" s="46"/>
       <c r="X29" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y29" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z29" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA29" s="21"/>
       <c r="AB29" s="27" t="s">
@@ -5005,7 +5005,7 @@
         <v>52.1</v>
       </c>
       <c r="AE29" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF29" s="27"/>
       <c r="AG29"/>
@@ -5091,50 +5091,50 @@
         <v>1619</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P30" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="S30" s="27" t="s">
         <v>470</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="R30" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="S30" s="27" t="s">
-        <v>471</v>
       </c>
       <c r="T30" s="27" t="s">
         <v>103</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V30" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="W30" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="W30" s="27" t="s">
-        <v>474</v>
-      </c>
       <c r="X30" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y30" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z30" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA30" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB30" s="27" t="s">
         <v>238</v>
-      </c>
-      <c r="Z30" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA30" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB30" s="27" t="s">
-        <v>239</v>
       </c>
       <c r="AC30" s="27">
         <v>356</v>
@@ -5143,7 +5143,7 @@
         <v>84.3</v>
       </c>
       <c r="AE30" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF30" s="27">
         <v>96.9</v>
@@ -5202,7 +5202,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>1</v>
@@ -5231,30 +5231,30 @@
         <v>551236001637</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W31" s="27"/>
       <c r="X31" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y31" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="27" t="s">
@@ -5267,7 +5267,7 @@
         <v>87.4</v>
       </c>
       <c r="AE31" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF31" s="27"/>
       <c r="AG31"/>
@@ -5324,7 +5324,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>1</v>
@@ -5353,30 +5353,30 @@
         <v>551236003044</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P32" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q32" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>244</v>
       </c>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W32" s="27"/>
       <c r="X32" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y32" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="27" t="s">
@@ -5389,7 +5389,7 @@
         <v>86.9</v>
       </c>
       <c r="AE32" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF32" s="27"/>
       <c r="AG32"/>
@@ -5446,7 +5446,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>1</v>
@@ -5475,30 +5475,30 @@
         <v>551236001626</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
       <c r="U33" s="27"/>
       <c r="V33" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W33" s="27"/>
       <c r="X33" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y33" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="Y33" s="27" t="s">
-        <v>179</v>
-      </c>
       <c r="Z33" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA33" s="21"/>
       <c r="AB33" s="27" t="s">
@@ -5511,7 +5511,7 @@
         <v>85.2</v>
       </c>
       <c r="AE33" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF33" s="27"/>
       <c r="AG33"/>
@@ -5597,48 +5597,48 @@
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
       <c r="V34" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W34" s="27"/>
       <c r="X34" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y34" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z34" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA34" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB34" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC34" s="27" t="s">
         <v>249</v>
-      </c>
-      <c r="Z34" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA34" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB34" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC34" s="27" t="s">
-        <v>250</v>
       </c>
       <c r="AD34" s="21">
         <v>51.9</v>
       </c>
       <c r="AE34" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF34" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG34"/>
       <c r="AH34"/>
@@ -5727,32 +5727,32 @@
       </c>
       <c r="N35" s="26"/>
       <c r="O35" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
       <c r="V35" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W35" s="27"/>
       <c r="X35" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y35" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC35" s="27">
         <v>222</v>
@@ -5761,7 +5761,7 @@
         <v>24.3</v>
       </c>
       <c r="AE35" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF35" s="27">
         <v>72.7</v>
@@ -5849,48 +5849,48 @@
       <c r="M36" s="25"/>
       <c r="N36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P36" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W36" s="27"/>
       <c r="X36" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y36" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z36" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA36" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB36" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC36" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="Z36" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA36" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB36" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC36" s="27" t="s">
+      <c r="AD36" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="AD36" s="21" t="s">
-        <v>260</v>
-      </c>
       <c r="AE36" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF36" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG36"/>
       <c r="AH36"/>
@@ -5946,7 +5946,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>28</v>
@@ -5975,10 +5975,10 @@
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="27" t="s">
         <v>103</v>
@@ -5988,23 +5988,23 @@
       <c r="T37" s="27"/>
       <c r="U37" s="27"/>
       <c r="V37" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W37" s="27"/>
       <c r="X37" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y37" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z37" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA37" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="AA37" s="21" t="s">
-        <v>421</v>
-      </c>
       <c r="AB37" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC37" s="27">
         <v>190</v>
@@ -6013,7 +6013,7 @@
         <v>21.1</v>
       </c>
       <c r="AE37" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF37" s="27">
         <v>21.1</v>
@@ -6072,7 +6072,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>25</v>
@@ -6101,36 +6101,36 @@
       </c>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
       <c r="V38" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W38" s="27"/>
       <c r="X38" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y38" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z38" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA38" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="AA38" s="21" t="s">
-        <v>408</v>
-      </c>
       <c r="AB38" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC38" s="27">
         <v>148</v>
@@ -6139,7 +6139,7 @@
         <v>9.5</v>
       </c>
       <c r="AE38" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF38" s="27">
         <v>22.3</v>
@@ -6198,7 +6198,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>1</v>
@@ -6227,30 +6227,30 @@
         <v>551236001638</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
       <c r="U39" s="27"/>
       <c r="V39" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W39" s="27"/>
       <c r="X39" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y39" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA39" s="21"/>
       <c r="AB39" s="27" t="s">
@@ -6263,7 +6263,7 @@
         <v>52.4</v>
       </c>
       <c r="AE39" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF39" s="27"/>
       <c r="AG39"/>
@@ -6353,10 +6353,10 @@
       <c r="M40" s="47"/>
       <c r="N40" s="26"/>
       <c r="O40" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P40" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="27" t="s">
         <v>103</v>
@@ -6366,23 +6366,23 @@
       <c r="T40" s="27"/>
       <c r="U40" s="27"/>
       <c r="V40" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W40" s="27"/>
       <c r="X40" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y40" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA40" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB40" s="27" t="s">
         <v>271</v>
-      </c>
-      <c r="Z40" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA40" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB40" s="27" t="s">
-        <v>272</v>
       </c>
       <c r="AC40" s="27">
         <v>1255</v>
@@ -6391,7 +6391,7 @@
         <v>54.4</v>
       </c>
       <c r="AE40" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF40" s="27">
         <v>83.4</v>
@@ -6450,7 +6450,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>28</v>
@@ -6480,29 +6480,29 @@
       <c r="N41" s="26"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q41" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
       <c r="U41" s="27"/>
       <c r="V41" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W41" s="27"/>
       <c r="X41" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y41" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC41" s="27" t="s">
         <v>113</v>
@@ -6511,7 +6511,7 @@
         <v>113</v>
       </c>
       <c r="AE41" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF41" s="27" t="s">
         <v>113</v>
@@ -6599,34 +6599,34 @@
       <c r="M42" s="25"/>
       <c r="N42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P42" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q42" s="27" t="s">
         <v>277</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>278</v>
       </c>
       <c r="R42" s="27"/>
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
       <c r="V42" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W42" s="27"/>
       <c r="X42" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y42" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z42" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AA42" s="21"/>
       <c r="AB42" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC42" s="27" t="s">
         <v>113</v>
@@ -6635,7 +6635,7 @@
         <v>113</v>
       </c>
       <c r="AE42" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF42" s="27" t="s">
         <v>113</v>
@@ -6694,7 +6694,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C43" s="22">
         <v>6</v>
@@ -6723,30 +6723,30 @@
         <v>551236001639</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
       <c r="U43" s="27"/>
       <c r="V43" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W43" s="27"/>
       <c r="X43" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Y43" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z43" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA43" s="21"/>
       <c r="AB43" s="27" t="s">
@@ -6759,7 +6759,7 @@
         <v>71</v>
       </c>
       <c r="AE43" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF43" s="27"/>
       <c r="AG43"/>
@@ -6816,7 +6816,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>1</v>
@@ -6841,34 +6841,34 @@
       <c r="M44" s="25"/>
       <c r="N44" s="26"/>
       <c r="O44" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
       <c r="T44" s="27"/>
       <c r="U44" s="27"/>
       <c r="V44" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W44" s="27"/>
       <c r="X44" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y44" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z44" s="21" t="s">
         <v>114</v>
       </c>
       <c r="AA44" s="21"/>
       <c r="AB44" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC44" s="27">
         <v>624</v>
@@ -6877,7 +6877,7 @@
         <v>113</v>
       </c>
       <c r="AE44" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF44" s="27" t="s">
         <v>113</v>
@@ -6936,7 +6936,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" s="22">
         <v>6</v>
@@ -6967,30 +6967,30 @@
         <v>551236002471</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
       <c r="U45" s="27"/>
       <c r="V45" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W45" s="27"/>
       <c r="X45" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y45" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA45" s="21"/>
       <c r="AB45" s="27" t="s">
@@ -7003,7 +7003,7 @@
         <v>42.1</v>
       </c>
       <c r="AE45" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF45" s="27"/>
       <c r="AG45"/>
@@ -7057,7 +7057,7 @@
     <row r="46" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="44"/>
       <c r="B46" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>1</v>
@@ -7091,29 +7091,29 @@
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
       <c r="P46" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q46" s="27" t="s">
         <v>475</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>476</v>
       </c>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
       <c r="V46" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W46" s="27"/>
       <c r="X46" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Y46" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AC46" s="27">
         <v>93</v>
@@ -7122,7 +7122,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AE46" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF46" s="27">
         <v>48.9</v>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>1</v>
@@ -7214,36 +7214,36 @@
       </c>
       <c r="N47" s="26"/>
       <c r="O47" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P47" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
       <c r="U47" s="27"/>
       <c r="V47" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W47" s="27"/>
       <c r="X47" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y47" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z47" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA47" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB47" s="27" t="s">
         <v>291</v>
-      </c>
-      <c r="Z47" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA47" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB47" s="27" t="s">
-        <v>292</v>
       </c>
       <c r="AC47" s="27">
         <v>187</v>
@@ -7252,7 +7252,7 @@
         <v>41.7</v>
       </c>
       <c r="AE47" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF47" s="27">
         <v>76</v>
@@ -7311,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>1</v>
@@ -7340,10 +7340,10 @@
         <v>551236001614</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P48" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>85</v>
@@ -7353,17 +7353,17 @@
       <c r="T48" s="27"/>
       <c r="U48" s="27"/>
       <c r="V48" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W48" s="27"/>
       <c r="X48" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y48" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="Y48" s="27" t="s">
-        <v>136</v>
-      </c>
       <c r="Z48" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA48" s="21"/>
       <c r="AB48" s="27" t="s">
@@ -7376,7 +7376,7 @@
         <v>83.6</v>
       </c>
       <c r="AE48" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF48" s="27"/>
       <c r="AG48"/>
@@ -7433,7 +7433,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>1</v>
@@ -7462,10 +7462,10 @@
         <v>551236001642</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P49" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q49" s="27" t="s">
         <v>98</v>
@@ -7475,17 +7475,17 @@
       <c r="T49" s="27"/>
       <c r="U49" s="27"/>
       <c r="V49" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W49" s="27"/>
       <c r="X49" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y49" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z49" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA49" s="21"/>
       <c r="AB49" s="27" t="s">
@@ -7498,7 +7498,7 @@
         <v>84.8</v>
       </c>
       <c r="AE49" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF49" s="27"/>
       <c r="AG49"/>
@@ -7555,7 +7555,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C50" s="22">
         <v>6</v>
@@ -7586,30 +7586,30 @@
         <v>551236001644</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P50" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q50" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
       <c r="U50" s="27"/>
       <c r="V50" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W50" s="27"/>
       <c r="X50" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y50" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z50" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA50" s="21"/>
       <c r="AB50" s="27" t="s">
@@ -7677,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>1</v>
@@ -7706,10 +7706,10 @@
         <v>551236001646</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P51" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q51" s="27" t="s">
         <v>85</v>
@@ -7719,17 +7719,17 @@
       <c r="T51" s="27"/>
       <c r="U51" s="27"/>
       <c r="V51" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y51" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z51" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA51" s="21"/>
       <c r="AB51" s="27" t="s">
@@ -7742,7 +7742,7 @@
         <v>77.8</v>
       </c>
       <c r="AE51" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF51" s="27"/>
       <c r="AG51"/>
@@ -7832,36 +7832,36 @@
       </c>
       <c r="N52" s="26"/>
       <c r="O52" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P52" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q52" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
       <c r="U52" s="27"/>
       <c r="V52" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W52" s="27"/>
       <c r="X52" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y52" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Z52" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA52" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="AA52" s="21" t="s">
-        <v>423</v>
-      </c>
       <c r="AB52" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AC52" s="27">
         <v>169</v>
@@ -7870,7 +7870,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="AE52" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF52" s="27">
         <v>81.7</v>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DF7E03-E926-B948-A74E-35E5F64184C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B1693-6555-234B-ACD2-9E1516FAEBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="494">
   <si>
     <t>name</t>
   </si>
@@ -1518,6 +1518,12 @@
   </si>
   <si>
     <t>Kindergarten readiness, special education, Dual-language, Parent-Child Oriented Classroom (P-COC)</t>
+  </si>
+  <si>
+    <t>Concordia_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Concordia_2018-19CHOICE.PDF</t>
   </si>
 </sst>
 </file>
@@ -2621,10 +2627,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3001,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="23">
@@ -3037,8 +3043,12 @@
       <c r="Y5" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
+      <c r="Z5" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>493</v>
+      </c>
       <c r="AB5" s="27" t="s">
         <v>121</v>
       </c>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B1693-6555-234B-ACD2-9E1516FAEBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18DC88-1D0F-C84C-8557-06A792DBD42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,9 +1158,6 @@
     <t>Case_High_2018-19.PDF</t>
   </si>
   <si>
-    <t>EverGreen_Academy_2018-19.PDF</t>
-  </si>
-  <si>
     <t>Fratt_Elementary_2018-19.PDF</t>
   </si>
   <si>
@@ -1524,6 +1521,9 @@
   </si>
   <si>
     <t>Concordia_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>EverGreen_Academy_2018-19CHOICE.PDF</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2630,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2713,22 +2713,22 @@
         <v>83</v>
       </c>
       <c r="R1" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>458</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>459</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="X1" s="38" t="s">
         <v>78</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="W3" s="27"/>
       <c r="X3" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y3" s="27" t="s">
         <v>105</v>
@@ -2903,7 +2903,7 @@
         <v>114</v>
       </c>
       <c r="AE3" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF3" s="27"/>
     </row>
@@ -3034,7 +3034,7 @@
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W5" s="27"/>
       <c r="X5" s="39" t="s">
@@ -3044,10 +3044,10 @@
         <v>120</v>
       </c>
       <c r="Z5" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA5" s="21" t="s">
         <v>492</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="AB5" s="27" t="s">
         <v>121</v>
@@ -3123,7 +3123,7 @@
         <v>182</v>
       </c>
       <c r="Z6" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA6" s="21"/>
       <c r="AB6" s="27" t="s">
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="23">
@@ -3179,25 +3179,25 @@
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P7" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="T7" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="Q7" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="R7" s="27" t="s">
+      <c r="U7" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>461</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>123</v>
@@ -3206,15 +3206,14 @@
         <v>123</v>
       </c>
       <c r="X7" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y7" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="Z7" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA7" s="21"/>
+      <c r="AA7" s="21" t="s">
+        <v>493</v>
+      </c>
       <c r="AB7" s="27" t="s">
         <v>125</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>131</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="27" t="s">
@@ -3366,7 +3365,7 @@
         <v>139</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="27" t="s">
@@ -3443,7 +3442,7 @@
         <v>143</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA10" s="21"/>
       <c r="AB10" s="27" t="s">
@@ -3522,10 +3521,10 @@
         <v>149</v>
       </c>
       <c r="Z11" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA11" s="21" t="s">
         <v>379</v>
-      </c>
-      <c r="AA11" s="21" t="s">
-        <v>380</v>
       </c>
       <c r="AB11" s="27" t="s">
         <v>150</v>
@@ -3601,7 +3600,7 @@
         <v>154</v>
       </c>
       <c r="Z12" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="27" t="s">
@@ -3751,7 +3750,7 @@
         <v>159</v>
       </c>
       <c r="Z14" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="27" t="s">
@@ -3826,7 +3825,7 @@
         <v>164</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="27" t="s">
@@ -3903,7 +3902,7 @@
         <v>169</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="27" t="s">
@@ -3979,7 +3978,7 @@
       </c>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AB17" s="27" t="s">
         <v>174</v>
@@ -3994,7 +3993,7 @@
         <v>122</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:79" ht="80" x14ac:dyDescent="0.2">
@@ -4032,7 +4031,7 @@
         <v>551236003337</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>183</v>
@@ -4055,7 +4054,7 @@
         <v>186</v>
       </c>
       <c r="Z18" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="27" t="s">
@@ -4130,7 +4129,7 @@
         <v>191</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="27" t="s">
@@ -4207,7 +4206,7 @@
         <v>195</v>
       </c>
       <c r="Z20" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="27" t="s">
@@ -4282,7 +4281,7 @@
         <v>200</v>
       </c>
       <c r="Z21" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="27" t="s">
@@ -4357,7 +4356,7 @@
         <v>204</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="27" t="s">
@@ -4428,14 +4427,14 @@
       </c>
       <c r="W23" s="27"/>
       <c r="X23" s="51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y23" s="27" t="s">
         <v>207</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB23" s="27" t="s">
         <v>174</v>
@@ -4505,13 +4504,13 @@
       </c>
       <c r="W24" s="27"/>
       <c r="X24" s="39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Y24" s="27" t="s">
         <v>211</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="27" t="s">
@@ -4584,13 +4583,13 @@
       </c>
       <c r="W25" s="46"/>
       <c r="X25" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y25" s="27" t="s">
         <v>220</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="27" t="s">
@@ -4663,14 +4662,14 @@
       </c>
       <c r="W26" s="36"/>
       <c r="X26" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y26" s="36" t="s">
         <v>224</v>
       </c>
       <c r="Z26" s="30"/>
       <c r="AA26" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB26" s="36" t="s">
         <v>225</v>
@@ -4742,16 +4741,16 @@
       </c>
       <c r="W27" s="27"/>
       <c r="X27" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y27" s="27" t="s">
         <v>228</v>
       </c>
       <c r="Z27" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA27" s="21" t="s">
         <v>390</v>
-      </c>
-      <c r="AA27" s="21" t="s">
-        <v>391</v>
       </c>
       <c r="AB27" s="27" t="s">
         <v>229</v>
@@ -4872,7 +4871,7 @@
       </c>
       <c r="W28" s="46"/>
       <c r="X28" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y28" s="27" t="s">
         <v>232</v>
@@ -4996,13 +4995,13 @@
       </c>
       <c r="W29" s="46"/>
       <c r="X29" s="52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y29" s="27" t="s">
         <v>236</v>
       </c>
       <c r="Z29" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA29" s="21"/>
       <c r="AB29" s="27" t="s">
@@ -5015,7 +5014,7 @@
         <v>52.1</v>
       </c>
       <c r="AE29" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF29" s="27"/>
       <c r="AG29"/>
@@ -5101,47 +5100,47 @@
         <v>1619</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="27" t="s">
         <v>343</v>
       </c>
       <c r="P30" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="S30" s="27" t="s">
         <v>469</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="R30" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="S30" s="27" t="s">
-        <v>470</v>
       </c>
       <c r="T30" s="27" t="s">
         <v>103</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V30" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="W30" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="W30" s="27" t="s">
-        <v>473</v>
-      </c>
       <c r="X30" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y30" s="27" t="s">
         <v>237</v>
       </c>
       <c r="Z30" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA30" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="AA30" s="21" t="s">
-        <v>402</v>
       </c>
       <c r="AB30" s="27" t="s">
         <v>238</v>
@@ -5258,13 +5257,13 @@
       </c>
       <c r="W31" s="27"/>
       <c r="X31" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y31" s="27" t="s">
         <v>241</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="27" t="s">
@@ -5380,13 +5379,13 @@
       </c>
       <c r="W32" s="27"/>
       <c r="X32" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y32" s="27" t="s">
         <v>245</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="27" t="s">
@@ -5508,7 +5507,7 @@
         <v>178</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA33" s="21"/>
       <c r="AB33" s="27" t="s">
@@ -5624,16 +5623,16 @@
       </c>
       <c r="W34" s="27"/>
       <c r="X34" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y34" s="27" t="s">
         <v>248</v>
       </c>
       <c r="Z34" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA34" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="AA34" s="21" t="s">
-        <v>418</v>
       </c>
       <c r="AB34" s="27" t="s">
         <v>174</v>
@@ -5737,7 +5736,7 @@
       </c>
       <c r="N35" s="26"/>
       <c r="O35" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>251</v>
@@ -5754,7 +5753,7 @@
       </c>
       <c r="W35" s="27"/>
       <c r="X35" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y35" s="27" t="s">
         <v>253</v>
@@ -5859,7 +5858,7 @@
       <c r="M36" s="25"/>
       <c r="N36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>255</v>
@@ -5876,16 +5875,16 @@
       </c>
       <c r="W36" s="27"/>
       <c r="X36" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y36" s="27" t="s">
         <v>257</v>
       </c>
       <c r="Z36" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA36" s="21" t="s">
         <v>404</v>
-      </c>
-      <c r="AA36" s="21" t="s">
-        <v>405</v>
       </c>
       <c r="AB36" s="27" t="s">
         <v>174</v>
@@ -5900,7 +5899,7 @@
         <v>122</v>
       </c>
       <c r="AF36" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG36"/>
       <c r="AH36"/>
@@ -5985,7 +5984,7 @@
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>260</v>
@@ -6002,16 +6001,16 @@
       </c>
       <c r="W37" s="27"/>
       <c r="X37" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y37" s="27" t="s">
         <v>262</v>
       </c>
       <c r="Z37" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA37" s="21" t="s">
         <v>419</v>
-      </c>
-      <c r="AA37" s="21" t="s">
-        <v>420</v>
       </c>
       <c r="AB37" s="27" t="s">
         <v>174</v>
@@ -6111,7 +6110,7 @@
       </c>
       <c r="N38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>263</v>
@@ -6128,16 +6127,16 @@
       </c>
       <c r="W38" s="27"/>
       <c r="X38" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y38" s="27" t="s">
         <v>265</v>
       </c>
       <c r="Z38" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA38" s="21" t="s">
         <v>406</v>
-      </c>
-      <c r="AA38" s="21" t="s">
-        <v>407</v>
       </c>
       <c r="AB38" s="27" t="s">
         <v>174</v>
@@ -6254,13 +6253,13 @@
       </c>
       <c r="W39" s="27"/>
       <c r="X39" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y39" s="27" t="s">
         <v>268</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA39" s="21"/>
       <c r="AB39" s="27" t="s">
@@ -6380,16 +6379,16 @@
       </c>
       <c r="W40" s="27"/>
       <c r="X40" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y40" s="27" t="s">
         <v>270</v>
       </c>
       <c r="Z40" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA40" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="AA40" s="21" t="s">
-        <v>410</v>
       </c>
       <c r="AB40" s="27" t="s">
         <v>271</v>
@@ -6504,7 +6503,7 @@
       </c>
       <c r="W41" s="27"/>
       <c r="X41" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y41" s="27" t="s">
         <v>274</v>
@@ -6626,7 +6625,7 @@
       </c>
       <c r="W42" s="27"/>
       <c r="X42" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y42" s="27" t="s">
         <v>279</v>
@@ -6750,13 +6749,13 @@
       </c>
       <c r="W43" s="27"/>
       <c r="X43" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Y43" s="27" t="s">
         <v>282</v>
       </c>
       <c r="Z43" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AA43" s="21"/>
       <c r="AB43" s="27" t="s">
@@ -6868,7 +6867,7 @@
       </c>
       <c r="W44" s="27"/>
       <c r="X44" s="39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y44" s="27" t="s">
         <v>217</v>
@@ -6994,13 +6993,13 @@
       </c>
       <c r="W45" s="27"/>
       <c r="X45" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y45" s="27" t="s">
         <v>285</v>
       </c>
       <c r="Z45" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA45" s="21"/>
       <c r="AB45" s="27" t="s">
@@ -7067,7 +7066,7 @@
     <row r="46" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="44"/>
       <c r="B46" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>1</v>
@@ -7101,29 +7100,29 @@
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
       <c r="P46" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q46" s="27" t="s">
         <v>474</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>475</v>
       </c>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
       <c r="V46" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W46" s="27"/>
       <c r="X46" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y46" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AC46" s="27">
         <v>93</v>
@@ -7132,7 +7131,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AE46" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF46" s="27">
         <v>48.9</v>
@@ -7224,7 +7223,7 @@
       </c>
       <c r="N47" s="26"/>
       <c r="O47" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>288</v>
@@ -7241,16 +7240,16 @@
       </c>
       <c r="W47" s="27"/>
       <c r="X47" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y47" s="27" t="s">
         <v>290</v>
       </c>
       <c r="Z47" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA47" s="21" t="s">
         <v>412</v>
-      </c>
-      <c r="AA47" s="21" t="s">
-        <v>413</v>
       </c>
       <c r="AB47" s="27" t="s">
         <v>291</v>
@@ -7373,7 +7372,7 @@
         <v>135</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA48" s="21"/>
       <c r="AB48" s="27" t="s">
@@ -7489,13 +7488,13 @@
       </c>
       <c r="W49" s="27"/>
       <c r="X49" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y49" s="27" t="s">
         <v>294</v>
       </c>
       <c r="Z49" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA49" s="21"/>
       <c r="AB49" s="27" t="s">
@@ -7613,13 +7612,13 @@
       </c>
       <c r="W50" s="27"/>
       <c r="X50" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y50" s="27" t="s">
         <v>298</v>
       </c>
       <c r="Z50" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA50" s="21"/>
       <c r="AB50" s="27" t="s">
@@ -7733,13 +7732,13 @@
       </c>
       <c r="W51" s="27"/>
       <c r="X51" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y51" s="27" t="s">
         <v>301</v>
       </c>
       <c r="Z51" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA51" s="21"/>
       <c r="AB51" s="27" t="s">
@@ -7859,19 +7858,19 @@
       </c>
       <c r="W52" s="27"/>
       <c r="X52" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Y52" s="27" t="s">
         <v>304</v>
       </c>
       <c r="Z52" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA52" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="AA52" s="21" t="s">
-        <v>422</v>
-      </c>
       <c r="AB52" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AC52" s="27">
         <v>169</v>
@@ -8038,7 +8037,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF52">
     <sortCondition ref="B2:B52"/>
   </sortState>
-  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A1:AF7 A8:A52 B8:AF15 B17:K17 B16:L16 M17 O17:AF17 N16:AF16 B25:AF27 B24:J24 O24:AF24 B18:AF23 B30:AF52">
+  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A8:A52 B8:AF15 B17:K17 B16:L16 M17 O17:AF17 N16:AF16 B25:AF27 B24:J24 O24:AF24 B18:AF23 B30:AF52 A1:AF6 A7:Y7 AA7:AF7">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18DC88-1D0F-C84C-8557-06A792DBD42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F8A83-82A4-B040-9B44-B387E1F7056F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1400" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All schools" sheetId="13" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="496">
   <si>
     <t>name</t>
   </si>
@@ -1524,6 +1524,12 @@
   </si>
   <si>
     <t>EverGreen_Academy_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Saint_Johns_2018-19ALL.PDF</t>
+  </si>
+  <si>
+    <t>Saint_Johns_2018-19CHOICE.PDF</t>
   </si>
 </sst>
 </file>
@@ -2627,10 +2633,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5758,8 +5764,12 @@
       <c r="Y35" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
+      <c r="Z35" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA35" s="21" t="s">
+        <v>495</v>
+      </c>
       <c r="AB35" s="27" t="s">
         <v>254</v>
       </c>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F8A83-82A4-B040-9B44-B387E1F7056F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F37324-62C9-E34E-BCCD-4D8E5F9A0B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1400" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="498">
   <si>
     <t>name</t>
   </si>
@@ -1530,6 +1530,12 @@
   </si>
   <si>
     <t>Saint_Johns_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>SmallWorld.png</t>
+  </si>
+  <si>
+    <t>TrinityEvangelical.png</t>
   </si>
 </sst>
 </file>
@@ -2633,10 +2639,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="Z35" sqref="Z35"/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6497,7 +6503,9 @@
         <v>76</v>
       </c>
       <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
+      <c r="O41" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="P41" s="27" t="s">
         <v>272</v>
       </c>
@@ -7108,7 +7116,9 @@
         <v>1512619</v>
       </c>
       <c r="N46" s="26"/>
-      <c r="O46" s="27"/>
+      <c r="O46" s="27" t="s">
+        <v>497</v>
+      </c>
       <c r="P46" s="27" t="s">
         <v>473</v>
       </c>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F37324-62C9-E34E-BCCD-4D8E5F9A0B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C6841D-FD2D-7A49-98E8-C8DB4822EFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1400" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="505">
   <si>
     <t>name</t>
   </si>
@@ -1536,6 +1536,27 @@
   </si>
   <si>
     <t>TrinityEvangelical.png</t>
+  </si>
+  <si>
+    <t>NCES History</t>
+  </si>
+  <si>
+    <t>School Code History</t>
+  </si>
+  <si>
+    <t>2017:551236001625</t>
+  </si>
+  <si>
+    <t>2017:0282</t>
+  </si>
+  <si>
+    <t>2017:0286</t>
+  </si>
+  <si>
+    <t>2017:551236001633</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2120,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2259,6 +2280,9 @@
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2305,7 +2329,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2639,10 +2691,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2672,10 +2724,14 @@
     <col min="30" max="30" width="15.1640625" customWidth="1"/>
     <col min="31" max="31" width="17.5" style="9" customWidth="1"/>
     <col min="32" max="32" width="15" style="9" customWidth="1"/>
+    <col min="33" max="33" width="18" customWidth="1"/>
+    <col min="34" max="34" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>504</v>
+      </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2769,8 +2825,14 @@
       <c r="AF1" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="128" x14ac:dyDescent="0.2">
+      <c r="AG1" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2846,7 +2908,7 @@
       </c>
       <c r="AF2" s="27"/>
     </row>
-    <row r="3" spans="1:32" ht="160" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <f t="shared" ref="A3:A45" si="0">A2+1</f>
         <v>2</v>
@@ -2919,7 +2981,7 @@
       </c>
       <c r="AF3" s="27"/>
     </row>
-    <row r="4" spans="1:32" ht="144" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2994,7 +3056,7 @@
       </c>
       <c r="AF4" s="27"/>
     </row>
-    <row r="5" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3077,7 +3139,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3152,7 +3214,7 @@
       </c>
       <c r="AF6" s="27"/>
     </row>
-    <row r="7" spans="1:32" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3242,7 +3304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3317,7 +3379,7 @@
       </c>
       <c r="AF8" s="27"/>
     </row>
-    <row r="9" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3394,7 +3456,7 @@
       </c>
       <c r="AF9" s="27"/>
     </row>
-    <row r="10" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3471,7 +3533,7 @@
       </c>
       <c r="AF10" s="27"/>
     </row>
-    <row r="11" spans="1:32" ht="144" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3554,7 +3616,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3629,7 +3691,7 @@
       </c>
       <c r="AF12" s="27"/>
     </row>
-    <row r="13" spans="1:32" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3704,7 +3766,7 @@
       </c>
       <c r="AF13" s="27"/>
     </row>
-    <row r="14" spans="1:32" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3779,7 +3841,7 @@
       </c>
       <c r="AF14" s="27"/>
     </row>
-    <row r="15" spans="1:32" ht="192" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3854,7 +3916,7 @@
       </c>
       <c r="AF15" s="27"/>
     </row>
-    <row r="16" spans="1:32" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3930,6 +3992,12 @@
         <v>126</v>
       </c>
       <c r="AF16" s="27"/>
+      <c r="AG16" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH16" s="27" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="17" spans="1:79" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
@@ -4234,6 +4302,12 @@
         <v>196</v>
       </c>
       <c r="AF20" s="27"/>
+      <c r="AG20" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH20" s="27" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="21" spans="1:79" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
@@ -7082,7 +7156,9 @@
       <c r="CA45"/>
     </row>
     <row r="46" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
+      <c r="A46" s="44">
+        <v>45</v>
+      </c>
       <c r="B46" s="27" t="s">
         <v>488</v>
       </c>
@@ -7207,7 +7283,7 @@
     <row r="47" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="44">
         <f t="shared" ref="A47:A52" si="1">A46+1</f>
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>321</v>
@@ -7337,7 +7413,7 @@
     <row r="48" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="44">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>312</v>
@@ -7459,7 +7535,7 @@
     <row r="49" spans="1:79" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A49" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>322</v>
@@ -7581,7 +7657,7 @@
     <row r="50" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A50" s="44">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>311</v>
@@ -7703,7 +7779,7 @@
     <row r="51" spans="1:79" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A51" s="44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>326</v>
@@ -7825,7 +7901,7 @@
     <row r="52" spans="1:79" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A52" s="44">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>12</v>
@@ -8057,23 +8133,67 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF52">
     <sortCondition ref="B2:B52"/>
   </sortState>
-  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A8:A52 B8:AF15 B17:K17 B16:L16 M17 O17:AF17 N16:AF16 B25:AF27 B24:J24 O24:AF24 B18:AF23 B30:AF52 A1:AF6 A7:Y7 AA7:AF7">
+  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A8:A52 B8:AF15 B17:K17 B16:L16 M17 O17:AF17 N16:AF16 B25:AF27 B24:J24 O24:AF24 B18:AF23 B30:AF52 A7:Y7 AA7:AF7 A1:AF6">
+    <cfRule type="expression" dxfId="6" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="expression" dxfId="5" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:N24">
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG1">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH1">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
     <cfRule type="expression" priority="9">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="10">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG16:AH16">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:N24">
+  <conditionalFormatting sqref="AG20:AH20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C6841D-FD2D-7A49-98E8-C8DB4822EFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6592F27-1C8A-144A-BEE2-9823CC7580F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1400" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="506">
   <si>
     <t>name</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Trinity_Lutheran_2018-19CHOICE.PDF</t>
   </si>
 </sst>
 </file>
@@ -2691,10 +2694,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7216,7 +7219,9 @@
         <v>476</v>
       </c>
       <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
+      <c r="AA46" s="21" t="s">
+        <v>505</v>
+      </c>
       <c r="AB46" s="27" t="s">
         <v>479</v>
       </c>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6592F27-1C8A-144A-BEE2-9823CC7580F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F6C00-8977-0F42-9FD0-AAB86B083F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1400" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Private" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All schools'!$A$1:$AF$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All schools'!$A$1:$AG$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'All schools'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="508">
   <si>
     <t>name</t>
   </si>
@@ -1560,6 +1560,12 @@
   </si>
   <si>
     <t>Trinity_Lutheran_2018-19CHOICE.PDF</t>
+  </si>
+  <si>
+    <t>Public Choice</t>
+  </si>
+  <si>
+    <t>Academic, Right of Passage Experience (ROPE) for high school students</t>
   </si>
 </sst>
 </file>
@@ -2692,12 +2698,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CA53"/>
+  <dimension ref="A1:CB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
+      <selection pane="bottomLeft" activeCell="AE50" sqref="AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2708,30 +2714,30 @@
     <col min="4" max="4" width="7.1640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" style="11" customWidth="1"/>
     <col min="6" max="7" width="6.1640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="11" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="12" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="48" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="9" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="9" customWidth="1"/>
-    <col min="17" max="21" width="18.1640625" style="9" customWidth="1"/>
-    <col min="22" max="23" width="13.5" style="9" customWidth="1"/>
-    <col min="24" max="24" width="32.5" style="41" customWidth="1"/>
-    <col min="25" max="25" width="37.1640625" style="9" customWidth="1"/>
-    <col min="26" max="26" width="40.6640625" customWidth="1"/>
-    <col min="27" max="27" width="44" customWidth="1"/>
-    <col min="28" max="28" width="15.1640625" style="9" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" style="9" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" customWidth="1"/>
-    <col min="31" max="31" width="17.5" style="9" customWidth="1"/>
-    <col min="32" max="32" width="15" style="9" customWidth="1"/>
-    <col min="33" max="33" width="18" customWidth="1"/>
-    <col min="34" max="34" width="13.5" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="48" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="9" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="9" customWidth="1"/>
+    <col min="18" max="22" width="18.1640625" style="9" customWidth="1"/>
+    <col min="23" max="24" width="13.5" style="9" customWidth="1"/>
+    <col min="25" max="25" width="32.5" style="41" customWidth="1"/>
+    <col min="26" max="26" width="37.1640625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="40.6640625" customWidth="1"/>
+    <col min="28" max="28" width="44" customWidth="1"/>
+    <col min="29" max="29" width="15.1640625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="15.1640625" customWidth="1"/>
+    <col min="32" max="32" width="17.5" style="9" customWidth="1"/>
+    <col min="33" max="33" width="15" style="9" customWidth="1"/>
+    <col min="34" max="34" width="18" customWidth="1"/>
+    <col min="35" max="35" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>504</v>
       </c>
@@ -2757,85 +2763,88 @@
         <v>60</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2856,62 +2865,63 @@
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23">
         <v>8110</v>
       </c>
-      <c r="L2" s="24">
+      <c r="M2" s="24">
         <v>100</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26">
+      <c r="N2" s="25"/>
+      <c r="O2" s="26">
         <v>550004502575</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="27"/>
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Z2" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AA2" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="27">
+      <c r="AD2" s="27">
         <v>543</v>
       </c>
-      <c r="AD2" s="21">
+      <c r="AE2" s="21">
         <v>81.599999999999994</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AF2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="27"/>
-    </row>
-    <row r="3" spans="1:34" ht="160" x14ac:dyDescent="0.2">
+      <c r="AG2" s="27"/>
+    </row>
+    <row r="3" spans="1:35" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <f t="shared" ref="A3:A45" si="0">A2+1</f>
         <v>2</v>
@@ -2931,60 +2941,61 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="22">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23">
         <v>4620</v>
       </c>
-      <c r="L3" s="24">
+      <c r="M3" s="24">
         <v>114</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="26">
+      <c r="N3" s="47"/>
+      <c r="O3" s="26">
         <v>551236002708</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="27"/>
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
       <c r="U3" s="27"/>
-      <c r="V3" s="27" t="s">
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="39" t="s">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Z3" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
-      <c r="AB3" s="27" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AD3" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AE3" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AF3" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="AF3" s="27"/>
-    </row>
-    <row r="4" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+      <c r="AG3" s="27"/>
+    </row>
+    <row r="4" spans="1:35" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3006,60 +3017,61 @@
       <c r="H4" s="22">
         <v>1</v>
       </c>
-      <c r="I4" s="22">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23">
         <v>4620</v>
       </c>
-      <c r="L4" s="24">
+      <c r="M4" s="24">
         <v>1698</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27" t="s">
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="Q4" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="R4" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="27" t="s">
+      <c r="V4" s="27"/>
+      <c r="W4" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="27"/>
+      <c r="Y4" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Z4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="Z4" s="54" t="s">
+      <c r="AA4" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AD4" s="27">
         <v>3</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AE4" s="21">
         <v>100</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AF4" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="AF4" s="27"/>
-    </row>
-    <row r="5" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+      <c r="AG4" s="27"/>
+    </row>
+    <row r="5" spans="1:35" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3083,66 +3095,67 @@
       <c r="H5" s="22">
         <v>1</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22">
         <v>2</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23">
+      <c r="K5" s="22"/>
+      <c r="L5" s="23">
         <v>4620</v>
       </c>
-      <c r="L5" s="24">
+      <c r="M5" s="24">
         <v>441</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>1512889</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26"/>
+      <c r="P5" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="Q5" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="R5" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="27"/>
+      <c r="W5" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="W5" s="27"/>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="27"/>
+      <c r="Y5" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="Z5" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AA5" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AB5" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AC5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AD5" s="27">
         <v>180</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AE5" s="21">
         <v>41.7</v>
       </c>
-      <c r="AE5" s="27" t="s">
+      <c r="AF5" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF5" s="27">
+      <c r="AG5" s="27">
         <v>58.8</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3162,62 +3175,63 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23">
         <v>4620</v>
       </c>
-      <c r="L6" s="24">
+      <c r="M6" s="24">
         <v>111</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26">
+      <c r="N6" s="25"/>
+      <c r="O6" s="26">
         <v>551236001627</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="P6" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="Q6" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="R6" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="27"/>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
-      <c r="V6" s="27" t="s">
+      <c r="V6" s="27"/>
+      <c r="W6" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="39" t="s">
+      <c r="X6" s="27"/>
+      <c r="Y6" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" s="27" t="s">
+      <c r="Z6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="AA6" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="27" t="s">
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC6" s="27">
+      <c r="AD6" s="27">
         <v>338</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AE6" s="21">
         <v>81.099999999999994</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AF6" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF6" s="27"/>
-    </row>
-    <row r="7" spans="1:34" ht="80" x14ac:dyDescent="0.2">
+      <c r="AG6" s="27"/>
+    </row>
+    <row r="7" spans="1:35" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3241,73 +3255,74 @@
       <c r="H7" s="22">
         <v>1</v>
       </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23">
         <v>4620</v>
       </c>
-      <c r="L7" s="24">
+      <c r="M7" s="24">
         <v>1681</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26"/>
+      <c r="P7" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="Q7" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="R7" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="S7" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="T7" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="U7" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="V7" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>123</v>
       </c>
       <c r="W7" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="X7" s="39" t="s">
+      <c r="X7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y7" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="Y7" s="27" t="s">
+      <c r="Z7" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AB7" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="AB7" s="27" t="s">
+      <c r="AC7" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AD7" s="27">
         <v>351</v>
       </c>
-      <c r="AD7" s="21">
+      <c r="AE7" s="21">
         <v>76.599999999999994</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AF7" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AG7" s="27">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3327,62 +3342,63 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="22">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23">
         <v>4620</v>
       </c>
-      <c r="L8" s="24">
+      <c r="M8" s="24">
         <v>118</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26">
+      <c r="N8" s="25"/>
+      <c r="O8" s="26">
         <v>551236001611</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="P8" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="Q8" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="R8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
-      <c r="V8" s="27" t="s">
+      <c r="V8" s="27"/>
+      <c r="W8" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="39" t="s">
+      <c r="X8" s="27"/>
+      <c r="Y8" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="Y8" s="27" t="s">
+      <c r="Z8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="Z8" s="21" t="s">
+      <c r="AA8" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="27" t="s">
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AD8" s="27">
         <v>432</v>
       </c>
-      <c r="AD8" s="21">
+      <c r="AE8" s="21">
         <v>81.7</v>
       </c>
-      <c r="AE8" s="27" t="s">
+      <c r="AF8" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF8" s="27"/>
-    </row>
-    <row r="9" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="27"/>
+    </row>
+    <row r="9" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3404,62 +3420,63 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
+        <v>1</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23">
         <v>4620</v>
       </c>
-      <c r="L9" s="24">
+      <c r="M9" s="24">
         <v>119</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26">
+      <c r="N9" s="25"/>
+      <c r="O9" s="26">
         <v>551236002311</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="P9" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="Q9" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="R9" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
-      <c r="V9" s="27" t="s">
+      <c r="V9" s="27"/>
+      <c r="W9" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="39" t="s">
+      <c r="X9" s="27"/>
+      <c r="Y9" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Y9" s="27" t="s">
+      <c r="Z9" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="AA9" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="27" t="s">
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC9" s="27">
+      <c r="AD9" s="27">
         <v>1615</v>
       </c>
-      <c r="AD9" s="21">
+      <c r="AE9" s="21">
         <v>28.9</v>
       </c>
-      <c r="AE9" s="27" t="s">
+      <c r="AF9" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF9" s="27"/>
-    </row>
-    <row r="10" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+      <c r="AG9" s="27"/>
+    </row>
+    <row r="10" spans="1:35" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3484,59 +3501,62 @@
       <c r="I10" s="22">
         <v>1</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23">
+      <c r="J10" s="22">
+        <v>1</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23">
         <v>4620</v>
       </c>
-      <c r="L10" s="24">
+      <c r="M10" s="24">
         <v>106</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26">
+      <c r="N10" s="25"/>
+      <c r="O10" s="26">
         <v>551236001608</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="P10" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="Q10" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="R10" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="27"/>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
-      <c r="V10" s="27" t="s">
+      <c r="V10" s="27"/>
+      <c r="W10" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="39" t="s">
+      <c r="X10" s="27"/>
+      <c r="Y10" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="Y10" s="27" t="s">
+      <c r="Z10" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="AA10" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="27" t="s">
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC10" s="27">
+      <c r="AD10" s="27">
         <v>741</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AE10" s="21">
         <v>57</v>
       </c>
-      <c r="AE10" s="27" t="s">
+      <c r="AF10" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AF10" s="27"/>
-    </row>
-    <row r="11" spans="1:34" ht="144" x14ac:dyDescent="0.2">
+      <c r="AG10" s="27"/>
+    </row>
+    <row r="11" spans="1:35" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3560,66 +3580,67 @@
       <c r="H11" s="22">
         <v>1</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22">
         <v>2</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23">
+      <c r="K11" s="22"/>
+      <c r="L11" s="23">
         <v>4620</v>
       </c>
-      <c r="L11" s="24">
+      <c r="M11" s="24">
         <v>1711</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26"/>
+      <c r="P11" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="Q11" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="R11" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
-      <c r="V11" s="27" t="s">
+      <c r="V11" s="27"/>
+      <c r="W11" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="39" t="s">
+      <c r="X11" s="27"/>
+      <c r="Y11" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="Y11" s="27" t="s">
+      <c r="Z11" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="Z11" s="21" t="s">
+      <c r="AA11" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AB11" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AB11" s="27" t="s">
+      <c r="AC11" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AD11" s="27">
         <v>319</v>
       </c>
-      <c r="AD11" s="21">
+      <c r="AE11" s="21">
         <v>84.6</v>
       </c>
-      <c r="AE11" s="27" t="s">
+      <c r="AF11" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AG11" s="27">
         <v>99.7</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3639,62 +3660,63 @@
         <v>1</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="22">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23">
         <v>4620</v>
       </c>
-      <c r="L12" s="49">
+      <c r="M12" s="49">
         <v>492</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26">
+      <c r="N12" s="25"/>
+      <c r="O12" s="26">
         <v>551236001620</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="P12" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="Q12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="R12" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
-      <c r="V12" s="27" t="s">
+      <c r="V12" s="27"/>
+      <c r="W12" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="39" t="s">
+      <c r="X12" s="27"/>
+      <c r="Y12" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="Z12" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="Z12" s="21" t="s">
+      <c r="AA12" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="27" t="s">
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC12" s="27">
+      <c r="AD12" s="27">
         <v>1577</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AE12" s="21">
         <v>63.5</v>
       </c>
-      <c r="AE12" s="27" t="s">
+      <c r="AF12" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AF12" s="27"/>
-    </row>
-    <row r="13" spans="1:34" ht="96" x14ac:dyDescent="0.2">
+      <c r="AG12" s="27"/>
+    </row>
+    <row r="13" spans="1:35" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3714,62 +3736,63 @@
         <v>1</v>
       </c>
       <c r="H13" s="22"/>
-      <c r="I13" s="22">
-        <v>1</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22">
+        <v>1</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23">
         <v>4620</v>
       </c>
-      <c r="L13" s="50">
+      <c r="M13" s="50">
         <v>491</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26">
+      <c r="N13" s="25"/>
+      <c r="O13" s="26">
         <v>551236001621</v>
       </c>
-      <c r="O13" s="29" t="s">
+      <c r="P13" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="Q13" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="R13" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
-      <c r="V13" s="27" t="s">
+      <c r="V13" s="27"/>
+      <c r="W13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="39" t="s">
+      <c r="X13" s="27"/>
+      <c r="Y13" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="Y13" s="27" t="s">
+      <c r="Z13" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="Z13" s="55" t="s">
+      <c r="AA13" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="27" t="s">
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AD13" s="27">
         <v>1783</v>
       </c>
-      <c r="AD13" s="21">
+      <c r="AE13" s="21">
         <v>53.5</v>
       </c>
-      <c r="AE13" s="27" t="s">
+      <c r="AF13" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AF13" s="27"/>
-    </row>
-    <row r="14" spans="1:34" ht="64" x14ac:dyDescent="0.2">
+      <c r="AG13" s="27"/>
+    </row>
+    <row r="14" spans="1:35" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3789,62 +3812,63 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <v>1</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23">
         <v>4620</v>
       </c>
-      <c r="L14" s="24">
+      <c r="M14" s="24">
         <v>130</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26">
+      <c r="N14" s="25"/>
+      <c r="O14" s="26">
         <v>551236001622</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="P14" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="Q14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="R14" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
-      <c r="V14" s="27" t="s">
+      <c r="V14" s="27"/>
+      <c r="W14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="W14" s="27"/>
-      <c r="X14" s="39" t="s">
+      <c r="X14" s="27"/>
+      <c r="Y14" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="Y14" s="27" t="s">
+      <c r="Z14" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="Z14" s="21" t="s">
+      <c r="AA14" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="27" t="s">
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC14" s="27">
+      <c r="AD14" s="27">
         <v>277</v>
       </c>
-      <c r="AD14" s="21">
+      <c r="AE14" s="21">
         <v>93.9</v>
       </c>
-      <c r="AE14" s="27" t="s">
+      <c r="AF14" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AF14" s="27"/>
-    </row>
-    <row r="15" spans="1:34" ht="192" x14ac:dyDescent="0.2">
+      <c r="AG14" s="27"/>
+    </row>
+    <row r="15" spans="1:35" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3867,59 +3891,62 @@
       <c r="I15" s="22">
         <v>1</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23">
+      <c r="J15" s="22">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23">
         <v>4620</v>
       </c>
-      <c r="L15" s="24">
+      <c r="M15" s="24">
         <v>132</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26">
+      <c r="N15" s="25"/>
+      <c r="O15" s="26">
         <v>551236001623</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="P15" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="Q15" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="R15" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="27"/>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
-      <c r="V15" s="27" t="s">
+      <c r="V15" s="27"/>
+      <c r="W15" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="39" t="s">
+      <c r="X15" s="27"/>
+      <c r="Y15" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="Y15" s="27" t="s">
+      <c r="Z15" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="Z15" s="21" t="s">
+      <c r="AA15" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="27" t="s">
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC15" s="27">
+      <c r="AD15" s="27">
         <v>502</v>
       </c>
-      <c r="AD15" s="21">
+      <c r="AE15" s="21">
         <v>41.2</v>
       </c>
-      <c r="AE15" s="27" t="s">
+      <c r="AF15" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AF15" s="27"/>
-    </row>
-    <row r="16" spans="1:34" ht="80" x14ac:dyDescent="0.2">
+      <c r="AG15" s="27"/>
+    </row>
+    <row r="16" spans="1:35" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3941,68 +3968,69 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="22">
-        <v>1</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22">
+        <v>1</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23">
         <v>4620</v>
       </c>
-      <c r="L16" s="24">
+      <c r="M16" s="24">
         <v>134</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="26">
+      <c r="N16" s="56"/>
+      <c r="O16" s="26">
         <v>551236001624</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="P16" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="Q16" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="R16" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="27"/>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
-      <c r="V16" s="27" t="s">
+      <c r="V16" s="27"/>
+      <c r="W16" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="39" t="s">
+      <c r="X16" s="27"/>
+      <c r="Y16" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="Y16" s="27" t="s">
+      <c r="Z16" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="Z16" s="21" t="s">
+      <c r="AA16" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="27" t="s">
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC16" s="27">
+      <c r="AD16" s="27">
         <v>1045</v>
       </c>
-      <c r="AD16" s="21">
+      <c r="AE16" s="21">
         <v>77.3</v>
       </c>
-      <c r="AE16" s="27" t="s">
+      <c r="AF16" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27" t="s">
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="AH16" s="27" t="s">
+      <c r="AI16" s="27" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:79" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:80" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4026,60 +4054,61 @@
       <c r="H17" s="22">
         <v>1</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22">
         <v>0</v>
       </c>
-      <c r="J17" s="22">
+      <c r="K17" s="22">
         <v>2</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="M17" s="25">
+      <c r="L17" s="23"/>
+      <c r="N17" s="25">
         <v>1507085</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="P17" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="P17" s="27" t="s">
+      <c r="Q17" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="R17" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
-      <c r="V17" s="27" t="s">
+      <c r="V17" s="27"/>
+      <c r="W17" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="39" t="s">
+      <c r="X17" s="27"/>
+      <c r="Y17" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="27" t="s">
+      <c r="Z17" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21" t="s">
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="AB17" s="27" t="s">
+      <c r="AC17" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="AC17" s="27" t="s">
+      <c r="AD17" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="AD17" s="21" t="s">
+      <c r="AE17" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="AE17" s="27" t="s">
+      <c r="AF17" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF17" s="27" t="s">
+      <c r="AG17" s="27" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:79" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:80" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4099,62 +4128,63 @@
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="22">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
+        <v>1</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23">
         <v>4620</v>
       </c>
-      <c r="L18" s="24">
+      <c r="M18" s="24">
         <v>720</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26">
+      <c r="N18" s="25"/>
+      <c r="O18" s="26">
         <v>551236003337</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="P18" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="Q18" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="R18" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
-      <c r="V18" s="27" t="s">
+      <c r="V18" s="27"/>
+      <c r="W18" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="W18" s="27"/>
-      <c r="X18" s="39" t="s">
+      <c r="X18" s="27"/>
+      <c r="Y18" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="Z18" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="Z18" s="21" t="s">
+      <c r="AA18" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="27" t="s">
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC18" s="27">
+      <c r="AD18" s="27">
         <v>422</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AE18" s="21">
         <v>94.3</v>
       </c>
-      <c r="AE18" s="27" t="s">
+      <c r="AF18" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="AF18" s="27"/>
-    </row>
-    <row r="19" spans="1:79" ht="208" x14ac:dyDescent="0.2">
+      <c r="AG18" s="27"/>
+    </row>
+    <row r="19" spans="1:80" ht="208" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4174,62 +4204,63 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="22">
-        <v>1</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23">
         <v>4620</v>
       </c>
-      <c r="L19" s="24">
+      <c r="M19" s="24">
         <v>138</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26">
+      <c r="N19" s="25"/>
+      <c r="O19" s="26">
         <v>551236001628</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="P19" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="P19" s="27" t="s">
+      <c r="Q19" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="R19" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
-      <c r="V19" s="27" t="s">
+      <c r="V19" s="27"/>
+      <c r="W19" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="W19" s="27"/>
-      <c r="X19" s="39" t="s">
+      <c r="X19" s="27"/>
+      <c r="Y19" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="Y19" s="27" t="s">
+      <c r="Z19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="Z19" s="21" t="s">
+      <c r="AA19" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="27" t="s">
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC19" s="27">
+      <c r="AD19" s="27">
         <v>361</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AE19" s="21">
         <v>87.8</v>
       </c>
-      <c r="AE19" s="27" t="s">
+      <c r="AF19" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="AF19" s="27"/>
-    </row>
-    <row r="20" spans="1:79" ht="96" x14ac:dyDescent="0.2">
+      <c r="AG19" s="27"/>
+    </row>
+    <row r="20" spans="1:80" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="44">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4251,68 +4282,69 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="22">
-        <v>1</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23">
         <v>4620</v>
       </c>
-      <c r="L20" s="24">
+      <c r="M20" s="24">
         <v>148</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26">
+      <c r="N20" s="25"/>
+      <c r="O20" s="26">
         <v>551236001632</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="P20" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="P20" s="27" t="s">
+      <c r="Q20" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="R20" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R20" s="27"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
-      <c r="V20" s="27" t="s">
+      <c r="V20" s="27"/>
+      <c r="W20" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="W20" s="27"/>
-      <c r="X20" s="39" t="s">
+      <c r="X20" s="27"/>
+      <c r="Y20" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="Y20" s="27" t="s">
+      <c r="Z20" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="Z20" s="21" t="s">
+      <c r="AA20" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="27" t="s">
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC20" s="27">
+      <c r="AD20" s="27">
         <v>1260</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AE20" s="21">
         <v>80.8</v>
       </c>
-      <c r="AE20" s="27" t="s">
+      <c r="AF20" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="57" t="s">
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="57" t="s">
         <v>503</v>
       </c>
-      <c r="AH20" s="27" t="s">
+      <c r="AI20" s="27" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:79" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:80" ht="112" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4332,62 +4364,63 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="22">
-        <v>1</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23">
         <v>4620</v>
       </c>
-      <c r="L21" s="24">
+      <c r="M21" s="24">
         <v>150</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26">
+      <c r="N21" s="25"/>
+      <c r="O21" s="26">
         <v>551236001634</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="P21" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="Q21" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="R21" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
-      <c r="V21" s="27" t="s">
+      <c r="V21" s="27"/>
+      <c r="W21" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="W21" s="27"/>
-      <c r="X21" s="39" t="s">
+      <c r="X21" s="27"/>
+      <c r="Y21" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="Y21" s="27" t="s">
+      <c r="Z21" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="Z21" s="21" t="s">
+      <c r="AA21" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="27" t="s">
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC21" s="27">
+      <c r="AD21" s="27">
         <v>296</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AE21" s="21">
         <v>77.7</v>
       </c>
-      <c r="AE21" s="27" t="s">
+      <c r="AF21" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF21" s="27"/>
-    </row>
-    <row r="22" spans="1:79" ht="48" x14ac:dyDescent="0.2">
+      <c r="AG21" s="27"/>
+    </row>
+    <row r="22" spans="1:80" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4407,62 +4440,63 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23">
         <v>4620</v>
       </c>
-      <c r="L22" s="24">
+      <c r="M22" s="24">
         <v>112</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26">
+      <c r="N22" s="25"/>
+      <c r="O22" s="26">
         <v>551236001605</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="P22" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
-      <c r="V22" s="27" t="s">
+      <c r="V22" s="27"/>
+      <c r="W22" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="W22" s="27"/>
-      <c r="X22" s="39" t="s">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="Y22" s="27" t="s">
+      <c r="Z22" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="Z22" s="21" t="s">
+      <c r="AA22" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="27" t="s">
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC22" s="27">
+      <c r="AD22" s="27">
         <v>454</v>
       </c>
-      <c r="AD22" s="21">
+      <c r="AE22" s="21">
         <v>42.1</v>
       </c>
-      <c r="AE22" s="27" t="s">
+      <c r="AF22" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF22" s="27"/>
-    </row>
-    <row r="23" spans="1:79" ht="64" x14ac:dyDescent="0.2">
+      <c r="AG22" s="27"/>
+    </row>
+    <row r="23" spans="1:80" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="44">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4486,62 +4520,63 @@
       <c r="H23" s="22">
         <v>1</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22">
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="K23" s="22">
         <v>2</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25" t="s">
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="26"/>
+      <c r="P23" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="P23" s="27" t="s">
+      <c r="Q23" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="R23" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
-      <c r="V23" s="27" t="s">
+      <c r="V23" s="27"/>
+      <c r="W23" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="51" t="s">
+      <c r="X23" s="27"/>
+      <c r="Y23" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="Y23" s="27" t="s">
+      <c r="Z23" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21" t="s">
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="AB23" s="27" t="s">
+      <c r="AC23" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="AC23" s="23" t="s">
+      <c r="AD23" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="AD23" s="42" t="s">
+      <c r="AE23" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="AE23" s="27" t="s">
+      <c r="AF23" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF23" s="27">
+      <c r="AG23" s="27">
         <v>90.5</v>
       </c>
     </row>
-    <row r="24" spans="1:79" ht="160" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:80" ht="160" x14ac:dyDescent="0.2">
       <c r="A24" s="44">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4561,62 +4596,63 @@
         <v>1</v>
       </c>
       <c r="H24" s="22"/>
-      <c r="I24" s="22">
-        <v>1</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="32">
+      <c r="I24" s="22"/>
+      <c r="J24" s="22">
+        <v>1</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="32">
         <v>4620</v>
       </c>
-      <c r="L24" s="33">
+      <c r="M24" s="33">
         <v>494</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="35">
+      <c r="N24" s="34"/>
+      <c r="O24" s="35">
         <v>551236001635</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="P24" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="Q24" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="Q24" s="27" t="s">
+      <c r="R24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
-      <c r="V24" s="27" t="s">
+      <c r="V24" s="27"/>
+      <c r="W24" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="W24" s="27"/>
-      <c r="X24" s="39" t="s">
+      <c r="X24" s="27"/>
+      <c r="Y24" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="Y24" s="27" t="s">
+      <c r="Z24" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="Z24" s="21" t="s">
+      <c r="AA24" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="27" t="s">
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC24" s="27">
+      <c r="AD24" s="27">
         <v>1324</v>
       </c>
-      <c r="AD24" s="21">
+      <c r="AE24" s="21">
         <v>71.900000000000006</v>
       </c>
-      <c r="AE24" s="27" t="s">
+      <c r="AF24" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AF24" s="27"/>
-    </row>
-    <row r="25" spans="1:79" ht="128" x14ac:dyDescent="0.2">
+      <c r="AG24" s="27"/>
+    </row>
+    <row r="25" spans="1:80" ht="128" x14ac:dyDescent="0.2">
       <c r="A25" s="44">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4640,62 +4676,63 @@
         <v>1</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="22">
-        <v>1</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22">
+        <v>1</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23">
         <v>4620</v>
       </c>
-      <c r="L25" s="24">
+      <c r="M25" s="24">
         <v>801</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="26">
+      <c r="N25" s="25"/>
+      <c r="O25" s="26">
         <v>551236003045</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="P25" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="Q25" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="R25" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
-      <c r="V25" s="27" t="s">
+      <c r="V25" s="27"/>
+      <c r="W25" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="W25" s="46"/>
-      <c r="X25" s="43" t="s">
+      <c r="X25" s="46"/>
+      <c r="Y25" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="Y25" s="27" t="s">
+      <c r="Z25" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="Z25" s="21" t="s">
+      <c r="AA25" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="27" t="s">
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC25" s="27">
+      <c r="AD25" s="27">
         <v>213</v>
       </c>
-      <c r="AD25" s="21">
+      <c r="AE25" s="21">
         <v>81.7</v>
       </c>
-      <c r="AE25" s="27" t="s">
+      <c r="AF25" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="AF25" s="27"/>
-    </row>
-    <row r="26" spans="1:79" ht="96" x14ac:dyDescent="0.2">
+      <c r="AG25" s="27"/>
+    </row>
+    <row r="26" spans="1:80" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="44">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4719,64 +4756,65 @@
       <c r="H26" s="31">
         <v>1</v>
       </c>
-      <c r="I26" s="31">
-        <v>1</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32">
+      <c r="I26" s="31"/>
+      <c r="J26" s="31">
+        <v>1</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32">
         <v>4620</v>
       </c>
-      <c r="L26" s="33">
+      <c r="M26" s="33">
         <v>2360</v>
       </c>
-      <c r="M26" s="34">
+      <c r="N26" s="34">
         <v>1513215</v>
       </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36" t="s">
+      <c r="O26" s="35"/>
+      <c r="P26" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="P26" s="36" t="s">
+      <c r="Q26" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="36" t="s">
+      <c r="R26" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="R26" s="36"/>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="36" t="s">
+      <c r="V26" s="36"/>
+      <c r="W26" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="W26" s="36"/>
-      <c r="X26" s="53" t="s">
+      <c r="X26" s="36"/>
+      <c r="Y26" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="Y26" s="36" t="s">
+      <c r="Z26" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30" t="s">
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="AB26" s="36" t="s">
+      <c r="AC26" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="AC26" s="36">
+      <c r="AD26" s="36">
         <v>135</v>
       </c>
-      <c r="AD26" s="30">
+      <c r="AE26" s="30">
         <v>0</v>
       </c>
-      <c r="AE26" s="36" t="s">
+      <c r="AF26" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="AF26" s="36">
+      <c r="AG26" s="36">
         <v>45.2</v>
       </c>
     </row>
-    <row r="27" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="44">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4798,65 +4836,65 @@
       <c r="H27" s="22">
         <v>1</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22">
         <v>2</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23">
+      <c r="K27" s="22"/>
+      <c r="L27" s="23">
         <v>4620</v>
       </c>
-      <c r="L27" s="24">
+      <c r="M27" s="24">
         <v>2370</v>
       </c>
-      <c r="M27" s="25">
+      <c r="N27" s="25">
         <v>1512696</v>
       </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27" t="s">
+      <c r="O27" s="26"/>
+      <c r="P27" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="P27" s="27" t="s">
+      <c r="Q27" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="R27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
-      <c r="V27" s="27" t="s">
+      <c r="V27" s="27"/>
+      <c r="W27" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="W27" s="27"/>
-      <c r="X27" s="39" t="s">
+      <c r="X27" s="27"/>
+      <c r="Y27" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" s="27" t="s">
+      <c r="Z27" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="Z27" s="21" t="s">
+      <c r="AA27" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="AA27" s="21" t="s">
+      <c r="AB27" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="AB27" s="27" t="s">
+      <c r="AC27" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="AC27" s="27">
+      <c r="AD27" s="27">
         <v>264</v>
       </c>
-      <c r="AD27" s="21">
+      <c r="AE27" s="21">
         <v>17.399999999999999</v>
       </c>
-      <c r="AE27" s="27" t="s">
+      <c r="AF27" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF27" s="27">
+      <c r="AG27" s="27">
         <v>61.7</v>
       </c>
-      <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
       <c r="AJ27"/>
@@ -4903,8 +4941,9 @@
       <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
-    </row>
-    <row r="28" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="CB27"/>
+    </row>
+    <row r="28" spans="1:80" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="44">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4928,63 +4967,63 @@
       <c r="H28" s="22">
         <v>1</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22">
         <v>0</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23">
+      <c r="K28" s="22"/>
+      <c r="L28" s="23">
         <v>4620</v>
       </c>
-      <c r="L28" s="24">
+      <c r="M28" s="24">
         <v>2372</v>
       </c>
-      <c r="M28" s="25">
+      <c r="N28" s="25">
         <v>1511295</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="26"/>
+      <c r="P28" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="Q28" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="Q28" s="27" t="s">
+      <c r="R28" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
-      <c r="V28" s="27" t="s">
+      <c r="V28" s="27"/>
+      <c r="W28" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="52" t="s">
+      <c r="X28" s="46"/>
+      <c r="Y28" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="Y28" s="27" t="s">
+      <c r="Z28" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="Z28" s="21" t="s">
+      <c r="AA28" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="27" t="s">
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AC28" s="27" t="s">
+      <c r="AD28" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AD28" s="21" t="s">
+      <c r="AE28" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AE28" s="27" t="s">
+      <c r="AF28" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="AF28" s="27" t="s">
+      <c r="AG28" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
       <c r="AJ28"/>
@@ -5031,8 +5070,9 @@
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
-    </row>
-    <row r="29" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="CB28"/>
+    </row>
+    <row r="29" spans="1:80" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="44">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5055,58 +5095,60 @@
       <c r="I29" s="22">
         <v>1</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23">
+      <c r="J29" s="22">
+        <v>1</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23">
         <v>4620</v>
       </c>
-      <c r="L29" s="24">
+      <c r="M29" s="24">
         <v>174</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26">
+      <c r="N29" s="25"/>
+      <c r="O29" s="26">
         <v>551236001636</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="P29" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="Q29" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="R29" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R29" s="27"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
-      <c r="V29" s="27" t="s">
+      <c r="V29" s="27"/>
+      <c r="W29" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="W29" s="46"/>
-      <c r="X29" s="52" t="s">
+      <c r="X29" s="46"/>
+      <c r="Y29" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="Y29" s="27" t="s">
+      <c r="Z29" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="Z29" s="21" t="s">
+      <c r="AA29" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="27" t="s">
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC29" s="27">
+      <c r="AD29" s="27">
         <v>386</v>
       </c>
-      <c r="AD29" s="21">
+      <c r="AE29" s="21">
         <v>52.1</v>
       </c>
-      <c r="AE29" s="27" t="s">
+      <c r="AF29" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="AF29" s="27"/>
-      <c r="AG29"/>
+      <c r="AG29" s="27"/>
       <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29"/>
@@ -5153,8 +5195,9 @@
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
-    </row>
-    <row r="30" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="CB29"/>
+    </row>
+    <row r="30" spans="1:80" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A30" s="44">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5178,75 +5221,75 @@
       <c r="H30" s="22">
         <v>1</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="22"/>
+      <c r="J30" s="22">
         <v>2</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23">
+      <c r="K30" s="22"/>
+      <c r="L30" s="23">
         <v>4620</v>
       </c>
-      <c r="L30" s="24">
+      <c r="M30" s="24">
         <v>1619</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="N30" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="26"/>
+      <c r="P30" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="Q30" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="R30" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="R30" s="27" t="s">
+      <c r="S30" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="S30" s="27" t="s">
+      <c r="T30" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="T30" s="27" t="s">
+      <c r="U30" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="U30" s="27" t="s">
+      <c r="V30" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="V30" s="27" t="s">
+      <c r="W30" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="W30" s="27" t="s">
+      <c r="X30" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="X30" s="45" t="s">
+      <c r="Y30" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="Y30" s="27" t="s">
+      <c r="Z30" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="Z30" s="21" t="s">
+      <c r="AA30" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="AA30" s="21" t="s">
+      <c r="AB30" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="AB30" s="27" t="s">
+      <c r="AC30" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="AC30" s="27">
+      <c r="AD30" s="27">
         <v>356</v>
       </c>
-      <c r="AD30" s="21">
+      <c r="AE30" s="21">
         <v>84.3</v>
       </c>
-      <c r="AE30" s="27" t="s">
+      <c r="AF30" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF30" s="27">
+      <c r="AG30" s="27">
         <v>96.9</v>
       </c>
-      <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
       <c r="AJ30"/>
@@ -5293,8 +5336,9 @@
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
-    </row>
-    <row r="31" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="CB30"/>
+    </row>
+    <row r="31" spans="1:80" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="44">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5314,61 +5358,61 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
-      <c r="I31" s="22">
-        <v>1</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23">
+      <c r="I31" s="22"/>
+      <c r="J31" s="22">
+        <v>1</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23">
         <v>4620</v>
       </c>
-      <c r="L31" s="24">
+      <c r="M31" s="24">
         <v>154</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="26">
+      <c r="N31" s="25"/>
+      <c r="O31" s="26">
         <v>551236001637</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="P31" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="P31" s="27" t="s">
+      <c r="Q31" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="Q31" s="27" t="s">
+      <c r="R31" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R31" s="27"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
-      <c r="V31" s="27" t="s">
+      <c r="V31" s="27"/>
+      <c r="W31" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="W31" s="27"/>
-      <c r="X31" s="39" t="s">
+      <c r="X31" s="27"/>
+      <c r="Y31" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="Y31" s="27" t="s">
+      <c r="Z31" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="Z31" s="21" t="s">
+      <c r="AA31" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="27" t="s">
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC31" s="27">
+      <c r="AD31" s="27">
         <v>340</v>
       </c>
-      <c r="AD31" s="21">
+      <c r="AE31" s="21">
         <v>87.4</v>
       </c>
-      <c r="AE31" s="27" t="s">
+      <c r="AF31" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF31" s="27"/>
-      <c r="AG31"/>
+      <c r="AG31" s="27"/>
       <c r="AH31"/>
       <c r="AI31"/>
       <c r="AJ31"/>
@@ -5415,8 +5459,9 @@
       <c r="BY31"/>
       <c r="BZ31"/>
       <c r="CA31"/>
-    </row>
-    <row r="32" spans="1:79" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="CB31"/>
+    </row>
+    <row r="32" spans="1:80" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A32" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5439,58 +5484,60 @@
       <c r="I32" s="22">
         <v>1</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23">
+      <c r="J32" s="22">
+        <v>1</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23">
         <v>4620</v>
       </c>
-      <c r="L32" s="24">
+      <c r="M32" s="24">
         <v>101</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="26">
+      <c r="N32" s="25"/>
+      <c r="O32" s="26">
         <v>551236003044</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="P32" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="P32" s="27" t="s">
+      <c r="Q32" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="Q32" s="27" t="s">
+      <c r="R32" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="R32" s="27"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
-      <c r="V32" s="27" t="s">
+      <c r="V32" s="27"/>
+      <c r="W32" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="W32" s="27"/>
-      <c r="X32" s="39" t="s">
+      <c r="X32" s="27"/>
+      <c r="Y32" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="Y32" s="27" t="s">
+      <c r="Z32" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="Z32" s="21" t="s">
+      <c r="AA32" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="27" t="s">
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC32" s="27">
+      <c r="AD32" s="27">
         <v>153</v>
       </c>
-      <c r="AD32" s="21">
+      <c r="AE32" s="21">
         <v>86.9</v>
       </c>
-      <c r="AE32" s="27" t="s">
+      <c r="AF32" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="AF32" s="27"/>
-      <c r="AG32"/>
+      <c r="AG32" s="27"/>
       <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32"/>
@@ -5537,8 +5584,9 @@
       <c r="BY32"/>
       <c r="BZ32"/>
       <c r="CA32"/>
-    </row>
-    <row r="33" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="CB32"/>
+    </row>
+    <row r="33" spans="1:80" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="44">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5558,61 +5606,61 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="22">
-        <v>1</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23">
+      <c r="I33" s="22"/>
+      <c r="J33" s="22">
+        <v>1</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23">
         <v>4620</v>
       </c>
-      <c r="L33" s="24">
+      <c r="M33" s="24">
         <v>136</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="26">
+      <c r="N33" s="25"/>
+      <c r="O33" s="26">
         <v>551236001626</v>
       </c>
-      <c r="O33" s="27" t="s">
+      <c r="P33" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="P33" s="27" t="s">
+      <c r="Q33" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="Q33" s="27" t="s">
+      <c r="R33" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R33" s="27"/>
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
       <c r="U33" s="27"/>
-      <c r="V33" s="27" t="s">
+      <c r="V33" s="27"/>
+      <c r="W33" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="W33" s="27"/>
-      <c r="X33" s="39" t="s">
+      <c r="X33" s="27"/>
+      <c r="Y33" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="Y33" s="27" t="s">
+      <c r="Z33" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="Z33" s="21" t="s">
+      <c r="AA33" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="27" t="s">
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC33" s="27">
+      <c r="AD33" s="27">
         <v>499</v>
       </c>
-      <c r="AD33" s="21">
+      <c r="AE33" s="21">
         <v>85.2</v>
       </c>
-      <c r="AE33" s="27" t="s">
+      <c r="AF33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF33" s="27"/>
-      <c r="AG33"/>
+      <c r="AG33" s="27"/>
       <c r="AH33"/>
       <c r="AI33"/>
       <c r="AJ33"/>
@@ -5659,8 +5707,9 @@
       <c r="BY33"/>
       <c r="BZ33"/>
       <c r="CA33"/>
-    </row>
-    <row r="34" spans="1:79" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="CB33"/>
+    </row>
+    <row r="34" spans="1:80" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5684,61 +5733,61 @@
       <c r="H34" s="22">
         <v>1</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="22"/>
+      <c r="J34" s="22">
         <v>2</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25">
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25">
         <v>1507096</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27" t="s">
+      <c r="O34" s="26"/>
+      <c r="P34" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="P34" s="27" t="s">
+      <c r="Q34" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="Q34" s="27" t="s">
+      <c r="R34" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R34" s="27"/>
       <c r="S34" s="27"/>
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
-      <c r="V34" s="27" t="s">
+      <c r="V34" s="27"/>
+      <c r="W34" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="27"/>
-      <c r="X34" s="39" t="s">
+      <c r="X34" s="27"/>
+      <c r="Y34" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="Y34" s="27" t="s">
+      <c r="Z34" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="Z34" s="21" t="s">
+      <c r="AA34" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="AA34" s="21" t="s">
+      <c r="AB34" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="AB34" s="27" t="s">
+      <c r="AC34" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="AC34" s="27" t="s">
+      <c r="AD34" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="AD34" s="21">
+      <c r="AE34" s="21">
         <v>51.9</v>
       </c>
-      <c r="AE34" s="27" t="s">
+      <c r="AF34" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF34" s="27" t="s">
+      <c r="AG34" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
       <c r="AJ34"/>
@@ -5785,8 +5834,9 @@
       <c r="BY34"/>
       <c r="BZ34"/>
       <c r="CA34"/>
-    </row>
-    <row r="35" spans="1:79" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="CB34"/>
+    </row>
+    <row r="35" spans="1:80" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A35" s="44">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5810,65 +5860,65 @@
       <c r="H35" s="22">
         <v>1</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="22"/>
+      <c r="J35" s="22">
         <v>2</v>
       </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="23">
+      <c r="K35" s="22"/>
+      <c r="L35" s="23">
         <v>4620</v>
       </c>
-      <c r="L35" s="23">
+      <c r="M35" s="23">
         <v>4910</v>
       </c>
-      <c r="M35" s="25">
+      <c r="N35" s="25">
         <v>1511444</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27" t="s">
+      <c r="O35" s="26"/>
+      <c r="P35" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="P35" s="27" t="s">
+      <c r="Q35" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="Q35" s="27" t="s">
+      <c r="R35" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R35" s="27"/>
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
-      <c r="V35" s="27" t="s">
+      <c r="V35" s="27"/>
+      <c r="W35" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="W35" s="27"/>
-      <c r="X35" s="39" t="s">
+      <c r="X35" s="27"/>
+      <c r="Y35" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="Y35" s="27" t="s">
+      <c r="Z35" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="Z35" s="21" t="s">
+      <c r="AA35" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="AA35" s="21" t="s">
+      <c r="AB35" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="AB35" s="27" t="s">
+      <c r="AC35" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="AC35" s="27">
+      <c r="AD35" s="27">
         <v>222</v>
       </c>
-      <c r="AD35" s="21">
+      <c r="AE35" s="21">
         <v>24.3</v>
       </c>
-      <c r="AE35" s="27" t="s">
+      <c r="AF35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF35" s="27">
+      <c r="AG35" s="27">
         <v>72.7</v>
       </c>
-      <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
       <c r="AJ35"/>
@@ -5915,8 +5965,9 @@
       <c r="BY35"/>
       <c r="BZ35"/>
       <c r="CA35"/>
-    </row>
-    <row r="36" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="CB35"/>
+    </row>
+    <row r="36" spans="1:80" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A36" s="44">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5940,61 +5991,61 @@
       <c r="H36" s="22">
         <v>1</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="22"/>
+      <c r="J36" s="22">
         <v>0</v>
       </c>
-      <c r="J36" s="22">
+      <c r="K36" s="22">
         <v>2</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27" t="s">
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="P36" s="27" t="s">
+      <c r="Q36" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="Q36" s="27" t="s">
+      <c r="R36" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
       <c r="U36" s="27"/>
-      <c r="V36" s="27" t="s">
+      <c r="V36" s="27"/>
+      <c r="W36" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="W36" s="27"/>
-      <c r="X36" s="39" t="s">
+      <c r="X36" s="27"/>
+      <c r="Y36" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="Y36" s="27" t="s">
+      <c r="Z36" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="Z36" s="21" t="s">
+      <c r="AA36" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="AA36" s="21" t="s">
+      <c r="AB36" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="AB36" s="27" t="s">
+      <c r="AC36" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="AC36" s="27" t="s">
+      <c r="AD36" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="AD36" s="21" t="s">
+      <c r="AE36" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="AE36" s="27" t="s">
+      <c r="AF36" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF36" s="27" t="s">
+      <c r="AG36" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36"/>
@@ -6041,8 +6092,9 @@
       <c r="BY36"/>
       <c r="BZ36"/>
       <c r="CA36"/>
-    </row>
-    <row r="37" spans="1:79" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="CB36"/>
+    </row>
+    <row r="37" spans="1:80" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="44">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6066,61 +6118,61 @@
       <c r="H37" s="22">
         <v>1</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22">
         <v>2</v>
       </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25">
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25">
         <v>1507755</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27" t="s">
+      <c r="O37" s="26"/>
+      <c r="P37" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="P37" s="27" t="s">
+      <c r="Q37" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="Q37" s="27" t="s">
+      <c r="R37" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R37" s="27"/>
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
       <c r="U37" s="27"/>
-      <c r="V37" s="27" t="s">
+      <c r="V37" s="27"/>
+      <c r="W37" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="W37" s="27"/>
-      <c r="X37" s="39" t="s">
+      <c r="X37" s="27"/>
+      <c r="Y37" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="Y37" s="27" t="s">
+      <c r="Z37" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" s="21" t="s">
+      <c r="AA37" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="AA37" s="21" t="s">
+      <c r="AB37" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="AB37" s="27" t="s">
+      <c r="AC37" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="AC37" s="27">
+      <c r="AD37" s="27">
         <v>190</v>
       </c>
-      <c r="AD37" s="21">
+      <c r="AE37" s="21">
         <v>21.1</v>
       </c>
-      <c r="AE37" s="27" t="s">
+      <c r="AF37" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF37" s="27">
+      <c r="AG37" s="27">
         <v>21.1</v>
       </c>
-      <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
       <c r="AJ37"/>
@@ -6167,8 +6219,9 @@
       <c r="BY37"/>
       <c r="BZ37"/>
       <c r="CA37"/>
-    </row>
-    <row r="38" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="CB37"/>
+    </row>
+    <row r="38" spans="1:80" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A38" s="44">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6192,61 +6245,61 @@
       <c r="H38" s="22">
         <v>1</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
         <v>2</v>
       </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25">
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25">
         <v>1506525</v>
       </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="27" t="s">
+      <c r="O38" s="26"/>
+      <c r="P38" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="P38" s="27" t="s">
+      <c r="Q38" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="Q38" s="27" t="s">
+      <c r="R38" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R38" s="27"/>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
-      <c r="V38" s="27" t="s">
+      <c r="V38" s="27"/>
+      <c r="W38" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="W38" s="27"/>
-      <c r="X38" s="39" t="s">
+      <c r="X38" s="27"/>
+      <c r="Y38" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="Y38" s="27" t="s">
+      <c r="Z38" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="Z38" s="21" t="s">
+      <c r="AA38" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="AA38" s="21" t="s">
+      <c r="AB38" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="AB38" s="27" t="s">
+      <c r="AC38" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="AC38" s="27">
+      <c r="AD38" s="27">
         <v>148</v>
       </c>
-      <c r="AD38" s="21">
+      <c r="AE38" s="21">
         <v>9.5</v>
       </c>
-      <c r="AE38" s="27" t="s">
+      <c r="AF38" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF38" s="27">
+      <c r="AG38" s="27">
         <v>22.3</v>
       </c>
-      <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
       <c r="AJ38"/>
@@ -6293,8 +6346,9 @@
       <c r="BY38"/>
       <c r="BZ38"/>
       <c r="CA38"/>
-    </row>
-    <row r="39" spans="1:79" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="CB38"/>
+    </row>
+    <row r="39" spans="1:80" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" s="44">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6314,61 +6368,61 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
-      <c r="I39" s="22">
-        <v>1</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23">
+      <c r="I39" s="22"/>
+      <c r="J39" s="22">
+        <v>1</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23">
         <v>4620</v>
       </c>
-      <c r="L39" s="24">
+      <c r="M39" s="24">
         <v>166</v>
       </c>
-      <c r="M39" s="25"/>
-      <c r="N39" s="26">
+      <c r="N39" s="25"/>
+      <c r="O39" s="26">
         <v>551236001638</v>
       </c>
-      <c r="O39" s="27" t="s">
+      <c r="P39" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="P39" s="27" t="s">
+      <c r="Q39" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="Q39" s="27" t="s">
+      <c r="R39" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
       <c r="U39" s="27"/>
-      <c r="V39" s="27" t="s">
+      <c r="V39" s="27"/>
+      <c r="W39" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="W39" s="27"/>
-      <c r="X39" s="39" t="s">
+      <c r="X39" s="27"/>
+      <c r="Y39" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="Y39" s="27" t="s">
+      <c r="Z39" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" s="21" t="s">
+      <c r="AA39" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="27" t="s">
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC39" s="27">
+      <c r="AD39" s="27">
         <v>422</v>
       </c>
-      <c r="AD39" s="21">
+      <c r="AE39" s="21">
         <v>52.4</v>
       </c>
-      <c r="AE39" s="27" t="s">
+      <c r="AF39" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF39" s="27"/>
-      <c r="AG39"/>
+      <c r="AG39" s="27"/>
       <c r="AH39"/>
       <c r="AI39"/>
       <c r="AJ39"/>
@@ -6415,8 +6469,9 @@
       <c r="BY39"/>
       <c r="BZ39"/>
       <c r="CA39"/>
-    </row>
-    <row r="40" spans="1:79" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+      <c r="CB39"/>
+    </row>
+    <row r="40" spans="1:80" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A40" s="44">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6442,63 +6497,63 @@
       <c r="H40" s="22">
         <v>1</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="22"/>
+      <c r="J40" s="22">
         <v>2</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23">
+      <c r="K40" s="22"/>
+      <c r="L40" s="23">
         <v>4620</v>
       </c>
-      <c r="L40" s="23">
+      <c r="M40" s="23">
         <v>3430</v>
       </c>
-      <c r="M40" s="47"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27" t="s">
+      <c r="N40" s="47"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="P40" s="27" t="s">
+      <c r="Q40" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="Q40" s="27" t="s">
+      <c r="R40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R40" s="27"/>
       <c r="S40" s="27"/>
       <c r="T40" s="27"/>
       <c r="U40" s="27"/>
-      <c r="V40" s="27" t="s">
+      <c r="V40" s="27"/>
+      <c r="W40" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="W40" s="27"/>
-      <c r="X40" s="39" t="s">
+      <c r="X40" s="27"/>
+      <c r="Y40" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="Y40" s="27" t="s">
+      <c r="Z40" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="Z40" s="21" t="s">
+      <c r="AA40" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="AA40" s="21" t="s">
+      <c r="AB40" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="AB40" s="27" t="s">
+      <c r="AC40" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="AC40" s="27">
+      <c r="AD40" s="27">
         <v>1255</v>
       </c>
-      <c r="AD40" s="21">
+      <c r="AE40" s="21">
         <v>54.4</v>
       </c>
-      <c r="AE40" s="27" t="s">
+      <c r="AF40" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF40" s="27">
+      <c r="AG40" s="27">
         <v>83.4</v>
       </c>
-      <c r="AG40"/>
       <c r="AH40"/>
       <c r="AI40"/>
       <c r="AJ40"/>
@@ -6545,8 +6600,9 @@
       <c r="BY40"/>
       <c r="BZ40"/>
       <c r="CA40"/>
-    </row>
-    <row r="41" spans="1:79" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="CB40"/>
+    </row>
+    <row r="41" spans="1:80" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="44">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6570,57 +6626,57 @@
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
-      <c r="K41" s="23">
+      <c r="K41" s="22"/>
+      <c r="L41" s="23">
         <v>4620</v>
       </c>
-      <c r="L41" s="24">
+      <c r="M41" s="24">
         <v>1531</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="N41" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27" t="s">
+      <c r="O41" s="26"/>
+      <c r="P41" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="P41" s="27" t="s">
+      <c r="Q41" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="Q41" s="27" t="s">
+      <c r="R41" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R41" s="27"/>
       <c r="S41" s="27"/>
       <c r="T41" s="27"/>
       <c r="U41" s="27"/>
-      <c r="V41" s="27" t="s">
+      <c r="V41" s="27"/>
+      <c r="W41" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="W41" s="27"/>
-      <c r="X41" s="39" t="s">
+      <c r="X41" s="27"/>
+      <c r="Y41" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="Y41" s="27" t="s">
+      <c r="Z41" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
-      <c r="AB41" s="27" t="s">
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AC41" s="27" t="s">
+      <c r="AD41" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AD41" s="21" t="s">
+      <c r="AE41" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AE41" s="27" t="s">
+      <c r="AF41" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="AF41" s="27" t="s">
+      <c r="AG41" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
       <c r="AJ41"/>
@@ -6667,8 +6723,9 @@
       <c r="BY41"/>
       <c r="BZ41"/>
       <c r="CA41"/>
-    </row>
-    <row r="42" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="CB41"/>
+    </row>
+    <row r="42" spans="1:80" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A42" s="44">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6690,61 +6747,61 @@
       <c r="H42" s="22">
         <v>1</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="22"/>
+      <c r="J42" s="22">
         <v>0</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23">
+      <c r="K42" s="22"/>
+      <c r="L42" s="23">
         <v>4620</v>
       </c>
-      <c r="L42" s="24">
+      <c r="M42" s="24">
         <v>1750</v>
       </c>
-      <c r="M42" s="25"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="27" t="s">
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="P42" s="27" t="s">
+      <c r="Q42" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="Q42" s="27" t="s">
+      <c r="R42" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="R42" s="27"/>
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
-      <c r="V42" s="27" t="s">
+      <c r="V42" s="27"/>
+      <c r="W42" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="W42" s="27"/>
-      <c r="X42" s="39" t="s">
+      <c r="X42" s="27"/>
+      <c r="Y42" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="Y42" s="27" t="s">
+      <c r="Z42" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="Z42" s="21" t="s">
+      <c r="AA42" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="27" t="s">
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AC42" s="27" t="s">
+      <c r="AD42" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AD42" s="21" t="s">
+      <c r="AE42" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AE42" s="27" t="s">
+      <c r="AF42" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF42" s="27" t="s">
+      <c r="AG42" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AG42"/>
       <c r="AH42"/>
       <c r="AI42"/>
       <c r="AJ42"/>
@@ -6791,8 +6848,9 @@
       <c r="BY42"/>
       <c r="BZ42"/>
       <c r="CA42"/>
-    </row>
-    <row r="43" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="CB42"/>
+    </row>
+    <row r="43" spans="1:80" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A43" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6815,58 +6873,60 @@
       <c r="I43" s="22">
         <v>1</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23">
+      <c r="J43" s="22">
+        <v>1</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23">
         <v>4620</v>
       </c>
-      <c r="L43" s="24">
+      <c r="M43" s="24">
         <v>288</v>
       </c>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26">
+      <c r="N43" s="25"/>
+      <c r="O43" s="26">
         <v>551236001639</v>
       </c>
-      <c r="O43" s="27" t="s">
+      <c r="P43" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="P43" s="27" t="s">
+      <c r="Q43" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="Q43" s="27" t="s">
+      <c r="R43" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R43" s="27"/>
       <c r="S43" s="27"/>
       <c r="T43" s="27"/>
       <c r="U43" s="27"/>
-      <c r="V43" s="27" t="s">
+      <c r="V43" s="27"/>
+      <c r="W43" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="W43" s="27"/>
-      <c r="X43" s="39" t="s">
+      <c r="X43" s="27"/>
+      <c r="Y43" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="Y43" s="27" t="s">
+      <c r="Z43" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="Z43" s="21" t="s">
+      <c r="AA43" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="27" t="s">
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC43" s="27">
+      <c r="AD43" s="27">
         <v>662</v>
       </c>
-      <c r="AD43" s="21">
+      <c r="AE43" s="21">
         <v>71</v>
       </c>
-      <c r="AE43" s="27" t="s">
+      <c r="AF43" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="AF43" s="27"/>
-      <c r="AG43"/>
+      <c r="AG43" s="27"/>
       <c r="AH43"/>
       <c r="AI43"/>
       <c r="AJ43"/>
@@ -6913,8 +6973,9 @@
       <c r="BY43"/>
       <c r="BZ43"/>
       <c r="CA43"/>
-    </row>
-    <row r="44" spans="1:79" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="CB43"/>
+    </row>
+    <row r="44" spans="1:80" s="2" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A44" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6936,57 +6997,57 @@
       <c r="H44" s="22">
         <v>1</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22">
         <v>0</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="27" t="s">
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="P44" s="27" t="s">
+      <c r="Q44" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="R44" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R44" s="27"/>
       <c r="S44" s="27"/>
       <c r="T44" s="27"/>
       <c r="U44" s="27"/>
-      <c r="V44" s="27" t="s">
+      <c r="V44" s="27"/>
+      <c r="W44" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="W44" s="27"/>
-      <c r="X44" s="39" t="s">
+      <c r="X44" s="27"/>
+      <c r="Y44" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="Y44" s="27" t="s">
+      <c r="Z44" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="Z44" s="21" t="s">
+      <c r="AA44" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="27" t="s">
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AC44" s="27">
+      <c r="AD44" s="27">
         <v>624</v>
       </c>
-      <c r="AD44" s="21" t="s">
+      <c r="AE44" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AE44" s="27" t="s">
+      <c r="AF44" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF44" s="27" t="s">
+      <c r="AG44" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
       <c r="AJ44"/>
@@ -7033,8 +7094,9 @@
       <c r="BY44"/>
       <c r="BZ44"/>
       <c r="CA44"/>
-    </row>
-    <row r="45" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="CB44"/>
+    </row>
+    <row r="45" spans="1:80" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A45" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7059,58 +7121,60 @@
       <c r="I45" s="22">
         <v>1</v>
       </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="23">
+      <c r="J45" s="22">
+        <v>1</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23">
         <v>4620</v>
       </c>
-      <c r="L45" s="24">
+      <c r="M45" s="24">
         <v>800</v>
       </c>
-      <c r="M45" s="25"/>
-      <c r="N45" s="26">
+      <c r="N45" s="25"/>
+      <c r="O45" s="26">
         <v>551236002471</v>
       </c>
-      <c r="O45" s="27" t="s">
+      <c r="P45" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="P45" s="27" t="s">
+      <c r="Q45" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="R45" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="R45" s="27"/>
       <c r="S45" s="27"/>
       <c r="T45" s="27"/>
       <c r="U45" s="27"/>
-      <c r="V45" s="27" t="s">
+      <c r="V45" s="27"/>
+      <c r="W45" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="W45" s="27"/>
-      <c r="X45" s="39" t="s">
+      <c r="X45" s="27"/>
+      <c r="Y45" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="Y45" s="27" t="s">
+      <c r="Z45" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="Z45" s="21" t="s">
+      <c r="AA45" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="27" t="s">
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC45" s="27">
+      <c r="AD45" s="27">
         <v>504</v>
       </c>
-      <c r="AD45" s="21">
+      <c r="AE45" s="21">
         <v>42.1</v>
       </c>
-      <c r="AE45" s="27" t="s">
+      <c r="AF45" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="AF45" s="27"/>
-      <c r="AG45"/>
+      <c r="AG45" s="27"/>
       <c r="AH45"/>
       <c r="AI45"/>
       <c r="AJ45"/>
@@ -7157,8 +7221,9 @@
       <c r="BY45"/>
       <c r="BZ45"/>
       <c r="CA45"/>
-    </row>
-    <row r="46" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="CB45"/>
+    </row>
+    <row r="46" spans="1:80" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="44">
         <v>45</v>
       </c>
@@ -7181,63 +7246,63 @@
       <c r="H46" s="22">
         <v>1</v>
       </c>
-      <c r="I46" s="22">
-        <v>1</v>
-      </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23">
+      <c r="I46" s="22"/>
+      <c r="J46" s="22">
+        <v>1</v>
+      </c>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23">
         <v>4620</v>
       </c>
-      <c r="L46" s="24">
+      <c r="M46" s="24">
         <v>8505</v>
       </c>
-      <c r="M46" s="25">
+      <c r="N46" s="25">
         <v>1512619</v>
       </c>
-      <c r="N46" s="26"/>
-      <c r="O46" s="27" t="s">
+      <c r="O46" s="26"/>
+      <c r="P46" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="P46" s="27" t="s">
+      <c r="Q46" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="R46" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="R46" s="27"/>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
-      <c r="V46" s="27" t="s">
+      <c r="V46" s="27"/>
+      <c r="W46" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="W46" s="27"/>
-      <c r="X46" s="39" t="s">
+      <c r="X46" s="27"/>
+      <c r="Y46" s="39" t="s">
         <v>477</v>
       </c>
-      <c r="Y46" s="27" t="s">
+      <c r="Z46" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21" t="s">
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="AB46" s="27" t="s">
+      <c r="AC46" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="AC46" s="27">
+      <c r="AD46" s="27">
         <v>93</v>
       </c>
-      <c r="AD46" s="21">
+      <c r="AE46" s="21">
         <v>32.299999999999997</v>
       </c>
-      <c r="AE46" s="27" t="s">
+      <c r="AF46" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="AF46" s="27">
+      <c r="AG46" s="27">
         <v>48.9</v>
       </c>
-      <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
       <c r="AJ46"/>
@@ -7284,8 +7349,9 @@
       <c r="BY46"/>
       <c r="BZ46"/>
       <c r="CA46"/>
-    </row>
-    <row r="47" spans="1:79" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="CB46"/>
+    </row>
+    <row r="47" spans="1:80" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="44">
         <f t="shared" ref="A47:A52" si="1">A46+1</f>
         <v>46</v>
@@ -7309,65 +7375,65 @@
       <c r="H47" s="22">
         <v>1</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="22"/>
+      <c r="J47" s="22">
         <v>2</v>
       </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="23">
+      <c r="K47" s="22"/>
+      <c r="L47" s="23">
         <v>4620</v>
       </c>
-      <c r="L47" s="24">
+      <c r="M47" s="24">
         <v>8540</v>
       </c>
-      <c r="M47" s="25">
+      <c r="N47" s="25">
         <v>1511433</v>
       </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="27" t="s">
+      <c r="O47" s="26"/>
+      <c r="P47" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="P47" s="27" t="s">
+      <c r="Q47" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="Q47" s="27" t="s">
+      <c r="R47" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R47" s="27"/>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
       <c r="U47" s="27"/>
-      <c r="V47" s="27" t="s">
+      <c r="V47" s="27"/>
+      <c r="W47" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="39" t="s">
+      <c r="X47" s="27"/>
+      <c r="Y47" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="Y47" s="27" t="s">
+      <c r="Z47" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="Z47" s="21" t="s">
+      <c r="AA47" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="AA47" s="21" t="s">
+      <c r="AB47" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="AB47" s="27" t="s">
+      <c r="AC47" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="AC47" s="27">
+      <c r="AD47" s="27">
         <v>187</v>
       </c>
-      <c r="AD47" s="21">
+      <c r="AE47" s="21">
         <v>41.7</v>
       </c>
-      <c r="AE47" s="27" t="s">
+      <c r="AF47" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF47" s="27">
+      <c r="AG47" s="27">
         <v>76</v>
       </c>
-      <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
       <c r="AJ47"/>
@@ -7414,8 +7480,9 @@
       <c r="BY47"/>
       <c r="BZ47"/>
       <c r="CA47"/>
-    </row>
-    <row r="48" spans="1:79" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="CB47"/>
+    </row>
+    <row r="48" spans="1:80" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="44">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7435,61 +7502,61 @@
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
-      <c r="I48" s="22">
-        <v>1</v>
-      </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="23">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22">
+        <v>1</v>
+      </c>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23">
         <v>4620</v>
       </c>
-      <c r="L48" s="24">
+      <c r="M48" s="24">
         <v>121</v>
       </c>
-      <c r="M48" s="25"/>
-      <c r="N48" s="26">
+      <c r="N48" s="25"/>
+      <c r="O48" s="26">
         <v>551236001614</v>
       </c>
-      <c r="O48" s="27" t="s">
+      <c r="P48" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="P48" s="27" t="s">
+      <c r="Q48" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="Q48" s="27" t="s">
+      <c r="R48" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R48" s="27"/>
       <c r="S48" s="27"/>
       <c r="T48" s="27"/>
       <c r="U48" s="27"/>
-      <c r="V48" s="27" t="s">
+      <c r="V48" s="27"/>
+      <c r="W48" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="W48" s="27"/>
-      <c r="X48" s="39" t="s">
+      <c r="X48" s="27"/>
+      <c r="Y48" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="Y48" s="27" t="s">
+      <c r="Z48" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="Z48" s="21" t="s">
+      <c r="AA48" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="27" t="s">
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC48" s="27">
+      <c r="AD48" s="27">
         <v>268</v>
       </c>
-      <c r="AD48" s="21">
+      <c r="AE48" s="21">
         <v>83.6</v>
       </c>
-      <c r="AE48" s="27" t="s">
+      <c r="AF48" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="AF48" s="27"/>
-      <c r="AG48"/>
+      <c r="AG48" s="27"/>
       <c r="AH48"/>
       <c r="AI48"/>
       <c r="AJ48"/>
@@ -7536,8 +7603,9 @@
       <c r="BY48"/>
       <c r="BZ48"/>
       <c r="CA48"/>
-    </row>
-    <row r="49" spans="1:79" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="CB48"/>
+    </row>
+    <row r="49" spans="1:80" s="2" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A49" s="44">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7557,61 +7625,61 @@
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
-      <c r="I49" s="22">
-        <v>1</v>
-      </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="23">
+      <c r="I49" s="22"/>
+      <c r="J49" s="22">
+        <v>1</v>
+      </c>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23">
         <v>4620</v>
       </c>
-      <c r="L49" s="24">
+      <c r="M49" s="24">
         <v>162</v>
       </c>
-      <c r="M49" s="25"/>
-      <c r="N49" s="26">
+      <c r="N49" s="25"/>
+      <c r="O49" s="26">
         <v>551236001642</v>
       </c>
-      <c r="O49" s="27" t="s">
+      <c r="P49" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="P49" s="27" t="s">
+      <c r="Q49" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="Q49" s="27" t="s">
+      <c r="R49" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="R49" s="27"/>
       <c r="S49" s="27"/>
       <c r="T49" s="27"/>
       <c r="U49" s="27"/>
-      <c r="V49" s="27" t="s">
+      <c r="V49" s="27"/>
+      <c r="W49" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="W49" s="27"/>
-      <c r="X49" s="39" t="s">
+      <c r="X49" s="27"/>
+      <c r="Y49" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="Y49" s="27" t="s">
+      <c r="Z49" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="Z49" s="21" t="s">
+      <c r="AA49" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="27" t="s">
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC49" s="27">
+      <c r="AD49" s="27">
         <v>551</v>
       </c>
-      <c r="AD49" s="21">
+      <c r="AE49" s="21">
         <v>84.8</v>
       </c>
-      <c r="AE49" s="27" t="s">
+      <c r="AF49" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="AF49" s="27"/>
-      <c r="AG49"/>
+      <c r="AG49" s="27"/>
       <c r="AH49"/>
       <c r="AI49"/>
       <c r="AJ49"/>
@@ -7658,8 +7726,9 @@
       <c r="BY49"/>
       <c r="BZ49"/>
       <c r="CA49"/>
-    </row>
-    <row r="50" spans="1:79" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="CB49"/>
+    </row>
+    <row r="50" spans="1:80" s="2" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A50" s="44">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7684,56 +7753,60 @@
       <c r="I50" s="22">
         <v>1</v>
       </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23">
+      <c r="J50" s="22">
+        <v>1</v>
+      </c>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23">
         <v>4620</v>
       </c>
-      <c r="L50" s="24">
+      <c r="M50" s="24">
         <v>499</v>
       </c>
-      <c r="M50" s="25"/>
-      <c r="N50" s="26">
+      <c r="N50" s="25"/>
+      <c r="O50" s="26">
         <v>551236001644</v>
       </c>
-      <c r="O50" s="27" t="s">
+      <c r="P50" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="P50" s="27" t="s">
+      <c r="Q50" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="Q50" s="27" t="s">
+      <c r="R50" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R50" s="27"/>
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
       <c r="U50" s="27"/>
-      <c r="V50" s="27" t="s">
+      <c r="V50" s="27"/>
+      <c r="W50" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="W50" s="27"/>
-      <c r="X50" s="39" t="s">
+      <c r="X50" s="27"/>
+      <c r="Y50" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="Y50" s="27" t="s">
+      <c r="Z50" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="Z50" s="21" t="s">
+      <c r="AA50" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="27" t="s">
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC50" s="27">
+      <c r="AD50" s="27">
         <v>628</v>
       </c>
-      <c r="AD50" s="21">
+      <c r="AE50" s="21">
         <v>35.4</v>
       </c>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50"/>
+      <c r="AF50" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG50" s="27"/>
       <c r="AH50"/>
       <c r="AI50"/>
       <c r="AJ50"/>
@@ -7780,8 +7853,9 @@
       <c r="BY50"/>
       <c r="BZ50"/>
       <c r="CA50"/>
-    </row>
-    <row r="51" spans="1:79" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="CB50"/>
+    </row>
+    <row r="51" spans="1:80" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A51" s="44">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7801,61 +7875,61 @@
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
-      <c r="I51" s="22">
-        <v>1</v>
-      </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23">
+      <c r="I51" s="22"/>
+      <c r="J51" s="22">
+        <v>1</v>
+      </c>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23">
         <v>4620</v>
       </c>
-      <c r="L51" s="24">
+      <c r="M51" s="24">
         <v>164</v>
       </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="26">
+      <c r="N51" s="25"/>
+      <c r="O51" s="26">
         <v>551236001646</v>
       </c>
-      <c r="O51" s="27" t="s">
+      <c r="P51" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="P51" s="27" t="s">
+      <c r="Q51" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="Q51" s="27" t="s">
+      <c r="R51" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="R51" s="27"/>
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
       <c r="U51" s="27"/>
-      <c r="V51" s="27" t="s">
+      <c r="V51" s="27"/>
+      <c r="W51" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="W51" s="27"/>
-      <c r="X51" s="39" t="s">
+      <c r="X51" s="27"/>
+      <c r="Y51" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="Y51" s="27" t="s">
+      <c r="Z51" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="Z51" s="21" t="s">
+      <c r="AA51" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="27" t="s">
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AC51" s="27">
+      <c r="AD51" s="27">
         <v>369</v>
       </c>
-      <c r="AD51" s="21">
+      <c r="AE51" s="21">
         <v>77.8</v>
       </c>
-      <c r="AE51" s="27" t="s">
+      <c r="AF51" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="AF51" s="27"/>
-      <c r="AG51"/>
+      <c r="AG51" s="27"/>
       <c r="AH51"/>
       <c r="AI51"/>
       <c r="AJ51"/>
@@ -7902,8 +7976,9 @@
       <c r="BY51"/>
       <c r="BZ51"/>
       <c r="CA51"/>
-    </row>
-    <row r="52" spans="1:79" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="CB51"/>
+    </row>
+    <row r="52" spans="1:80" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A52" s="44">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7927,65 +8002,65 @@
       <c r="H52" s="22">
         <v>1</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="22"/>
+      <c r="J52" s="22">
         <v>2</v>
       </c>
-      <c r="J52" s="22"/>
-      <c r="K52" s="23">
+      <c r="K52" s="22"/>
+      <c r="L52" s="23">
         <v>4620</v>
       </c>
-      <c r="L52" s="24">
+      <c r="M52" s="24">
         <v>8722</v>
       </c>
-      <c r="M52" s="25">
+      <c r="N52" s="25">
         <v>1513496</v>
       </c>
-      <c r="N52" s="26"/>
-      <c r="O52" s="27" t="s">
+      <c r="O52" s="26"/>
+      <c r="P52" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="P52" s="27" t="s">
+      <c r="Q52" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="Q52" s="27" t="s">
+      <c r="R52" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
       <c r="U52" s="27"/>
-      <c r="V52" s="27" t="s">
+      <c r="V52" s="27"/>
+      <c r="W52" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="W52" s="27"/>
-      <c r="X52" s="39" t="s">
+      <c r="X52" s="27"/>
+      <c r="Y52" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="Y52" s="27" t="s">
+      <c r="Z52" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="Z52" s="21" t="s">
+      <c r="AA52" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="AA52" s="21" t="s">
+      <c r="AB52" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="AB52" s="27" t="s">
+      <c r="AC52" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="AC52" s="27">
+      <c r="AD52" s="27">
         <v>169</v>
       </c>
-      <c r="AD52" s="21">
+      <c r="AE52" s="21">
         <v>37.299999999999997</v>
       </c>
-      <c r="AE52" s="27" t="s">
+      <c r="AF52" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="AF52" s="27">
+      <c r="AG52" s="27">
         <v>81.7</v>
       </c>
-      <c r="AG52"/>
       <c r="AH52"/>
       <c r="AI52"/>
       <c r="AJ52"/>
@@ -8032,8 +8107,9 @@
       <c r="BY52"/>
       <c r="BZ52"/>
       <c r="CA52"/>
-    </row>
-    <row r="53" spans="1:79" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="CB52"/>
+    </row>
+    <row r="53" spans="1:80" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="B53" s="27"/>
       <c r="C53" s="22"/>
@@ -8049,25 +8125,25 @@
         <v>27</v>
       </c>
       <c r="G53" s="22">
-        <f t="shared" ref="G53:J53" si="2">COUNT(G2:G51)</f>
+        <f t="shared" ref="G53:K53" si="2">COUNT(G2:G51)</f>
         <v>10</v>
       </c>
       <c r="H53" s="22">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="22"/>
+      <c r="J53" s="22">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="J53" s="22">
+      <c r="K53" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K53" s="23"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="27"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="25"/>
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="27"/>
@@ -8077,16 +8153,16 @@
       <c r="U53" s="27"/>
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="21"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="27"/>
       <c r="AA53" s="21"/>
-      <c r="AB53" s="27"/>
+      <c r="AB53" s="21"/>
       <c r="AC53" s="27"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="21"/>
       <c r="AF53" s="27"/>
-      <c r="AG53"/>
+      <c r="AG53" s="27"/>
       <c r="AH53"/>
       <c r="AI53"/>
       <c r="AJ53"/>
@@ -8133,12 +8209,13 @@
       <c r="BY53"/>
       <c r="BZ53"/>
       <c r="CA53"/>
+      <c r="CB53"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG52">
     <sortCondition ref="B2:B52"/>
   </sortState>
-  <conditionalFormatting sqref="A53:AF53 B28:W29 Y28:AF29 A8:A52 B8:AF15 B17:K17 B16:L16 M17 O17:AF17 N16:AF16 B25:AF27 B24:J24 O24:AF24 B18:AF23 B30:AF52 A7:Y7 AA7:AF7 A1:AF6">
+  <conditionalFormatting sqref="A53:AG53 B28:X29 Z28:AG29 A8:A52 B8:AG15 B17:L17 B16:M16 N17 P17:AG17 O16:AG16 B25:AG27 B24:K24 P24:AG24 B18:AG23 B30:AG52 A7:Z7 AB7:AG7 A1:AG6">
     <cfRule type="expression" dxfId="6" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -8149,12 +8226,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="P5">
     <cfRule type="expression" dxfId="5" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:N24">
+  <conditionalFormatting sqref="L24:O24">
     <cfRule type="expression" dxfId="4" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -8165,7 +8242,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1">
+  <conditionalFormatting sqref="AH1">
     <cfRule type="expression" dxfId="3" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -8176,7 +8253,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH1">
+  <conditionalFormatting sqref="AI1">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -8187,7 +8264,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG16:AH16">
+  <conditionalFormatting sqref="AH16:AI16">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -8198,7 +8275,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG20:AH20">
+  <conditionalFormatting sqref="AH20:AI20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -8210,56 +8287,56 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="X13" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="X2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="X3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="X4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="X5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="X8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="X48" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="X9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="X10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="X11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="X12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="X14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="X15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="X16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="X17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="X33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="X6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="X18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="X19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="X20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="X21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="X22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="X24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="X44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="X25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="X23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="X26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="X27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="X28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="X29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="X30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="X31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="X32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="X34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="X35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="X36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="X37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="X38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="X39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="X40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="X41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="X42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="X43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="X45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="X47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="X49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="X50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="X51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="X52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="X7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Y13" r:id="rId1" location="_x0009_1,1712,1780,0,,_x0013_ HYPERLINK &quot;https://www.rusd.or" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Y4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Y5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Y8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Y48" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Y9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Y10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Y11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Y12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Y14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Y15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Y16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Y17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Y33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Y6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Y18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Y19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Y20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Y21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Y22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Y24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Y44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="Y25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Y23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Y26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Y27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="Y28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Y29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Y30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Y31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Y32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Y34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="Y35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Y36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="Y37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Y38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Y39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Y40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="Y41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Y42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="Y43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Y45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Y47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Y49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Y50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Y51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Y52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Y7" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" fitToHeight="0" orientation="landscape" r:id="rId51"/>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F6C00-8977-0F42-9FD0-AAB86B083F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7A0E94-2A80-2C47-A135-FBC0C5A2A475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1400" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,9 +786,6 @@
     <t>St. Catherine’s educates students in the Catholic faith, fostering an environment of academic and behavioral excellence to create lifelong learners and globally responsible citizens. St. Catherine’s is built on the Dominican values of Study, Prayer, Service and Community.</t>
   </si>
   <si>
-    <t>687*</t>
-  </si>
-  <si>
     <t>100*</t>
   </si>
   <si>
@@ -1566,6 +1563,9 @@
   </si>
   <si>
     <t>Academic, Right of Passage Experience (ROPE) for high school students</t>
+  </si>
+  <si>
+    <t>667*</t>
   </si>
 </sst>
 </file>
@@ -2700,10 +2700,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AE50" sqref="AE50"/>
+      <selection pane="bottomLeft" activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2739,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>60</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>61</v>
@@ -2793,22 +2793,22 @@
         <v>83</v>
       </c>
       <c r="S1" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="V1" s="19" t="s">
         <v>457</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>458</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>77</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y1" s="38" t="s">
         <v>78</v>
@@ -2838,10 +2838,10 @@
         <v>96</v>
       </c>
       <c r="AH1" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="AI1" s="19" t="s">
         <v>498</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="128" x14ac:dyDescent="0.2">
@@ -2881,7 +2881,7 @@
         <v>550004502575</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>97</v>
@@ -2904,7 +2904,7 @@
         <v>101</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AB2" s="21"/>
       <c r="AC2" s="27" t="s">
@@ -2957,7 +2957,7 @@
         <v>551236002708</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q3" s="27" t="s">
         <v>102</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="X3" s="27"/>
       <c r="Y3" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z3" s="27" t="s">
         <v>105</v>
@@ -2991,7 +2991,7 @@
         <v>114</v>
       </c>
       <c r="AF3" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG3" s="27"/>
     </row>
@@ -3031,7 +3031,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="26"/>
       <c r="P4" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>106</v>
@@ -3054,7 +3054,7 @@
         <v>109</v>
       </c>
       <c r="AA4" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AB4" s="21"/>
       <c r="AC4" s="27" t="s">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="27" t="s">
         <v>117</v>
@@ -3124,7 +3124,7 @@
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="X5" s="27"/>
       <c r="Y5" s="39" t="s">
@@ -3134,10 +3134,10 @@
         <v>120</v>
       </c>
       <c r="AA5" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB5" s="21" t="s">
         <v>491</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>492</v>
       </c>
       <c r="AC5" s="27" t="s">
         <v>121</v>
@@ -3161,7 +3161,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>551236001627</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="27" t="s">
         <v>179</v>
@@ -3214,7 +3214,7 @@
         <v>182</v>
       </c>
       <c r="AA6" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AB6" s="21"/>
       <c r="AC6" s="27" t="s">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q7" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="U7" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="S7" s="27" t="s">
+      <c r="V7" s="27" t="s">
         <v>459</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>460</v>
       </c>
       <c r="W7" s="27" t="s">
         <v>123</v>
@@ -3298,13 +3298,13 @@
         <v>123</v>
       </c>
       <c r="Y7" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z7" s="27" t="s">
         <v>124</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AC7" s="27" t="s">
         <v>125</v>
@@ -3358,7 +3358,7 @@
         <v>551236001611</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="27" t="s">
         <v>127</v>
@@ -3381,7 +3381,7 @@
         <v>131</v>
       </c>
       <c r="AA8" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AB8" s="21"/>
       <c r="AC8" s="27" t="s">
@@ -3404,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
@@ -3436,7 +3436,7 @@
         <v>551236002311</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="27" t="s">
         <v>136</v>
@@ -3459,7 +3459,7 @@
         <v>139</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AB9" s="21"/>
       <c r="AC9" s="27" t="s">
@@ -3482,7 +3482,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>25</v>
@@ -3516,7 +3516,7 @@
         <v>551236001608</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>140</v>
@@ -3539,7 +3539,7 @@
         <v>143</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AB10" s="21"/>
       <c r="AC10" s="27" t="s">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="O11" s="26"/>
       <c r="P11" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="27" t="s">
         <v>145</v>
@@ -3619,10 +3619,10 @@
         <v>149</v>
       </c>
       <c r="AA11" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB11" s="21" t="s">
         <v>378</v>
-      </c>
-      <c r="AB11" s="21" t="s">
-        <v>379</v>
       </c>
       <c r="AC11" s="27" t="s">
         <v>150</v>
@@ -3676,7 +3676,7 @@
         <v>551236001620</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="27" t="s">
         <v>151</v>
@@ -3699,7 +3699,7 @@
         <v>154</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AB12" s="21"/>
       <c r="AC12" s="27" t="s">
@@ -3752,7 +3752,7 @@
         <v>551236001621</v>
       </c>
       <c r="P13" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="28" t="s">
         <v>84</v>
@@ -3775,7 +3775,7 @@
         <v>88</v>
       </c>
       <c r="AA13" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AB13" s="21"/>
       <c r="AC13" s="27" t="s">
@@ -3828,7 +3828,7 @@
         <v>551236001622</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="27" t="s">
         <v>156</v>
@@ -3851,7 +3851,7 @@
         <v>159</v>
       </c>
       <c r="AA14" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB14" s="21"/>
       <c r="AC14" s="27" t="s">
@@ -3874,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>1</v>
@@ -3906,7 +3906,7 @@
         <v>551236001623</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q15" s="27" t="s">
         <v>161</v>
@@ -3929,7 +3929,7 @@
         <v>164</v>
       </c>
       <c r="AA15" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AB15" s="21"/>
       <c r="AC15" s="27" t="s">
@@ -3952,7 +3952,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>551236001624</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="27" t="s">
         <v>166</v>
@@ -4007,7 +4007,7 @@
         <v>169</v>
       </c>
       <c r="AA16" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AB16" s="21"/>
       <c r="AC16" s="27" t="s">
@@ -4024,10 +4024,10 @@
       </c>
       <c r="AG16" s="27"/>
       <c r="AH16" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="AI16" s="27" t="s">
         <v>500</v>
-      </c>
-      <c r="AI16" s="27" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:80" ht="32" x14ac:dyDescent="0.2">
@@ -4066,7 +4066,7 @@
         <v>1507085</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="27" t="s">
         <v>170</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC17" s="27" t="s">
         <v>174</v>
@@ -4105,7 +4105,7 @@
         <v>122</v>
       </c>
       <c r="AG17" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:80" ht="80" x14ac:dyDescent="0.2">
@@ -4114,7 +4114,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>551236003337</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q18" s="27" t="s">
         <v>183</v>
@@ -4167,7 +4167,7 @@
         <v>186</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AB18" s="21"/>
       <c r="AC18" s="27" t="s">
@@ -4190,7 +4190,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>1</v>
@@ -4220,7 +4220,7 @@
         <v>551236001628</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="27" t="s">
         <v>188</v>
@@ -4243,7 +4243,7 @@
         <v>191</v>
       </c>
       <c r="AA19" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AB19" s="21"/>
       <c r="AC19" s="27" t="s">
@@ -4298,7 +4298,7 @@
         <v>551236001632</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="27" t="s">
         <v>192</v>
@@ -4321,7 +4321,7 @@
         <v>195</v>
       </c>
       <c r="AA20" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB20" s="21"/>
       <c r="AC20" s="27" t="s">
@@ -4338,10 +4338,10 @@
       </c>
       <c r="AG20" s="27"/>
       <c r="AH20" s="57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AI20" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:80" ht="112" x14ac:dyDescent="0.2">
@@ -4380,7 +4380,7 @@
         <v>551236001634</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="27" t="s">
         <v>197</v>
@@ -4403,7 +4403,7 @@
         <v>200</v>
       </c>
       <c r="AA21" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AB21" s="21"/>
       <c r="AC21" s="27" t="s">
@@ -4456,7 +4456,7 @@
         <v>551236001605</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="27" t="s">
         <v>201</v>
@@ -4479,7 +4479,7 @@
         <v>204</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AB22" s="21"/>
       <c r="AC22" s="27" t="s">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q23" s="27" t="s">
         <v>205</v>
@@ -4551,14 +4551,14 @@
       </c>
       <c r="X23" s="27"/>
       <c r="Y23" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z23" s="27" t="s">
         <v>207</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AC23" s="27" t="s">
         <v>174</v>
@@ -4612,7 +4612,7 @@
         <v>551236001635</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="27" t="s">
         <v>209</v>
@@ -4629,13 +4629,13 @@
       </c>
       <c r="X24" s="27"/>
       <c r="Y24" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z24" s="27" t="s">
         <v>211</v>
       </c>
       <c r="AA24" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="27" t="s">
@@ -4692,7 +4692,7 @@
         <v>551236003045</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="27" t="s">
         <v>218</v>
@@ -4709,13 +4709,13 @@
       </c>
       <c r="X25" s="46"/>
       <c r="Y25" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Z25" s="27" t="s">
         <v>220</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AB25" s="21"/>
       <c r="AC25" s="27" t="s">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="36" t="s">
         <v>222</v>
@@ -4789,14 +4789,14 @@
       </c>
       <c r="X26" s="36"/>
       <c r="Y26" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z26" s="36" t="s">
         <v>224</v>
       </c>
       <c r="AA26" s="30"/>
       <c r="AB26" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AC26" s="36" t="s">
         <v>225</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="O27" s="26"/>
       <c r="P27" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q27" s="27" t="s">
         <v>226</v>
@@ -4869,16 +4869,16 @@
       </c>
       <c r="X27" s="27"/>
       <c r="Y27" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z27" s="27" t="s">
         <v>228</v>
       </c>
       <c r="AA27" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB27" s="21" t="s">
         <v>389</v>
-      </c>
-      <c r="AB27" s="21" t="s">
-        <v>390</v>
       </c>
       <c r="AC27" s="27" t="s">
         <v>229</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="O28" s="26"/>
       <c r="P28" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q28" s="27" t="s">
         <v>230</v>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="X28" s="46"/>
       <c r="Y28" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Z28" s="27" t="s">
         <v>232</v>
@@ -5078,7 +5078,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>1</v>
@@ -5110,7 +5110,7 @@
         <v>551236001636</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="27" t="s">
         <v>234</v>
@@ -5127,13 +5127,13 @@
       </c>
       <c r="X29" s="46"/>
       <c r="Y29" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z29" s="27" t="s">
         <v>236</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB29" s="21"/>
       <c r="AC29" s="27" t="s">
@@ -5146,7 +5146,7 @@
         <v>52.1</v>
       </c>
       <c r="AF29" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG29" s="27"/>
       <c r="AH29"/>
@@ -5233,47 +5233,47 @@
         <v>1619</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O30" s="26"/>
       <c r="P30" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q30" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="S30" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="T30" s="27" t="s">
         <v>468</v>
-      </c>
-      <c r="R30" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="S30" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="T30" s="27" t="s">
-        <v>469</v>
       </c>
       <c r="U30" s="27" t="s">
         <v>103</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W30" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="X30" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="X30" s="27" t="s">
-        <v>472</v>
-      </c>
       <c r="Y30" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Z30" s="27" t="s">
         <v>237</v>
       </c>
       <c r="AA30" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB30" s="21" t="s">
         <v>400</v>
-      </c>
-      <c r="AB30" s="21" t="s">
-        <v>401</v>
       </c>
       <c r="AC30" s="27" t="s">
         <v>238</v>
@@ -5344,7 +5344,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         <v>551236001637</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q31" s="27" t="s">
         <v>239</v>
@@ -5391,13 +5391,13 @@
       </c>
       <c r="X31" s="27"/>
       <c r="Y31" s="39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z31" s="27" t="s">
         <v>241</v>
       </c>
       <c r="AA31" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AB31" s="21"/>
       <c r="AC31" s="27" t="s">
@@ -5467,7 +5467,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         <v>551236003044</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q32" s="27" t="s">
         <v>242</v>
@@ -5516,13 +5516,13 @@
       </c>
       <c r="X32" s="27"/>
       <c r="Y32" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z32" s="27" t="s">
         <v>245</v>
       </c>
       <c r="AA32" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB32" s="21"/>
       <c r="AC32" s="27" t="s">
@@ -5592,7 +5592,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>1</v>
@@ -5622,7 +5622,7 @@
         <v>551236001626</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q33" s="27" t="s">
         <v>175</v>
@@ -5645,7 +5645,7 @@
         <v>178</v>
       </c>
       <c r="AA33" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AB33" s="21"/>
       <c r="AC33" s="27" t="s">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="O34" s="26"/>
       <c r="P34" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q34" s="27" t="s">
         <v>246</v>
@@ -5762,22 +5762,22 @@
       </c>
       <c r="X34" s="27"/>
       <c r="Y34" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z34" s="27" t="s">
         <v>248</v>
       </c>
       <c r="AA34" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB34" s="21" t="s">
         <v>416</v>
-      </c>
-      <c r="AB34" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="AC34" s="27" t="s">
         <v>174</v>
       </c>
       <c r="AD34" s="27" t="s">
-        <v>249</v>
+        <v>507</v>
       </c>
       <c r="AE34" s="21">
         <v>51.9</v>
@@ -5786,7 +5786,7 @@
         <v>122</v>
       </c>
       <c r="AG34" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH34"/>
       <c r="AI34"/>
@@ -5876,10 +5876,10 @@
       </c>
       <c r="O35" s="26"/>
       <c r="P35" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R35" s="27" t="s">
         <v>146</v>
@@ -5889,23 +5889,23 @@
       <c r="U35" s="27"/>
       <c r="V35" s="27"/>
       <c r="W35" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X35" s="27"/>
       <c r="Y35" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z35" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA35" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB35" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC35" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="AA35" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB35" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="AC35" s="27" t="s">
-        <v>254</v>
       </c>
       <c r="AD35" s="27">
         <v>222</v>
@@ -6003,10 +6003,10 @@
       <c r="N36" s="25"/>
       <c r="O36" s="26"/>
       <c r="P36" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R36" s="27" t="s">
         <v>146</v>
@@ -6016,35 +6016,35 @@
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
       <c r="W36" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X36" s="27"/>
       <c r="Y36" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z36" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA36" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB36" s="21" t="s">
         <v>403</v>
-      </c>
-      <c r="AB36" s="21" t="s">
-        <v>404</v>
       </c>
       <c r="AC36" s="27" t="s">
         <v>174</v>
       </c>
       <c r="AD36" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE36" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="AE36" s="21" t="s">
-        <v>259</v>
       </c>
       <c r="AF36" s="27" t="s">
         <v>122</v>
       </c>
       <c r="AG36" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AH36"/>
       <c r="AI36"/>
@@ -6100,7 +6100,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>28</v>
@@ -6130,10 +6130,10 @@
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R37" s="27" t="s">
         <v>103</v>
@@ -6143,20 +6143,20 @@
       <c r="U37" s="27"/>
       <c r="V37" s="27"/>
       <c r="W37" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X37" s="27"/>
       <c r="Y37" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Z37" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA37" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB37" s="21" t="s">
         <v>418</v>
-      </c>
-      <c r="AB37" s="21" t="s">
-        <v>419</v>
       </c>
       <c r="AC37" s="27" t="s">
         <v>174</v>
@@ -6227,7 +6227,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>25</v>
@@ -6257,10 +6257,10 @@
       </c>
       <c r="O38" s="26"/>
       <c r="P38" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R38" s="27" t="s">
         <v>146</v>
@@ -6270,20 +6270,20 @@
       <c r="U38" s="27"/>
       <c r="V38" s="27"/>
       <c r="W38" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X38" s="27"/>
       <c r="Y38" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z38" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA38" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB38" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="AB38" s="21" t="s">
-        <v>406</v>
       </c>
       <c r="AC38" s="27" t="s">
         <v>174</v>
@@ -6354,7 +6354,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>1</v>
@@ -6384,10 +6384,10 @@
         <v>551236001638</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R39" s="27" t="s">
         <v>118</v>
@@ -6397,17 +6397,17 @@
       <c r="U39" s="27"/>
       <c r="V39" s="27"/>
       <c r="W39" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X39" s="27"/>
       <c r="Y39" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Z39" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB39" s="21"/>
       <c r="AC39" s="27" t="s">
@@ -6511,10 +6511,10 @@
       <c r="N40" s="47"/>
       <c r="O40" s="26"/>
       <c r="P40" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q40" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R40" s="27" t="s">
         <v>103</v>
@@ -6524,23 +6524,23 @@
       <c r="U40" s="27"/>
       <c r="V40" s="27"/>
       <c r="W40" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X40" s="27"/>
       <c r="Y40" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Z40" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA40" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB40" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC40" s="27" t="s">
         <v>270</v>
-      </c>
-      <c r="AA40" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB40" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC40" s="27" t="s">
-        <v>271</v>
       </c>
       <c r="AD40" s="27">
         <v>1255</v>
@@ -6608,7 +6608,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>28</v>
@@ -6638,10 +6638,10 @@
       </c>
       <c r="O41" s="26"/>
       <c r="P41" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q41" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R41" s="27" t="s">
         <v>146</v>
@@ -6651,14 +6651,14 @@
       <c r="U41" s="27"/>
       <c r="V41" s="27"/>
       <c r="W41" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X41" s="27"/>
       <c r="Y41" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z41" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
@@ -6672,7 +6672,7 @@
         <v>113</v>
       </c>
       <c r="AF41" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG41" s="27" t="s">
         <v>113</v>
@@ -6761,27 +6761,27 @@
       <c r="N42" s="25"/>
       <c r="O42" s="26"/>
       <c r="P42" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q42" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="R42" s="27" t="s">
         <v>276</v>
-      </c>
-      <c r="R42" s="27" t="s">
-        <v>277</v>
       </c>
       <c r="S42" s="27"/>
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
       <c r="V42" s="27"/>
       <c r="W42" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X42" s="27"/>
       <c r="Y42" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z42" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA42" s="21" t="s">
         <v>113</v>
@@ -6856,7 +6856,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C43" s="22">
         <v>6</v>
@@ -6888,10 +6888,10 @@
         <v>551236001639</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R43" s="27" t="s">
         <v>128</v>
@@ -6901,17 +6901,17 @@
       <c r="U43" s="27"/>
       <c r="V43" s="27"/>
       <c r="W43" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X43" s="27"/>
       <c r="Y43" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z43" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA43" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB43" s="21"/>
       <c r="AC43" s="27" t="s">
@@ -6924,7 +6924,7 @@
         <v>71</v>
       </c>
       <c r="AF43" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG43" s="27"/>
       <c r="AH43"/>
@@ -6981,7 +6981,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>1</v>
@@ -7007,7 +7007,7 @@
       <c r="N44" s="25"/>
       <c r="O44" s="26"/>
       <c r="P44" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q44" s="27" t="s">
         <v>215</v>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="X44" s="27"/>
       <c r="Y44" s="39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Z44" s="27" t="s">
         <v>217</v>
@@ -7102,7 +7102,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C45" s="22">
         <v>6</v>
@@ -7136,10 +7136,10 @@
         <v>551236002471</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R45" s="27" t="s">
         <v>118</v>
@@ -7149,17 +7149,17 @@
       <c r="U45" s="27"/>
       <c r="V45" s="27"/>
       <c r="W45" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X45" s="27"/>
       <c r="Y45" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z45" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA45" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB45" s="21"/>
       <c r="AC45" s="27" t="s">
@@ -7172,7 +7172,7 @@
         <v>42.1</v>
       </c>
       <c r="AF45" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG45" s="27"/>
       <c r="AH45"/>
@@ -7228,7 +7228,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>1</v>
@@ -7262,34 +7262,34 @@
       </c>
       <c r="O46" s="26"/>
       <c r="P46" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q46" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="R46" s="27" t="s">
         <v>473</v>
-      </c>
-      <c r="R46" s="27" t="s">
-        <v>474</v>
       </c>
       <c r="S46" s="27"/>
       <c r="T46" s="27"/>
       <c r="U46" s="27"/>
       <c r="V46" s="27"/>
       <c r="W46" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="X46" s="27"/>
       <c r="Y46" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z46" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC46" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AD46" s="27">
         <v>93</v>
@@ -7298,7 +7298,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="AF46" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG46" s="27">
         <v>48.9</v>
@@ -7357,7 +7357,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>1</v>
@@ -7391,10 +7391,10 @@
       </c>
       <c r="O47" s="26"/>
       <c r="P47" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R47" s="27" t="s">
         <v>146</v>
@@ -7404,23 +7404,23 @@
       <c r="U47" s="27"/>
       <c r="V47" s="27"/>
       <c r="W47" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X47" s="27"/>
       <c r="Y47" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z47" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA47" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB47" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC47" s="27" t="s">
         <v>290</v>
-      </c>
-      <c r="AA47" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB47" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="AC47" s="27" t="s">
-        <v>291</v>
       </c>
       <c r="AD47" s="27">
         <v>187</v>
@@ -7488,7 +7488,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>1</v>
@@ -7518,7 +7518,7 @@
         <v>551236001614</v>
       </c>
       <c r="P48" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>132</v>
@@ -7541,7 +7541,7 @@
         <v>135</v>
       </c>
       <c r="AA48" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB48" s="21"/>
       <c r="AC48" s="27" t="s">
@@ -7611,7 +7611,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>1</v>
@@ -7641,10 +7641,10 @@
         <v>551236001642</v>
       </c>
       <c r="P49" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q49" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R49" s="27" t="s">
         <v>98</v>
@@ -7654,17 +7654,17 @@
       <c r="U49" s="27"/>
       <c r="V49" s="27"/>
       <c r="W49" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X49" s="27"/>
       <c r="Y49" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Z49" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA49" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB49" s="21"/>
       <c r="AC49" s="27" t="s">
@@ -7677,7 +7677,7 @@
         <v>84.8</v>
       </c>
       <c r="AF49" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG49" s="27"/>
       <c r="AH49"/>
@@ -7734,7 +7734,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C50" s="22">
         <v>6</v>
@@ -7768,10 +7768,10 @@
         <v>551236001644</v>
       </c>
       <c r="P50" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q50" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R50" s="27" t="s">
         <v>128</v>
@@ -7781,17 +7781,17 @@
       <c r="U50" s="27"/>
       <c r="V50" s="27"/>
       <c r="W50" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X50" s="27"/>
       <c r="Y50" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z50" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA50" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AB50" s="21"/>
       <c r="AC50" s="27" t="s">
@@ -7804,7 +7804,7 @@
         <v>35.4</v>
       </c>
       <c r="AF50" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG50" s="27"/>
       <c r="AH50"/>
@@ -7861,7 +7861,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>1</v>
@@ -7891,10 +7891,10 @@
         <v>551236001646</v>
       </c>
       <c r="P51" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q51" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R51" s="27" t="s">
         <v>85</v>
@@ -7904,17 +7904,17 @@
       <c r="U51" s="27"/>
       <c r="V51" s="27"/>
       <c r="W51" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X51" s="27"/>
       <c r="Y51" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Z51" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA51" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AB51" s="21"/>
       <c r="AC51" s="27" t="s">
@@ -7927,7 +7927,7 @@
         <v>77.8</v>
       </c>
       <c r="AF51" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG51" s="27"/>
       <c r="AH51"/>
@@ -8018,10 +8018,10 @@
       </c>
       <c r="O52" s="26"/>
       <c r="P52" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q52" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R52" s="27" t="s">
         <v>146</v>
@@ -8031,23 +8031,23 @@
       <c r="U52" s="27"/>
       <c r="V52" s="27"/>
       <c r="W52" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X52" s="27"/>
       <c r="Y52" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Z52" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA52" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB52" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="AB52" s="21" t="s">
-        <v>421</v>
-      </c>
       <c r="AC52" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AD52" s="27">
         <v>169</v>

--- a/scripts/data/racine-schools-directory.xlsx
+++ b/scripts/data/racine-schools-directory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griswold/project/racine-schools/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7A0E94-2A80-2C47-A135-FBC0C5A2A475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74CC5C-68D0-5343-ACE7-C853D8E46924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="1400" windowWidth="26460" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2700,10 +2700,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AD34" sqref="AD34"/>
+      <selection pane="bottomLeft" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3053,15 +3053,15 @@
       <c r="Z4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AA4" s="54" t="s">
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="AB4" s="21"/>
       <c r="AC4" s="27" t="s">
         <v>115</v>
       </c>
       <c r="AD4" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE4" s="21">
         <v>100</v>
@@ -3069,7 +3069,9 @@
       <c r="AF4" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="27"/>
+      <c r="AG4" s="27">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
